--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="151">
   <si>
     <t>id|</t>
   </si>
@@ -284,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,6 +300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,6 +424,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,6 +435,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,14 +527,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,171 +540,45 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,198 +599,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -936,260 +627,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1234,66 +683,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1551,19 +956,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="36" style="14" customWidth="1"/>
@@ -1586,7 +991,7 @@
     <col min="20" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.1" customHeight="1" spans="1:21">
+    <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1038,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="1:18">
+    <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1667,7 +1072,7 @@
       <c r="Q2" s="19"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1" spans="1:18">
+    <row r="3" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1707,7 +1112,7 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" ht="43.5" customHeight="1" spans="1:18">
+    <row r="4" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1741,7 +1146,7 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1" spans="1:18">
+    <row r="5" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1778,7 +1183,7 @@
       <c r="Q5" s="19"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:18">
+    <row r="6" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1815,7 +1220,7 @@
       <c r="Q6" s="19"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1850,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1885,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1920,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1955,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1990,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2025,26 +1430,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E14" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
@@ -2054,7 +1458,7 @@
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2073,7 +1477,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2087,7 +1491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2101,7 +1505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2115,7 +1519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2129,7 +1533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2143,7 +1547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2160,7 +1564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2174,7 +1578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2191,7 +1595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2205,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2219,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2230,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2241,7 +1645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2252,7 +1656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2266,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2280,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2294,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2308,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2322,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2336,7 +1740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2350,7 +1754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2364,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2376,22 +1780,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E14"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
@@ -2400,7 +1803,7 @@
     <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +1820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2434,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2451,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2468,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2485,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2502,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2519,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2536,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2553,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2570,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2587,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2604,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2621,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2638,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2655,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2672,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2689,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2707,21 +2110,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
@@ -2731,7 +2133,7 @@
     <col min="6" max="6" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:6">
+    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2751,7 +2153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2768,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2785,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2806,23 +2208,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
@@ -2831,7 +2231,7 @@
     <col min="7" max="7" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:9">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2856,7 +2256,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2879,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2902,7 +2302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2925,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2948,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2971,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2994,7 +2394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3017,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3040,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3063,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3086,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3094,13 +2494,13 @@
         <v>10000000</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>180</v>
@@ -3110,23 +2510,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
@@ -3134,7 +2532,7 @@
     <col min="4" max="4" width="30.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3149,7 +2547,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3163,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3174,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3188,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3202,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3216,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3230,7 +2628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3244,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3258,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3268,28 +2666,23 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24.625" style="2" customWidth="1"/>
@@ -3298,7 +2691,7 @@
     <col min="5" max="5" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3316,7 +2709,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3333,7 +2726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3347,7 +2740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3361,7 +2754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3375,7 +2768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3389,7 +2782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3400,7 +2793,7 @@
         <v>1573487999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3411,7 +2804,7 @@
         <v>1570463999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3422,7 +2815,7 @@
         <v>1571068799</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3433,7 +2826,7 @@
         <v>1572278399</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3444,7 +2837,7 @@
         <v>1589817599</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3455,7 +2848,7 @@
         <v>1590422399</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3466,7 +2859,7 @@
         <v>1592236799</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3478,23 +2871,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
@@ -3505,7 +2896,7 @@
     <col min="8" max="9" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:9">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +2925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3557,7 +2948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3580,7 +2971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3603,7 +2994,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3626,7 +3017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3646,7 +3037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3666,7 +3057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3686,7 +3077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3706,7 +3097,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3729,7 +3120,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3749,7 +3140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3769,7 +3160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3789,7 +3180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3809,7 +3200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3832,7 +3223,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3855,7 +3246,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3878,7 +3269,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3901,7 +3292,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3924,7 +3315,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3947,7 +3338,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" s="9" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3970,7 +3361,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="9" customFormat="1" spans="1:9">
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3993,7 +3384,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" s="9" customFormat="1" spans="1:9">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4016,7 +3407,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" s="9" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4039,7 +3430,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" s="9" customFormat="1" spans="1:9">
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4062,7 +3453,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" s="9" customFormat="1" spans="1:9">
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4085,7 +3476,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:9">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -4108,7 +3499,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4130,7 +3521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4152,7 +3543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4174,7 +3565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4196,7 +3587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4218,7 +3609,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4240,7 +3631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4262,7 +3653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4284,7 +3675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4306,7 +3697,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4328,7 +3719,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4350,7 +3741,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:9">
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -4373,7 +3764,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4395,7 +3786,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4417,7 +3808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4439,7 +3830,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4461,7 +3852,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4483,7 +3874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4505,7 +3896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4527,7 +3918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4549,7 +3940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4571,7 +3962,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4593,7 +3984,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:9">
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -4616,7 +4007,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4638,7 +4029,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -4660,7 +4051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -4682,7 +4073,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -4704,7 +4095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -4726,7 +4117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -4748,7 +4139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4770,7 +4161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -4792,7 +4183,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -4814,7 +4205,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -4836,7 +4227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -4858,7 +4249,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -4880,7 +4271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -4902,7 +4293,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4924,7 +4315,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -4946,7 +4337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -4968,7 +4359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -4990,7 +4381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5012,7 +4403,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5034,7 +4425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5056,167 +4447,57 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" s="10" customFormat="1" spans="1:9">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="11">
-        <v>9</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11">
-        <v>1</v>
-      </c>
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11">
-        <v>70</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-      <c r="G72" s="5">
-        <v>71</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2">
-        <v>3</v>
-      </c>
-      <c r="G73" s="5">
-        <v>72</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>9</v>
-      </c>
-      <c r="C74" s="2">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2">
-        <v>6</v>
-      </c>
-      <c r="G74" s="5">
-        <v>73</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>9</v>
-      </c>
-      <c r="C75" s="2">
-        <v>7</v>
-      </c>
-      <c r="D75" s="2">
-        <v>10</v>
-      </c>
-      <c r="G75" s="5">
-        <v>74</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2">
-        <v>15</v>
-      </c>
-      <c r="G76" s="5">
-        <v>75</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2">
-        <v>16</v>
-      </c>
-      <c r="D77" s="2">
-        <v>20</v>
-      </c>
-      <c r="G77" s="5">
-        <v>76</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>124</v>
-      </c>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G75" s="5"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G77" s="5"/>
+      <c r="H77" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
@@ -5226,7 +4507,7 @@
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -5247,7 +4528,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5267,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5287,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5307,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5327,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5347,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5367,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5387,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5407,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5427,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5447,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5467,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5487,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5507,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5527,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5547,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5567,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5587,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5607,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5627,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5647,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5667,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5687,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5707,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5727,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5747,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -5767,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5787,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5807,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5827,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5847,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5867,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5887,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5907,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5927,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5947,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5967,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5987,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -6007,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6027,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6047,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -6067,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -6087,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -6107,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -6127,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -6147,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -6167,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -6187,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -6207,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -6227,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -6247,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -6267,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -6287,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -6307,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -6327,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -6347,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -6367,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -6387,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6407,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6427,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6447,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6467,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -6487,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -6507,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -6527,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -6547,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -6567,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -6587,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -6607,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -6627,149 +5908,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7">
-        <v>70</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2">
-        <v>71</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>72</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>74</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>75</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>76</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="5">
-        <v>500</v>
-      </c>
-      <c r="F77" s="5">
-        <v>1</v>
-      </c>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="154">
   <si>
     <t>id|</t>
   </si>
@@ -522,6 +522,18 @@
   </si>
   <si>
     <t>5红包劵</t>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -964,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2666,6 +2678,9 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2881,8 +2896,8 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:H77"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4448,14 +4463,26 @@
       </c>
     </row>
     <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11">
+        <v>9</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11">
+        <v>10</v>
+      </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="11">
+        <v>70</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4492,9 +4519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5909,12 +5936,24 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7">
+        <v>70</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="award_model" sheetId="4" r:id="rId8"/>
     <sheet name="awards" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
@@ -4519,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <sheet name="award_model" sheetId="4" r:id="rId8"/>
     <sheet name="awards" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -692,10 +692,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_get_use_item</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>act_type</t>
   </si>
   <si>
@@ -703,15 +699,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_target_yu_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>base_fish_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>base_fish_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1742,7 +1742,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2003,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -2084,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2">
         <v>15</v>
@@ -2098,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -2306,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2">
         <v>30</v>
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2">
         <v>51</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="178">
   <si>
     <t>id|</t>
   </si>
@@ -712,6 +712,14 @@
   </si>
   <si>
     <t>buyu_3d_target_yu_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣小龙虾5斤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花啤酒一箱</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1741,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3340,7 +3348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="K85:L85"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5245,11 +5253,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6703,22 +6711,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>72</v>
       </c>
       <c r="B73" s="23">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="23">
-        <v>10000</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="23">
         <v>1</v>
       </c>
@@ -6728,16 +6732,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="23">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>159</v>
       </c>
       <c r="E74" s="23">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F74" s="23">
         <v>1</v>
@@ -6748,17 +6752,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="23">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="23">
-        <v>3000</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="23">
         <v>1</v>
       </c>
@@ -6768,16 +6768,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="23">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>159</v>
       </c>
       <c r="E76" s="23">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F76" s="23">
         <v>1</v>
@@ -6788,16 +6788,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="23">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>159</v>
       </c>
       <c r="E77" s="23">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F77" s="23">
         <v>1</v>
@@ -6808,58 +6808,58 @@
         <v>77</v>
       </c>
       <c r="B78" s="23">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>159</v>
       </c>
       <c r="E78" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="23">
+        <v>78</v>
+      </c>
+      <c r="B79" s="23">
+        <v>76</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="23">
+        <v>79</v>
+      </c>
+      <c r="B80" s="23">
+        <v>77</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="23">
         <v>500</v>
       </c>
-      <c r="F78" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="26">
-        <v>78</v>
-      </c>
-      <c r="B79" s="26">
-        <v>78</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="26">
-        <v>20000</v>
-      </c>
-      <c r="F79" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="26">
-        <v>79</v>
-      </c>
-      <c r="B80" s="26">
-        <v>79</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E80" s="26">
-        <v>10000</v>
-      </c>
-      <c r="F80" s="26">
+      <c r="F80" s="23">
         <v>1</v>
       </c>
     </row>
@@ -6868,16 +6868,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="26">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>159</v>
       </c>
       <c r="E81" s="26">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F81" s="26">
         <v>1</v>
@@ -6888,17 +6888,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="26">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="26">
-        <v>3000</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="26">
         <v>1</v>
       </c>
@@ -6908,16 +6904,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="26">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>159</v>
       </c>
       <c r="E83" s="26">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F83" s="26">
         <v>1</v>
@@ -6928,17 +6924,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="26">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="26">
-        <v>1000</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="26">
         <v>1</v>
       </c>
@@ -6948,24 +6940,104 @@
         <v>84</v>
       </c>
       <c r="B85" s="26">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>159</v>
       </c>
       <c r="E85" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F85" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="26">
+        <v>85</v>
+      </c>
+      <c r="B86" s="26">
+        <v>81</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F86" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="26">
+        <v>86</v>
+      </c>
+      <c r="B87" s="26">
+        <v>82</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F87" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="26">
+        <v>87</v>
+      </c>
+      <c r="B88" s="26">
+        <v>83</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="26">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="26">
+        <v>88</v>
+      </c>
+      <c r="B89" s="26">
+        <v>84</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="26">
         <v>500</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F89" s="26">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="214">
   <si>
     <t>id|</t>
   </si>
@@ -904,36 +904,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000福利券</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -993,6 +964,42 @@
       </rPr>
       <t>,46</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1057,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1094,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1116,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,6 +1222,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1488,7 +1518,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2058,38 +2088,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+    <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="37">
         <v>1598311800</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="37">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="37">
         <v>16</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="37">
         <v>15</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="37">
         <v>13</v>
       </c>
     </row>
@@ -2601,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -2728,7 +2758,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2">
         <v>18</v>
@@ -2742,7 +2772,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2">
         <v>19</v>
@@ -2756,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
         <v>20</v>
@@ -2770,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2">
         <v>21</v>
@@ -2787,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3168,7 +3198,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3185,7 +3215,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -3202,7 +3232,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -3219,7 +3249,7 @@
         <v>171</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -3821,7 +3851,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4012,73 +4042,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="34">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="34">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="31">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="31">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="31">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="31">
         <v>19</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="31">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="31">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="31">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="31">
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="31">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="31">
         <v>17</v>
       </c>
     </row>
@@ -4094,7 +4124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4318,14 +4348,14 @@
         <v>1598889599</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="34">
         <v>1</v>
       </c>
     </row>
@@ -4384,8 +4414,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121:G127"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6449,128 +6479,133 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="31">
+    <row r="93" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="34">
         <v>92</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="34">
         <v>13</v>
       </c>
-      <c r="C93" s="31">
-        <v>1</v>
-      </c>
-      <c r="D93" s="31">
-        <v>1</v>
-      </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31">
+      <c r="C93" s="34">
+        <v>1</v>
+      </c>
+      <c r="D93" s="34">
+        <v>1</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34">
         <v>92</v>
       </c>
-      <c r="H93" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="31">
+      <c r="H93" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="34">
         <v>93</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B94" s="34">
         <v>13</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="34">
         <v>2</v>
       </c>
-      <c r="D94" s="31">
+      <c r="D94" s="34">
         <v>2</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31">
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34">
         <v>93</v>
       </c>
-      <c r="H94" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="31">
+      <c r="H94" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="34">
         <v>94</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95" s="34">
         <v>13</v>
       </c>
-      <c r="C95" s="31">
+      <c r="C95" s="34">
         <v>3</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="34">
         <v>3</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31">
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34">
         <v>94</v>
       </c>
-      <c r="H95" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="31">
+      <c r="H95" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="34">
         <v>95</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="34">
         <v>13</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="34">
         <v>4</v>
       </c>
-      <c r="D96" s="31">
-        <v>6</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31">
+      <c r="D96" s="34">
+        <v>10</v>
+      </c>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34">
         <v>95</v>
       </c>
-      <c r="H96" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="31">
+      <c r="H96" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="34">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="34">
         <v>13</v>
       </c>
-      <c r="C97" s="31">
-        <v>7</v>
-      </c>
-      <c r="D97" s="31">
-        <v>10</v>
-      </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31">
+      <c r="C97" s="34">
+        <v>11</v>
+      </c>
+      <c r="D97" s="34">
+        <v>20</v>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34">
         <v>96</v>
       </c>
-      <c r="H97" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H97" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31">
         <v>97</v>
       </c>
       <c r="B98" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" s="31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D98" s="31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
@@ -6580,19 +6615,20 @@
       <c r="H98" s="32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31">
         <v>98</v>
       </c>
       <c r="B99" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" s="31">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D99" s="31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
@@ -6602,8 +6638,9 @@
       <c r="H99" s="32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="31">
         <v>99</v>
       </c>
@@ -6611,21 +6648,21 @@
         <v>14</v>
       </c>
       <c r="C100" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
       <c r="G100" s="31">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="31">
         <v>100</v>
       </c>
@@ -6633,21 +6670,21 @@
         <v>14</v>
       </c>
       <c r="C101" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" s="31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
       <c r="G101" s="31">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H101" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -6655,109 +6692,109 @@
         <v>14</v>
       </c>
       <c r="C102" s="31">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D102" s="31">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
       <c r="G102" s="31">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H102" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
       <c r="B103" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" s="31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
       <c r="G103" s="31">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H103" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="31">
         <v>103</v>
       </c>
       <c r="B104" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C104" s="31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D104" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
       <c r="G104" s="31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H104" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
         <v>104</v>
       </c>
       <c r="B105" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" s="31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D105" s="31">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
       <c r="G105" s="31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H105" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
         <v>105</v>
       </c>
       <c r="B106" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="31">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D106" s="31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
       <c r="G106" s="31">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H106" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="31">
         <v>106</v>
       </c>
@@ -6765,95 +6802,95 @@
         <v>15</v>
       </c>
       <c r="C107" s="31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D107" s="31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E107" s="31"/>
       <c r="F107" s="31"/>
       <c r="G107" s="31">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H107" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="31">
         <v>107</v>
       </c>
       <c r="B108" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C108" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="31"/>
       <c r="G108" s="31">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H108" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="31">
         <v>108</v>
       </c>
       <c r="B109" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C109" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="31"/>
       <c r="G109" s="31">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H109" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="31">
         <v>109</v>
       </c>
       <c r="B110" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" s="31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
       <c r="G110" s="31">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H110" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="31">
         <v>110</v>
       </c>
       <c r="B111" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" s="31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D111" s="31">
         <v>10</v>
@@ -6861,351 +6898,351 @@
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
       <c r="G111" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="31">
         <v>111</v>
       </c>
       <c r="B112" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" s="31">
         <v>11</v>
       </c>
       <c r="D112" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
       <c r="G112" s="31">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="31">
         <v>112</v>
       </c>
       <c r="B113" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C113" s="31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D113" s="31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
       <c r="G113" s="31">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="31">
         <v>113</v>
       </c>
       <c r="B114" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C114" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
       <c r="G114" s="31">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="31">
         <v>114</v>
       </c>
       <c r="B115" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C115" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
       <c r="G115" s="31">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H115" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="31">
         <v>115</v>
       </c>
       <c r="B116" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C116" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" s="31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
       <c r="G116" s="31">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="31">
         <v>116</v>
       </c>
       <c r="B117" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D117" s="31">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="31">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H117" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="31">
         <v>117</v>
       </c>
       <c r="B118" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C118" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D118" s="31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
       <c r="G118" s="31">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H118" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="31">
         <v>118</v>
       </c>
       <c r="B119" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C119" s="31">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D119" s="31">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
       <c r="G119" s="31">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H119" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="31">
         <v>119</v>
       </c>
       <c r="B120" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C120" s="31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D120" s="31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="31">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H120" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="31">
         <v>120</v>
       </c>
       <c r="B121" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C121" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="31">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H121" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="31">
         <v>121</v>
       </c>
       <c r="B122" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C122" s="31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D122" s="31">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
       <c r="G122" s="31">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H122" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="31">
         <v>122</v>
       </c>
       <c r="B123" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C123" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
       <c r="G123" s="31">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H123" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="31">
         <v>123</v>
       </c>
       <c r="B124" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C124" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124" s="31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
       <c r="G124" s="31">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H124" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="31">
         <v>124</v>
       </c>
       <c r="B125" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C125" s="31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D125" s="31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
       <c r="G125" s="31">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31">
         <v>125</v>
       </c>
       <c r="B126" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C126" s="31">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D126" s="31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
       <c r="G126" s="31">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H126" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31">
         <v>126</v>
       </c>
       <c r="B127" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C127" s="31">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D127" s="31">
         <v>20</v>
@@ -7213,11 +7250,12 @@
       <c r="E127" s="31"/>
       <c r="F127" s="31"/>
       <c r="G127" s="31">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H127" s="32" t="s">
         <v>122</v>
       </c>
+      <c r="I127" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7228,11 +7266,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97:F103"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9150,107 +9188,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="31">
+    <row r="97" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="34">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="34">
         <v>92</v>
       </c>
-      <c r="C97" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="33" t="s">
+      <c r="C97" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="31">
+      <c r="E97" s="34">
         <v>50000</v>
       </c>
-      <c r="F97" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="31">
+      <c r="F97" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="34">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="34">
         <v>93</v>
       </c>
-      <c r="C98" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="33" t="s">
+      <c r="C98" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="31">
+      <c r="E98" s="34">
+        <v>40000</v>
+      </c>
+      <c r="F98" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="34">
+        <v>98</v>
+      </c>
+      <c r="B99" s="34">
+        <v>94</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="34">
         <v>30000</v>
       </c>
-      <c r="F98" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="31">
-        <v>98</v>
-      </c>
-      <c r="B99" s="31">
-        <v>94</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="33" t="s">
+      <c r="F99" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="34">
+        <v>99</v>
+      </c>
+      <c r="B100" s="34">
+        <v>95</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="31">
+      <c r="E100" s="34">
         <v>10000</v>
       </c>
-      <c r="F99" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="31">
-        <v>99</v>
-      </c>
-      <c r="B100" s="31">
-        <v>95</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="33" t="s">
+      <c r="F100" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="34">
+        <v>100</v>
+      </c>
+      <c r="B101" s="34">
+        <v>96</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="31">
+      <c r="E101" s="34">
         <v>5000</v>
       </c>
-      <c r="F100" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="31">
-        <v>100</v>
-      </c>
-      <c r="B101" s="31">
-        <v>96</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E101" s="31">
-        <v>2000</v>
-      </c>
-      <c r="F101" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -9258,19 +9296,19 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E102" s="31">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F102" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
@@ -9278,15 +9316,75 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E103" s="31">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="F103" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="31">
+        <v>103</v>
+      </c>
+      <c r="B104" s="31">
+        <v>99</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="31">
+        <v>8000</v>
+      </c>
+      <c r="F104" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="31">
+        <v>104</v>
+      </c>
+      <c r="B105" s="31">
+        <v>100</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="31">
+        <v>5000</v>
+      </c>
+      <c r="F105" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="31">
+        <v>105</v>
+      </c>
+      <c r="B106" s="31">
+        <v>101</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F106" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>183</v>
@@ -2163,7 +2163,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>184</v>
@@ -2198,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>185</v>
@@ -2233,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>186</v>
@@ -2266,7 +2266,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7268,9 +7268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2102,7 @@
         <v>187</v>
       </c>
       <c r="E16" s="37">
-        <v>1598311800</v>
+        <v>1604332800</v>
       </c>
       <c r="F16" s="37">
         <v>2555555555</v>
@@ -2137,7 +2137,7 @@
         <v>188</v>
       </c>
       <c r="E17" s="28">
-        <v>1598311800</v>
+        <v>1604332800</v>
       </c>
       <c r="F17" s="28">
         <v>2555555555</v>
@@ -2172,7 +2172,7 @@
         <v>189</v>
       </c>
       <c r="E18" s="28">
-        <v>1598311800</v>
+        <v>1604332800</v>
       </c>
       <c r="F18" s="28">
         <v>2555555555</v>
@@ -2207,7 +2207,7 @@
         <v>190</v>
       </c>
       <c r="E19" s="28">
-        <v>1598311800</v>
+        <v>1604332800</v>
       </c>
       <c r="F19" s="28">
         <v>2555555555</v>
@@ -2242,7 +2242,7 @@
         <v>191</v>
       </c>
       <c r="E20" s="28">
-        <v>1598311800</v>
+        <v>1604332800</v>
       </c>
       <c r="F20" s="28">
         <v>2555555555</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2102,7 @@
         <v>187</v>
       </c>
       <c r="E16" s="37">
-        <v>1604332800</v>
+        <v>1604246399</v>
       </c>
       <c r="F16" s="37">
         <v>2555555555</v>
@@ -4124,7 +4124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7270,7 +7270,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103:C108"/>
+      <selection pane="bottomLeft" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -792,10 +792,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>leijiyingjin_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ground_1_boss_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1000,6 +996,10 @@
   </si>
   <si>
     <t>3千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijiyingjin_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1608,7 @@
         <v>1568649599</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>14</v>
@@ -2076,7 +2076,7 @@
         <v>139</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" s="27">
         <v>15</v>
@@ -2096,22 +2096,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="37">
-        <v>1604246399</v>
+        <v>1604073599</v>
       </c>
       <c r="F16" s="37">
         <v>2555555555</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="37">
         <v>16</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="28">
         <v>1604332800</v>
@@ -2143,10 +2143,10 @@
         <v>2555555555</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" s="28">
         <v>17</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="28">
         <v>1604332800</v>
@@ -2178,10 +2178,10 @@
         <v>2555555555</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" s="28">
         <v>18</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="28">
         <v>1604332800</v>
@@ -2213,10 +2213,10 @@
         <v>2555555555</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" s="28">
         <v>19</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="28">
         <v>1604332800</v>
@@ -2248,10 +2248,10 @@
         <v>2555555555</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="28">
         <v>20</v>
@@ -2606,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -2692,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2">
         <v>18</v>
@@ -2772,7 +2772,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="2">
         <v>19</v>
@@ -2786,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="2">
         <v>20</v>
@@ -2800,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D39" s="2">
         <v>21</v>
@@ -3198,7 +3198,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3215,7 +3215,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -3232,7 +3232,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -3249,7 +3249,7 @@
         <v>171</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -3851,7 +3851,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4050,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="34">
         <v>13</v>
@@ -4115,6 +4115,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4124,7 +4125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9196,7 +9197,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>158</v>
@@ -9216,7 +9217,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>158</v>
@@ -9236,7 +9237,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>158</v>
@@ -9256,7 +9257,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>158</v>
@@ -9276,7 +9277,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>158</v>
@@ -9296,7 +9297,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
@@ -9316,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
@@ -9336,7 +9337,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>158</v>
@@ -9356,7 +9357,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>158</v>
@@ -9376,7 +9377,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>158</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2102,7 @@
         <v>186</v>
       </c>
       <c r="E16" s="37">
-        <v>1604073599</v>
+        <v>1604246400</v>
       </c>
       <c r="F16" s="37">
         <v>2555555555</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2727,6 +2727,9 @@
       <c r="C33" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -2809,7 +2812,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="215">
   <si>
     <t>id|</t>
   </si>
@@ -1000,6 +1000,10 @@
   </si>
   <si>
     <t>leijiyingjin_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_discount|分数折扣</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2272,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2283,12 +2287,12 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="4" max="5" width="19.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2302,12 +2306,15 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2317,11 +2324,11 @@
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2331,11 +2338,11 @@
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2345,11 +2352,11 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2359,11 +2366,11 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2373,11 +2380,11 @@
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2390,11 +2397,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2404,11 +2411,11 @@
       <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2421,11 +2428,11 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2475,7 +2482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2514,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2542,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2598,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2609,7 +2616,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -2650,8 +2657,9 @@
       <c r="D26" s="23">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2673,7 +2681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2717,7 +2725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2727,11 +2735,11 @@
       <c r="C33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2753,7 +2761,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -963,7 +963,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4万福利券</t>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijiyingjin_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_discount|分数折扣</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -979,31 +1003,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>leijiyingjin_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_discount|分数折扣</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>186</v>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2306,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
@@ -4426,7 +4426,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
@@ -7280,9 +7280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9228,13 +9228,13 @@
         <v>93</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>158</v>
       </c>
       <c r="E98" s="34">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F98" s="34">
         <v>1</v>
@@ -9248,13 +9248,13 @@
         <v>94</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>158</v>
       </c>
       <c r="E99" s="34">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F99" s="34">
         <v>1</v>
@@ -9268,13 +9268,13 @@
         <v>95</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>158</v>
       </c>
       <c r="E100" s="34">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F100" s="34">
         <v>1</v>
@@ -9288,13 +9288,13 @@
         <v>96</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>158</v>
       </c>
       <c r="E101" s="34">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="34">
         <v>1</v>
@@ -9308,7 +9308,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
@@ -9328,7 +9328,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
@@ -9348,7 +9348,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>158</v>
@@ -9368,7 +9368,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>158</v>
@@ -9388,7 +9388,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>158</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -1003,7 +1003,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3千福利券</t>
+    <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7282,7 +7282,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9294,7 +9294,7 @@
         <v>158</v>
       </c>
       <c r="E101" s="34">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F101" s="34">
         <v>1</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="212">
   <si>
     <t>id|</t>
   </si>
@@ -792,6 +792,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>leijiyingjin_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ground_1_boss_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -900,7 +904,36 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>5万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000福利券</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -963,47 +996,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1万福利券</t>
+    <t>深海探险 周榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9千福利券</t>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eek</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>8千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>leijiyingjin_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_discount|分数折扣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2千福利券</t>
+    <t>ocean_explore_week_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,12 +1112,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1133,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1226,23 +1234,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1519,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1603,7 @@
         <v>1568649599</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>14</v>
@@ -2080,7 +2071,7 @@
         <v>139</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I15" s="27">
         <v>15</v>
@@ -2092,38 +2083,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="37">
-        <v>1604246400</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="B16" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1598311800</v>
+      </c>
+      <c r="F16" s="28">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="37">
+      <c r="G16" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="28">
         <v>16</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="28">
         <v>15</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="28">
         <v>13</v>
       </c>
     </row>
@@ -2132,25 +2123,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="28">
-        <v>1604332800</v>
+        <v>1598311800</v>
       </c>
       <c r="F17" s="28">
         <v>2555555555</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I17" s="28">
         <v>17</v>
@@ -2167,25 +2158,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E18" s="28">
-        <v>1604332800</v>
+        <v>1598311800</v>
       </c>
       <c r="F18" s="28">
         <v>2555555555</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I18" s="28">
         <v>18</v>
@@ -2202,25 +2193,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E19" s="28">
-        <v>1604332800</v>
+        <v>1598311800</v>
       </c>
       <c r="F19" s="28">
         <v>2555555555</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" s="28">
         <v>19</v>
@@ -2237,25 +2228,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E20" s="28">
-        <v>1604332800</v>
+        <v>1598311800</v>
       </c>
       <c r="F20" s="28">
         <v>2555555555</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I20" s="28">
         <v>20</v>
@@ -2265,21 +2256,53 @@
       </c>
       <c r="L20" s="28">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1603641600</v>
+      </c>
+      <c r="F21" s="27">
+        <v>2555555555</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="27">
+        <v>20</v>
+      </c>
+      <c r="L21" s="27">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2287,12 +2310,12 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2306,15 +2329,12 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2324,11 +2344,11 @@
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2338,11 +2358,11 @@
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2352,11 +2372,11 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2366,11 +2386,11 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2380,11 +2400,11 @@
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2397,11 +2417,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2411,11 +2431,11 @@
       <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2428,11 +2448,11 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2507,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2563,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2591,7 +2611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2613,10 +2633,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2630,7 +2650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2638,13 +2658,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -2657,9 +2677,8 @@
       <c r="D26" s="23">
         <v>17</v>
       </c>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2670,7 +2689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2681,7 +2700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2692,7 +2711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2700,10 +2719,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2714,7 +2733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2725,7 +2744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2733,13 +2752,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2750,7 +2766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2758,10 +2774,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2769,13 +2785,13 @@
         <v>17</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D36" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2783,13 +2799,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D37" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2797,13 +2813,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D39" s="2">
         <v>21</v>
@@ -2820,7 +2836,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3209,7 +3225,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3226,7 +3242,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -3243,7 +3259,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -3260,7 +3276,7 @@
         <v>171</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -3372,11 +3388,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3850,6 +3866,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>180</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3858,11 +3897,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4053,90 +4092,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="2">
         <v>17</v>
       </c>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="2">
         <v>18</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="2">
         <v>19</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="2">
         <v>20</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="2">
         <v>21</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="2">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4360,14 +4412,14 @@
         <v>1598889599</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4412,6 +4464,17 @@
         <v>102</v>
       </c>
       <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4423,11 +4486,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6491,133 +6554,128 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="34">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="31">
         <v>92</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="31">
         <v>13</v>
       </c>
-      <c r="C93" s="34">
-        <v>1</v>
-      </c>
-      <c r="D93" s="34">
-        <v>1</v>
-      </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34">
+      <c r="C93" s="31">
+        <v>1</v>
+      </c>
+      <c r="D93" s="31">
+        <v>1</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31">
         <v>92</v>
       </c>
-      <c r="H93" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I93" s="34"/>
-    </row>
-    <row r="94" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="34">
+      <c r="H93" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="31">
         <v>93</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="31">
         <v>13</v>
       </c>
-      <c r="C94" s="34">
+      <c r="C94" s="31">
         <v>2</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="31">
         <v>2</v>
       </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34">
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31">
         <v>93</v>
       </c>
-      <c r="H94" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34">
+      <c r="H94" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="31">
         <v>94</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="31">
         <v>13</v>
       </c>
-      <c r="C95" s="34">
+      <c r="C95" s="31">
         <v>3</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="31">
         <v>3</v>
       </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34">
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31">
         <v>94</v>
       </c>
-      <c r="H95" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="34">
+      <c r="H95" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="31">
         <v>95</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="31">
         <v>13</v>
       </c>
-      <c r="C96" s="34">
+      <c r="C96" s="31">
         <v>4</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="31">
+        <v>6</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31">
+        <v>95</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="31">
+        <v>96</v>
+      </c>
+      <c r="B97" s="31">
+        <v>13</v>
+      </c>
+      <c r="C97" s="31">
+        <v>7</v>
+      </c>
+      <c r="D97" s="31">
         <v>10</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34">
-        <v>95</v>
-      </c>
-      <c r="H96" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
-        <v>13</v>
-      </c>
-      <c r="C97" s="34">
-        <v>11</v>
-      </c>
-      <c r="D97" s="34">
-        <v>20</v>
-      </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34">
-        <v>96</v>
-      </c>
-      <c r="H97" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I97" s="34"/>
-    </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="31">
         <v>97</v>
       </c>
       <c r="B98" s="31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" s="31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D98" s="31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
@@ -6627,20 +6685,19 @@
       <c r="H98" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="31">
         <v>98</v>
       </c>
       <c r="B99" s="31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" s="31">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D99" s="31">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
@@ -6650,9 +6707,8 @@
       <c r="H99" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="31">
         <v>99</v>
       </c>
@@ -6660,21 +6716,21 @@
         <v>14</v>
       </c>
       <c r="C100" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
       <c r="G100" s="31">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="31">
         <v>100</v>
       </c>
@@ -6682,21 +6738,21 @@
         <v>14</v>
       </c>
       <c r="C101" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
       <c r="G101" s="31">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H101" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -6704,109 +6760,109 @@
         <v>14</v>
       </c>
       <c r="C102" s="31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D102" s="31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
       <c r="G102" s="31">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H102" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
       <c r="B103" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
       <c r="G103" s="31">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H103" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="31">
         <v>103</v>
       </c>
       <c r="B104" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D104" s="31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
       <c r="G104" s="31">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H104" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
         <v>104</v>
       </c>
       <c r="B105" s="31">
+        <v>14</v>
+      </c>
+      <c r="C105" s="31">
+        <v>11</v>
+      </c>
+      <c r="D105" s="31">
         <v>15</v>
-      </c>
-      <c r="C105" s="31">
-        <v>3</v>
-      </c>
-      <c r="D105" s="31">
-        <v>3</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
       <c r="G105" s="31">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H105" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
         <v>105</v>
       </c>
       <c r="B106" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="31">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D106" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
       <c r="G106" s="31">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H106" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="31">
         <v>106</v>
       </c>
@@ -6814,95 +6870,95 @@
         <v>15</v>
       </c>
       <c r="C107" s="31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107" s="31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E107" s="31"/>
       <c r="F107" s="31"/>
       <c r="G107" s="31">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H107" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="31">
         <v>107</v>
       </c>
       <c r="B108" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="31"/>
       <c r="G108" s="31">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H108" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="31">
         <v>108</v>
       </c>
       <c r="B109" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="31"/>
       <c r="G109" s="31">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H109" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="31">
         <v>109</v>
       </c>
       <c r="B110" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
       <c r="G110" s="31">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H110" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="31">
         <v>110</v>
       </c>
       <c r="B111" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D111" s="31">
         <v>10</v>
@@ -6910,351 +6966,351 @@
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
       <c r="G111" s="31">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="31">
         <v>111</v>
       </c>
       <c r="B112" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112" s="31">
         <v>11</v>
       </c>
       <c r="D112" s="31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
       <c r="G112" s="31">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="31">
         <v>112</v>
       </c>
       <c r="B113" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C113" s="31">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D113" s="31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
       <c r="G113" s="31">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="31">
         <v>113</v>
       </c>
       <c r="B114" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
       <c r="G114" s="31">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="31">
         <v>114</v>
       </c>
       <c r="B115" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
       <c r="G115" s="31">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H115" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="31">
         <v>115</v>
       </c>
       <c r="B116" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" s="31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
       <c r="G116" s="31">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="31">
         <v>116</v>
       </c>
       <c r="B117" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" s="31">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D117" s="31">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="31">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H117" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="31">
         <v>117</v>
       </c>
       <c r="B118" s="31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C118" s="31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D118" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
       <c r="G118" s="31">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H118" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="31">
         <v>118</v>
       </c>
       <c r="B119" s="31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119" s="31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D119" s="31">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
       <c r="G119" s="31">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H119" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="31">
         <v>119</v>
       </c>
       <c r="B120" s="31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C120" s="31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D120" s="31">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H120" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="31">
         <v>120</v>
       </c>
       <c r="B121" s="31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D121" s="31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="31">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H121" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="31">
         <v>121</v>
       </c>
       <c r="B122" s="31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C122" s="31">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D122" s="31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
       <c r="G122" s="31">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H122" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="31">
         <v>122</v>
       </c>
       <c r="B123" s="31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C123" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
       <c r="G123" s="31">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H123" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="31">
         <v>123</v>
       </c>
       <c r="B124" s="31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C124" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
       <c r="G124" s="31">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H124" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="31">
         <v>124</v>
       </c>
       <c r="B125" s="31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C125" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D125" s="31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
       <c r="G125" s="31">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="31">
         <v>125</v>
       </c>
       <c r="B126" s="31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C126" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D126" s="31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
       <c r="G126" s="31">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H126" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="31">
         <v>126</v>
       </c>
       <c r="B127" s="31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C127" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D127" s="31">
         <v>20</v>
@@ -7262,12 +7318,165 @@
       <c r="E127" s="31"/>
       <c r="F127" s="31"/>
       <c r="G127" s="31">
+        <v>98</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="31">
+        <v>127</v>
+      </c>
+      <c r="B128" s="31">
+        <v>18</v>
+      </c>
+      <c r="C128" s="31">
+        <v>1</v>
+      </c>
+      <c r="D128" s="31">
+        <v>1</v>
+      </c>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31">
+        <v>99</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="31">
+        <v>128</v>
+      </c>
+      <c r="B129" s="31">
+        <v>18</v>
+      </c>
+      <c r="C129" s="31">
+        <v>2</v>
+      </c>
+      <c r="D129" s="31">
+        <v>2</v>
+      </c>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31">
+        <v>100</v>
+      </c>
+      <c r="H129" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="31">
+        <v>129</v>
+      </c>
+      <c r="B130" s="31">
+        <v>18</v>
+      </c>
+      <c r="C130" s="31">
+        <v>3</v>
+      </c>
+      <c r="D130" s="31">
+        <v>3</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31">
         <v>101</v>
       </c>
-      <c r="H127" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I127" s="31"/>
+      <c r="H130" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="31">
+        <v>130</v>
+      </c>
+      <c r="B131" s="31">
+        <v>18</v>
+      </c>
+      <c r="C131" s="31">
+        <v>4</v>
+      </c>
+      <c r="D131" s="31">
+        <v>6</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31">
+        <v>102</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="31">
+        <v>131</v>
+      </c>
+      <c r="B132" s="31">
+        <v>18</v>
+      </c>
+      <c r="C132" s="31">
+        <v>7</v>
+      </c>
+      <c r="D132" s="31">
+        <v>10</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31">
+        <v>103</v>
+      </c>
+      <c r="H132" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="31">
+        <v>132</v>
+      </c>
+      <c r="B133" s="31">
+        <v>18</v>
+      </c>
+      <c r="C133" s="31">
+        <v>11</v>
+      </c>
+      <c r="D133" s="31">
+        <v>15</v>
+      </c>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31">
+        <v>104</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="31">
+        <v>133</v>
+      </c>
+      <c r="B134" s="31">
+        <v>18</v>
+      </c>
+      <c r="C134" s="31">
+        <v>16</v>
+      </c>
+      <c r="D134" s="31">
+        <v>20</v>
+      </c>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31">
+        <v>105</v>
+      </c>
+      <c r="H134" s="32" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7278,11 +7487,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9200,107 +9409,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="31">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="31">
         <v>92</v>
       </c>
-      <c r="C97" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97" s="35" t="s">
+      <c r="C97" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="31">
         <v>50000</v>
       </c>
-      <c r="F97" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="34">
+      <c r="F97" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="31">
         <v>97</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="31">
         <v>93</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="35" t="s">
+      <c r="C98" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="34">
+      <c r="E98" s="31">
         <v>30000</v>
       </c>
-      <c r="F98" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="34">
+      <c r="F98" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="31">
         <v>98</v>
       </c>
-      <c r="B99" s="34">
+      <c r="B99" s="31">
         <v>94</v>
       </c>
-      <c r="C99" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="35" t="s">
+      <c r="C99" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="31">
         <v>10000</v>
       </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
+      <c r="F99" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="31">
         <v>99</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="31">
         <v>95</v>
       </c>
-      <c r="C100" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="35" t="s">
+      <c r="C100" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="34">
+      <c r="E100" s="31">
         <v>5000</v>
       </c>
-      <c r="F100" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="34">
+      <c r="F100" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="31">
         <v>100</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="31">
         <v>96</v>
       </c>
-      <c r="C101" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="35" t="s">
+      <c r="C101" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="34">
+      <c r="E101" s="31">
         <v>2000</v>
       </c>
-      <c r="F101" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -9308,19 +9517,19 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E102" s="31">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F102" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
@@ -9328,75 +9537,155 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E103" s="31">
-        <v>9000</v>
+        <v>500</v>
       </c>
       <c r="F103" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="5">
         <v>99</v>
       </c>
-      <c r="C104" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D104" s="33" t="s">
+      <c r="C104" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="31">
-        <v>8000</v>
-      </c>
-      <c r="F104" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="E104" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="5">
         <v>100</v>
       </c>
-      <c r="C105" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" s="33" t="s">
+      <c r="C105" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E105" s="31">
+      <c r="E105" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>101</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>102</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="5">
         <v>5000</v>
       </c>
-      <c r="F105" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
+        <v>103</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
+        <v>104</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
-        <v>101</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106" s="33" t="s">
+      <c r="C110" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="31">
-        <v>3000</v>
-      </c>
-      <c r="F106" s="31">
+      <c r="E110" s="5">
+        <v>500</v>
+      </c>
+      <c r="F110" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3392,7 +3392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7491,7 +7491,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="A104:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="230">
   <si>
     <t>id|</t>
   </si>
@@ -1008,6 +1008,62 @@
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean_explore_week_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1523,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2271,6 +2327,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1604246400</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2555555555</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="14">
+        <v>20</v>
+      </c>
+      <c r="L21" s="14">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2282,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3387,11 +3475,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A20"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3865,6 +3953,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>180</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3873,11 +3984,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4138,6 +4249,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4147,11 +4272,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4430,6 +4555,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4438,11 +4574,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7284,6 +7420,106 @@
       </c>
       <c r="I127" s="31"/>
     </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>102</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>20</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+      <c r="G129" s="2">
+        <v>103</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+      <c r="G130" s="2">
+        <v>104</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>20</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2">
+        <v>105</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2">
+        <v>20</v>
+      </c>
+      <c r="G132" s="2">
+        <v>106</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7293,19 +7529,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9415,6 +9651,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>102</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>103</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>103</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E109" s="2">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>104</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>105</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>106</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="225">
   <si>
     <t>id|</t>
   </si>
@@ -1044,54 +1044,6 @@
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ocean_explore_week_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险排行榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>week</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个中级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个高级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1626,11 +1578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>214</v>
@@ -2408,38 +2360,6 @@
       </c>
       <c r="L21" s="41">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1604246400</v>
-      </c>
-      <c r="F22" s="14">
-        <v>2555555555</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="14">
-        <v>21</v>
-      </c>
-      <c r="L22" s="14">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2453,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -3032,7 +2952,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3592,11 +3512,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4093,29 +4013,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2">
-        <v>180</v>
-      </c>
-      <c r="G22" s="2">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4124,11 +4021,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4403,20 +4300,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4426,11 +4309,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4720,17 +4603,6 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4739,11 +4611,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7526,112 +7398,36 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="2">
-        <v>19</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2">
-        <v>109</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>228</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="B126" s="2">
-        <v>19</v>
-      </c>
-      <c r="C126" s="2">
-        <v>2</v>
-      </c>
-      <c r="D126" s="2">
-        <v>2</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2">
-        <v>110</v>
-      </c>
-      <c r="H126" s="22" t="s">
-        <v>228</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="2">
-        <v>19</v>
-      </c>
-      <c r="C127" s="2">
-        <v>3</v>
-      </c>
-      <c r="D127" s="2">
-        <v>3</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2">
-        <v>111</v>
-      </c>
-      <c r="H127" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2">
-        <v>19</v>
-      </c>
-      <c r="C128" s="2">
-        <v>4</v>
-      </c>
-      <c r="D128" s="2">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2">
-        <v>112</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2">
-        <v>19</v>
-      </c>
-      <c r="C129" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" s="2">
-        <v>20</v>
-      </c>
-      <c r="G129" s="2">
-        <v>113</v>
-      </c>
-      <c r="H129" s="22" t="s">
-        <v>136</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7642,11 +7438,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7654,7 +7450,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9904,106 +9700,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2">
-        <v>109</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E114" s="2">
-        <v>5</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>110</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E115" s="2">
-        <v>3</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2">
-        <v>111</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="2">
-        <v>2</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2">
-        <v>112</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" s="2">
-        <v>5</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2">
-        <v>113</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118" s="2">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
   <si>
     <t>id|</t>
   </si>
@@ -1044,6 +1044,54 @@
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean_explore_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个高级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1578,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2379,7 @@
       <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="b">
+      <c r="B21" s="14" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="41" t="s">
@@ -2360,6 +2408,38 @@
       </c>
       <c r="L21" s="41">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1604246400</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2555555555</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="14">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2373,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2952,7 +3032,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3512,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4013,6 +4093,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>180</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4021,11 +4124,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4300,6 +4403,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4309,11 +4426,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4603,6 +4720,17 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4611,11 +4739,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7398,36 +7526,112 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2">
+        <v>109</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>228</v>
+      </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6"/>
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2">
+        <v>110</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6"/>
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>19</v>
+      </c>
+      <c r="C127" s="2">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2">
+        <v>111</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>19</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2">
+        <v>112</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2">
+        <v>20</v>
+      </c>
+      <c r="G129" s="2">
+        <v>113</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7438,11 +7642,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7450,7 +7654,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9700,6 +9904,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="2">
+        <v>5</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -990,10 +990,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>12_12_lhsjb_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>礼盒收集榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1092,6 +1088,10 @@
   </si>
   <si>
     <t>3个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s12_12_lhsjb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1630,7 +1630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2383,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>214</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>215</v>
       </c>
       <c r="E21" s="41">
         <v>1607385600</v>
@@ -2418,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>226</v>
       </c>
       <c r="E22" s="14">
         <v>1604246400</v>
@@ -2923,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -4725,7 +4725,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -7544,7 +7544,7 @@
         <v>109</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I125" s="5"/>
     </row>
@@ -7567,7 +7567,7 @@
         <v>110</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -9812,7 +9812,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -9832,7 +9832,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -9852,7 +9852,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -9872,7 +9872,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -9892,7 +9892,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -9912,10 +9912,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
@@ -9932,10 +9932,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -9952,10 +9952,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -9972,10 +9972,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -9992,10 +9992,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
   <si>
     <t>id|</t>
   </si>
@@ -1011,34 +1011,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5百福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1092,6 +1064,30 @@
   </si>
   <si>
     <t>s12_12_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1628,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
@@ -2383,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>214</v>
@@ -2418,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E22" s="14">
         <v>1604246400</v>
@@ -2923,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4725,7 +4721,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -7544,7 +7540,7 @@
         <v>109</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I125" s="5"/>
     </row>
@@ -7567,7 +7563,7 @@
         <v>110</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7644,9 +7640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9772,7 +9768,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -9792,7 +9788,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -9812,7 +9808,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -9832,7 +9828,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -9852,7 +9848,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -9872,7 +9868,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -9892,7 +9888,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -9912,10 +9908,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
@@ -9932,10 +9928,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -9952,10 +9948,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -9972,10 +9968,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -9992,10 +9988,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="246">
   <si>
     <t>id|</t>
   </si>
@@ -990,10 +990,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒收集榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>38</t>
     </r>
@@ -1063,6 +1059,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>dz_jzsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>s12_12_lhsjb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1087,7 +1095,39 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1223,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1345,6 +1385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1622,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2375,14 +2418,14 @@
       <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="b">
-        <v>1</v>
+      <c r="B21" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="C21" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>229</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>214</v>
       </c>
       <c r="E21" s="41">
         <v>1607385600</v>
@@ -2414,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>218</v>
       </c>
       <c r="E22" s="14">
         <v>1604246400</v>
@@ -2436,6 +2479,42 @@
       </c>
       <c r="L22" s="14">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1607990400</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1608566399</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="46">
+        <v>22</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46">
+        <v>22</v>
+      </c>
+      <c r="L23" s="46">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2447,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2919,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3015,6 +3094,20 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23">
+        <v>22</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="23">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3025,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3408,7 +3501,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3479,6 +3572,23 @@
         <v>9</v>
       </c>
       <c r="E26" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>23</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="23">
+        <v>9</v>
+      </c>
+      <c r="E27" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3588,11 +3698,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4112,6 +4222,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23">
+        <v>180</v>
+      </c>
+      <c r="G23" s="23">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4120,11 +4253,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4413,6 +4546,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4422,11 +4569,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4721,10 +4868,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="46">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -4735,11 +4893,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7540,7 +7698,7 @@
         <v>109</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
@@ -7563,7 +7721,7 @@
         <v>110</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7627,6 +7785,160 @@
       </c>
       <c r="H129" s="22" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="23">
+        <v>129</v>
+      </c>
+      <c r="B130" s="23">
+        <v>20</v>
+      </c>
+      <c r="C130" s="23">
+        <v>1</v>
+      </c>
+      <c r="D130" s="23">
+        <v>1</v>
+      </c>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23">
+        <v>114</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="23">
+        <v>130</v>
+      </c>
+      <c r="B131" s="23">
+        <v>20</v>
+      </c>
+      <c r="C131" s="23">
+        <v>2</v>
+      </c>
+      <c r="D131" s="23">
+        <v>2</v>
+      </c>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23">
+        <v>115</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="23">
+        <v>131</v>
+      </c>
+      <c r="B132" s="23">
+        <v>20</v>
+      </c>
+      <c r="C132" s="23">
+        <v>3</v>
+      </c>
+      <c r="D132" s="23">
+        <v>3</v>
+      </c>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23">
+        <v>116</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="23">
+        <v>132</v>
+      </c>
+      <c r="B133" s="23">
+        <v>20</v>
+      </c>
+      <c r="C133" s="23">
+        <v>4</v>
+      </c>
+      <c r="D133" s="23">
+        <v>6</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23">
+        <v>117</v>
+      </c>
+      <c r="H133" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="23">
+        <v>133</v>
+      </c>
+      <c r="B134" s="23">
+        <v>20</v>
+      </c>
+      <c r="C134" s="23">
+        <v>7</v>
+      </c>
+      <c r="D134" s="23">
+        <v>10</v>
+      </c>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23">
+        <v>118</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="23">
+        <v>134</v>
+      </c>
+      <c r="B135" s="23">
+        <v>20</v>
+      </c>
+      <c r="C135" s="23">
+        <v>11</v>
+      </c>
+      <c r="D135" s="23">
+        <v>15</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23">
+        <v>119</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="23">
+        <v>135</v>
+      </c>
+      <c r="B136" s="23">
+        <v>20</v>
+      </c>
+      <c r="C136" s="23">
+        <v>16</v>
+      </c>
+      <c r="D136" s="23">
+        <v>20</v>
+      </c>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23">
+        <v>120</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7638,11 +7950,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9768,7 +10080,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -9788,7 +10100,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -9808,7 +10120,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -9828,7 +10140,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -9848,7 +10160,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -9868,7 +10180,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -9888,7 +10200,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -9908,10 +10220,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
@@ -9928,10 +10240,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -9948,10 +10260,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -9968,10 +10280,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -9988,15 +10300,155 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
       </c>
       <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="23">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>114</v>
+      </c>
+      <c r="C119" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F119" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="23">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>115</v>
+      </c>
+      <c r="C120" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="23">
+        <v>30000</v>
+      </c>
+      <c r="F120" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="23">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
+        <v>116</v>
+      </c>
+      <c r="C121" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="23">
+        <v>10000</v>
+      </c>
+      <c r="F121" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="23">
+        <v>121</v>
+      </c>
+      <c r="B122" s="23">
+        <v>117</v>
+      </c>
+      <c r="C122" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F122" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="23">
+        <v>122</v>
+      </c>
+      <c r="B123" s="23">
+        <v>118</v>
+      </c>
+      <c r="C123" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F123" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="23">
+        <v>123</v>
+      </c>
+      <c r="B124" s="23">
+        <v>119</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F124" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="23">
+        <v>124</v>
+      </c>
+      <c r="B125" s="23">
+        <v>120</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="23">
+        <v>500</v>
+      </c>
+      <c r="F125" s="23">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="238">
   <si>
     <t>id|</t>
   </si>
@@ -946,6 +946,58 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijiyingjin_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_discount|分数折扣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_12_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>38</t>
     </r>
@@ -963,54 +1015,42 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>1万福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>leijiyingjin_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_discount|分数折扣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>1千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5百福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>ocean_explore_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>深海探险排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1027,6 +1067,22 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>2个中级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1035,35 +1091,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_nuclear_bomb_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个中级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ocean_explore_week_rank</t>
+    <t>2个初级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1193,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1303,6 +1341,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1579,10 +1630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2160,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>186</v>
@@ -2327,36 +2379,71 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+    <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="B21" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1607385600</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1607961599</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="41">
+        <v>21</v>
+      </c>
+      <c r="K21" s="41">
+        <v>20</v>
+      </c>
+      <c r="L21" s="41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="14">
         <v>1604246400</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>2555555555</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="14">
-        <v>20</v>
-      </c>
-      <c r="L21" s="14">
-        <v>18</v>
+      <c r="K22" s="14">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2368,10 +2455,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2486,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
@@ -2817,7 +2905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2831,29 +2919,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>16</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>16</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2864,7 +2952,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2878,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2892,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2906,7 +2994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2919,6 +3007,22 @@
       <c r="D40" s="2">
         <v>21</v>
       </c>
+    </row>
+    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="42">
+        <v>21</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="42">
+        <v>22</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2929,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3416,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3366,6 +3470,23 @@
         <v>202</v>
       </c>
       <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42">
+        <v>22</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="42">
+        <v>9</v>
+      </c>
+      <c r="E26" s="42">
         <v>2</v>
       </c>
     </row>
@@ -3475,11 +3596,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,26 +4074,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="42">
+        <v>1</v>
+      </c>
+      <c r="C21" s="42">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="42">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="42">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="42">
         <v>180</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>180</v>
+      </c>
+      <c r="G22" s="2">
         <v>10</v>
       </c>
     </row>
@@ -3984,11 +4128,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4249,18 +4393,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="42">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="42">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4272,11 +4430,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4555,14 +4713,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4574,11 +4743,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128:H132"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7199,245 +7368,253 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+    <row r="118" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="42">
         <v>117</v>
       </c>
-      <c r="B118" s="31">
+      <c r="B118" s="42">
         <v>18</v>
       </c>
-      <c r="C118" s="31">
-        <v>1</v>
-      </c>
-      <c r="D118" s="31">
-        <v>1</v>
-      </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31">
-        <v>97</v>
-      </c>
-      <c r="H118" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="31">
+      <c r="C118" s="42">
+        <v>1</v>
+      </c>
+      <c r="D118" s="42">
+        <v>1</v>
+      </c>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42">
+        <v>102</v>
+      </c>
+      <c r="H118" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="42"/>
+    </row>
+    <row r="119" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="42">
         <v>118</v>
       </c>
-      <c r="B119" s="31">
+      <c r="B119" s="42">
         <v>18</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="42">
         <v>2</v>
       </c>
-      <c r="D119" s="31">
+      <c r="D119" s="42">
         <v>2</v>
       </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31">
-        <v>98</v>
-      </c>
-      <c r="H119" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="31">
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42">
+        <v>103</v>
+      </c>
+      <c r="H119" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="42"/>
+    </row>
+    <row r="120" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="42">
         <v>119</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="42">
         <v>18</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="42">
         <v>3</v>
       </c>
-      <c r="D120" s="31">
+      <c r="D120" s="42">
         <v>3</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31">
-        <v>99</v>
-      </c>
-      <c r="H120" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="31">
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42">
+        <v>104</v>
+      </c>
+      <c r="H120" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="42"/>
+    </row>
+    <row r="121" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="42">
         <v>120</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="42">
         <v>18</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="42">
         <v>4</v>
       </c>
-      <c r="D121" s="31">
+      <c r="D121" s="42">
+        <v>6</v>
+      </c>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42">
+        <v>105</v>
+      </c>
+      <c r="H121" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="42"/>
+    </row>
+    <row r="122" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="42">
+        <v>121</v>
+      </c>
+      <c r="B122" s="42">
+        <v>18</v>
+      </c>
+      <c r="C122" s="42">
+        <v>7</v>
+      </c>
+      <c r="D122" s="42">
         <v>10</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31">
-        <v>100</v>
-      </c>
-      <c r="H121" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="31">
-        <v>121</v>
-      </c>
-      <c r="B122" s="31">
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42">
+        <v>106</v>
+      </c>
+      <c r="H122" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="42"/>
+    </row>
+    <row r="123" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="42">
+        <v>122</v>
+      </c>
+      <c r="B123" s="42">
         <v>18</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C123" s="42">
         <v>11</v>
       </c>
-      <c r="D122" s="31">
+      <c r="D123" s="42">
+        <v>15</v>
+      </c>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42">
+        <v>107</v>
+      </c>
+      <c r="H123" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="42"/>
+    </row>
+    <row r="124" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="42">
+        <v>123</v>
+      </c>
+      <c r="B124" s="42">
+        <v>18</v>
+      </c>
+      <c r="C124" s="42">
+        <v>16</v>
+      </c>
+      <c r="D124" s="42">
         <v>20</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31">
-        <v>101</v>
-      </c>
-      <c r="H122" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="31">
-        <v>122</v>
-      </c>
-      <c r="B123" s="31">
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42">
+        <v>108</v>
+      </c>
+      <c r="H124" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="42"/>
+    </row>
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
         <v>19</v>
       </c>
-      <c r="C123" s="31">
-        <v>1</v>
-      </c>
-      <c r="D123" s="31">
-        <v>1</v>
-      </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31">
-        <v>97</v>
-      </c>
-      <c r="H123" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
-        <v>123</v>
-      </c>
-      <c r="B124" s="31">
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2">
+        <v>109</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
         <v>19</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C126" s="2">
         <v>2</v>
       </c>
-      <c r="D124" s="31">
+      <c r="D126" s="2">
         <v>2</v>
       </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31">
-        <v>98</v>
-      </c>
-      <c r="H124" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="31">
-        <v>124</v>
-      </c>
-      <c r="B125" s="31">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2">
+        <v>110</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
         <v>19</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C127" s="2">
         <v>3</v>
       </c>
-      <c r="D125" s="31">
+      <c r="D127" s="2">
         <v>3</v>
       </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31">
-        <v>99</v>
-      </c>
-      <c r="H125" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31">
-        <v>125</v>
-      </c>
-      <c r="B126" s="31">
-        <v>19</v>
-      </c>
-      <c r="C126" s="31">
-        <v>4</v>
-      </c>
-      <c r="D126" s="31">
-        <v>10</v>
-      </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31">
-        <v>100</v>
-      </c>
-      <c r="H126" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31">
-        <v>126</v>
-      </c>
-      <c r="B127" s="31">
-        <v>19</v>
-      </c>
-      <c r="C127" s="31">
-        <v>11</v>
-      </c>
-      <c r="D127" s="31">
-        <v>20</v>
-      </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31">
-        <v>101</v>
-      </c>
-      <c r="H127" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I127" s="31"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2">
+        <v>111</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -7445,79 +7622,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2">
         <v>20</v>
       </c>
-      <c r="C129" s="2">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2">
-        <v>2</v>
-      </c>
       <c r="G129" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="2">
-        <v>20</v>
-      </c>
-      <c r="C130" s="2">
-        <v>3</v>
-      </c>
-      <c r="D130" s="2">
-        <v>3</v>
-      </c>
-      <c r="G130" s="2">
-        <v>104</v>
-      </c>
-      <c r="H130" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2">
-        <v>20</v>
-      </c>
-      <c r="C131" s="2">
-        <v>4</v>
-      </c>
-      <c r="D131" s="2">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2">
-        <v>105</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="2">
-        <v>20</v>
-      </c>
-      <c r="C132" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" s="2">
-        <v>20</v>
-      </c>
-      <c r="G132" s="2">
-        <v>106</v>
-      </c>
-      <c r="H132" s="22" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7529,19 +7646,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9479,7 +9596,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>158</v>
@@ -9499,7 +9616,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>158</v>
@@ -9519,7 +9636,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>158</v>
@@ -9539,7 +9656,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>158</v>
@@ -9559,7 +9676,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
@@ -9579,7 +9696,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
@@ -9599,7 +9716,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>158</v>
@@ -9619,7 +9736,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>158</v>
@@ -9639,7 +9756,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>158</v>
@@ -9651,123 +9768,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+    <row r="107" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="42">
         <v>102</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="42">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="42">
+        <v>107</v>
+      </c>
+      <c r="B108" s="42">
+        <v>103</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="42">
+        <v>30000</v>
+      </c>
+      <c r="F108" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="42">
+        <v>108</v>
+      </c>
+      <c r="B109" s="42">
+        <v>104</v>
+      </c>
+      <c r="C109" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="D107" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D109" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="42">
+        <v>10000</v>
+      </c>
+      <c r="F109" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="42">
+        <v>109</v>
+      </c>
+      <c r="B110" s="42">
+        <v>105</v>
+      </c>
+      <c r="C110" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="42">
+        <v>3000</v>
+      </c>
+      <c r="F110" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="42">
+        <v>110</v>
+      </c>
+      <c r="B111" s="42">
+        <v>106</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="42">
+        <v>2000</v>
+      </c>
+      <c r="F111" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="42">
+        <v>111</v>
+      </c>
+      <c r="B112" s="42">
+        <v>107</v>
+      </c>
+      <c r="C112" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="42">
+        <v>112</v>
+      </c>
+      <c r="B113" s="42">
+        <v>108</v>
+      </c>
+      <c r="C113" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" s="42">
+        <v>500</v>
+      </c>
+      <c r="F113" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E114" s="2">
         <v>5</v>
       </c>
-      <c r="F107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>103</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2">
-        <v>103</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E116" s="2">
         <v>4</v>
       </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2">
-        <v>104</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" s="2">
         <v>2</v>
       </c>
-      <c r="F110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2">
-        <v>105</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="2">
         <v>5</v>
       </c>
-      <c r="F111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2">
-        <v>106</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>114</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="2">
         <v>2</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F119" s="2">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
   <si>
     <t>id|</t>
   </si>
@@ -1071,31 +1071,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个中级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_nuclear_bomb_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>2个中级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个初级核弹</t>
+    <t>3个高级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7646,11 +7642,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7658,7 +7654,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9936,13 +9932,13 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>230</v>
       </c>
       <c r="E115" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
@@ -9956,13 +9952,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
@@ -9979,10 +9975,10 @@
         <v>234</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
@@ -9996,35 +9992,15 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E118" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="2">
-        <v>114</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E119" s="2">
-        <v>2</v>
-      </c>
-      <c r="F119" s="2">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="249">
   <si>
     <t>id|</t>
   </si>
@@ -1128,6 +1128,18 @@
   </si>
   <si>
     <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_type</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1667,9 +1679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2526,11 +2538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3103,9 +3115,23 @@
         <v>22</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D42" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23">
+        <v>22</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="23">
         <v>23</v>
       </c>
     </row>
@@ -3121,7 +3147,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3582,8 +3608,8 @@
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>169</v>
+      <c r="C27" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="D27" s="23">
         <v>9</v>
@@ -7952,9 +7978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="252">
   <si>
     <t>id|</t>
   </si>
@@ -1140,6 +1140,18 @@
   </si>
   <si>
     <t>act_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,6 +1258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1275,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1399,6 +1417,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2538,11 +2565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3095,43 +3122,57 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="47">
         <v>21</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="47">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="47">
+        <v>21</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="47">
         <v>22</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="23">
-        <v>23</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="23">
         <v>22</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23">
+        <v>22</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="23">
         <v>23</v>
       </c>
     </row>
@@ -3144,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3585,7 +3626,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="42">
@@ -3602,7 +3643,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="23">
@@ -3615,6 +3656,23 @@
         <v>9</v>
       </c>
       <c r="E27" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>23</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="23">
         <v>2</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="254">
   <si>
     <t>id|</t>
   </si>
@@ -1131,7 +1131,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_get_use_item</t>
+    <t>sd_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞收集榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1139,7 +1143,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>act_type</t>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1147,11 +1155,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_get_use_item</t>
+    <t>prop_dz_jz</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_dz_jz</t>
+    <t>prop_sd_lh</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,8 +1216,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,7 +1275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1420,9 +1441,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1704,11 +1743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2556,6 +2595,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="48">
+        <v>1608595200</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1609171199</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="47">
+        <v>23</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47">
+        <v>23</v>
+      </c>
+      <c r="L24" s="47">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2565,11 +2640,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3122,31 +3197,33 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="53">
         <v>21</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="53">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="53">
         <v>21</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="47">
+      <c r="C42" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="53">
         <v>22</v>
       </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3156,7 +3233,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="D43" s="23">
         <v>23</v>
@@ -3170,10 +3247,38 @@
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D44" s="23">
         <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="49">
+        <v>23</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="49">
+        <v>23</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="49">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3185,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3649,8 +3754,8 @@
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>248</v>
+      <c r="C27" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="D27" s="23">
         <v>9</v>
@@ -3667,14 +3772,55 @@
         <v>23</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="49" t="s">
         <v>251</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>252</v>
       </c>
       <c r="E28" s="23">
         <v>2</v>
       </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="49">
+        <v>24</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="49">
+        <v>9</v>
+      </c>
+      <c r="E29" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="49">
+        <v>24</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3782,11 +3928,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4329,6 +4475,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="49">
+        <v>23</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49">
+        <v>20</v>
+      </c>
+      <c r="D24" s="49">
+        <v>100</v>
+      </c>
+      <c r="E24" s="49">
+        <v>20</v>
+      </c>
+      <c r="F24" s="49">
+        <v>180</v>
+      </c>
+      <c r="G24" s="49">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4337,11 +4506,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4644,6 +4813,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="49">
+        <v>21</v>
+      </c>
+      <c r="B22" s="49">
+        <v>25</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22" s="49">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4653,11 +4836,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4969,6 +5152,17 @@
         <v>1608566399</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="49">
+        <v>25</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1609171199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4977,11 +5171,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8025,6 +8219,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="49">
+        <v>136</v>
+      </c>
+      <c r="B137" s="49">
+        <v>21</v>
+      </c>
+      <c r="C137" s="49">
+        <v>1</v>
+      </c>
+      <c r="D137" s="49">
+        <v>1</v>
+      </c>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49">
+        <v>121</v>
+      </c>
+      <c r="H137" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="49">
+        <v>137</v>
+      </c>
+      <c r="B138" s="49">
+        <v>21</v>
+      </c>
+      <c r="C138" s="49">
+        <v>2</v>
+      </c>
+      <c r="D138" s="49">
+        <v>2</v>
+      </c>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49">
+        <v>122</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="49">
+        <v>138</v>
+      </c>
+      <c r="B139" s="49">
+        <v>21</v>
+      </c>
+      <c r="C139" s="49">
+        <v>3</v>
+      </c>
+      <c r="D139" s="49">
+        <v>3</v>
+      </c>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49">
+        <v>123</v>
+      </c>
+      <c r="H139" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="49">
+        <v>139</v>
+      </c>
+      <c r="B140" s="49">
+        <v>21</v>
+      </c>
+      <c r="C140" s="49">
+        <v>4</v>
+      </c>
+      <c r="D140" s="49">
+        <v>6</v>
+      </c>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49">
+        <v>124</v>
+      </c>
+      <c r="H140" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="49">
+        <v>140</v>
+      </c>
+      <c r="B141" s="49">
+        <v>21</v>
+      </c>
+      <c r="C141" s="49">
+        <v>7</v>
+      </c>
+      <c r="D141" s="49">
+        <v>10</v>
+      </c>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49">
+        <v>125</v>
+      </c>
+      <c r="H141" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="49">
+        <v>141</v>
+      </c>
+      <c r="B142" s="49">
+        <v>21</v>
+      </c>
+      <c r="C142" s="49">
+        <v>11</v>
+      </c>
+      <c r="D142" s="49">
+        <v>15</v>
+      </c>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49">
+        <v>126</v>
+      </c>
+      <c r="H142" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="49">
+        <v>142</v>
+      </c>
+      <c r="B143" s="49">
+        <v>21</v>
+      </c>
+      <c r="C143" s="49">
+        <v>16</v>
+      </c>
+      <c r="D143" s="49">
+        <v>20</v>
+      </c>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49">
+        <v>127</v>
+      </c>
+      <c r="H143" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8034,11 +8382,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10536,6 +10884,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="49">
+        <v>125</v>
+      </c>
+      <c r="B126" s="49">
+        <v>121</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="49">
+        <v>100000</v>
+      </c>
+      <c r="F126" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="49">
+        <v>126</v>
+      </c>
+      <c r="B127" s="49">
+        <v>122</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="49">
+        <v>30000</v>
+      </c>
+      <c r="F127" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="49">
+        <v>127</v>
+      </c>
+      <c r="B128" s="49">
+        <v>123</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="49">
+        <v>10000</v>
+      </c>
+      <c r="F128" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="49">
+        <v>128</v>
+      </c>
+      <c r="B129" s="49">
+        <v>124</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="49">
+        <v>3000</v>
+      </c>
+      <c r="F129" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="49">
+        <v>129</v>
+      </c>
+      <c r="B130" s="49">
+        <v>125</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="49">
+        <v>2000</v>
+      </c>
+      <c r="F130" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="49">
+        <v>130</v>
+      </c>
+      <c r="B131" s="49">
+        <v>126</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="49">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="49">
+        <v>131</v>
+      </c>
+      <c r="B132" s="49">
+        <v>127</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="49">
+        <v>500</v>
+      </c>
+      <c r="F132" s="49">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="258">
   <si>
     <t>id|</t>
   </si>
@@ -1139,6 +1139,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_jyb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>buyu_get_use_item</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1155,11 +1163,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_dz_jz</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_sd_lh</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,7 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,7 +1477,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1464,7 +1492,22 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,16 +1786,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="36" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="14" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="14" customWidth="1"/>
@@ -1774,7 +1818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1821,7 +1865,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="b">
@@ -1855,7 +1899,7 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="b">
@@ -1895,7 +1939,7 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="b">
@@ -1929,7 +1973,7 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="b">
@@ -1966,7 +2010,7 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="b">
@@ -2003,7 +2047,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="b">
@@ -2038,7 +2082,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="b">
@@ -2073,7 +2117,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="b">
@@ -2108,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="b">
@@ -2143,7 +2187,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="b">
@@ -2178,7 +2222,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="b">
@@ -2213,7 +2257,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="b">
@@ -2248,7 +2292,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="b">
@@ -2318,7 +2362,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="37" t="b">
@@ -2353,7 +2397,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="b">
@@ -2388,7 +2432,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="b">
@@ -2423,7 +2467,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="b">
@@ -2458,7 +2502,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
       <c r="B20" s="28" t="b">
@@ -2493,7 +2537,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="41" t="b">
@@ -2528,7 +2572,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="b">
@@ -2560,11 +2604,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="b">
-        <v>1</v>
+      <c r="B23" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>228</v>
@@ -2596,7 +2640,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
       <c r="B24" s="47" t="b">
@@ -2629,6 +2673,41 @@
       </c>
       <c r="L24" s="47">
         <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="54">
+        <v>1609200000</v>
+      </c>
+      <c r="F25" s="54">
+        <v>1609775999</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="53">
+        <v>24</v>
+      </c>
+      <c r="K25" s="53">
+        <v>24</v>
+      </c>
+      <c r="L25" s="53">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2640,11 +2719,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3197,13 +3276,13 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="58">
         <v>21</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="58">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
@@ -3213,13 +3292,13 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="58">
         <v>21</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="53">
+      <c r="C42" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="58">
         <v>22</v>
       </c>
       <c r="E42" s="42"/>
@@ -3247,7 +3326,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" s="23">
         <v>23</v>
@@ -3275,10 +3354,38 @@
         <v>23</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D46" s="49">
         <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="55">
+        <v>24</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="55">
+        <v>24</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="55">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3400,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3772,10 +3879,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>257</v>
       </c>
       <c r="E28" s="23">
         <v>2</v>
@@ -3806,21 +3913,48 @@
         <v>24</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="52" t="s">
         <v>253</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>256</v>
       </c>
       <c r="E30" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="55">
+        <v>25</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="55">
+        <v>9</v>
+      </c>
+      <c r="E31" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="55">
+        <v>25</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="55">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3928,11 +4062,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4498,6 +4632,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="55">
+        <v>24</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>20</v>
+      </c>
+      <c r="D25" s="55">
+        <v>100</v>
+      </c>
+      <c r="E25" s="55">
+        <v>20</v>
+      </c>
+      <c r="F25" s="55">
+        <v>180</v>
+      </c>
+      <c r="G25" s="55">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4506,11 +4663,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4827,6 +4984,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="55">
+        <v>22</v>
+      </c>
+      <c r="B23" s="55">
+        <v>26</v>
+      </c>
+      <c r="C23" s="55">
+        <v>1</v>
+      </c>
+      <c r="D23" s="55">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4836,11 +5007,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5163,6 +5334,17 @@
         <v>1609171199</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="55">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="54">
+        <v>1609775999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5171,11 +5353,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8373,6 +8555,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="55">
+        <v>143</v>
+      </c>
+      <c r="B144" s="55">
+        <v>22</v>
+      </c>
+      <c r="C144" s="55">
+        <v>1</v>
+      </c>
+      <c r="D144" s="55">
+        <v>1</v>
+      </c>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55">
+        <v>128</v>
+      </c>
+      <c r="H144" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="55">
+        <v>144</v>
+      </c>
+      <c r="B145" s="55">
+        <v>22</v>
+      </c>
+      <c r="C145" s="55">
+        <v>2</v>
+      </c>
+      <c r="D145" s="55">
+        <v>2</v>
+      </c>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55">
+        <v>129</v>
+      </c>
+      <c r="H145" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="55">
+        <v>145</v>
+      </c>
+      <c r="B146" s="55">
+        <v>22</v>
+      </c>
+      <c r="C146" s="55">
+        <v>3</v>
+      </c>
+      <c r="D146" s="55">
+        <v>3</v>
+      </c>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55">
+        <v>130</v>
+      </c>
+      <c r="H146" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="55">
+        <v>146</v>
+      </c>
+      <c r="B147" s="55">
+        <v>22</v>
+      </c>
+      <c r="C147" s="55">
+        <v>4</v>
+      </c>
+      <c r="D147" s="55">
+        <v>6</v>
+      </c>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55">
+        <v>131</v>
+      </c>
+      <c r="H147" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="55">
+        <v>147</v>
+      </c>
+      <c r="B148" s="55">
+        <v>22</v>
+      </c>
+      <c r="C148" s="55">
+        <v>7</v>
+      </c>
+      <c r="D148" s="55">
+        <v>10</v>
+      </c>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55">
+        <v>132</v>
+      </c>
+      <c r="H148" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="55">
+        <v>148</v>
+      </c>
+      <c r="B149" s="55">
+        <v>22</v>
+      </c>
+      <c r="C149" s="55">
+        <v>11</v>
+      </c>
+      <c r="D149" s="55">
+        <v>15</v>
+      </c>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55">
+        <v>133</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="55">
+        <v>149</v>
+      </c>
+      <c r="B150" s="55">
+        <v>22</v>
+      </c>
+      <c r="C150" s="55">
+        <v>16</v>
+      </c>
+      <c r="D150" s="55">
+        <v>20</v>
+      </c>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55">
+        <v>134</v>
+      </c>
+      <c r="H150" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8382,11 +8718,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11024,6 +11360,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="55">
+        <v>132</v>
+      </c>
+      <c r="B133" s="55">
+        <v>128</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="55">
+        <v>100000</v>
+      </c>
+      <c r="F133" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="55">
+        <v>133</v>
+      </c>
+      <c r="B134" s="55">
+        <v>129</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="55">
+        <v>30000</v>
+      </c>
+      <c r="F134" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="55">
+        <v>134</v>
+      </c>
+      <c r="B135" s="55">
+        <v>130</v>
+      </c>
+      <c r="C135" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="55">
+        <v>10000</v>
+      </c>
+      <c r="F135" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="55">
+        <v>135</v>
+      </c>
+      <c r="B136" s="55">
+        <v>131</v>
+      </c>
+      <c r="C136" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F136" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="55">
+        <v>136</v>
+      </c>
+      <c r="B137" s="55">
+        <v>132</v>
+      </c>
+      <c r="C137" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F137" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="55">
+        <v>137</v>
+      </c>
+      <c r="B138" s="55">
+        <v>133</v>
+      </c>
+      <c r="C138" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F138" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="55">
+        <v>138</v>
+      </c>
+      <c r="B139" s="55">
+        <v>134</v>
+      </c>
+      <c r="C139" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="55">
+        <v>500</v>
+      </c>
+      <c r="F139" s="55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="261">
   <si>
     <t>id|</t>
   </si>
@@ -1176,6 +1176,18 @@
   </si>
   <si>
     <t>prop_dz_jz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlqd_xxphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1240,7 +1252,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1336,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1509,6 +1527,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1786,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2710,6 +2746,42 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1609804800</v>
+      </c>
+      <c r="F26" s="64">
+        <v>1610380799</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="63">
+        <v>25</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63">
+        <v>25</v>
+      </c>
+      <c r="L26" s="63">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2719,11 +2791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3388,6 +3460,34 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="65">
+        <v>25</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="65">
+        <v>25</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="65">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3397,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,6 +4053,40 @@
         <v>255</v>
       </c>
       <c r="E32" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="65">
+        <v>26</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="65">
+        <v>9</v>
+      </c>
+      <c r="E33" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="65">
+        <v>26</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="65">
         <v>2</v>
       </c>
     </row>
@@ -4062,11 +4196,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4655,6 +4789,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="65">
+        <v>25</v>
+      </c>
+      <c r="B26" s="65">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65">
+        <v>20</v>
+      </c>
+      <c r="D26" s="65">
+        <v>100</v>
+      </c>
+      <c r="E26" s="65">
+        <v>20</v>
+      </c>
+      <c r="F26" s="65">
+        <v>180</v>
+      </c>
+      <c r="G26" s="65">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4663,11 +4820,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4998,6 +5155,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="65">
+        <v>23</v>
+      </c>
+      <c r="B24" s="65">
+        <v>27</v>
+      </c>
+      <c r="C24" s="65">
+        <v>1</v>
+      </c>
+      <c r="D24" s="65">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5007,11 +5178,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5345,6 +5516,17 @@
         <v>1609775999</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="65">
+        <v>27</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="64">
+        <v>1610380799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5353,11 +5535,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8709,6 +8891,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="65">
+        <v>150</v>
+      </c>
+      <c r="B151" s="65">
+        <v>23</v>
+      </c>
+      <c r="C151" s="65">
+        <v>1</v>
+      </c>
+      <c r="D151" s="65">
+        <v>1</v>
+      </c>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65">
+        <v>135</v>
+      </c>
+      <c r="H151" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="65">
+        <v>151</v>
+      </c>
+      <c r="B152" s="65">
+        <v>23</v>
+      </c>
+      <c r="C152" s="65">
+        <v>2</v>
+      </c>
+      <c r="D152" s="65">
+        <v>2</v>
+      </c>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65">
+        <v>136</v>
+      </c>
+      <c r="H152" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="65">
+        <v>152</v>
+      </c>
+      <c r="B153" s="65">
+        <v>23</v>
+      </c>
+      <c r="C153" s="65">
+        <v>3</v>
+      </c>
+      <c r="D153" s="65">
+        <v>3</v>
+      </c>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65">
+        <v>137</v>
+      </c>
+      <c r="H153" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="65">
+        <v>153</v>
+      </c>
+      <c r="B154" s="65">
+        <v>23</v>
+      </c>
+      <c r="C154" s="65">
+        <v>4</v>
+      </c>
+      <c r="D154" s="65">
+        <v>6</v>
+      </c>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65">
+        <v>138</v>
+      </c>
+      <c r="H154" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="65">
+        <v>154</v>
+      </c>
+      <c r="B155" s="65">
+        <v>23</v>
+      </c>
+      <c r="C155" s="65">
+        <v>7</v>
+      </c>
+      <c r="D155" s="65">
+        <v>10</v>
+      </c>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65">
+        <v>139</v>
+      </c>
+      <c r="H155" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="65">
+        <v>155</v>
+      </c>
+      <c r="B156" s="65">
+        <v>23</v>
+      </c>
+      <c r="C156" s="65">
+        <v>11</v>
+      </c>
+      <c r="D156" s="65">
+        <v>15</v>
+      </c>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65">
+        <v>140</v>
+      </c>
+      <c r="H156" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="65">
+        <v>156</v>
+      </c>
+      <c r="B157" s="65">
+        <v>23</v>
+      </c>
+      <c r="C157" s="65">
+        <v>16</v>
+      </c>
+      <c r="D157" s="65">
+        <v>20</v>
+      </c>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="65">
+        <v>141</v>
+      </c>
+      <c r="H157" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8718,11 +9054,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11500,6 +11836,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="65">
+        <v>139</v>
+      </c>
+      <c r="B140" s="65">
+        <v>135</v>
+      </c>
+      <c r="C140" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="65">
+        <v>100000</v>
+      </c>
+      <c r="F140" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="65">
+        <v>140</v>
+      </c>
+      <c r="B141" s="65">
+        <v>136</v>
+      </c>
+      <c r="C141" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" s="65">
+        <v>30000</v>
+      </c>
+      <c r="F141" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="65">
+        <v>141</v>
+      </c>
+      <c r="B142" s="65">
+        <v>137</v>
+      </c>
+      <c r="C142" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="65">
+        <v>10000</v>
+      </c>
+      <c r="F142" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="65">
+        <v>142</v>
+      </c>
+      <c r="B143" s="65">
+        <v>138</v>
+      </c>
+      <c r="C143" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="65">
+        <v>3000</v>
+      </c>
+      <c r="F143" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="65">
+        <v>143</v>
+      </c>
+      <c r="B144" s="65">
+        <v>139</v>
+      </c>
+      <c r="C144" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" s="65">
+        <v>2000</v>
+      </c>
+      <c r="F144" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="65">
+        <v>144</v>
+      </c>
+      <c r="B145" s="65">
+        <v>140</v>
+      </c>
+      <c r="C145" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="65">
+        <v>1000</v>
+      </c>
+      <c r="F145" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="65">
+        <v>145</v>
+      </c>
+      <c r="B146" s="65">
+        <v>141</v>
+      </c>
+      <c r="C146" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" s="65">
+        <v>500</v>
+      </c>
+      <c r="F146" s="65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1824,9 +1824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4198,9 +4198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4570,7 +4570,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <v>20</v>
@@ -4708,7 +4708,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -9056,7 +9056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="264">
   <si>
     <t>id|</t>
   </si>
@@ -1188,6 +1188,31 @@
   </si>
   <si>
     <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qjnh_046_lhsjb_rank</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1277,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,30 +1326,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1354,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1477,74 +1478,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1854,7 +1792,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2639,147 +2577,179 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="41" t="b">
+      <c r="B23" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="27">
         <v>1607990400</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="27">
         <v>1608566399</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="27">
         <v>22</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46">
+      <c r="K23" s="27">
         <v>22</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="47">
         <v>1609171199</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="27">
         <v>23</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47">
+      <c r="K24" s="27">
         <v>23</v>
       </c>
-      <c r="L24" s="47">
+      <c r="L24" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="53" t="s">
+      <c r="B25" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="47">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="47">
         <v>1609775999</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="27">
         <v>24</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="27">
         <v>24</v>
       </c>
-      <c r="L25" s="53">
+      <c r="L25" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="63" t="s">
+      <c r="B26" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="47">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="47">
         <v>1610380799</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="27">
         <v>25</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63">
+      <c r="K26" s="27">
         <v>25</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="27">
         <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1610407800</v>
+      </c>
+      <c r="F27" s="28">
+        <v>1610985599</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="28">
+        <v>26</v>
+      </c>
+      <c r="K27" s="28">
+        <v>26</v>
+      </c>
+      <c r="L27" s="28">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2791,11 +2761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3348,13 +3318,13 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="58">
+      <c r="B41" s="5">
         <v>21</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="5">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
@@ -3364,13 +3334,13 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="5">
         <v>21</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="5">
         <v>22</v>
       </c>
       <c r="E42" s="42"/>
@@ -3380,13 +3350,13 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="5">
         <v>22</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="5">
         <v>23</v>
       </c>
     </row>
@@ -3394,13 +3364,13 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="5">
         <v>22</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="5">
         <v>23</v>
       </c>
     </row>
@@ -3408,13 +3378,13 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="5">
         <v>23</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="5">
         <v>24</v>
       </c>
     </row>
@@ -3422,13 +3392,13 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="5">
         <v>23</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="5">
         <v>24</v>
       </c>
     </row>
@@ -3436,13 +3406,13 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="5">
         <v>24</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="5">
         <v>25</v>
       </c>
     </row>
@@ -3450,13 +3420,13 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="55">
+      <c r="B48" s="5">
         <v>24</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="5">
         <v>25</v>
       </c>
     </row>
@@ -3464,13 +3434,13 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="65">
+      <c r="B49" s="5">
         <v>25</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="5">
         <v>26</v>
       </c>
     </row>
@@ -3478,14 +3448,42 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="65">
+      <c r="B50" s="5">
         <v>25</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D50" s="65">
+      <c r="D50" s="5">
         <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="31">
+        <v>50</v>
+      </c>
+      <c r="B51" s="31">
+        <v>26</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="31">
+        <v>51</v>
+      </c>
+      <c r="B52" s="31">
+        <v>26</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="31">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3497,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A36" sqref="A35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3941,16 +3939,16 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="5">
         <v>9</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3958,16 +3956,16 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3975,16 +3973,16 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3992,16 +3990,16 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="5">
         <v>9</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4009,16 +4007,16 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="5">
         <v>24</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4026,16 +4024,16 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="5">
         <v>9</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4043,16 +4041,16 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="5">
         <v>25</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4060,16 +4058,16 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="5">
         <v>26</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="5">
         <v>9</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4077,16 +4075,50 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="5">
         <v>26</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31">
+        <v>27</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="31">
+        <v>9</v>
+      </c>
+      <c r="E35" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31">
+        <v>27</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4196,11 +4228,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4570,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2">
         <v>20</v>
@@ -4582,7 +4614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4605,7 +4637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4628,7 +4660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4651,7 +4683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4674,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42">
         <v>20</v>
       </c>
@@ -4697,7 +4729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4708,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -4720,95 +4752,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="5">
         <v>100</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="5">
         <v>20</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="5">
         <v>180</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="49">
-        <v>1</v>
-      </c>
-      <c r="C24" s="49">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
         <v>20</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="5">
         <v>100</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="5">
         <v>20</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="5">
         <v>180</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="55">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="55">
-        <v>1</v>
-      </c>
-      <c r="C25" s="55">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
         <v>20</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="5">
         <v>100</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="5">
         <v>20</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="5">
         <v>180</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="65">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="65">
-        <v>1</v>
-      </c>
-      <c r="C26" s="65">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
         <v>20</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="5">
         <v>100</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="5">
         <v>20</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="5">
         <v>180</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>20</v>
+      </c>
+      <c r="D27" s="31">
+        <v>100</v>
+      </c>
+      <c r="E27" s="31">
+        <v>20</v>
+      </c>
+      <c r="F27" s="31">
+        <v>180</v>
+      </c>
+      <c r="G27" s="31">
         <v>10</v>
       </c>
     </row>
@@ -4820,11 +4876,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5002,171 +5058,185 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="5">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="5">
         <v>17</v>
       </c>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="5">
         <v>18</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="5">
         <v>19</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="5">
         <v>20</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="5">
         <v>21</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="5">
         <v>22</v>
       </c>
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="42">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="5">
         <v>24</v>
       </c>
-      <c r="C21" s="23">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="5">
         <v>25</v>
       </c>
-      <c r="C22" s="49">
-        <v>1</v>
-      </c>
-      <c r="D22" s="49">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="55">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="5">
         <v>26</v>
       </c>
-      <c r="C23" s="55">
-        <v>1</v>
-      </c>
-      <c r="D23" s="55">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="65">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="5">
         <v>27</v>
       </c>
-      <c r="C24" s="65">
-        <v>1</v>
-      </c>
-      <c r="D24" s="65">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31">
+        <v>28</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5178,11 +5248,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5395,136 +5465,147 @@
         <v>1598284799</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="5">
         <v>1598889599</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="27">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="27">
         <v>1608566399</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="47">
         <v>1609171199</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="55">
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="47">
         <v>1609775999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="65">
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="47">
         <v>1610380799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1610985599</v>
       </c>
     </row>
   </sheetData>
@@ -5535,11 +5616,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J150" sqref="J150:J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8430,618 +8511,772 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="23">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="23">
+      <c r="B130" s="5">
         <v>20</v>
       </c>
-      <c r="C130" s="23">
-        <v>1</v>
-      </c>
-      <c r="D130" s="23">
-        <v>1</v>
-      </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23">
+      <c r="C130" s="5">
+        <v>1</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5">
         <v>114</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="23">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="23">
+      <c r="B131" s="5">
         <v>20</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="5">
         <v>2</v>
       </c>
-      <c r="D131" s="23">
+      <c r="D131" s="5">
         <v>2</v>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23">
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5">
         <v>115</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H131" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="23">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="23">
+      <c r="B132" s="5">
         <v>20</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C132" s="5">
         <v>3</v>
       </c>
-      <c r="D132" s="23">
+      <c r="D132" s="5">
         <v>3</v>
       </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23">
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5">
         <v>116</v>
       </c>
-      <c r="H132" s="25" t="s">
+      <c r="H132" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="23">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="23">
+      <c r="B133" s="5">
         <v>20</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C133" s="5">
         <v>4</v>
       </c>
-      <c r="D133" s="23">
+      <c r="D133" s="5">
         <v>6</v>
       </c>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23">
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5">
         <v>117</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="23">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="23">
+      <c r="B134" s="5">
         <v>20</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="5">
         <v>7</v>
       </c>
-      <c r="D134" s="23">
+      <c r="D134" s="5">
         <v>10</v>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23">
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5">
         <v>118</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="23">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="23">
+      <c r="B135" s="5">
         <v>20</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C135" s="5">
         <v>11</v>
       </c>
-      <c r="D135" s="23">
+      <c r="D135" s="5">
         <v>15</v>
       </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23">
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5">
         <v>119</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="23">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="23">
+      <c r="B136" s="5">
         <v>20</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C136" s="5">
         <v>16</v>
       </c>
-      <c r="D136" s="23">
+      <c r="D136" s="5">
         <v>20</v>
       </c>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23">
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5">
         <v>120</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="49">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="49">
+      <c r="B137" s="5">
         <v>21</v>
       </c>
-      <c r="C137" s="49">
-        <v>1</v>
-      </c>
-      <c r="D137" s="49">
-        <v>1</v>
-      </c>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49">
+      <c r="C137" s="5">
+        <v>1</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5">
         <v>121</v>
       </c>
-      <c r="H137" s="51" t="s">
+      <c r="H137" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="49">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="49">
+      <c r="B138" s="5">
         <v>21</v>
       </c>
-      <c r="C138" s="49">
+      <c r="C138" s="5">
         <v>2</v>
       </c>
-      <c r="D138" s="49">
+      <c r="D138" s="5">
         <v>2</v>
       </c>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49">
-        <v>122</v>
-      </c>
-      <c r="H138" s="51" t="s">
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5">
+        <v>122</v>
+      </c>
+      <c r="H138" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="49">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="49">
+      <c r="B139" s="5">
         <v>21</v>
       </c>
-      <c r="C139" s="49">
+      <c r="C139" s="5">
         <v>3</v>
       </c>
-      <c r="D139" s="49">
+      <c r="D139" s="5">
         <v>3</v>
       </c>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49">
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5">
         <v>123</v>
       </c>
-      <c r="H139" s="51" t="s">
+      <c r="H139" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="49">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="49">
+      <c r="B140" s="5">
         <v>21</v>
       </c>
-      <c r="C140" s="49">
+      <c r="C140" s="5">
         <v>4</v>
       </c>
-      <c r="D140" s="49">
+      <c r="D140" s="5">
         <v>6</v>
       </c>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="49">
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5">
         <v>124</v>
       </c>
-      <c r="H140" s="51" t="s">
+      <c r="H140" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="49">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="49">
+      <c r="B141" s="5">
         <v>21</v>
       </c>
-      <c r="C141" s="49">
+      <c r="C141" s="5">
         <v>7</v>
       </c>
-      <c r="D141" s="49">
+      <c r="D141" s="5">
         <v>10</v>
       </c>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49">
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5">
         <v>125</v>
       </c>
-      <c r="H141" s="51" t="s">
+      <c r="H141" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="49">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="49">
+      <c r="B142" s="5">
         <v>21</v>
       </c>
-      <c r="C142" s="49">
+      <c r="C142" s="5">
         <v>11</v>
       </c>
-      <c r="D142" s="49">
+      <c r="D142" s="5">
         <v>15</v>
       </c>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="49">
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5">
         <v>126</v>
       </c>
-      <c r="H142" s="51" t="s">
+      <c r="H142" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="49">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="49">
+      <c r="B143" s="5">
         <v>21</v>
       </c>
-      <c r="C143" s="49">
+      <c r="C143" s="5">
         <v>16</v>
       </c>
-      <c r="D143" s="49">
+      <c r="D143" s="5">
         <v>20</v>
       </c>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49">
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5">
         <v>127</v>
       </c>
-      <c r="H143" s="51" t="s">
+      <c r="H143" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="55">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="55">
+      <c r="B144" s="5">
         <v>22</v>
       </c>
-      <c r="C144" s="55">
-        <v>1</v>
-      </c>
-      <c r="D144" s="55">
-        <v>1</v>
-      </c>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55">
+      <c r="C144" s="5">
+        <v>1</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5">
         <v>128</v>
       </c>
-      <c r="H144" s="57" t="s">
+      <c r="H144" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="55">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="55">
+      <c r="B145" s="5">
         <v>22</v>
       </c>
-      <c r="C145" s="55">
+      <c r="C145" s="5">
         <v>2</v>
       </c>
-      <c r="D145" s="55">
+      <c r="D145" s="5">
         <v>2</v>
       </c>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55">
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5">
         <v>129</v>
       </c>
-      <c r="H145" s="57" t="s">
+      <c r="H145" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="55">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="55">
+      <c r="B146" s="5">
         <v>22</v>
       </c>
-      <c r="C146" s="55">
+      <c r="C146" s="5">
         <v>3</v>
       </c>
-      <c r="D146" s="55">
+      <c r="D146" s="5">
         <v>3</v>
       </c>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="55">
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5">
         <v>130</v>
       </c>
-      <c r="H146" s="57" t="s">
+      <c r="H146" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="55">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="55">
+      <c r="B147" s="5">
         <v>22</v>
       </c>
-      <c r="C147" s="55">
+      <c r="C147" s="5">
         <v>4</v>
       </c>
-      <c r="D147" s="55">
+      <c r="D147" s="5">
         <v>6</v>
       </c>
-      <c r="E147" s="55"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="55">
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5">
         <v>131</v>
       </c>
-      <c r="H147" s="57" t="s">
+      <c r="H147" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="55">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="55">
+      <c r="B148" s="5">
         <v>22</v>
       </c>
-      <c r="C148" s="55">
+      <c r="C148" s="5">
         <v>7</v>
       </c>
-      <c r="D148" s="55">
+      <c r="D148" s="5">
         <v>10</v>
       </c>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55"/>
-      <c r="G148" s="55">
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5">
         <v>132</v>
       </c>
-      <c r="H148" s="57" t="s">
+      <c r="H148" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="55">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="55">
+      <c r="B149" s="5">
         <v>22</v>
       </c>
-      <c r="C149" s="55">
+      <c r="C149" s="5">
         <v>11</v>
       </c>
-      <c r="D149" s="55">
+      <c r="D149" s="5">
         <v>15</v>
       </c>
-      <c r="E149" s="55"/>
-      <c r="F149" s="55"/>
-      <c r="G149" s="55">
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5">
         <v>133</v>
       </c>
-      <c r="H149" s="57" t="s">
+      <c r="H149" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="55">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="55">
+      <c r="B150" s="5">
         <v>22</v>
       </c>
-      <c r="C150" s="55">
+      <c r="C150" s="5">
         <v>16</v>
       </c>
-      <c r="D150" s="55">
+      <c r="D150" s="5">
         <v>20</v>
       </c>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="55">
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5">
         <v>134</v>
       </c>
-      <c r="H150" s="57" t="s">
+      <c r="H150" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="65">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="65">
+      <c r="B151" s="5">
         <v>23</v>
       </c>
-      <c r="C151" s="65">
-        <v>1</v>
-      </c>
-      <c r="D151" s="65">
-        <v>1</v>
-      </c>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65">
+      <c r="C151" s="5">
+        <v>1</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5">
         <v>135</v>
       </c>
-      <c r="H151" s="68" t="s">
+      <c r="H151" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="65">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="65">
+      <c r="B152" s="5">
         <v>23</v>
       </c>
-      <c r="C152" s="65">
+      <c r="C152" s="5">
         <v>2</v>
       </c>
-      <c r="D152" s="65">
+      <c r="D152" s="5">
         <v>2</v>
       </c>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65">
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5">
         <v>136</v>
       </c>
-      <c r="H152" s="68" t="s">
+      <c r="H152" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="65">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="65">
+      <c r="B153" s="5">
         <v>23</v>
       </c>
-      <c r="C153" s="65">
+      <c r="C153" s="5">
         <v>3</v>
       </c>
-      <c r="D153" s="65">
+      <c r="D153" s="5">
         <v>3</v>
       </c>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="65">
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5">
         <v>137</v>
       </c>
-      <c r="H153" s="68" t="s">
+      <c r="H153" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="65">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="65">
+      <c r="B154" s="5">
         <v>23</v>
       </c>
-      <c r="C154" s="65">
+      <c r="C154" s="5">
         <v>4</v>
       </c>
-      <c r="D154" s="65">
+      <c r="D154" s="5">
         <v>6</v>
       </c>
-      <c r="E154" s="65"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="65">
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5">
         <v>138</v>
       </c>
-      <c r="H154" s="68" t="s">
+      <c r="H154" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="65">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="65">
+      <c r="B155" s="5">
         <v>23</v>
       </c>
-      <c r="C155" s="65">
+      <c r="C155" s="5">
         <v>7</v>
       </c>
-      <c r="D155" s="65">
+      <c r="D155" s="5">
         <v>10</v>
       </c>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65">
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5">
         <v>139</v>
       </c>
-      <c r="H155" s="68" t="s">
+      <c r="H155" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="65">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="65">
+      <c r="B156" s="5">
         <v>23</v>
       </c>
-      <c r="C156" s="65">
+      <c r="C156" s="5">
         <v>11</v>
       </c>
-      <c r="D156" s="65">
+      <c r="D156" s="5">
         <v>15</v>
       </c>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="65">
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5">
         <v>140</v>
       </c>
-      <c r="H156" s="68" t="s">
+      <c r="H156" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="65">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="65">
+      <c r="B157" s="5">
         <v>23</v>
       </c>
-      <c r="C157" s="65">
+      <c r="C157" s="5">
         <v>16</v>
       </c>
-      <c r="D157" s="65">
+      <c r="D157" s="5">
         <v>20</v>
       </c>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="65">
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5">
         <v>141</v>
       </c>
-      <c r="H157" s="68" t="s">
+      <c r="H157" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="31">
+        <v>157</v>
+      </c>
+      <c r="B158" s="31">
+        <v>24</v>
+      </c>
+      <c r="C158" s="31">
+        <v>1</v>
+      </c>
+      <c r="D158" s="31">
+        <v>1</v>
+      </c>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31">
+        <v>142</v>
+      </c>
+      <c r="H158" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="31">
+        <v>158</v>
+      </c>
+      <c r="B159" s="31">
+        <v>24</v>
+      </c>
+      <c r="C159" s="31">
+        <v>2</v>
+      </c>
+      <c r="D159" s="31">
+        <v>2</v>
+      </c>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31">
+        <v>143</v>
+      </c>
+      <c r="H159" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="31">
+        <v>159</v>
+      </c>
+      <c r="B160" s="31">
+        <v>24</v>
+      </c>
+      <c r="C160" s="31">
+        <v>3</v>
+      </c>
+      <c r="D160" s="31">
+        <v>3</v>
+      </c>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31">
+        <v>144</v>
+      </c>
+      <c r="H160" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="31">
+        <v>160</v>
+      </c>
+      <c r="B161" s="31">
+        <v>24</v>
+      </c>
+      <c r="C161" s="31">
+        <v>4</v>
+      </c>
+      <c r="D161" s="31">
+        <v>6</v>
+      </c>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31">
+        <v>145</v>
+      </c>
+      <c r="H161" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="31">
+        <v>161</v>
+      </c>
+      <c r="B162" s="31">
+        <v>24</v>
+      </c>
+      <c r="C162" s="31">
+        <v>7</v>
+      </c>
+      <c r="D162" s="31">
+        <v>10</v>
+      </c>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="31">
+        <v>146</v>
+      </c>
+      <c r="H162" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="31">
+        <v>162</v>
+      </c>
+      <c r="B163" s="31">
+        <v>24</v>
+      </c>
+      <c r="C163" s="31">
+        <v>11</v>
+      </c>
+      <c r="D163" s="31">
+        <v>15</v>
+      </c>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31">
+        <v>147</v>
+      </c>
+      <c r="H163" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="31">
+        <v>163</v>
+      </c>
+      <c r="B164" s="31">
+        <v>24</v>
+      </c>
+      <c r="C164" s="31">
+        <v>16</v>
+      </c>
+      <c r="D164" s="31">
+        <v>20</v>
+      </c>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31">
+        <v>148</v>
+      </c>
+      <c r="H164" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9054,11 +9289,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11417,562 +11652,702 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="23">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="5">
         <v>114</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="5">
         <v>100000</v>
       </c>
-      <c r="F119" s="23">
+      <c r="F119" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="23">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="5">
         <v>115</v>
       </c>
-      <c r="C120" s="44" t="s">
+      <c r="C120" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="5">
         <v>30000</v>
       </c>
-      <c r="F120" s="23">
+      <c r="F120" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="23">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="5">
         <v>116</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E121" s="23">
+      <c r="E121" s="5">
         <v>10000</v>
       </c>
-      <c r="F121" s="23">
+      <c r="F121" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="23">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B122" s="5">
         <v>117</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C122" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E122" s="23">
+      <c r="E122" s="5">
         <v>3000</v>
       </c>
-      <c r="F122" s="23">
+      <c r="F122" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="23">
-        <v>122</v>
-      </c>
-      <c r="B123" s="23">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
         <v>118</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="5">
         <v>2000</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="23">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B124" s="5">
         <v>119</v>
       </c>
-      <c r="C124" s="44" t="s">
+      <c r="C124" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E124" s="23">
+      <c r="E124" s="5">
         <v>1000</v>
       </c>
-      <c r="F124" s="23">
+      <c r="F124" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="23">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" s="5">
         <v>120</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="5">
         <v>500</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="49">
+      <c r="B126" s="5">
         <v>121</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="5">
         <v>100000</v>
       </c>
-      <c r="F126" s="49">
+      <c r="F126" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="49">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="49">
-        <v>122</v>
-      </c>
-      <c r="C127" s="50" t="s">
+      <c r="B127" s="5">
+        <v>122</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E127" s="49">
+      <c r="E127" s="5">
         <v>30000</v>
       </c>
-      <c r="F127" s="49">
+      <c r="F127" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="49">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="49">
+      <c r="B128" s="5">
         <v>123</v>
       </c>
-      <c r="C128" s="50" t="s">
+      <c r="C128" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="5">
         <v>10000</v>
       </c>
-      <c r="F128" s="49">
+      <c r="F128" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="49">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="49">
+      <c r="B129" s="5">
         <v>124</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E129" s="49">
+      <c r="E129" s="5">
         <v>3000</v>
       </c>
-      <c r="F129" s="49">
+      <c r="F129" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="49">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="49">
+      <c r="B130" s="5">
         <v>125</v>
       </c>
-      <c r="C130" s="50" t="s">
+      <c r="C130" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E130" s="49">
+      <c r="E130" s="5">
         <v>2000</v>
       </c>
-      <c r="F130" s="49">
+      <c r="F130" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="49">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="49">
+      <c r="B131" s="5">
         <v>126</v>
       </c>
-      <c r="C131" s="50" t="s">
+      <c r="C131" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D131" s="50" t="s">
+      <c r="D131" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="5">
         <v>1000</v>
       </c>
-      <c r="F131" s="49">
+      <c r="F131" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="49">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="49">
+      <c r="B132" s="5">
         <v>127</v>
       </c>
-      <c r="C132" s="50" t="s">
+      <c r="C132" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E132" s="49">
+      <c r="E132" s="5">
         <v>500</v>
       </c>
-      <c r="F132" s="49">
+      <c r="F132" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="55">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="55">
+      <c r="B133" s="5">
         <v>128</v>
       </c>
-      <c r="C133" s="56" t="s">
+      <c r="C133" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E133" s="55">
+      <c r="E133" s="5">
         <v>100000</v>
       </c>
-      <c r="F133" s="55">
+      <c r="F133" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="55">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="55">
+      <c r="B134" s="5">
         <v>129</v>
       </c>
-      <c r="C134" s="56" t="s">
+      <c r="C134" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D134" s="56" t="s">
+      <c r="D134" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E134" s="55">
+      <c r="E134" s="5">
         <v>30000</v>
       </c>
-      <c r="F134" s="55">
+      <c r="F134" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="55">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="55">
+      <c r="B135" s="5">
         <v>130</v>
       </c>
-      <c r="C135" s="56" t="s">
+      <c r="C135" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D135" s="56" t="s">
+      <c r="D135" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E135" s="55">
+      <c r="E135" s="5">
         <v>10000</v>
       </c>
-      <c r="F135" s="55">
+      <c r="F135" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="55">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="55">
+      <c r="B136" s="5">
         <v>131</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D136" s="56" t="s">
+      <c r="D136" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E136" s="55">
+      <c r="E136" s="5">
         <v>3000</v>
       </c>
-      <c r="F136" s="55">
+      <c r="F136" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="55">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="55">
+      <c r="B137" s="5">
         <v>132</v>
       </c>
-      <c r="C137" s="56" t="s">
+      <c r="C137" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D137" s="56" t="s">
+      <c r="D137" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E137" s="55">
+      <c r="E137" s="5">
         <v>2000</v>
       </c>
-      <c r="F137" s="55">
+      <c r="F137" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="55">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="55">
+      <c r="B138" s="5">
         <v>133</v>
       </c>
-      <c r="C138" s="56" t="s">
+      <c r="C138" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D138" s="56" t="s">
+      <c r="D138" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E138" s="55">
+      <c r="E138" s="5">
         <v>1000</v>
       </c>
-      <c r="F138" s="55">
+      <c r="F138" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="55">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="55">
+      <c r="B139" s="5">
         <v>134</v>
       </c>
-      <c r="C139" s="56" t="s">
+      <c r="C139" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D139" s="56" t="s">
+      <c r="D139" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E139" s="55">
+      <c r="E139" s="5">
         <v>500</v>
       </c>
-      <c r="F139" s="55">
+      <c r="F139" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="65">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="65">
+      <c r="B140" s="5">
         <v>135</v>
       </c>
-      <c r="C140" s="66" t="s">
+      <c r="C140" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="66" t="s">
+      <c r="D140" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E140" s="65">
+      <c r="E140" s="5">
         <v>100000</v>
       </c>
-      <c r="F140" s="65">
+      <c r="F140" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="65">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="65">
+      <c r="B141" s="5">
         <v>136</v>
       </c>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D141" s="66" t="s">
+      <c r="D141" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E141" s="65">
+      <c r="E141" s="5">
         <v>30000</v>
       </c>
-      <c r="F141" s="65">
+      <c r="F141" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="65">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="65">
+      <c r="B142" s="5">
         <v>137</v>
       </c>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D142" s="66" t="s">
+      <c r="D142" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E142" s="65">
+      <c r="E142" s="5">
         <v>10000</v>
       </c>
-      <c r="F142" s="65">
+      <c r="F142" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="65">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="65">
+      <c r="B143" s="5">
         <v>138</v>
       </c>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D143" s="66" t="s">
+      <c r="D143" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E143" s="65">
+      <c r="E143" s="5">
         <v>3000</v>
       </c>
-      <c r="F143" s="65">
+      <c r="F143" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="65">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="65">
+      <c r="B144" s="5">
         <v>139</v>
       </c>
-      <c r="C144" s="66" t="s">
+      <c r="C144" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D144" s="66" t="s">
+      <c r="D144" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E144" s="65">
+      <c r="E144" s="5">
         <v>2000</v>
       </c>
-      <c r="F144" s="65">
+      <c r="F144" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="65">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="65">
+      <c r="B145" s="5">
         <v>140</v>
       </c>
-      <c r="C145" s="66" t="s">
+      <c r="C145" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="D145" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E145" s="65">
+      <c r="E145" s="5">
         <v>1000</v>
       </c>
-      <c r="F145" s="65">
+      <c r="F145" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="65">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="65">
+      <c r="B146" s="5">
         <v>141</v>
       </c>
-      <c r="C146" s="66" t="s">
+      <c r="C146" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D146" s="66" t="s">
+      <c r="D146" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E146" s="65">
+      <c r="E146" s="5">
         <v>500</v>
       </c>
-      <c r="F146" s="65">
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="31">
+        <v>146</v>
+      </c>
+      <c r="B147" s="31">
+        <v>142</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F147" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="31">
+        <v>147</v>
+      </c>
+      <c r="B148" s="31">
+        <v>143</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F148" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="31">
+        <v>148</v>
+      </c>
+      <c r="B149" s="31">
+        <v>144</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F149" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="31">
+        <v>149</v>
+      </c>
+      <c r="B150" s="31">
+        <v>145</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F150" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="31">
+        <v>150</v>
+      </c>
+      <c r="B151" s="31">
+        <v>146</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F151" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="31">
+        <v>151</v>
+      </c>
+      <c r="B152" s="31">
+        <v>147</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E152" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F152" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="31">
+        <v>152</v>
+      </c>
+      <c r="B153" s="31">
+        <v>148</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E153" s="31">
+        <v>500</v>
+      </c>
+      <c r="F153" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="266">
   <si>
     <t>id|</t>
   </si>
@@ -1213,6 +1213,14 @@
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>khqd_001_lzphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵珠收集榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,19 +1463,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,11 +1759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1792,7 +1791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2335,245 +2334,245 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="27">
         <v>1604246400</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="27">
         <v>16</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="27">
         <v>15</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="b">
+      <c r="B17" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>17</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>16</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="b">
+      <c r="B18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>18</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>17</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="b">
+      <c r="B19" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>19</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>18</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="b">
+      <c r="B20" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>20</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>19</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="b">
+      <c r="B21" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="27">
         <v>1607385600</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="27">
         <v>1607961599</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="27">
         <v>21</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="27">
         <v>20</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="27">
         <v>1604246400</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="27">
         <v>21</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="27">
         <v>19</v>
       </c>
     </row>
@@ -2625,10 +2624,10 @@
       <c r="D24" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="44">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="44">
         <v>1609171199</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -2660,10 +2659,10 @@
       <c r="D25" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="44">
         <v>1609775999</v>
       </c>
       <c r="G25" s="27" t="s">
@@ -2695,10 +2694,10 @@
       <c r="D26" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="44">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="44">
         <v>1610380799</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -2717,39 +2716,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>1610407800</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>1610985599</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>26</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>26</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="27">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1610409600</v>
+      </c>
+      <c r="F28" s="28">
+        <v>1611590399</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="28">
+        <v>27</v>
+      </c>
+      <c r="K28" s="28">
+        <v>27</v>
+      </c>
+      <c r="L28" s="28">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2761,11 +2795,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A51:D52"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3314,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3327,10 +3361,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3343,8 +3377,8 @@
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3459,31 +3493,59 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="31">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="5">
         <v>26</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="31">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="5">
         <v>26</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="5">
         <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="31">
+        <v>27</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="31">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31">
+        <v>27</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="31">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A35:E36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4089,36 +4151,70 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="5">
         <v>27</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="5">
         <v>27</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31">
+        <v>28</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="31">
+        <v>9</v>
+      </c>
+      <c r="E37" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31">
+        <v>28</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4228,11 +4324,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:G27"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4706,26 +4802,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
-      <c r="B21" s="42">
-        <v>1</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
         <v>20</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="39">
         <v>100</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="39">
         <v>20</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="39">
         <v>180</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="39">
         <v>10</v>
       </c>
     </row>
@@ -4845,26 +4941,49 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
         <v>20</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="5">
         <v>100</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="5">
         <v>20</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="5">
         <v>180</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31">
+        <v>20</v>
+      </c>
+      <c r="D28" s="31">
+        <v>100</v>
+      </c>
+      <c r="E28" s="31">
+        <v>20</v>
+      </c>
+      <c r="F28" s="31">
+        <v>180</v>
+      </c>
+      <c r="G28" s="31">
         <v>10</v>
       </c>
     </row>
@@ -4876,11 +4995,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:D25"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5071,7 +5190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5085,7 +5204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5099,7 +5218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5113,7 +5232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5127,7 +5246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5141,7 +5260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5225,18 +5344,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="5">
         <v>28</v>
       </c>
-      <c r="C25" s="31">
-        <v>1</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5248,11 +5381,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29:E30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5571,7 +5704,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="44">
         <v>1609171199</v>
       </c>
     </row>
@@ -5582,7 +5715,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="44">
         <v>1609775999</v>
       </c>
     </row>
@@ -5593,19 +5726,30 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="44">
         <v>1610380799</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+    <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="5">
         <v>1610985599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -5616,11 +5760,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J150" sqref="J150:J151"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7702,7 +7846,7 @@
       <c r="G93" s="34">
         <v>92</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I93" s="34"/>
@@ -7725,7 +7869,7 @@
       <c r="G94" s="34">
         <v>93</v>
       </c>
-      <c r="H94" s="39" t="s">
+      <c r="H94" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I94" s="34"/>
@@ -7748,7 +7892,7 @@
       <c r="G95" s="34">
         <v>94</v>
       </c>
-      <c r="H95" s="39" t="s">
+      <c r="H95" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I95" s="34"/>
@@ -7771,7 +7915,7 @@
       <c r="G96" s="34">
         <v>95</v>
       </c>
-      <c r="H96" s="39" t="s">
+      <c r="H96" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I96" s="34"/>
@@ -7794,7 +7938,7 @@
       <c r="G97" s="34">
         <v>96</v>
       </c>
-      <c r="H97" s="39" t="s">
+      <c r="H97" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I97" s="34"/>
@@ -8241,166 +8385,166 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="42">
+    <row r="118" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="39">
         <v>117</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="39">
         <v>18</v>
       </c>
-      <c r="C118" s="42">
-        <v>1</v>
-      </c>
-      <c r="D118" s="42">
-        <v>1</v>
-      </c>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42">
+      <c r="C118" s="39">
+        <v>1</v>
+      </c>
+      <c r="D118" s="39">
+        <v>1</v>
+      </c>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39">
         <v>102</v>
       </c>
-      <c r="H118" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="42"/>
-    </row>
-    <row r="119" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="42">
+      <c r="H118" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="39"/>
+    </row>
+    <row r="119" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="39">
         <v>118</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="39">
         <v>18</v>
       </c>
-      <c r="C119" s="42">
+      <c r="C119" s="39">
         <v>2</v>
       </c>
-      <c r="D119" s="42">
+      <c r="D119" s="39">
         <v>2</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42">
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39">
         <v>103</v>
       </c>
-      <c r="H119" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="42"/>
-    </row>
-    <row r="120" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="42">
+      <c r="H119" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="39"/>
+    </row>
+    <row r="120" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="39">
         <v>119</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="39">
         <v>18</v>
       </c>
-      <c r="C120" s="42">
+      <c r="C120" s="39">
         <v>3</v>
       </c>
-      <c r="D120" s="42">
+      <c r="D120" s="39">
         <v>3</v>
       </c>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42">
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39">
         <v>104</v>
       </c>
-      <c r="H120" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="42"/>
-    </row>
-    <row r="121" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="42">
+      <c r="H120" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="39"/>
+    </row>
+    <row r="121" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="39">
         <v>120</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="39">
         <v>18</v>
       </c>
-      <c r="C121" s="42">
+      <c r="C121" s="39">
         <v>4</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D121" s="39">
         <v>6</v>
       </c>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42">
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39">
         <v>105</v>
       </c>
-      <c r="H121" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="42"/>
-    </row>
-    <row r="122" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="42">
+      <c r="H121" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="39"/>
+    </row>
+    <row r="122" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39">
         <v>121</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="39">
         <v>18</v>
       </c>
-      <c r="C122" s="42">
+      <c r="C122" s="39">
         <v>7</v>
       </c>
-      <c r="D122" s="42">
+      <c r="D122" s="39">
         <v>10</v>
       </c>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42">
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39">
         <v>106</v>
       </c>
-      <c r="H122" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="42"/>
-    </row>
-    <row r="123" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="42">
-        <v>122</v>
-      </c>
-      <c r="B123" s="42">
+      <c r="H122" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="39"/>
+    </row>
+    <row r="123" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="39">
+        <v>122</v>
+      </c>
+      <c r="B123" s="39">
         <v>18</v>
       </c>
-      <c r="C123" s="42">
+      <c r="C123" s="39">
         <v>11</v>
       </c>
-      <c r="D123" s="42">
+      <c r="D123" s="39">
         <v>15</v>
       </c>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42">
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39">
         <v>107</v>
       </c>
-      <c r="H123" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="42"/>
-    </row>
-    <row r="124" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="42">
+      <c r="H123" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="39"/>
+    </row>
+    <row r="124" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="39">
         <v>123</v>
       </c>
-      <c r="B124" s="42">
+      <c r="B124" s="39">
         <v>18</v>
       </c>
-      <c r="C124" s="42">
+      <c r="C124" s="39">
         <v>16</v>
       </c>
-      <c r="D124" s="42">
+      <c r="D124" s="39">
         <v>20</v>
       </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42">
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39">
         <v>108</v>
       </c>
-      <c r="H124" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="42"/>
+      <c r="H124" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="39"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
@@ -9127,156 +9271,310 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="5">
         <v>24</v>
       </c>
-      <c r="C158" s="31">
-        <v>1</v>
-      </c>
-      <c r="D158" s="31">
-        <v>1</v>
-      </c>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="31">
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5">
         <v>142</v>
       </c>
-      <c r="H158" s="32" t="s">
+      <c r="H158" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="31">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="5">
         <v>24</v>
       </c>
-      <c r="C159" s="31">
+      <c r="C159" s="5">
         <v>2</v>
       </c>
-      <c r="D159" s="31">
+      <c r="D159" s="5">
         <v>2</v>
       </c>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="31">
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5">
         <v>143</v>
       </c>
-      <c r="H159" s="32" t="s">
+      <c r="H159" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="31">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="5">
         <v>24</v>
       </c>
-      <c r="C160" s="31">
+      <c r="C160" s="5">
         <v>3</v>
       </c>
-      <c r="D160" s="31">
+      <c r="D160" s="5">
         <v>3</v>
       </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="31">
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5">
         <v>144</v>
       </c>
-      <c r="H160" s="32" t="s">
+      <c r="H160" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="5">
         <v>24</v>
       </c>
-      <c r="C161" s="31">
+      <c r="C161" s="5">
         <v>4</v>
       </c>
-      <c r="D161" s="31">
+      <c r="D161" s="5">
         <v>6</v>
       </c>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31">
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5">
         <v>145</v>
       </c>
-      <c r="H161" s="32" t="s">
+      <c r="H161" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="5">
         <v>24</v>
       </c>
-      <c r="C162" s="31">
+      <c r="C162" s="5">
         <v>7</v>
       </c>
-      <c r="D162" s="31">
+      <c r="D162" s="5">
         <v>10</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="31">
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5">
         <v>146</v>
       </c>
-      <c r="H162" s="32" t="s">
+      <c r="H162" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="31">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="31">
+      <c r="B163" s="5">
         <v>24</v>
       </c>
-      <c r="C163" s="31">
+      <c r="C163" s="5">
         <v>11</v>
       </c>
-      <c r="D163" s="31">
+      <c r="D163" s="5">
         <v>15</v>
       </c>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31">
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5">
         <v>147</v>
       </c>
-      <c r="H163" s="32" t="s">
+      <c r="H163" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="31">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="31">
+      <c r="B164" s="5">
         <v>24</v>
       </c>
-      <c r="C164" s="31">
+      <c r="C164" s="5">
         <v>16</v>
       </c>
-      <c r="D164" s="31">
+      <c r="D164" s="5">
         <v>20</v>
       </c>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="31">
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5">
         <v>148</v>
       </c>
-      <c r="H164" s="32" t="s">
+      <c r="H164" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="31">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>25</v>
+      </c>
+      <c r="C165" s="31">
+        <v>1</v>
+      </c>
+      <c r="D165" s="31">
+        <v>1</v>
+      </c>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31">
+        <v>149</v>
+      </c>
+      <c r="H165" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="31">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>25</v>
+      </c>
+      <c r="C166" s="31">
+        <v>2</v>
+      </c>
+      <c r="D166" s="31">
+        <v>2</v>
+      </c>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31">
+        <v>150</v>
+      </c>
+      <c r="H166" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>25</v>
+      </c>
+      <c r="C167" s="31">
+        <v>3</v>
+      </c>
+      <c r="D167" s="31">
+        <v>3</v>
+      </c>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31">
+        <v>151</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="31">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>25</v>
+      </c>
+      <c r="C168" s="31">
+        <v>4</v>
+      </c>
+      <c r="D168" s="31">
+        <v>6</v>
+      </c>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31">
+        <v>152</v>
+      </c>
+      <c r="H168" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="31">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>25</v>
+      </c>
+      <c r="C169" s="31">
+        <v>7</v>
+      </c>
+      <c r="D169" s="31">
+        <v>10</v>
+      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31">
+        <v>153</v>
+      </c>
+      <c r="H169" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="31">
+        <v>169</v>
+      </c>
+      <c r="B170" s="31">
+        <v>25</v>
+      </c>
+      <c r="C170" s="31">
+        <v>11</v>
+      </c>
+      <c r="D170" s="31">
+        <v>15</v>
+      </c>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31">
+        <v>154</v>
+      </c>
+      <c r="H170" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="31">
+        <v>170</v>
+      </c>
+      <c r="B171" s="31">
+        <v>25</v>
+      </c>
+      <c r="C171" s="31">
+        <v>16</v>
+      </c>
+      <c r="D171" s="31">
+        <v>20</v>
+      </c>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31">
+        <v>155</v>
+      </c>
+      <c r="H171" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9289,11 +9587,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159:C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11311,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -11331,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
@@ -11351,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31">
         <v>103</v>
       </c>
@@ -11371,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
         <v>104</v>
       </c>
@@ -11391,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
         <v>105</v>
       </c>
@@ -11411,143 +11709,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="42">
+    <row r="107" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
         <v>106</v>
       </c>
-      <c r="B107" s="42">
+      <c r="B107" s="39">
         <v>102</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="D107" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="42">
+      <c r="E107" s="39">
         <v>100000</v>
       </c>
-      <c r="F107" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="42">
+      <c r="F107" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="39">
         <v>107</v>
       </c>
-      <c r="B108" s="42">
+      <c r="B108" s="39">
         <v>103</v>
       </c>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="39">
         <v>30000</v>
       </c>
-      <c r="F108" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="42">
+      <c r="F108" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
         <v>108</v>
       </c>
-      <c r="B109" s="42">
+      <c r="B109" s="39">
         <v>104</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="D109" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E109" s="42">
+      <c r="E109" s="39">
         <v>10000</v>
       </c>
-      <c r="F109" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="42">
+      <c r="F109" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="39">
         <v>109</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="39">
         <v>105</v>
       </c>
-      <c r="C110" s="44" t="s">
+      <c r="C110" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E110" s="39">
         <v>3000</v>
       </c>
-      <c r="F110" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="42">
+      <c r="F110" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="39">
         <v>110</v>
       </c>
-      <c r="B111" s="42">
+      <c r="B111" s="39">
         <v>106</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E111" s="42">
+      <c r="E111" s="39">
         <v>2000</v>
       </c>
-      <c r="F111" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="42">
+      <c r="F111" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39">
         <v>111</v>
       </c>
-      <c r="B112" s="42">
+      <c r="B112" s="39">
         <v>107</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="D112" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E112" s="42">
+      <c r="E112" s="39">
         <v>1000</v>
       </c>
-      <c r="F112" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="42">
+      <c r="F112" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="39">
         <v>112</v>
       </c>
-      <c r="B113" s="42">
+      <c r="B113" s="39">
         <v>108</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="44" t="s">
+      <c r="D113" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="42">
+      <c r="E113" s="39">
         <v>500</v>
       </c>
-      <c r="F113" s="42">
+      <c r="F113" s="39">
         <v>1</v>
       </c>
     </row>
@@ -12212,142 +12510,282 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="31">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="5">
         <v>142</v>
       </c>
-      <c r="C147" s="33" t="s">
+      <c r="C147" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E147" s="31">
+      <c r="E147" s="5">
         <v>100000</v>
       </c>
-      <c r="F147" s="31">
+      <c r="F147" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="31">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="5">
         <v>143</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="31">
+      <c r="E148" s="5">
         <v>30000</v>
       </c>
-      <c r="F148" s="31">
+      <c r="F148" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="31">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B149" s="5">
         <v>144</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="31">
+      <c r="E149" s="5">
         <v>10000</v>
       </c>
-      <c r="F149" s="31">
+      <c r="F149" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="31">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B150" s="5">
         <v>145</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E150" s="31">
+      <c r="E150" s="5">
         <v>3000</v>
       </c>
-      <c r="F150" s="31">
+      <c r="F150" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="31">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B151" s="5">
         <v>146</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E151" s="31">
+      <c r="E151" s="5">
         <v>2000</v>
       </c>
-      <c r="F151" s="31">
+      <c r="F151" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="31">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="5">
         <v>147</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E152" s="31">
+      <c r="E152" s="5">
         <v>1000</v>
       </c>
-      <c r="F152" s="31">
+      <c r="F152" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="31">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="5">
         <v>148</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="D153" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E153" s="31">
+      <c r="E153" s="5">
         <v>500</v>
       </c>
-      <c r="F153" s="31">
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="31">
+        <v>153</v>
+      </c>
+      <c r="B154" s="31">
+        <v>149</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F154" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="31">
+        <v>154</v>
+      </c>
+      <c r="B155" s="31">
+        <v>150</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E155" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F155" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="31">
+        <v>155</v>
+      </c>
+      <c r="B156" s="31">
+        <v>151</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E156" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F156" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="31">
+        <v>156</v>
+      </c>
+      <c r="B157" s="31">
+        <v>152</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F157" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="31">
+        <v>157</v>
+      </c>
+      <c r="B158" s="31">
+        <v>153</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E158" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F158" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="31">
+        <v>158</v>
+      </c>
+      <c r="B159" s="31">
+        <v>154</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E159" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F159" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="31">
+        <v>159</v>
+      </c>
+      <c r="B160" s="31">
+        <v>155</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" s="31">
+        <v>500</v>
+      </c>
+      <c r="F160" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="268">
   <si>
     <t>id|</t>
   </si>
@@ -1221,6 +1221,14 @@
   </si>
   <si>
     <t>灵珠收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drswn_002_ygbd_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1759,11 +1767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2751,39 +2759,74 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>1610409600</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>1611590399</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>27</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>27</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="27">
         <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1611590400</v>
+      </c>
+      <c r="F29" s="28">
+        <v>1612195199</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="28">
+        <v>28</v>
+      </c>
+      <c r="K29" s="28">
+        <v>28</v>
+      </c>
+      <c r="L29" s="28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2795,11 +2838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3521,31 +3564,59 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="5">
         <v>27</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="5">
         <v>27</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="5">
         <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="31">
+        <v>54</v>
+      </c>
+      <c r="B55" s="31">
+        <v>28</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="31">
+        <v>55</v>
+      </c>
+      <c r="B56" s="31">
+        <v>28</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="31">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3557,10 +3628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4185,36 +4256,70 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="5">
         <v>28</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="5">
         <v>28</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31">
+        <v>29</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="31">
+        <v>9</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31">
+        <v>29</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4324,11 +4429,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4965,25 +5070,48 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
-        <v>1</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>20</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="5">
         <v>100</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="5">
         <v>20</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="5">
         <v>180</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20</v>
+      </c>
+      <c r="D29" s="31">
+        <v>100</v>
+      </c>
+      <c r="E29" s="31">
+        <v>20</v>
+      </c>
+      <c r="F29" s="31">
+        <v>180</v>
+      </c>
+      <c r="G29" s="31">
         <v>10</v>
       </c>
     </row>
@@ -4995,11 +5123,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5359,17 +5487,31 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="5">
         <v>29</v>
       </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>30</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5381,11 +5523,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5742,14 +5884,25 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>1611590399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>
@@ -5760,11 +5913,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9425,156 +9578,310 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="31">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="31">
+      <c r="B165" s="5">
         <v>25</v>
       </c>
-      <c r="C165" s="31">
-        <v>1</v>
-      </c>
-      <c r="D165" s="31">
-        <v>1</v>
-      </c>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31">
+      <c r="C165" s="5">
+        <v>1</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5">
         <v>149</v>
       </c>
-      <c r="H165" s="32" t="s">
+      <c r="H165" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="31">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="31">
+      <c r="B166" s="5">
         <v>25</v>
       </c>
-      <c r="C166" s="31">
+      <c r="C166" s="5">
         <v>2</v>
       </c>
-      <c r="D166" s="31">
+      <c r="D166" s="5">
         <v>2</v>
       </c>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31">
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5">
         <v>150</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="31">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="31">
+      <c r="B167" s="5">
         <v>25</v>
       </c>
-      <c r="C167" s="31">
+      <c r="C167" s="5">
         <v>3</v>
       </c>
-      <c r="D167" s="31">
+      <c r="D167" s="5">
         <v>3</v>
       </c>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31">
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5">
         <v>151</v>
       </c>
-      <c r="H167" s="32" t="s">
+      <c r="H167" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="31">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="31">
+      <c r="B168" s="5">
         <v>25</v>
       </c>
-      <c r="C168" s="31">
+      <c r="C168" s="5">
         <v>4</v>
       </c>
-      <c r="D168" s="31">
+      <c r="D168" s="5">
         <v>6</v>
       </c>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31">
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5">
         <v>152</v>
       </c>
-      <c r="H168" s="32" t="s">
+      <c r="H168" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="31">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="31">
+      <c r="B169" s="5">
         <v>25</v>
       </c>
-      <c r="C169" s="31">
+      <c r="C169" s="5">
         <v>7</v>
       </c>
-      <c r="D169" s="31">
+      <c r="D169" s="5">
         <v>10</v>
       </c>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31">
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5">
         <v>153</v>
       </c>
-      <c r="H169" s="32" t="s">
+      <c r="H169" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="31">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="31">
+      <c r="B170" s="5">
         <v>25</v>
       </c>
-      <c r="C170" s="31">
+      <c r="C170" s="5">
         <v>11</v>
       </c>
-      <c r="D170" s="31">
+      <c r="D170" s="5">
         <v>15</v>
       </c>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31">
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5">
         <v>154</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="31">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="5">
         <v>25</v>
       </c>
-      <c r="C171" s="31">
+      <c r="C171" s="5">
         <v>16</v>
       </c>
-      <c r="D171" s="31">
+      <c r="D171" s="5">
         <v>20</v>
       </c>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31">
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5">
         <v>155</v>
       </c>
-      <c r="H171" s="32" t="s">
+      <c r="H171" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="31">
+        <v>171</v>
+      </c>
+      <c r="B172" s="31">
+        <v>26</v>
+      </c>
+      <c r="C172" s="31">
+        <v>1</v>
+      </c>
+      <c r="D172" s="31">
+        <v>1</v>
+      </c>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31">
+        <v>156</v>
+      </c>
+      <c r="H172" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="31">
+        <v>172</v>
+      </c>
+      <c r="B173" s="31">
+        <v>26</v>
+      </c>
+      <c r="C173" s="31">
+        <v>2</v>
+      </c>
+      <c r="D173" s="31">
+        <v>2</v>
+      </c>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31">
+        <v>157</v>
+      </c>
+      <c r="H173" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="31">
+        <v>173</v>
+      </c>
+      <c r="B174" s="31">
+        <v>26</v>
+      </c>
+      <c r="C174" s="31">
+        <v>3</v>
+      </c>
+      <c r="D174" s="31">
+        <v>3</v>
+      </c>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31">
+        <v>158</v>
+      </c>
+      <c r="H174" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="31">
+        <v>174</v>
+      </c>
+      <c r="B175" s="31">
+        <v>26</v>
+      </c>
+      <c r="C175" s="31">
+        <v>4</v>
+      </c>
+      <c r="D175" s="31">
+        <v>6</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31">
+        <v>159</v>
+      </c>
+      <c r="H175" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="31">
+        <v>175</v>
+      </c>
+      <c r="B176" s="31">
+        <v>26</v>
+      </c>
+      <c r="C176" s="31">
+        <v>7</v>
+      </c>
+      <c r="D176" s="31">
+        <v>10</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31">
+        <v>160</v>
+      </c>
+      <c r="H176" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="31">
+        <v>176</v>
+      </c>
+      <c r="B177" s="31">
+        <v>26</v>
+      </c>
+      <c r="C177" s="31">
+        <v>11</v>
+      </c>
+      <c r="D177" s="31">
+        <v>15</v>
+      </c>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31">
+        <v>161</v>
+      </c>
+      <c r="H177" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="31">
+        <v>177</v>
+      </c>
+      <c r="B178" s="31">
+        <v>26</v>
+      </c>
+      <c r="C178" s="31">
+        <v>16</v>
+      </c>
+      <c r="D178" s="31">
+        <v>20</v>
+      </c>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31">
+        <v>162</v>
+      </c>
+      <c r="H178" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9587,11 +9894,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159:C162"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12650,142 +12957,282 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="31">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B154" s="5">
         <v>149</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="C154" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="31">
+      <c r="E154" s="5">
         <v>100000</v>
       </c>
-      <c r="F154" s="31">
+      <c r="F154" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="31">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B155" s="5">
         <v>150</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D155" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="31">
+      <c r="E155" s="5">
         <v>30000</v>
       </c>
-      <c r="F155" s="31">
+      <c r="F155" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="31">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B156" s="5">
         <v>151</v>
       </c>
-      <c r="C156" s="33" t="s">
+      <c r="C156" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E156" s="31">
+      <c r="E156" s="5">
         <v>10000</v>
       </c>
-      <c r="F156" s="31">
+      <c r="F156" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="31">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B157" s="5">
         <v>152</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D157" s="33" t="s">
+      <c r="D157" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E157" s="31">
+      <c r="E157" s="5">
         <v>3000</v>
       </c>
-      <c r="F157" s="31">
+      <c r="F157" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="5">
         <v>153</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E158" s="31">
+      <c r="E158" s="5">
         <v>2000</v>
       </c>
-      <c r="F158" s="31">
+      <c r="F158" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="31">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="5">
         <v>154</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D159" s="33" t="s">
+      <c r="D159" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E159" s="31">
+      <c r="E159" s="5">
         <v>1000</v>
       </c>
-      <c r="F159" s="31">
+      <c r="F159" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="31">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="5">
         <v>155</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E160" s="31">
+      <c r="E160" s="5">
         <v>500</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="31">
+        <v>160</v>
+      </c>
+      <c r="B161" s="31">
+        <v>156</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F161" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="31">
+        <v>161</v>
+      </c>
+      <c r="B162" s="31">
+        <v>157</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F162" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="31">
+        <v>162</v>
+      </c>
+      <c r="B163" s="31">
+        <v>158</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F163" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="31">
+        <v>163</v>
+      </c>
+      <c r="B164" s="31">
+        <v>159</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F164" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="31">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>160</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F165" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="31">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>161</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F166" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>162</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="31">
+        <v>500</v>
+      </c>
+      <c r="F167" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="270">
   <si>
     <t>id|</t>
   </si>
@@ -1229,6 +1229,14 @@
   </si>
   <si>
     <t>drswn_002_ygbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjs_003_bzphb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1767,11 +1775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29:F29"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2772,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>264</v>
@@ -2794,39 +2802,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>1611590400</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>1612195199</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>28</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="27">
         <v>28</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="27">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1612224000</v>
+      </c>
+      <c r="F30" s="28">
+        <v>1612799999</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="28">
+        <v>29</v>
+      </c>
+      <c r="K30" s="28">
+        <v>29</v>
+      </c>
+      <c r="L30" s="28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2838,11 +2881,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3550,7 +3593,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="5">
@@ -3578,7 +3621,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="5">
@@ -3592,31 +3635,59 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="31">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="5">
         <v>28</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="5">
         <v>28</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="5">
         <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="31">
+        <v>29</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="31">
+        <v>29</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3628,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4239,7 +4310,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="5">
@@ -4273,7 +4344,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="5">
@@ -4290,36 +4361,70 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="5">
         <v>29</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="5">
         <v>9</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="5">
         <v>29</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31">
+        <v>30</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="31">
+        <v>9</v>
+      </c>
+      <c r="E41" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="31">
+        <v>30</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4429,11 +4534,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5092,26 +5197,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="5">
         <v>100</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="5">
         <v>20</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="5">
         <v>180</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31">
+        <v>20</v>
+      </c>
+      <c r="D30" s="31">
+        <v>100</v>
+      </c>
+      <c r="E30" s="31">
+        <v>20</v>
+      </c>
+      <c r="F30" s="31">
+        <v>180</v>
+      </c>
+      <c r="G30" s="31">
         <v>10</v>
       </c>
     </row>
@@ -5123,11 +5251,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5500,18 +5628,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="5">
         <v>30</v>
       </c>
-      <c r="C27" s="31">
-        <v>1</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>31</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5665,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5894,15 +6036,26 @@
         <v>1611590399</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>1612195199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
@@ -5913,11 +6066,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9732,156 +9885,310 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="31">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="31">
+      <c r="B172" s="5">
         <v>26</v>
       </c>
-      <c r="C172" s="31">
-        <v>1</v>
-      </c>
-      <c r="D172" s="31">
-        <v>1</v>
-      </c>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31">
+      <c r="C172" s="5">
+        <v>1</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5">
         <v>156</v>
       </c>
-      <c r="H172" s="32" t="s">
+      <c r="H172" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="31">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="31">
+      <c r="B173" s="5">
         <v>26</v>
       </c>
-      <c r="C173" s="31">
+      <c r="C173" s="5">
         <v>2</v>
       </c>
-      <c r="D173" s="31">
+      <c r="D173" s="5">
         <v>2</v>
       </c>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31">
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5">
         <v>157</v>
       </c>
-      <c r="H173" s="32" t="s">
+      <c r="H173" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="31">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="31">
+      <c r="B174" s="5">
         <v>26</v>
       </c>
-      <c r="C174" s="31">
+      <c r="C174" s="5">
         <v>3</v>
       </c>
-      <c r="D174" s="31">
+      <c r="D174" s="5">
         <v>3</v>
       </c>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31">
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5">
         <v>158</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="31">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B175" s="5">
         <v>26</v>
       </c>
-      <c r="C175" s="31">
+      <c r="C175" s="5">
         <v>4</v>
       </c>
-      <c r="D175" s="31">
+      <c r="D175" s="5">
         <v>6</v>
       </c>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="31">
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5">
         <v>159</v>
       </c>
-      <c r="H175" s="32" t="s">
+      <c r="H175" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="31">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="31">
+      <c r="B176" s="5">
         <v>26</v>
       </c>
-      <c r="C176" s="31">
+      <c r="C176" s="5">
         <v>7</v>
       </c>
-      <c r="D176" s="31">
+      <c r="D176" s="5">
         <v>10</v>
       </c>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31">
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5">
         <v>160</v>
       </c>
-      <c r="H176" s="32" t="s">
+      <c r="H176" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B177" s="5">
         <v>26</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="5">
         <v>11</v>
       </c>
-      <c r="D177" s="31">
+      <c r="D177" s="5">
         <v>15</v>
       </c>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31">
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5">
         <v>161</v>
       </c>
-      <c r="H177" s="32" t="s">
+      <c r="H177" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="31">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="31">
+      <c r="B178" s="5">
         <v>26</v>
       </c>
-      <c r="C178" s="31">
+      <c r="C178" s="5">
         <v>16</v>
       </c>
-      <c r="D178" s="31">
+      <c r="D178" s="5">
         <v>20</v>
       </c>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="31">
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5">
         <v>162</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>178</v>
+      </c>
+      <c r="B179" s="31">
+        <v>27</v>
+      </c>
+      <c r="C179" s="31">
+        <v>1</v>
+      </c>
+      <c r="D179" s="31">
+        <v>1</v>
+      </c>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31">
+        <v>163</v>
+      </c>
+      <c r="H179" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+      <c r="B180" s="31">
+        <v>27</v>
+      </c>
+      <c r="C180" s="31">
+        <v>2</v>
+      </c>
+      <c r="D180" s="31">
+        <v>2</v>
+      </c>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31">
+        <v>164</v>
+      </c>
+      <c r="H180" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+      <c r="B181" s="31">
+        <v>27</v>
+      </c>
+      <c r="C181" s="31">
+        <v>3</v>
+      </c>
+      <c r="D181" s="31">
+        <v>3</v>
+      </c>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31">
+        <v>165</v>
+      </c>
+      <c r="H181" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+      <c r="B182" s="31">
+        <v>27</v>
+      </c>
+      <c r="C182" s="31">
+        <v>4</v>
+      </c>
+      <c r="D182" s="31">
+        <v>6</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31">
+        <v>166</v>
+      </c>
+      <c r="H182" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+      <c r="B183" s="31">
+        <v>27</v>
+      </c>
+      <c r="C183" s="31">
+        <v>7</v>
+      </c>
+      <c r="D183" s="31">
+        <v>10</v>
+      </c>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31">
+        <v>167</v>
+      </c>
+      <c r="H183" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+      <c r="B184" s="31">
+        <v>27</v>
+      </c>
+      <c r="C184" s="31">
+        <v>11</v>
+      </c>
+      <c r="D184" s="31">
+        <v>15</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31">
+        <v>168</v>
+      </c>
+      <c r="H184" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="31">
+        <v>27</v>
+      </c>
+      <c r="C185" s="31">
+        <v>16</v>
+      </c>
+      <c r="D185" s="31">
+        <v>20</v>
+      </c>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31">
+        <v>169</v>
+      </c>
+      <c r="H185" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9894,11 +10201,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13097,142 +13404,282 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="5">
         <v>156</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D161" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E161" s="31">
+      <c r="E161" s="5">
         <v>100000</v>
       </c>
-      <c r="F161" s="31">
+      <c r="F161" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="5">
         <v>157</v>
       </c>
-      <c r="C162" s="33" t="s">
+      <c r="C162" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E162" s="31">
+      <c r="E162" s="5">
         <v>30000</v>
       </c>
-      <c r="F162" s="31">
+      <c r="F162" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="31">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="31">
+      <c r="B163" s="5">
         <v>158</v>
       </c>
-      <c r="C163" s="33" t="s">
+      <c r="C163" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E163" s="31">
+      <c r="E163" s="5">
         <v>10000</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="31">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="31">
+      <c r="B164" s="5">
         <v>159</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E164" s="31">
+      <c r="E164" s="5">
         <v>3000</v>
       </c>
-      <c r="F164" s="31">
+      <c r="F164" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="31">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="31">
+      <c r="B165" s="5">
         <v>160</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E165" s="31">
+      <c r="E165" s="5">
         <v>2000</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="31">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="31">
+      <c r="B166" s="5">
         <v>161</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="C166" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E166" s="31">
+      <c r="E166" s="5">
         <v>1000</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="31">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="31">
+      <c r="B167" s="5">
         <v>162</v>
       </c>
-      <c r="C167" s="33" t="s">
+      <c r="C167" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E167" s="31">
+      <c r="E167" s="5">
         <v>500</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="31">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>163</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F168" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="31">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>164</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F169" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="31">
+        <v>169</v>
+      </c>
+      <c r="B170" s="31">
+        <v>165</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F170" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="31">
+        <v>170</v>
+      </c>
+      <c r="B171" s="31">
+        <v>166</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F171" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="31">
+        <v>171</v>
+      </c>
+      <c r="B172" s="31">
+        <v>167</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E172" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F172" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="31">
+        <v>172</v>
+      </c>
+      <c r="B173" s="31">
+        <v>168</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E173" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F173" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="31">
+        <v>173</v>
+      </c>
+      <c r="B174" s="31">
+        <v>169</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E174" s="31">
+        <v>500</v>
+      </c>
+      <c r="F174" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="289">
   <si>
     <t>id|</t>
   </si>
@@ -1027,38 +1027,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个中级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>dz_jzsjb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1236,7 +1204,115 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>集字榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn_004_jzbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>cjs_003_bzphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>240福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_004_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_add</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1478,7 +1554,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,18 +1562,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1775,11 +1857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30:F30"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1807,7 +1889,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2533,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E21" s="27">
         <v>1607385600</v>
@@ -2600,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E23" s="27">
         <v>1607990400</v>
@@ -2635,15 +2717,15 @@
         <v>0</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="44">
+        <v>239</v>
+      </c>
+      <c r="E24" s="41">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <v>1609171199</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -2670,15 +2752,15 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="44">
+        <v>240</v>
+      </c>
+      <c r="E25" s="41">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <v>1609775999</v>
       </c>
       <c r="G25" s="27" t="s">
@@ -2705,15 +2787,15 @@
         <v>0</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="44">
+        <v>251</v>
+      </c>
+      <c r="E26" s="41">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="41">
         <v>1610380799</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -2740,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E27" s="27">
         <v>1610407800</v>
@@ -2775,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E28" s="27">
         <v>1610409600</v>
@@ -2810,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E29" s="27">
         <v>1611590400</v>
@@ -2837,39 +2919,179 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="28">
+      <c r="B30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="27">
         <v>1612224000</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>1612799999</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <v>29</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="27">
         <v>29</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="27">
         <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1613404799</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="28">
+        <v>30</v>
+      </c>
+      <c r="K31" s="28">
+        <v>30</v>
+      </c>
+      <c r="L31" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="F32" s="28">
+        <v>1613404799</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" s="28">
+        <v>31</v>
+      </c>
+      <c r="K32" s="28">
+        <v>31</v>
+      </c>
+      <c r="L32" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
+        <v>32</v>
+      </c>
+      <c r="B33" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1613433600</v>
+      </c>
+      <c r="F33" s="42">
+        <v>1614009599</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="42">
+        <v>32</v>
+      </c>
+      <c r="K33" s="42">
+        <v>32</v>
+      </c>
+      <c r="L33" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="44">
+        <v>1614038400</v>
+      </c>
+      <c r="F34" s="44">
+        <v>1614614399</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="44">
+        <v>33</v>
+      </c>
+      <c r="K34" s="44">
+        <v>33</v>
+      </c>
+      <c r="L34" s="44">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2881,11 +3103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3447,10 +3669,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3458,13 +3680,13 @@
         <v>21</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3488,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D44" s="5">
         <v>23</v>
@@ -3516,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D46" s="5">
         <v>24</v>
@@ -3544,7 +3766,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D48" s="5">
         <v>25</v>
@@ -3572,14 +3794,14 @@
         <v>25</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D50" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="5">
@@ -3600,14 +3822,14 @@
         <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D52" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="5">
@@ -3628,14 +3850,14 @@
         <v>27</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D54" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="5">
@@ -3656,23 +3878,23 @@
         <v>28</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D56" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="5">
         <v>29</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="5">
         <v>30</v>
       </c>
     </row>
@@ -3680,14 +3902,154 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="5">
         <v>29</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="31">
+      <c r="C58" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="5">
         <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="31">
+        <v>30</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="31">
+        <v>30</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="31">
+        <v>31</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="31">
+        <v>31</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="31">
+        <v>31</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="31">
+        <v>31</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="23">
+        <v>32</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23">
+        <v>32</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="34">
+        <v>33</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="34">
+        <v>33</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" s="34">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4139,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4181,10 +4543,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -4215,10 +4577,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -4249,10 +4611,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -4283,10 +4645,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -4317,10 +4679,10 @@
         <v>27</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -4351,10 +4713,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E38" s="5">
         <v>2</v>
@@ -4385,29 +4747,29 @@
         <v>29</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="5">
         <v>30</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="5">
         <v>9</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4415,22 +4777,282 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="5">
         <v>30</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="31">
+      <c r="C42" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="5">
         <v>2</v>
       </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="31">
+        <v>31</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="31">
+        <v>9</v>
+      </c>
+      <c r="E43" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="31">
+        <v>31</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="31">
+        <v>32</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E45" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="31">
+        <v>32</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="31">
+        <v>500</v>
+      </c>
+      <c r="E46" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="31">
+        <v>33</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E47" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="31">
+        <v>33</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="31">
+        <v>500</v>
+      </c>
+      <c r="E48" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="31">
+        <v>34</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E49" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="31">
+        <v>34</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="31">
+        <v>500</v>
+      </c>
+      <c r="E50" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="31">
+        <v>35</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E51" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="31">
+        <v>35</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="31">
+        <v>500</v>
+      </c>
+      <c r="E52" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="23">
+        <v>36</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="23">
+        <v>9</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="23">
+        <v>36</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34">
+        <v>37</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="34">
+        <v>9</v>
+      </c>
+      <c r="E55" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="34">
+        <v>37</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4534,11 +5156,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5012,26 +5634,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B21" s="39">
-        <v>1</v>
-      </c>
-      <c r="C21" s="39">
+      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38">
         <v>20</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>100</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>20</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>180</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>10</v>
       </c>
     </row>
@@ -5220,26 +5842,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
-        <v>1</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
         <v>20</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="5">
         <v>100</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="5">
         <v>20</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="5">
         <v>180</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31">
+        <v>100</v>
+      </c>
+      <c r="E31" s="31">
+        <v>20</v>
+      </c>
+      <c r="F31" s="31">
+        <v>180</v>
+      </c>
+      <c r="G31" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31">
+        <v>20</v>
+      </c>
+      <c r="D32" s="31">
+        <v>100</v>
+      </c>
+      <c r="E32" s="31">
+        <v>20</v>
+      </c>
+      <c r="F32" s="31">
+        <v>180</v>
+      </c>
+      <c r="G32" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>20</v>
+      </c>
+      <c r="D33" s="23">
+        <v>100</v>
+      </c>
+      <c r="E33" s="23">
+        <v>20</v>
+      </c>
+      <c r="F33" s="23">
+        <v>180</v>
+      </c>
+      <c r="G33" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>100</v>
+      </c>
+      <c r="E34" s="34">
+        <v>20</v>
+      </c>
+      <c r="F34" s="34">
+        <v>180</v>
+      </c>
+      <c r="G34" s="34">
         <v>10</v>
       </c>
     </row>
@@ -5251,11 +5965,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5642,18 +6356,74 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="5">
         <v>31</v>
       </c>
-      <c r="C28" s="31">
-        <v>1</v>
-      </c>
-      <c r="D28" s="31">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31">
+        <v>32</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31">
+        <v>33</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>34</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34">
+        <v>35</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1</v>
+      </c>
+      <c r="D32" s="34">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5665,11 +6435,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5988,7 +6758,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="41">
         <v>1609171199</v>
       </c>
     </row>
@@ -5999,7 +6769,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="41">
         <v>1609775999</v>
       </c>
     </row>
@@ -6010,7 +6780,7 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="41">
         <v>1610380799</v>
       </c>
     </row>
@@ -6047,15 +6817,59 @@
         <v>1612195199</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>1612799999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1612828800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="42">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
+        <v>35</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="44">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -6066,11 +6880,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H225" sqref="H224:H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7980,983 +8794,1012 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="23">
+    <row r="86" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="5">
         <v>12</v>
       </c>
-      <c r="C86" s="23">
-        <v>1</v>
-      </c>
-      <c r="D86" s="23">
-        <v>1</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23">
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <v>85</v>
       </c>
-      <c r="H86" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="23">
+      <c r="H86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="5">
         <v>12</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="5">
         <v>2</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="5">
         <v>2</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>86</v>
       </c>
-      <c r="H87" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="23">
+      <c r="H87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="5">
         <v>12</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="5">
         <v>3</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="5">
         <v>3</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23">
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <v>87</v>
       </c>
-      <c r="H88" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="23">
+      <c r="H88" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="5">
         <v>12</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="5">
         <v>4</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="5">
         <v>6</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
         <v>88</v>
       </c>
-      <c r="H89" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="23">
+      <c r="H89" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="5">
         <v>12</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="5">
         <v>7</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="5">
         <v>10</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
         <v>89</v>
       </c>
-      <c r="H90" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="H90" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="5">
         <v>12</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="5">
         <v>11</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="5">
         <v>15</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23">
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
         <v>90</v>
       </c>
-      <c r="H91" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="23">
+      <c r="H91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="5">
         <v>12</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="5">
         <v>16</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="5">
         <v>20</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
         <v>91</v>
       </c>
-      <c r="H92" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="34">
+      <c r="H92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="5">
         <v>13</v>
       </c>
-      <c r="C93" s="34">
-        <v>1</v>
-      </c>
-      <c r="D93" s="34">
-        <v>1</v>
-      </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34">
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5">
         <v>92</v>
       </c>
-      <c r="H93" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I93" s="34"/>
-    </row>
-    <row r="94" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="34">
+      <c r="H93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="5">
         <v>13</v>
       </c>
-      <c r="C94" s="34">
+      <c r="C94" s="5">
         <v>2</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="5">
         <v>2</v>
       </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34">
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5">
         <v>93</v>
       </c>
-      <c r="H94" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34">
+      <c r="H94" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="5">
         <v>13</v>
       </c>
-      <c r="C95" s="34">
+      <c r="C95" s="5">
         <v>3</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
         <v>94</v>
       </c>
-      <c r="H95" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="34">
+      <c r="H95" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="5">
         <v>13</v>
       </c>
-      <c r="C96" s="34">
+      <c r="C96" s="5">
         <v>4</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="5">
         <v>10</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5">
         <v>95</v>
       </c>
-      <c r="H96" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="H96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="5">
         <v>13</v>
       </c>
-      <c r="C97" s="34">
+      <c r="C97" s="5">
         <v>11</v>
       </c>
-      <c r="D97" s="34">
+      <c r="D97" s="5">
         <v>20</v>
       </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5">
         <v>96</v>
       </c>
-      <c r="H97" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I97" s="34"/>
+      <c r="H97" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="5">
         <v>14</v>
       </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="31">
-        <v>1</v>
-      </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31">
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5">
         <v>97</v>
       </c>
-      <c r="H98" s="32" t="s">
+      <c r="H98" s="6" t="s">
         <v>122</v>
       </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="5">
         <v>14</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="5">
         <v>2</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="5">
         <v>2</v>
       </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5">
         <v>98</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H99" s="6" t="s">
         <v>122</v>
       </c>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="31">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="5">
         <v>14</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="5">
         <v>3</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="5">
         <v>3</v>
       </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5">
         <v>99</v>
       </c>
-      <c r="H100" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="31">
+      <c r="H100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="5">
         <v>14</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="5">
         <v>4</v>
       </c>
-      <c r="D101" s="31">
+      <c r="D101" s="5">
         <v>10</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5">
         <v>100</v>
       </c>
-      <c r="H101" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="H101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="5">
         <v>14</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="5">
         <v>11</v>
       </c>
-      <c r="D102" s="31">
+      <c r="D102" s="5">
         <v>20</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
         <v>101</v>
       </c>
-      <c r="H102" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="31">
+      <c r="H102" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="5">
         <v>15</v>
       </c>
-      <c r="C103" s="31">
-        <v>1</v>
-      </c>
-      <c r="D103" s="31">
-        <v>1</v>
-      </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31">
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
         <v>97</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="H103" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="5">
         <v>15</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="5">
         <v>2</v>
       </c>
-      <c r="D104" s="31">
+      <c r="D104" s="5">
         <v>2</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
         <v>98</v>
       </c>
-      <c r="H104" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="H104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="5">
         <v>15</v>
       </c>
-      <c r="C105" s="31">
+      <c r="C105" s="5">
         <v>3</v>
       </c>
-      <c r="D105" s="31">
+      <c r="D105" s="5">
         <v>3</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5">
         <v>99</v>
       </c>
-      <c r="H105" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="H105" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="5">
         <v>15</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="5">
         <v>4</v>
       </c>
-      <c r="D106" s="31">
+      <c r="D106" s="5">
         <v>10</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31">
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5">
         <v>100</v>
       </c>
-      <c r="H106" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="31">
+      <c r="H106" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="5">
         <v>15</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="5">
         <v>11</v>
       </c>
-      <c r="D107" s="31">
+      <c r="D107" s="5">
         <v>20</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31">
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5">
         <v>101</v>
       </c>
-      <c r="H107" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="31">
+      <c r="H107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="5">
         <v>16</v>
       </c>
-      <c r="C108" s="31">
-        <v>1</v>
-      </c>
-      <c r="D108" s="31">
-        <v>1</v>
-      </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31">
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5">
         <v>97</v>
       </c>
-      <c r="H108" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="31">
+      <c r="H108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="5">
         <v>16</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="5">
         <v>2</v>
       </c>
-      <c r="D109" s="31">
+      <c r="D109" s="5">
         <v>2</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31">
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5">
         <v>98</v>
       </c>
-      <c r="H109" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="31">
+      <c r="H109" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="5">
         <v>16</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="5">
         <v>3</v>
       </c>
-      <c r="D110" s="31">
+      <c r="D110" s="5">
         <v>3</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5">
         <v>99</v>
       </c>
-      <c r="H110" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="31">
+      <c r="H110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="5">
         <v>16</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="5">
         <v>4</v>
       </c>
-      <c r="D111" s="31">
+      <c r="D111" s="5">
         <v>10</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5">
         <v>100</v>
       </c>
-      <c r="H111" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="31">
+      <c r="H111" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="5">
         <v>16</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="5">
         <v>11</v>
       </c>
-      <c r="D112" s="31">
+      <c r="D112" s="5">
         <v>20</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5">
         <v>101</v>
       </c>
-      <c r="H112" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="31">
+      <c r="H112" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="5">
         <v>17</v>
       </c>
-      <c r="C113" s="31">
-        <v>1</v>
-      </c>
-      <c r="D113" s="31">
-        <v>1</v>
-      </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31">
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5">
         <v>97</v>
       </c>
-      <c r="H113" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="31">
+      <c r="H113" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="31">
+      <c r="B114" s="5">
         <v>17</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="5">
         <v>2</v>
       </c>
-      <c r="D114" s="31">
+      <c r="D114" s="5">
         <v>2</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5">
         <v>98</v>
       </c>
-      <c r="H114" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="31">
+      <c r="H114" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="5">
         <v>17</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="5">
         <v>3</v>
       </c>
-      <c r="D115" s="31">
+      <c r="D115" s="5">
         <v>3</v>
       </c>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31">
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5">
         <v>99</v>
       </c>
-      <c r="H115" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="H115" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="5">
         <v>17</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="5">
         <v>4</v>
       </c>
-      <c r="D116" s="31">
+      <c r="D116" s="5">
         <v>10</v>
       </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31">
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5">
         <v>100</v>
       </c>
-      <c r="H116" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="31">
+      <c r="H116" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="5">
         <v>17</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="5">
         <v>11</v>
       </c>
-      <c r="D117" s="31">
+      <c r="D117" s="5">
         <v>20</v>
       </c>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31">
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5">
         <v>101</v>
       </c>
-      <c r="H117" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39">
+      <c r="H117" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B118" s="5">
         <v>18</v>
       </c>
-      <c r="C118" s="39">
-        <v>1</v>
-      </c>
-      <c r="D118" s="39">
-        <v>1</v>
-      </c>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39">
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5">
         <v>102</v>
       </c>
-      <c r="H118" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="39"/>
-    </row>
-    <row r="119" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="39">
+      <c r="H118" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="39">
+      <c r="B119" s="5">
         <v>18</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="5">
         <v>2</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="5">
         <v>2</v>
       </c>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5">
         <v>103</v>
       </c>
-      <c r="H119" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="39"/>
-    </row>
-    <row r="120" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39">
+      <c r="H119" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="5">
         <v>18</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="5">
         <v>3</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="5">
         <v>3</v>
       </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39">
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5">
         <v>104</v>
       </c>
-      <c r="H120" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="39"/>
-    </row>
-    <row r="121" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39">
+      <c r="H120" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="39">
+      <c r="B121" s="5">
         <v>18</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="5">
         <v>4</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="5">
         <v>6</v>
       </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39">
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5">
         <v>105</v>
       </c>
-      <c r="H121" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="39"/>
-    </row>
-    <row r="122" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39">
+      <c r="H121" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B122" s="5">
         <v>18</v>
       </c>
-      <c r="C122" s="39">
+      <c r="C122" s="5">
         <v>7</v>
       </c>
-      <c r="D122" s="39">
+      <c r="D122" s="5">
         <v>10</v>
       </c>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39">
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
         <v>106</v>
       </c>
-      <c r="H122" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="39"/>
-    </row>
-    <row r="123" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="39">
-        <v>122</v>
-      </c>
-      <c r="B123" s="39">
+      <c r="H122" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
         <v>18</v>
       </c>
-      <c r="C123" s="39">
+      <c r="C123" s="5">
         <v>11</v>
       </c>
-      <c r="D123" s="39">
+      <c r="D123" s="5">
         <v>15</v>
       </c>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5">
         <v>107</v>
       </c>
-      <c r="H123" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="39"/>
-    </row>
-    <row r="124" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39">
+      <c r="H123" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="5">
         <v>18</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="5">
         <v>16</v>
       </c>
-      <c r="D124" s="39">
+      <c r="D124" s="5">
         <v>20</v>
       </c>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39">
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5">
         <v>108</v>
       </c>
-      <c r="H124" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="39"/>
+      <c r="H124" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+      <c r="A125" s="23">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="23">
         <v>19</v>
       </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2">
+      <c r="C125" s="23">
+        <v>1</v>
+      </c>
+      <c r="D125" s="23">
+        <v>1</v>
+      </c>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
         <v>109</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="A126" s="23">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="23">
         <v>19</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="23">
         <v>2</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="23">
         <v>2</v>
       </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2">
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23">
         <v>110</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+      <c r="A127" s="23">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="23">
         <v>19</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="23">
         <v>3</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="23">
         <v>3</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2">
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23">
         <v>111</v>
       </c>
-      <c r="H127" s="22" t="s">
+      <c r="H127" s="24" t="s">
         <v>136</v>
       </c>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+      <c r="A128" s="23">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="23">
         <v>19</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="23">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="23">
         <v>10</v>
       </c>
-      <c r="G128" s="2">
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23">
         <v>112</v>
       </c>
-      <c r="H128" s="22" t="s">
+      <c r="H128" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+      <c r="A129" s="23">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="23">
         <v>19</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="23">
         <v>11</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="23">
         <v>20</v>
       </c>
-      <c r="G129" s="2">
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23">
         <v>113</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="24" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10042,21 +10885,21 @@
       <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="31">
+      <c r="B179" s="5">
         <v>27</v>
       </c>
-      <c r="C179" s="31">
-        <v>1</v>
-      </c>
-      <c r="D179" s="31">
-        <v>1</v>
-      </c>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="31">
+      <c r="C179" s="5">
+        <v>1</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5">
         <v>163</v>
       </c>
-      <c r="H179" s="32" t="s">
+      <c r="H179" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10064,21 +10907,21 @@
       <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="31">
+      <c r="B180" s="5">
         <v>27</v>
       </c>
-      <c r="C180" s="31">
+      <c r="C180" s="5">
         <v>2</v>
       </c>
-      <c r="D180" s="31">
+      <c r="D180" s="5">
         <v>2</v>
       </c>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31">
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5">
         <v>164</v>
       </c>
-      <c r="H180" s="32" t="s">
+      <c r="H180" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10086,21 +10929,21 @@
       <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="31">
+      <c r="B181" s="5">
         <v>27</v>
       </c>
-      <c r="C181" s="31">
+      <c r="C181" s="5">
         <v>3</v>
       </c>
-      <c r="D181" s="31">
+      <c r="D181" s="5">
         <v>3</v>
       </c>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="31">
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5">
         <v>165</v>
       </c>
-      <c r="H181" s="32" t="s">
+      <c r="H181" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10108,21 +10951,21 @@
       <c r="A182" s="5">
         <v>181</v>
       </c>
-      <c r="B182" s="31">
+      <c r="B182" s="5">
         <v>27</v>
       </c>
-      <c r="C182" s="31">
+      <c r="C182" s="5">
         <v>4</v>
       </c>
-      <c r="D182" s="31">
+      <c r="D182" s="5">
         <v>6</v>
       </c>
-      <c r="E182" s="31"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="31">
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5">
         <v>166</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10130,21 +10973,21 @@
       <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="31">
+      <c r="B183" s="5">
         <v>27</v>
       </c>
-      <c r="C183" s="31">
+      <c r="C183" s="5">
         <v>7</v>
       </c>
-      <c r="D183" s="31">
+      <c r="D183" s="5">
         <v>10</v>
       </c>
-      <c r="E183" s="31"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="31">
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5">
         <v>167</v>
       </c>
-      <c r="H183" s="32" t="s">
+      <c r="H183" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10152,21 +10995,21 @@
       <c r="A184" s="5">
         <v>183</v>
       </c>
-      <c r="B184" s="31">
+      <c r="B184" s="5">
         <v>27</v>
       </c>
-      <c r="C184" s="31">
+      <c r="C184" s="5">
         <v>11</v>
       </c>
-      <c r="D184" s="31">
+      <c r="D184" s="5">
         <v>15</v>
       </c>
-      <c r="E184" s="31"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="31">
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5">
         <v>168</v>
       </c>
-      <c r="H184" s="32" t="s">
+      <c r="H184" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10174,21 +11017,637 @@
       <c r="A185" s="5">
         <v>184</v>
       </c>
-      <c r="B185" s="31">
+      <c r="B185" s="5">
         <v>27</v>
       </c>
-      <c r="C185" s="31">
+      <c r="C185" s="5">
         <v>16</v>
       </c>
-      <c r="D185" s="31">
+      <c r="D185" s="5">
         <v>20</v>
       </c>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="31">
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5">
         <v>169</v>
       </c>
-      <c r="H185" s="32" t="s">
+      <c r="H185" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+      <c r="B186" s="31">
+        <v>28</v>
+      </c>
+      <c r="C186" s="31">
+        <v>1</v>
+      </c>
+      <c r="D186" s="31">
+        <v>1</v>
+      </c>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31">
+        <v>170</v>
+      </c>
+      <c r="H186" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+      <c r="B187" s="31">
+        <v>28</v>
+      </c>
+      <c r="C187" s="31">
+        <v>2</v>
+      </c>
+      <c r="D187" s="31">
+        <v>2</v>
+      </c>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31">
+        <v>171</v>
+      </c>
+      <c r="H187" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+      <c r="B188" s="31">
+        <v>28</v>
+      </c>
+      <c r="C188" s="31">
+        <v>3</v>
+      </c>
+      <c r="D188" s="31">
+        <v>3</v>
+      </c>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31">
+        <v>172</v>
+      </c>
+      <c r="H188" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+      <c r="B189" s="31">
+        <v>28</v>
+      </c>
+      <c r="C189" s="31">
+        <v>4</v>
+      </c>
+      <c r="D189" s="31">
+        <v>6</v>
+      </c>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31">
+        <v>173</v>
+      </c>
+      <c r="H189" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+      <c r="B190" s="31">
+        <v>28</v>
+      </c>
+      <c r="C190" s="31">
+        <v>7</v>
+      </c>
+      <c r="D190" s="31">
+        <v>10</v>
+      </c>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31">
+        <v>174</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+      <c r="B191" s="31">
+        <v>28</v>
+      </c>
+      <c r="C191" s="31">
+        <v>11</v>
+      </c>
+      <c r="D191" s="31">
+        <v>15</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31">
+        <v>175</v>
+      </c>
+      <c r="H191" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+      <c r="B192" s="31">
+        <v>28</v>
+      </c>
+      <c r="C192" s="31">
+        <v>16</v>
+      </c>
+      <c r="D192" s="31">
+        <v>20</v>
+      </c>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31">
+        <v>176</v>
+      </c>
+      <c r="H192" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="31">
+        <v>29</v>
+      </c>
+      <c r="C193" s="31">
+        <v>1</v>
+      </c>
+      <c r="D193" s="31">
+        <v>1</v>
+      </c>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31">
+        <v>177</v>
+      </c>
+      <c r="H193" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="31">
+        <v>29</v>
+      </c>
+      <c r="C194" s="31">
+        <v>2</v>
+      </c>
+      <c r="D194" s="31">
+        <v>2</v>
+      </c>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31">
+        <v>178</v>
+      </c>
+      <c r="H194" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="31">
+        <v>29</v>
+      </c>
+      <c r="C195" s="31">
+        <v>3</v>
+      </c>
+      <c r="D195" s="31">
+        <v>3</v>
+      </c>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31">
+        <v>179</v>
+      </c>
+      <c r="H195" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="31">
+        <v>29</v>
+      </c>
+      <c r="C196" s="31">
+        <v>4</v>
+      </c>
+      <c r="D196" s="31">
+        <v>6</v>
+      </c>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31">
+        <v>180</v>
+      </c>
+      <c r="H196" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="31">
+        <v>29</v>
+      </c>
+      <c r="C197" s="31">
+        <v>7</v>
+      </c>
+      <c r="D197" s="31">
+        <v>10</v>
+      </c>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31">
+        <v>181</v>
+      </c>
+      <c r="H197" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="31">
+        <v>29</v>
+      </c>
+      <c r="C198" s="31">
+        <v>11</v>
+      </c>
+      <c r="D198" s="31">
+        <v>15</v>
+      </c>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31">
+        <v>182</v>
+      </c>
+      <c r="H198" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="31">
+        <v>29</v>
+      </c>
+      <c r="C199" s="31">
+        <v>16</v>
+      </c>
+      <c r="D199" s="31">
+        <v>20</v>
+      </c>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31">
+        <v>183</v>
+      </c>
+      <c r="H199" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="23">
+        <v>30</v>
+      </c>
+      <c r="C200" s="23">
+        <v>1</v>
+      </c>
+      <c r="D200" s="23">
+        <v>1</v>
+      </c>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23">
+        <v>184</v>
+      </c>
+      <c r="H200" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="23">
+        <v>30</v>
+      </c>
+      <c r="C201" s="23">
+        <v>2</v>
+      </c>
+      <c r="D201" s="23">
+        <v>2</v>
+      </c>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23">
+        <v>185</v>
+      </c>
+      <c r="H201" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="23">
+        <v>30</v>
+      </c>
+      <c r="C202" s="23">
+        <v>3</v>
+      </c>
+      <c r="D202" s="23">
+        <v>3</v>
+      </c>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="23">
+        <v>186</v>
+      </c>
+      <c r="H202" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="23">
+        <v>30</v>
+      </c>
+      <c r="C203" s="23">
+        <v>4</v>
+      </c>
+      <c r="D203" s="23">
+        <v>6</v>
+      </c>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23">
+        <v>187</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="23">
+        <v>30</v>
+      </c>
+      <c r="C204" s="23">
+        <v>7</v>
+      </c>
+      <c r="D204" s="23">
+        <v>10</v>
+      </c>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23">
+        <v>188</v>
+      </c>
+      <c r="H204" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="23">
+        <v>30</v>
+      </c>
+      <c r="C205" s="23">
+        <v>11</v>
+      </c>
+      <c r="D205" s="23">
+        <v>15</v>
+      </c>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23">
+        <v>189</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="23">
+        <v>30</v>
+      </c>
+      <c r="C206" s="23">
+        <v>16</v>
+      </c>
+      <c r="D206" s="23">
+        <v>20</v>
+      </c>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23">
+        <v>190</v>
+      </c>
+      <c r="H206" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="34">
+        <v>31</v>
+      </c>
+      <c r="C207" s="34">
+        <v>1</v>
+      </c>
+      <c r="D207" s="34">
+        <v>1</v>
+      </c>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34">
+        <v>191</v>
+      </c>
+      <c r="H207" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="34">
+        <v>31</v>
+      </c>
+      <c r="C208" s="34">
+        <v>2</v>
+      </c>
+      <c r="D208" s="34">
+        <v>2</v>
+      </c>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34">
+        <v>192</v>
+      </c>
+      <c r="H208" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="34">
+        <v>31</v>
+      </c>
+      <c r="C209" s="34">
+        <v>3</v>
+      </c>
+      <c r="D209" s="34">
+        <v>3</v>
+      </c>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34">
+        <v>193</v>
+      </c>
+      <c r="H209" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="34">
+        <v>31</v>
+      </c>
+      <c r="C210" s="34">
+        <v>4</v>
+      </c>
+      <c r="D210" s="34">
+        <v>6</v>
+      </c>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34">
+        <v>194</v>
+      </c>
+      <c r="H210" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="34">
+        <v>31</v>
+      </c>
+      <c r="C211" s="34">
+        <v>7</v>
+      </c>
+      <c r="D211" s="34">
+        <v>10</v>
+      </c>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34">
+        <v>195</v>
+      </c>
+      <c r="H211" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="34">
+        <v>31</v>
+      </c>
+      <c r="C212" s="34">
+        <v>11</v>
+      </c>
+      <c r="D212" s="34">
+        <v>15</v>
+      </c>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34">
+        <v>196</v>
+      </c>
+      <c r="H212" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+      <c r="B213" s="34">
+        <v>31</v>
+      </c>
+      <c r="C213" s="34">
+        <v>16</v>
+      </c>
+      <c r="D213" s="34">
+        <v>20</v>
+      </c>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34">
+        <v>197</v>
+      </c>
+      <c r="H213" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10201,11 +11660,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11983,583 +13442,583 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="23">
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="5">
         <v>85</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="5">
         <v>100000</v>
       </c>
-      <c r="F90" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="5">
         <v>86</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="5">
         <v>30000</v>
       </c>
-      <c r="F91" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="23">
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="5">
         <v>87</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="5">
         <v>10000</v>
       </c>
-      <c r="F92" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="23">
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="5">
         <v>88</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="5">
         <v>3000</v>
       </c>
-      <c r="F93" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="23">
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="5">
         <v>89</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="5">
         <v>2000</v>
       </c>
-      <c r="F94" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="23">
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="5">
         <v>90</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="5">
         <v>1000</v>
       </c>
-      <c r="F95" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="23">
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="5">
         <v>91</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="5">
         <v>500</v>
       </c>
-      <c r="F96" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="5">
         <v>92</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="5">
         <v>50000</v>
       </c>
-      <c r="F97" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="34">
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="5">
         <v>93</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="34">
+      <c r="E98" s="5">
         <v>30000</v>
       </c>
-      <c r="F98" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="34">
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="34">
+      <c r="B99" s="5">
         <v>94</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="5">
         <v>10000</v>
       </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="5">
         <v>95</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="34">
+      <c r="E100" s="5">
         <v>5000</v>
       </c>
-      <c r="F100" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="34">
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="5">
         <v>96</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="34">
+      <c r="E101" s="5">
         <v>2000</v>
       </c>
-      <c r="F101" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="5">
         <v>97</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="31">
+      <c r="E102" s="5">
         <v>10000</v>
       </c>
-      <c r="F102" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31">
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="5">
         <v>98</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E103" s="5">
+        <v>9000</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>99</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="31">
-        <v>9000</v>
-      </c>
-      <c r="F103" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="E104" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>100</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>101</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>102</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
-        <v>99</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="33" t="s">
+      <c r="C108" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="31">
-        <v>8000</v>
-      </c>
-      <c r="F104" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="E108" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
-        <v>100</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="33" t="s">
+      <c r="C109" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E105" s="31">
-        <v>5000</v>
-      </c>
-      <c r="F105" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="E109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
-        <v>101</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="33" t="s">
+      <c r="C110" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="31">
+      <c r="E110" s="5">
         <v>3000</v>
       </c>
-      <c r="F106" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="39">
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="39">
-        <v>102</v>
-      </c>
-      <c r="C107" s="41" t="s">
+      <c r="C111" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5">
+        <v>107</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5">
+        <v>108</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D113" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E113" s="5">
+        <v>500</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="23">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>109</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="23">
+        <v>500000</v>
+      </c>
+      <c r="F114" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="23">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
+        <v>110</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="23">
+        <v>300000</v>
+      </c>
+      <c r="F115" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="23">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>111</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="23">
         <v>100000</v>
       </c>
-      <c r="F107" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="39">
-        <v>107</v>
-      </c>
-      <c r="B108" s="39">
-        <v>103</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E108" s="39">
-        <v>30000</v>
-      </c>
-      <c r="F108" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="39">
-        <v>108</v>
-      </c>
-      <c r="B109" s="39">
-        <v>104</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" s="39">
-        <v>10000</v>
-      </c>
-      <c r="F109" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39">
-        <v>109</v>
-      </c>
-      <c r="B110" s="39">
-        <v>105</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E110" s="39">
-        <v>3000</v>
-      </c>
-      <c r="F110" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39">
-        <v>110</v>
-      </c>
-      <c r="B111" s="39">
-        <v>106</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" s="39">
-        <v>2000</v>
-      </c>
-      <c r="F111" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
-        <v>111</v>
-      </c>
-      <c r="B112" s="39">
-        <v>107</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E112" s="39">
-        <v>1000</v>
-      </c>
-      <c r="F112" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39">
+      <c r="F116" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="23">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
         <v>112</v>
       </c>
-      <c r="B113" s="39">
-        <v>108</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" s="39">
-        <v>500</v>
-      </c>
-      <c r="F113" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+      <c r="C117" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F117" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="23">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
-        <v>109</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E114" s="2">
-        <v>5</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>110</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" s="2">
-        <v>3</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2">
-        <v>111</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E116" s="2">
-        <v>2</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2">
-        <v>112</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E117" s="2">
-        <v>5</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2">
-        <v>113</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E118" s="2">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2">
+      <c r="C118" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="23">
+        <v>20000</v>
+      </c>
+      <c r="F118" s="23">
         <v>1</v>
       </c>
     </row>
@@ -12571,7 +14030,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>158</v>
@@ -12591,7 +14050,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>158</v>
@@ -12611,7 +14070,7 @@
         <v>116</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D121" s="20" t="s">
         <v>158</v>
@@ -12631,7 +14090,7 @@
         <v>117</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>158</v>
@@ -12651,7 +14110,7 @@
         <v>118</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>158</v>
@@ -12671,7 +14130,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>158</v>
@@ -12691,7 +14150,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>158</v>
@@ -12711,7 +14170,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>158</v>
@@ -12731,7 +14190,7 @@
         <v>122</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D127" s="20" t="s">
         <v>158</v>
@@ -12751,7 +14210,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>158</v>
@@ -12771,7 +14230,7 @@
         <v>124</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D129" s="20" t="s">
         <v>158</v>
@@ -12791,7 +14250,7 @@
         <v>125</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>158</v>
@@ -12831,7 +14290,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D132" s="20" t="s">
         <v>158</v>
@@ -12851,7 +14310,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D133" s="20" t="s">
         <v>158</v>
@@ -12871,7 +14330,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>158</v>
@@ -12891,7 +14350,7 @@
         <v>130</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>158</v>
@@ -12911,7 +14370,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>158</v>
@@ -12931,7 +14390,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>158</v>
@@ -12971,7 +14430,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>158</v>
@@ -12991,7 +14450,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>158</v>
@@ -13011,7 +14470,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>158</v>
@@ -13031,7 +14490,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>158</v>
@@ -13051,7 +14510,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>158</v>
@@ -13071,7 +14530,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>158</v>
@@ -13111,7 +14570,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>158</v>
@@ -13131,7 +14590,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>158</v>
@@ -13151,7 +14610,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>158</v>
@@ -13171,7 +14630,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D149" s="20" t="s">
         <v>158</v>
@@ -13191,7 +14650,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>158</v>
@@ -13211,7 +14670,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>158</v>
@@ -13251,7 +14710,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>158</v>
@@ -13271,7 +14730,7 @@
         <v>149</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D154" s="20" t="s">
         <v>158</v>
@@ -13291,7 +14750,7 @@
         <v>150</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D155" s="20" t="s">
         <v>158</v>
@@ -13311,7 +14770,7 @@
         <v>151</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D156" s="20" t="s">
         <v>158</v>
@@ -13331,7 +14790,7 @@
         <v>152</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D157" s="20" t="s">
         <v>158</v>
@@ -13351,7 +14810,7 @@
         <v>153</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D158" s="20" t="s">
         <v>158</v>
@@ -13391,7 +14850,7 @@
         <v>155</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D160" s="20" t="s">
         <v>158</v>
@@ -13411,7 +14870,7 @@
         <v>156</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D161" s="20" t="s">
         <v>158</v>
@@ -13431,7 +14890,7 @@
         <v>157</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D162" s="20" t="s">
         <v>158</v>
@@ -13451,7 +14910,7 @@
         <v>158</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D163" s="20" t="s">
         <v>158</v>
@@ -13471,7 +14930,7 @@
         <v>159</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D164" s="20" t="s">
         <v>158</v>
@@ -13491,7 +14950,7 @@
         <v>160</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D165" s="20" t="s">
         <v>158</v>
@@ -13531,7 +14990,7 @@
         <v>162</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D167" s="20" t="s">
         <v>158</v>
@@ -13544,142 +15003,702 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="31">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="31">
+      <c r="B168" s="5">
         <v>163</v>
       </c>
-      <c r="C168" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D168" s="33" t="s">
+      <c r="C168" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D168" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E168" s="31">
+      <c r="E168" s="5">
         <v>100000</v>
       </c>
-      <c r="F168" s="31">
+      <c r="F168" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="31">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="31">
+      <c r="B169" s="5">
         <v>164</v>
       </c>
-      <c r="C169" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D169" s="33" t="s">
+      <c r="C169" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E169" s="31">
+      <c r="E169" s="5">
         <v>30000</v>
       </c>
-      <c r="F169" s="31">
+      <c r="F169" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="31">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="31">
+      <c r="B170" s="5">
         <v>165</v>
       </c>
-      <c r="C170" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="D170" s="33" t="s">
+      <c r="C170" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E170" s="31">
+      <c r="E170" s="5">
         <v>10000</v>
       </c>
-      <c r="F170" s="31">
+      <c r="F170" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="31">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="5">
         <v>166</v>
       </c>
-      <c r="C171" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D171" s="33" t="s">
+      <c r="C171" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D171" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E171" s="31">
+      <c r="E171" s="5">
         <v>3000</v>
       </c>
-      <c r="F171" s="31">
+      <c r="F171" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="31">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="31">
+      <c r="B172" s="5">
         <v>167</v>
       </c>
-      <c r="C172" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D172" s="33" t="s">
+      <c r="C172" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D172" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E172" s="31">
+      <c r="E172" s="5">
         <v>2000</v>
       </c>
-      <c r="F172" s="31">
+      <c r="F172" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="31">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="31">
+      <c r="B173" s="5">
         <v>168</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C173" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D173" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="31">
+      <c r="E173" s="5">
         <v>1000</v>
       </c>
-      <c r="F173" s="31">
+      <c r="F173" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="31">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="31">
+      <c r="B174" s="5">
         <v>169</v>
       </c>
-      <c r="C174" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D174" s="33" t="s">
+      <c r="C174" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D174" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E174" s="31">
+      <c r="E174" s="5">
         <v>500</v>
       </c>
-      <c r="F174" s="31">
+      <c r="F174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="31">
+        <v>174</v>
+      </c>
+      <c r="B175" s="31">
+        <v>170</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F175" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="31">
+        <v>175</v>
+      </c>
+      <c r="B176" s="31">
+        <v>171</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F176" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="31">
+        <v>176</v>
+      </c>
+      <c r="B177" s="31">
+        <v>172</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E177" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F177" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="31">
+        <v>177</v>
+      </c>
+      <c r="B178" s="31">
+        <v>173</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E178" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F178" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="31">
+        <v>178</v>
+      </c>
+      <c r="B179" s="31">
+        <v>174</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E179" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F179" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="31">
+        <v>179</v>
+      </c>
+      <c r="B180" s="31">
+        <v>175</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E180" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F180" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="31">
+        <v>180</v>
+      </c>
+      <c r="B181" s="31">
+        <v>176</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E181" s="31">
+        <v>500</v>
+      </c>
+      <c r="F181" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="31">
+        <v>181</v>
+      </c>
+      <c r="B182" s="31">
+        <v>177</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E182" s="31">
+        <v>50000</v>
+      </c>
+      <c r="F182" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="31">
+        <v>182</v>
+      </c>
+      <c r="B183" s="31">
+        <v>178</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E183" s="31">
+        <v>15000</v>
+      </c>
+      <c r="F183" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="31">
+        <v>183</v>
+      </c>
+      <c r="B184" s="31">
+        <v>179</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E184" s="31">
+        <v>5000</v>
+      </c>
+      <c r="F184" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="31">
+        <v>184</v>
+      </c>
+      <c r="B185" s="31">
+        <v>180</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E185" s="31">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="31">
+        <v>185</v>
+      </c>
+      <c r="B186" s="31">
+        <v>181</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F186" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="31">
+        <v>186</v>
+      </c>
+      <c r="B187" s="31">
+        <v>182</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D187" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E187" s="31">
+        <v>500</v>
+      </c>
+      <c r="F187" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="31">
+        <v>187</v>
+      </c>
+      <c r="B188" s="31">
+        <v>183</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D188" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E188" s="31">
+        <v>240</v>
+      </c>
+      <c r="F188" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
+        <v>188</v>
+      </c>
+      <c r="B189" s="23">
+        <v>184</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E189" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F189" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
+        <v>189</v>
+      </c>
+      <c r="B190" s="23">
+        <v>185</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E190" s="23">
+        <v>30000</v>
+      </c>
+      <c r="F190" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="23">
+        <v>190</v>
+      </c>
+      <c r="B191" s="23">
+        <v>186</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E191" s="23">
+        <v>10000</v>
+      </c>
+      <c r="F191" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="23">
+        <v>191</v>
+      </c>
+      <c r="B192" s="23">
+        <v>187</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E192" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F192" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="23">
+        <v>192</v>
+      </c>
+      <c r="B193" s="23">
+        <v>188</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E193" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F193" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="23">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23">
+        <v>189</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E194" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F194" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="23">
+        <v>194</v>
+      </c>
+      <c r="B195" s="23">
+        <v>190</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E195" s="23">
+        <v>500</v>
+      </c>
+      <c r="F195" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="34">
+        <v>195</v>
+      </c>
+      <c r="B196" s="34">
+        <v>191</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E196" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F196" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="34">
+        <v>196</v>
+      </c>
+      <c r="B197" s="34">
+        <v>192</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="34">
+        <v>30000</v>
+      </c>
+      <c r="F197" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="34">
+        <v>197</v>
+      </c>
+      <c r="B198" s="34">
+        <v>193</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F198" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="34">
+        <v>198</v>
+      </c>
+      <c r="B199" s="34">
+        <v>194</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F199" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="34">
+        <v>199</v>
+      </c>
+      <c r="B200" s="34">
+        <v>195</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="34">
+        <v>2000</v>
+      </c>
+      <c r="F200" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="34">
+        <v>200</v>
+      </c>
+      <c r="B201" s="34">
+        <v>196</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F201" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="34">
+        <v>201</v>
+      </c>
+      <c r="B202" s="34">
+        <v>197</v>
+      </c>
+      <c r="C202" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" s="34">
+        <v>500</v>
+      </c>
+      <c r="F202" s="34">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="290">
   <si>
     <t>id|</t>
   </si>
@@ -1240,6 +1240,66 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>240福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_004_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>15000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1252,67 +1312,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>500福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>240福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_004_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycs_005_jybb_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nyx_006_yxbd_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>more</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_add</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2997,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>264</v>
@@ -3009,10 +3013,10 @@
         <v>1613404799</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I32" s="28">
         <v>31</v>
@@ -3032,10 +3036,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E33" s="42">
         <v>1613433600</v>
@@ -3067,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E34" s="44">
         <v>1614038400</v>
@@ -4988,7 +4992,7 @@
         <v>245</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E54" s="23">
         <v>2</v>
@@ -5022,7 +5026,7 @@
         <v>245</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E56" s="34">
         <v>2</v>
@@ -6437,9 +6441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11662,9 +11666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196:F202"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13713,7 +13717,7 @@
         <v>204</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E103" s="5">
         <v>9000</v>
@@ -13930,7 +13934,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>127</v>
@@ -13950,7 +13954,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>127</v>
@@ -13970,7 +13974,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>127</v>
@@ -14010,7 +14014,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>127</v>
@@ -15150,13 +15154,13 @@
         <v>170</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="D175" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E175" s="31">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F175" s="31">
         <v>1</v>
@@ -15170,13 +15174,13 @@
         <v>171</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E176" s="31">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F176" s="31">
         <v>1</v>
@@ -15190,13 +15194,13 @@
         <v>172</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E177" s="31">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F177" s="31">
         <v>1</v>
@@ -15210,13 +15214,13 @@
         <v>173</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="D178" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E178" s="31">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F178" s="31">
         <v>1</v>
@@ -15230,13 +15234,13 @@
         <v>174</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="D179" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E179" s="31">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F179" s="31">
         <v>1</v>
@@ -15250,13 +15254,13 @@
         <v>175</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="D180" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E180" s="31">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F180" s="31">
         <v>1</v>
@@ -15270,13 +15274,13 @@
         <v>176</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="D181" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E181" s="31">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F181" s="31">
         <v>1</v>
@@ -15310,7 +15314,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>158</v>
@@ -15330,7 +15334,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>158</v>
@@ -15350,7 +15354,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D185" s="33" t="s">
         <v>158</v>
@@ -15370,7 +15374,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="D186" s="33" t="s">
         <v>158</v>
@@ -15390,7 +15394,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>158</v>
@@ -15410,7 +15414,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D188" s="33" t="s">
         <v>158</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1859,9 +1859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6437,9 +6437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6835,8 +6835,8 @@
       <c r="B33" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="28">
-        <v>1612828800</v>
+      <c r="C33" s="31">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="289">
   <si>
     <t>id|</t>
   </si>
@@ -1272,22 +1272,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>50万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1317,6 +1301,18 @@
   </si>
   <si>
     <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1863,9 +1859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3013,10 +3009,10 @@
         <v>1613404799</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I32" s="28">
         <v>31</v>
@@ -6887,8 +6883,8 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H225" sqref="H224:H225"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11667,8 +11663,8 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13717,7 +13713,7 @@
         <v>204</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E103" s="5">
         <v>9000</v>
@@ -13934,13 +13930,13 @@
         <v>109</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E114" s="23">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="F114" s="23">
         <v>1</v>
@@ -13954,13 +13950,13 @@
         <v>110</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E115" s="23">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="F115" s="23">
         <v>1</v>
@@ -13974,13 +13970,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E116" s="23">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F116" s="23">
         <v>1</v>
@@ -13994,13 +13990,13 @@
         <v>112</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E117" s="23">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F117" s="23">
         <v>1</v>
@@ -14014,13 +14010,13 @@
         <v>113</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E118" s="23">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F118" s="23">
         <v>1</v>
@@ -15174,7 +15170,7 @@
         <v>171</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>158</v>
@@ -15194,7 +15190,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>158</v>
@@ -15214,7 +15210,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D178" s="33" t="s">
         <v>158</v>
@@ -15234,7 +15230,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D179" s="33" t="s">
         <v>158</v>
@@ -15254,7 +15250,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D180" s="33" t="s">
         <v>158</v>
@@ -15314,7 +15310,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>158</v>
@@ -15334,7 +15330,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>158</v>
@@ -15354,7 +15350,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D185" s="33" t="s">
         <v>158</v>
@@ -15374,7 +15370,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D186" s="33" t="s">
         <v>158</v>
@@ -15394,7 +15390,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>158</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="297">
   <si>
     <t>id|</t>
   </si>
@@ -1240,6 +1240,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>240福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1284,14 +1292,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>nsj_007_mgbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>15000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1300,6 +1312,26 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1308,11 +1340,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3万福利券</t>
+    <t>5千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1万福利券</t>
+    <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1409,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,19 +1442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1521,19 +1547,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1542,45 +1559,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1857,16 +1858,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="36" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="14" customWidth="1"/>
@@ -1889,7 +1890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1936,7 +1937,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="b">
@@ -1970,7 +1971,7 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="b">
@@ -2010,7 +2011,7 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="b">
@@ -2044,7 +2045,7 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="b">
@@ -2081,7 +2082,7 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="b">
@@ -2118,7 +2119,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="b">
@@ -2153,7 +2154,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="b">
@@ -2188,7 +2189,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="b">
@@ -2223,7 +2224,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="b">
@@ -2258,7 +2259,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="b">
@@ -2293,7 +2294,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="b">
@@ -2328,16 +2329,16 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E13" s="14">
@@ -2363,16 +2364,16 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="14">
@@ -2397,701 +2398,736 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+    <row r="15" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="b">
+      <c r="B15" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>1598311800</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>1598889599</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>15</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>14</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+    <row r="16" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>1604246400</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>16</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>15</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+    <row r="17" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="b">
+      <c r="B17" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>17</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>16</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="b">
+      <c r="B18" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>18</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="26">
         <v>17</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="b">
+      <c r="B19" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>19</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <v>18</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="26">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+    <row r="20" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="b">
+      <c r="B20" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>20</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="26">
         <v>19</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+    <row r="21" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="b">
+      <c r="B21" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>1607385600</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>1607961599</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>21</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="26">
         <v>20</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+    <row r="22" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>1604246400</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <v>21</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+    <row r="23" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="b">
+      <c r="B23" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>1607990400</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>1608566399</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>22</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <v>22</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+    <row r="24" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="b">
+      <c r="B24" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="31">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="31">
         <v>1609171199</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>23</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="26">
         <v>23</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+    <row r="25" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="b">
+      <c r="B25" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="31">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="31">
         <v>1609775999</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>24</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <v>24</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="b">
+      <c r="B26" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="31">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="31">
         <v>1610380799</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>25</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>25</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="b">
+      <c r="B27" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <v>1610407800</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <v>1610985599</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>26</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="26">
         <v>26</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+    <row r="28" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="b">
+      <c r="B28" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <v>1610409600</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>1611590399</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>27</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <v>27</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+    <row r="29" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="b">
+      <c r="B29" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <v>1611590400</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <v>1612195199</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>28</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="26">
         <v>28</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+    <row r="30" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="b">
+      <c r="B30" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <v>1612224000</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>1612799999</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <v>29</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="26">
         <v>29</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="26">
         <v>1612828800</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="26">
         <v>1613404799</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="26">
         <v>30</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="26">
         <v>30</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+    <row r="32" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="B32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="26">
         <v>1612828800</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="26">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="28">
+      <c r="G32" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" s="26">
         <v>31</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="26">
         <v>31</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+    <row r="33" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="42">
+      <c r="B33" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="26">
         <v>1613433600</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="26">
         <v>1614009599</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="26">
         <v>32</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="26">
         <v>32</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+    <row r="34" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="B34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="26">
         <v>1614038400</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="26">
         <v>1614614399</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="26">
         <v>33</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="26">
         <v>33</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="26">
         <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1614643200</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1615219199</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="33">
+        <v>34</v>
+      </c>
+      <c r="K35" s="33">
+        <v>34</v>
+      </c>
+      <c r="L35" s="33">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3103,11 +3139,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3656,7 +3692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3669,10 +3705,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-    </row>
-    <row r="42" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3685,8 +3721,8 @@
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3772,7 +3808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3786,7 +3822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3800,7 +3836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3814,7 +3850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3828,7 +3864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3842,7 +3878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3856,7 +3892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3870,7 +3906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3884,7 +3920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3898,7 +3934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3912,144 +3948,192 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="5">
         <v>30</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="5">
         <v>30</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="5">
         <v>31</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="5">
         <v>31</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="5">
         <v>31</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="5">
         <v>31</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="5">
         <v>32</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="5">
         <v>32</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B67" s="5">
         <v>33</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="5">
         <v>33</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="5">
         <v>37</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36">
+        <v>34</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36">
+        <v>34</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="36">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4148,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4501,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4545,7 +4629,7 @@
       <c r="C28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>249</v>
       </c>
       <c r="E28" s="5">
@@ -4579,7 +4663,7 @@
       <c r="C30" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>248</v>
       </c>
       <c r="E30" s="5">
@@ -4613,7 +4697,7 @@
       <c r="C32" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="27" t="s">
         <v>247</v>
       </c>
       <c r="E32" s="5">
@@ -4647,7 +4731,7 @@
       <c r="C34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>252</v>
       </c>
       <c r="E34" s="5">
@@ -4790,250 +4874,277 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="5">
         <v>31</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="5">
         <v>9</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="5">
         <v>31</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="5">
         <v>32</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="5">
         <v>240000</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="5">
         <v>32</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="5">
         <v>500</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="5">
         <v>33</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="5">
         <v>240000</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="5">
         <v>33</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="5">
         <v>500</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="5">
         <v>34</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="5">
         <v>240000</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="5">
         <v>34</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="5">
         <v>500</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="5">
         <v>35</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="5">
         <v>240000</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="5">
         <v>35</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="5">
         <v>500</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="5">
         <v>36</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="5">
         <v>9</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="5">
         <v>36</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="D54" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="5">
         <v>37</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="5">
         <v>9</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="5">
         <v>37</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D56" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="34">
+      <c r="D56" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="5">
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="36">
+        <v>38</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="36">
+        <v>9</v>
+      </c>
+      <c r="E57" s="36">
+        <v>2</v>
+      </c>
+    </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="36">
+        <v>38</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
@@ -5156,11 +5267,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5496,26 +5607,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>20</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="5">
         <v>100</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="5">
         <v>20</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="5">
         <v>180</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="5">
         <v>10</v>
       </c>
     </row>
@@ -5634,26 +5745,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+    <row r="21" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
         <v>20</v>
       </c>
-      <c r="B21" s="38">
-        <v>1</v>
-      </c>
-      <c r="C21" s="38">
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
         <v>20</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="28">
         <v>100</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="28">
         <v>20</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="28">
         <v>180</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="28">
         <v>10</v>
       </c>
     </row>
@@ -5865,95 +5976,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
         <v>20</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="5">
         <v>100</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="5">
         <v>20</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="5">
         <v>180</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
-        <v>1</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
         <v>20</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="5">
         <v>100</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="5">
         <v>20</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="5">
         <v>180</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
         <v>20</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="5">
         <v>100</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="5">
         <v>20</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="5">
         <v>180</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
         <v>20</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="5">
         <v>100</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="5">
         <v>20</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="5">
         <v>180</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="36">
+        <v>20</v>
+      </c>
+      <c r="D35" s="36">
+        <v>100</v>
+      </c>
+      <c r="E35" s="36">
+        <v>20</v>
+      </c>
+      <c r="F35" s="36">
+        <v>180</v>
+      </c>
+      <c r="G35" s="36">
         <v>10</v>
       </c>
     </row>
@@ -5965,11 +6099,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6371,59 +6505,73 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="5">
         <v>32</v>
       </c>
-      <c r="C29" s="31">
-        <v>1</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="5">
         <v>33</v>
       </c>
-      <c r="C30" s="31">
-        <v>1</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="5">
         <v>34</v>
       </c>
-      <c r="C31" s="23">
-        <v>1</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="5">
         <v>35</v>
       </c>
-      <c r="C32" s="34">
-        <v>1</v>
-      </c>
-      <c r="D32" s="34">
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="36">
+        <v>32</v>
+      </c>
+      <c r="B33" s="36">
+        <v>36</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6435,11 +6583,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6725,7 +6873,7 @@
       <c r="B23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>1607961599</v>
       </c>
     </row>
@@ -6747,7 +6895,7 @@
       <c r="B25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>1608566399</v>
       </c>
     </row>
@@ -6758,7 +6906,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="31">
         <v>1609171199</v>
       </c>
     </row>
@@ -6769,7 +6917,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>1609775999</v>
       </c>
     </row>
@@ -6780,7 +6928,7 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="31">
         <v>1610380799</v>
       </c>
     </row>
@@ -6802,7 +6950,7 @@
       <c r="B30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>1611590399</v>
       </c>
     </row>
@@ -6813,7 +6961,7 @@
       <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>1612195199</v>
       </c>
     </row>
@@ -6824,52 +6972,63 @@
       <c r="B32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>1612799999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="5">
         <v>1613404799</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="5">
         <v>1613404799</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="26">
         <v>1614009599</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="26">
         <v>1614614399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="33">
+        <v>1615219199</v>
       </c>
     </row>
   </sheetData>
@@ -6880,11 +7039,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9692,114 +9851,114 @@
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="23">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" s="5">
         <v>19</v>
       </c>
-      <c r="C125" s="23">
-        <v>1</v>
-      </c>
-      <c r="D125" s="23">
-        <v>1</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23">
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5">
         <v>109</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="23">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="5">
         <v>19</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="5">
         <v>2</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="5">
         <v>2</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23">
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5">
         <v>110</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="23">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B127" s="5">
         <v>19</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="5">
         <v>3</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="5">
         <v>3</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23">
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5">
         <v>111</v>
       </c>
-      <c r="H127" s="24" t="s">
+      <c r="H127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="23">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="23">
+      <c r="B128" s="5">
         <v>19</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="5">
         <v>4</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D128" s="5">
         <v>10</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23">
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5">
         <v>112</v>
       </c>
-      <c r="H128" s="24" t="s">
+      <c r="H128" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="23">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" s="5">
         <v>19</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="5">
         <v>11</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="5">
         <v>20</v>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23">
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5">
         <v>113</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10837,7 +10996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -10859,7 +11018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -10881,7 +11040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -10903,7 +11062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -10925,7 +11084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -10947,7 +11106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -10969,7 +11128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -10991,7 +11150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -11013,7 +11172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -11035,619 +11194,801 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>185</v>
       </c>
-      <c r="B186" s="31">
+      <c r="B186" s="5">
         <v>28</v>
       </c>
-      <c r="C186" s="31">
-        <v>1</v>
-      </c>
-      <c r="D186" s="31">
-        <v>1</v>
-      </c>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="31">
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5">
         <v>170</v>
       </c>
-      <c r="H186" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H186" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="31">
+      <c r="B187" s="5">
         <v>28</v>
       </c>
-      <c r="C187" s="31">
+      <c r="C187" s="5">
         <v>2</v>
       </c>
-      <c r="D187" s="31">
+      <c r="D187" s="5">
         <v>2</v>
       </c>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="31">
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5">
         <v>171</v>
       </c>
-      <c r="H187" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H187" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>187</v>
       </c>
-      <c r="B188" s="31">
+      <c r="B188" s="5">
         <v>28</v>
       </c>
-      <c r="C188" s="31">
+      <c r="C188" s="5">
         <v>3</v>
       </c>
-      <c r="D188" s="31">
+      <c r="D188" s="5">
         <v>3</v>
       </c>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="31">
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5">
         <v>172</v>
       </c>
-      <c r="H188" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H188" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="31">
+      <c r="B189" s="5">
         <v>28</v>
       </c>
-      <c r="C189" s="31">
+      <c r="C189" s="5">
         <v>4</v>
       </c>
-      <c r="D189" s="31">
+      <c r="D189" s="5">
         <v>6</v>
       </c>
-      <c r="E189" s="31"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="31">
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5">
         <v>173</v>
       </c>
-      <c r="H189" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H189" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>189</v>
       </c>
-      <c r="B190" s="31">
+      <c r="B190" s="5">
         <v>28</v>
       </c>
-      <c r="C190" s="31">
+      <c r="C190" s="5">
         <v>7</v>
       </c>
-      <c r="D190" s="31">
+      <c r="D190" s="5">
         <v>10</v>
       </c>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="31">
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5">
         <v>174</v>
       </c>
-      <c r="H190" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H190" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="31">
+      <c r="B191" s="5">
         <v>28</v>
       </c>
-      <c r="C191" s="31">
+      <c r="C191" s="5">
         <v>11</v>
       </c>
-      <c r="D191" s="31">
+      <c r="D191" s="5">
         <v>15</v>
       </c>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="31">
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5">
         <v>175</v>
       </c>
-      <c r="H191" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H191" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>191</v>
       </c>
-      <c r="B192" s="31">
+      <c r="B192" s="5">
         <v>28</v>
       </c>
-      <c r="C192" s="31">
+      <c r="C192" s="5">
         <v>16</v>
       </c>
-      <c r="D192" s="31">
+      <c r="D192" s="5">
         <v>20</v>
       </c>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31">
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5">
         <v>176</v>
       </c>
-      <c r="H192" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H192" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="31">
+      <c r="B193" s="5">
         <v>29</v>
       </c>
-      <c r="C193" s="31">
-        <v>1</v>
-      </c>
-      <c r="D193" s="31">
-        <v>1</v>
-      </c>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31">
+      <c r="C193" s="5">
+        <v>1</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5">
         <v>177</v>
       </c>
-      <c r="H193" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H193" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="31">
+      <c r="B194" s="5">
         <v>29</v>
       </c>
-      <c r="C194" s="31">
+      <c r="C194" s="5">
         <v>2</v>
       </c>
-      <c r="D194" s="31">
+      <c r="D194" s="5">
         <v>2</v>
       </c>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="31">
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5">
         <v>178</v>
       </c>
-      <c r="H194" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H194" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="31">
+      <c r="B195" s="5">
         <v>29</v>
       </c>
-      <c r="C195" s="31">
+      <c r="C195" s="5">
         <v>3</v>
       </c>
-      <c r="D195" s="31">
+      <c r="D195" s="5">
         <v>3</v>
       </c>
-      <c r="E195" s="31"/>
-      <c r="F195" s="31"/>
-      <c r="G195" s="31">
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5">
         <v>179</v>
       </c>
-      <c r="H195" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H195" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="31">
+      <c r="B196" s="5">
         <v>29</v>
       </c>
-      <c r="C196" s="31">
+      <c r="C196" s="5">
         <v>4</v>
       </c>
-      <c r="D196" s="31">
+      <c r="D196" s="5">
         <v>6</v>
       </c>
-      <c r="E196" s="31"/>
-      <c r="F196" s="31"/>
-      <c r="G196" s="31">
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5">
         <v>180</v>
       </c>
-      <c r="H196" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H196" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="31">
+      <c r="B197" s="5">
         <v>29</v>
       </c>
-      <c r="C197" s="31">
+      <c r="C197" s="5">
         <v>7</v>
       </c>
-      <c r="D197" s="31">
+      <c r="D197" s="5">
         <v>10</v>
       </c>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="31">
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5">
         <v>181</v>
       </c>
-      <c r="H197" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H197" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="31">
+      <c r="B198" s="5">
         <v>29</v>
       </c>
-      <c r="C198" s="31">
+      <c r="C198" s="5">
         <v>11</v>
       </c>
-      <c r="D198" s="31">
+      <c r="D198" s="5">
         <v>15</v>
       </c>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31">
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5">
         <v>182</v>
       </c>
-      <c r="H198" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H198" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="31">
+      <c r="B199" s="5">
         <v>29</v>
       </c>
-      <c r="C199" s="31">
+      <c r="C199" s="5">
         <v>16</v>
       </c>
-      <c r="D199" s="31">
+      <c r="D199" s="5">
         <v>20</v>
       </c>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="31">
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5">
         <v>183</v>
       </c>
-      <c r="H199" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H199" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>199</v>
       </c>
-      <c r="B200" s="23">
+      <c r="B200" s="5">
         <v>30</v>
       </c>
-      <c r="C200" s="23">
-        <v>1</v>
-      </c>
-      <c r="D200" s="23">
-        <v>1</v>
-      </c>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23">
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5">
         <v>184</v>
       </c>
-      <c r="H200" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H200" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="23">
+      <c r="B201" s="5">
         <v>30</v>
       </c>
-      <c r="C201" s="23">
+      <c r="C201" s="5">
         <v>2</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="5">
         <v>2</v>
       </c>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="23">
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5">
         <v>185</v>
       </c>
-      <c r="H201" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H201" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>201</v>
       </c>
-      <c r="B202" s="23">
+      <c r="B202" s="5">
         <v>30</v>
       </c>
-      <c r="C202" s="23">
+      <c r="C202" s="5">
         <v>3</v>
       </c>
-      <c r="D202" s="23">
+      <c r="D202" s="5">
         <v>3</v>
       </c>
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="23">
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5">
         <v>186</v>
       </c>
-      <c r="H202" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H202" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="23">
+      <c r="B203" s="5">
         <v>30</v>
       </c>
-      <c r="C203" s="23">
+      <c r="C203" s="5">
         <v>4</v>
       </c>
-      <c r="D203" s="23">
+      <c r="D203" s="5">
         <v>6</v>
       </c>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23">
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5">
         <v>187</v>
       </c>
-      <c r="H203" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H203" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="23">
+      <c r="B204" s="5">
         <v>30</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="5">
         <v>7</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="5">
         <v>10</v>
       </c>
-      <c r="E204" s="23"/>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23">
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5">
         <v>188</v>
       </c>
-      <c r="H204" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H204" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="23">
+      <c r="B205" s="5">
         <v>30</v>
       </c>
-      <c r="C205" s="23">
+      <c r="C205" s="5">
         <v>11</v>
       </c>
-      <c r="D205" s="23">
+      <c r="D205" s="5">
         <v>15</v>
       </c>
-      <c r="E205" s="23"/>
-      <c r="F205" s="23"/>
-      <c r="G205" s="23">
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5">
         <v>189</v>
       </c>
-      <c r="H205" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H205" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="23">
+      <c r="B206" s="5">
         <v>30</v>
       </c>
-      <c r="C206" s="23">
+      <c r="C206" s="5">
         <v>16</v>
       </c>
-      <c r="D206" s="23">
+      <c r="D206" s="5">
         <v>20</v>
       </c>
-      <c r="E206" s="23"/>
-      <c r="F206" s="23"/>
-      <c r="G206" s="23">
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5">
         <v>190</v>
       </c>
-      <c r="H206" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H206" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="5">
         <v>31</v>
       </c>
-      <c r="C207" s="34">
-        <v>1</v>
-      </c>
-      <c r="D207" s="34">
-        <v>1</v>
-      </c>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34">
+      <c r="C207" s="5">
+        <v>1</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5">
         <v>191</v>
       </c>
-      <c r="H207" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H207" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>207</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="5">
         <v>31</v>
       </c>
-      <c r="C208" s="34">
+      <c r="C208" s="5">
         <v>2</v>
       </c>
-      <c r="D208" s="34">
+      <c r="D208" s="5">
         <v>2</v>
       </c>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34">
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5">
         <v>192</v>
       </c>
-      <c r="H208" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H208" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="34">
+      <c r="B209" s="5">
         <v>31</v>
       </c>
-      <c r="C209" s="34">
+      <c r="C209" s="5">
         <v>3</v>
       </c>
-      <c r="D209" s="34">
+      <c r="D209" s="5">
         <v>3</v>
       </c>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34">
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5">
         <v>193</v>
       </c>
-      <c r="H209" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H209" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>209</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="5">
         <v>31</v>
       </c>
-      <c r="C210" s="34">
+      <c r="C210" s="5">
         <v>4</v>
       </c>
-      <c r="D210" s="34">
+      <c r="D210" s="5">
         <v>6</v>
       </c>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34">
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5">
         <v>194</v>
       </c>
-      <c r="H210" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H210" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>210</v>
       </c>
-      <c r="B211" s="34">
+      <c r="B211" s="5">
         <v>31</v>
       </c>
-      <c r="C211" s="34">
+      <c r="C211" s="5">
         <v>7</v>
       </c>
-      <c r="D211" s="34">
+      <c r="D211" s="5">
         <v>10</v>
       </c>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34">
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5">
         <v>195</v>
       </c>
-      <c r="H211" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H211" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>211</v>
       </c>
-      <c r="B212" s="34">
+      <c r="B212" s="5">
         <v>31</v>
       </c>
-      <c r="C212" s="34">
+      <c r="C212" s="5">
         <v>11</v>
       </c>
-      <c r="D212" s="34">
+      <c r="D212" s="5">
         <v>15</v>
       </c>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34">
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5">
         <v>196</v>
       </c>
-      <c r="H212" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H212" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>212</v>
       </c>
-      <c r="B213" s="34">
+      <c r="B213" s="5">
         <v>31</v>
       </c>
-      <c r="C213" s="34">
+      <c r="C213" s="5">
         <v>16</v>
       </c>
-      <c r="D213" s="34">
+      <c r="D213" s="5">
         <v>20</v>
       </c>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34">
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5">
         <v>197</v>
       </c>
-      <c r="H213" s="36" t="s">
+      <c r="H213" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36">
+        <v>32</v>
+      </c>
+      <c r="C214" s="36">
+        <v>1</v>
+      </c>
+      <c r="D214" s="36">
+        <v>1</v>
+      </c>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36">
+        <v>198</v>
+      </c>
+      <c r="H214" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+      <c r="B215" s="36">
+        <v>32</v>
+      </c>
+      <c r="C215" s="36">
+        <v>2</v>
+      </c>
+      <c r="D215" s="36">
+        <v>2</v>
+      </c>
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36">
+        <v>199</v>
+      </c>
+      <c r="H215" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+      <c r="B216" s="36">
+        <v>32</v>
+      </c>
+      <c r="C216" s="36">
+        <v>3</v>
+      </c>
+      <c r="D216" s="36">
+        <v>3</v>
+      </c>
+      <c r="E216" s="36"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36">
+        <v>200</v>
+      </c>
+      <c r="H216" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+      <c r="B217" s="36">
+        <v>32</v>
+      </c>
+      <c r="C217" s="36">
+        <v>4</v>
+      </c>
+      <c r="D217" s="36">
+        <v>6</v>
+      </c>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36">
+        <v>201</v>
+      </c>
+      <c r="H217" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+      <c r="B218" s="36">
+        <v>32</v>
+      </c>
+      <c r="C218" s="36">
+        <v>7</v>
+      </c>
+      <c r="D218" s="36">
+        <v>10</v>
+      </c>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36">
+        <v>202</v>
+      </c>
+      <c r="H218" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+      <c r="B219" s="36">
+        <v>32</v>
+      </c>
+      <c r="C219" s="36">
+        <v>11</v>
+      </c>
+      <c r="D219" s="36">
+        <v>15</v>
+      </c>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36">
+        <v>203</v>
+      </c>
+      <c r="H219" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+      <c r="B220" s="36">
+        <v>32</v>
+      </c>
+      <c r="C220" s="36">
+        <v>16</v>
+      </c>
+      <c r="D220" s="36">
+        <v>20</v>
+      </c>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36">
+        <v>204</v>
+      </c>
+      <c r="H220" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11660,11 +12001,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13713,7 +14054,7 @@
         <v>204</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E103" s="5">
         <v>9000</v>
@@ -13922,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23">
         <v>113</v>
       </c>
@@ -13930,7 +14271,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>127</v>
@@ -13942,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="23">
         <v>114</v>
       </c>
@@ -13950,7 +14291,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>127</v>
@@ -13962,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23">
         <v>115</v>
       </c>
@@ -13970,7 +14311,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>127</v>
@@ -13982,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23">
         <v>116</v>
       </c>
@@ -13990,7 +14331,7 @@
         <v>112</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>127</v>
@@ -14002,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
         <v>117</v>
       </c>
@@ -14010,7 +14351,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>127</v>
@@ -15142,563 +15483,703 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="31">
+    <row r="175" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B175" s="5">
         <v>170</v>
       </c>
-      <c r="C175" s="33" t="s">
+      <c r="C175" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D175" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E175" s="31">
+      <c r="E175" s="5">
         <v>50000</v>
       </c>
-      <c r="F175" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="31">
+      <c r="F175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="31">
+      <c r="B176" s="5">
         <v>171</v>
       </c>
-      <c r="C176" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D176" s="33" t="s">
+      <c r="C176" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D176" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E176" s="31">
+      <c r="E176" s="5">
         <v>15000</v>
       </c>
-      <c r="F176" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B177" s="5">
         <v>172</v>
       </c>
-      <c r="C177" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D177" s="33" t="s">
+      <c r="C177" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D177" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E177" s="31">
+      <c r="E177" s="5">
         <v>5000</v>
       </c>
-      <c r="F177" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="31">
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="31">
+      <c r="B178" s="5">
         <v>173</v>
       </c>
-      <c r="C178" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D178" s="33" t="s">
+      <c r="C178" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D178" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E178" s="31">
+      <c r="E178" s="5">
         <v>1500</v>
       </c>
-      <c r="F178" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="31">
+      <c r="F178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="31">
+      <c r="B179" s="5">
         <v>174</v>
       </c>
-      <c r="C179" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D179" s="33" t="s">
+      <c r="C179" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D179" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E179" s="31">
+      <c r="E179" s="5">
         <v>1000</v>
       </c>
-      <c r="F179" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="31">
+      <c r="F179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="31">
+      <c r="B180" s="5">
         <v>175</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="C180" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E180" s="5">
+        <v>500</v>
+      </c>
+      <c r="F180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5">
+        <v>176</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E181" s="5">
+        <v>240</v>
+      </c>
+      <c r="F181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>177</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E182" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5">
+        <v>178</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D183" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E183" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>179</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D184" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E180" s="31">
+      <c r="E184" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>180</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>181</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>182</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D187" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E187" s="5">
         <v>500</v>
       </c>
-      <c r="F180" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="31">
-        <v>180</v>
-      </c>
-      <c r="B181" s="31">
-        <v>176</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="D181" s="33" t="s">
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>183</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E188" s="5">
+        <v>240</v>
+      </c>
+      <c r="F188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>184</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E181" s="31">
-        <v>240</v>
-      </c>
-      <c r="F181" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="31">
-        <v>181</v>
-      </c>
-      <c r="B182" s="31">
-        <v>177</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D182" s="33" t="s">
+      <c r="E189" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>185</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E182" s="31">
-        <v>50000</v>
-      </c>
-      <c r="F182" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="31">
-        <v>182</v>
-      </c>
-      <c r="B183" s="31">
-        <v>178</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D183" s="33" t="s">
+      <c r="E190" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>186</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D191" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E183" s="31">
-        <v>15000</v>
-      </c>
-      <c r="F183" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="31">
-        <v>183</v>
-      </c>
-      <c r="B184" s="31">
-        <v>179</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D184" s="33" t="s">
+      <c r="E191" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>187</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D192" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E184" s="31">
-        <v>5000</v>
-      </c>
-      <c r="F184" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="31">
-        <v>184</v>
-      </c>
-      <c r="B185" s="31">
-        <v>180</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D185" s="33" t="s">
+      <c r="E192" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>188</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D193" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E185" s="31">
-        <v>1500</v>
-      </c>
-      <c r="F185" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="31">
-        <v>185</v>
-      </c>
-      <c r="B186" s="31">
-        <v>181</v>
-      </c>
-      <c r="C186" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D186" s="33" t="s">
+      <c r="E193" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>189</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E186" s="31">
+      <c r="E194" s="5">
         <v>1000</v>
       </c>
-      <c r="F186" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="31">
-        <v>186</v>
-      </c>
-      <c r="B187" s="31">
-        <v>182</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="D187" s="33" t="s">
+      <c r="F194" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>190</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D195" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E187" s="31">
+      <c r="E195" s="5">
         <v>500</v>
       </c>
-      <c r="F187" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="31">
-        <v>187</v>
-      </c>
-      <c r="B188" s="31">
-        <v>183</v>
-      </c>
-      <c r="C188" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="D188" s="33" t="s">
+      <c r="F195" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>191</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E188" s="31">
-        <v>240</v>
-      </c>
-      <c r="F188" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="23">
-        <v>188</v>
-      </c>
-      <c r="B189" s="23">
-        <v>184</v>
-      </c>
-      <c r="C189" s="24" t="s">
+      <c r="E196" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>192</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>193</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>194</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>195</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>196</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>197</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" s="5">
+        <v>500</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="36">
+        <v>198</v>
+      </c>
+      <c r="C203" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D203" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E189" s="23">
+      <c r="E203" s="36">
         <v>100000</v>
       </c>
-      <c r="F189" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="23">
-        <v>189</v>
-      </c>
-      <c r="B190" s="23">
-        <v>185</v>
-      </c>
-      <c r="C190" s="24" t="s">
+      <c r="F203" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="36">
+        <v>199</v>
+      </c>
+      <c r="C204" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D204" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E190" s="23">
+      <c r="E204" s="36">
         <v>30000</v>
       </c>
-      <c r="F190" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="23">
-        <v>190</v>
-      </c>
-      <c r="B191" s="23">
-        <v>186</v>
-      </c>
-      <c r="C191" s="24" t="s">
+      <c r="F204" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="36">
+        <v>200</v>
+      </c>
+      <c r="C205" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D205" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E191" s="23">
+      <c r="E205" s="36">
         <v>10000</v>
       </c>
-      <c r="F191" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="23">
-        <v>191</v>
-      </c>
-      <c r="B192" s="23">
-        <v>187</v>
-      </c>
-      <c r="C192" s="24" t="s">
+      <c r="F205" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="36">
+        <v>201</v>
+      </c>
+      <c r="C206" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D206" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E192" s="23">
+      <c r="E206" s="36">
         <v>3000</v>
       </c>
-      <c r="F192" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="23">
-        <v>192</v>
-      </c>
-      <c r="B193" s="23">
-        <v>188</v>
-      </c>
-      <c r="C193" s="24" t="s">
+      <c r="F206" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="36">
+        <v>202</v>
+      </c>
+      <c r="C207" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D207" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E193" s="23">
+      <c r="E207" s="36">
         <v>2000</v>
       </c>
-      <c r="F193" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="23">
-        <v>193</v>
-      </c>
-      <c r="B194" s="23">
-        <v>189</v>
-      </c>
-      <c r="C194" s="24" t="s">
+      <c r="F207" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="36">
+        <v>203</v>
+      </c>
+      <c r="C208" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="D208" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E194" s="23">
+      <c r="E208" s="36">
         <v>1000</v>
       </c>
-      <c r="F194" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="23">
-        <v>194</v>
-      </c>
-      <c r="B195" s="23">
-        <v>190</v>
-      </c>
-      <c r="C195" s="24" t="s">
+      <c r="F208" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="36">
+        <v>204</v>
+      </c>
+      <c r="C209" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D209" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E209" s="36">
         <v>500</v>
       </c>
-      <c r="F195" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="34">
-        <v>195</v>
-      </c>
-      <c r="B196" s="34">
-        <v>191</v>
-      </c>
-      <c r="C196" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D196" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E196" s="34">
-        <v>100000</v>
-      </c>
-      <c r="F196" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="34">
-        <v>196</v>
-      </c>
-      <c r="B197" s="34">
-        <v>192</v>
-      </c>
-      <c r="C197" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D197" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E197" s="34">
-        <v>30000</v>
-      </c>
-      <c r="F197" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="34">
-        <v>197</v>
-      </c>
-      <c r="B198" s="34">
-        <v>193</v>
-      </c>
-      <c r="C198" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D198" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E198" s="34">
-        <v>10000</v>
-      </c>
-      <c r="F198" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="34">
-        <v>198</v>
-      </c>
-      <c r="B199" s="34">
-        <v>194</v>
-      </c>
-      <c r="C199" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D199" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E199" s="34">
-        <v>3000</v>
-      </c>
-      <c r="F199" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="34">
-        <v>199</v>
-      </c>
-      <c r="B200" s="34">
-        <v>195</v>
-      </c>
-      <c r="C200" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D200" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E200" s="34">
-        <v>2000</v>
-      </c>
-      <c r="F200" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="34">
-        <v>200</v>
-      </c>
-      <c r="B201" s="34">
-        <v>196</v>
-      </c>
-      <c r="C201" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D201" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E201" s="34">
-        <v>1000</v>
-      </c>
-      <c r="F201" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="34">
-        <v>201</v>
-      </c>
-      <c r="B202" s="34">
-        <v>197</v>
-      </c>
-      <c r="C202" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D202" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E202" s="34">
-        <v>500</v>
-      </c>
-      <c r="F202" s="34">
+      <c r="F209" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="315">
   <si>
     <t>id|</t>
   </si>
@@ -1348,7 +1348,242 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_005_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <r>
+      <t>205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>213</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>214</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>208</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>216</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>217</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>218</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>219,226</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>220,227</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>221,228</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>222,229</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>223,230</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>224,231</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>225,232</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1356,7 +1591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1646,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1485,7 +1726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1584,6 +1825,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1862,11 +2112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2959,7 +3209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -3099,39 +3349,109 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+    <row r="35" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="26">
         <v>1614643200</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="26">
         <v>1615219199</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="26">
         <v>34</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="26">
         <v>34</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="26">
         <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>35</v>
+      </c>
+      <c r="B36" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="33">
+        <v>1615248000</v>
+      </c>
+      <c r="F36" s="33">
+        <v>1615823999</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="33">
+        <v>35</v>
+      </c>
+      <c r="K36" s="33">
+        <v>35</v>
+      </c>
+      <c r="L36" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1615248000</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1615823999</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I37" s="33">
+        <v>36</v>
+      </c>
+      <c r="K37" s="33">
+        <v>36</v>
+      </c>
+      <c r="L37" s="33">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3143,11 +3463,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4113,31 +4433,115 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="5">
         <v>34</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="5">
         <v>34</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="5">
         <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36">
+        <v>35</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36">
+        <v>35</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36">
+        <v>36</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36">
+        <v>36</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="36">
+        <v>74</v>
+      </c>
+      <c r="B75" s="36">
+        <v>36</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="36">
+        <v>75</v>
+      </c>
+      <c r="B76" s="36">
+        <v>36</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="36">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4149,10 +4553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5120,16 +5524,16 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="5">
         <v>38</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="5">
         <v>9</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5137,32 +5541,86 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="5">
         <v>38</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="E58" s="36">
+      <c r="D58" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="36">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36">
+        <v>39</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="36">
+        <v>9</v>
+      </c>
+      <c r="E59" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="36">
+        <v>59</v>
+      </c>
+      <c r="B60" s="36">
+        <v>39</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="36">
+        <v>60</v>
+      </c>
+      <c r="B61" s="36">
+        <v>40</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E61" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="36">
+        <v>61</v>
+      </c>
+      <c r="B62" s="36">
+        <v>40</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="36">
+        <v>5</v>
+      </c>
+      <c r="E62" s="36">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5271,11 +5729,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6072,26 +6530,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
         <v>20</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="5">
         <v>20</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="5">
         <v>180</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36">
+        <v>20</v>
+      </c>
+      <c r="D36" s="36">
+        <v>100</v>
+      </c>
+      <c r="E36" s="36">
+        <v>20</v>
+      </c>
+      <c r="F36" s="36">
+        <v>180</v>
+      </c>
+      <c r="G36" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>1</v>
+      </c>
+      <c r="C37" s="36">
+        <v>20</v>
+      </c>
+      <c r="D37" s="36">
+        <v>100</v>
+      </c>
+      <c r="E37" s="36">
+        <v>20</v>
+      </c>
+      <c r="F37" s="36">
+        <v>180</v>
+      </c>
+      <c r="G37" s="36">
         <v>10</v>
       </c>
     </row>
@@ -6103,11 +6607,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6565,17 +7069,45 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="5">
         <v>36</v>
       </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36">
+        <v>37</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="36">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>38</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6587,11 +7119,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7028,11 +7560,33 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="26">
         <v>1615219199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="33">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="33">
+        <v>1615823999</v>
       </c>
     </row>
   </sheetData>
@@ -7043,11 +7597,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11846,21 +12400,21 @@
       <c r="A214" s="5">
         <v>213</v>
       </c>
-      <c r="B214" s="36">
+      <c r="B214" s="5">
         <v>32</v>
       </c>
-      <c r="C214" s="36">
-        <v>1</v>
-      </c>
-      <c r="D214" s="36">
-        <v>1</v>
-      </c>
-      <c r="E214" s="36"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="36">
+      <c r="C214" s="5">
+        <v>1</v>
+      </c>
+      <c r="D214" s="5">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5">
         <v>198</v>
       </c>
-      <c r="H214" s="37" t="s">
+      <c r="H214" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11868,21 +12422,21 @@
       <c r="A215" s="5">
         <v>214</v>
       </c>
-      <c r="B215" s="36">
+      <c r="B215" s="5">
         <v>32</v>
       </c>
-      <c r="C215" s="36">
+      <c r="C215" s="5">
         <v>2</v>
       </c>
-      <c r="D215" s="36">
+      <c r="D215" s="5">
         <v>2</v>
       </c>
-      <c r="E215" s="36"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="36">
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5">
         <v>199</v>
       </c>
-      <c r="H215" s="37" t="s">
+      <c r="H215" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11890,21 +12444,21 @@
       <c r="A216" s="5">
         <v>215</v>
       </c>
-      <c r="B216" s="36">
+      <c r="B216" s="5">
         <v>32</v>
       </c>
-      <c r="C216" s="36">
+      <c r="C216" s="5">
         <v>3</v>
       </c>
-      <c r="D216" s="36">
+      <c r="D216" s="5">
         <v>3</v>
       </c>
-      <c r="E216" s="36"/>
-      <c r="F216" s="36"/>
-      <c r="G216" s="36">
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5">
         <v>200</v>
       </c>
-      <c r="H216" s="37" t="s">
+      <c r="H216" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11912,21 +12466,21 @@
       <c r="A217" s="5">
         <v>216</v>
       </c>
-      <c r="B217" s="36">
+      <c r="B217" s="5">
         <v>32</v>
       </c>
-      <c r="C217" s="36">
+      <c r="C217" s="5">
         <v>4</v>
       </c>
-      <c r="D217" s="36">
+      <c r="D217" s="5">
         <v>6</v>
       </c>
-      <c r="E217" s="36"/>
-      <c r="F217" s="36"/>
-      <c r="G217" s="36">
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5">
         <v>201</v>
       </c>
-      <c r="H217" s="37" t="s">
+      <c r="H217" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11934,21 +12488,21 @@
       <c r="A218" s="5">
         <v>217</v>
       </c>
-      <c r="B218" s="36">
+      <c r="B218" s="5">
         <v>32</v>
       </c>
-      <c r="C218" s="36">
+      <c r="C218" s="5">
         <v>7</v>
       </c>
-      <c r="D218" s="36">
+      <c r="D218" s="5">
         <v>10</v>
       </c>
-      <c r="E218" s="36"/>
-      <c r="F218" s="36"/>
-      <c r="G218" s="36">
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5">
         <v>202</v>
       </c>
-      <c r="H218" s="37" t="s">
+      <c r="H218" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11956,21 +12510,21 @@
       <c r="A219" s="5">
         <v>218</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="5">
         <v>32</v>
       </c>
-      <c r="C219" s="36">
+      <c r="C219" s="5">
         <v>11</v>
       </c>
-      <c r="D219" s="36">
+      <c r="D219" s="5">
         <v>15</v>
       </c>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="36">
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5">
         <v>203</v>
       </c>
-      <c r="H219" s="37" t="s">
+      <c r="H219" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11978,21 +12532,385 @@
       <c r="A220" s="5">
         <v>219</v>
       </c>
-      <c r="B220" s="36">
+      <c r="B220" s="5">
         <v>32</v>
       </c>
-      <c r="C220" s="36">
+      <c r="C220" s="5">
         <v>16</v>
       </c>
-      <c r="D220" s="36">
+      <c r="D220" s="5">
         <v>20</v>
       </c>
-      <c r="E220" s="36"/>
-      <c r="F220" s="36"/>
-      <c r="G220" s="36">
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5">
         <v>204</v>
       </c>
-      <c r="H220" s="37" t="s">
+      <c r="H220" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="36">
+        <v>220</v>
+      </c>
+      <c r="B221" s="36">
+        <v>33</v>
+      </c>
+      <c r="C221" s="36">
+        <v>1</v>
+      </c>
+      <c r="D221" s="36">
+        <v>1</v>
+      </c>
+      <c r="E221" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F221" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G221" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="H221" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="36">
+        <v>221</v>
+      </c>
+      <c r="B222" s="36">
+        <v>33</v>
+      </c>
+      <c r="C222" s="36">
+        <v>2</v>
+      </c>
+      <c r="D222" s="36">
+        <v>2</v>
+      </c>
+      <c r="E222" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F222" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G222" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="H222" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="36">
+        <v>222</v>
+      </c>
+      <c r="B223" s="36">
+        <v>33</v>
+      </c>
+      <c r="C223" s="36">
+        <v>3</v>
+      </c>
+      <c r="D223" s="36">
+        <v>3</v>
+      </c>
+      <c r="E223" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F223" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G223" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="H223" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="36">
+        <v>223</v>
+      </c>
+      <c r="B224" s="36">
+        <v>33</v>
+      </c>
+      <c r="C224" s="36">
+        <v>4</v>
+      </c>
+      <c r="D224" s="36">
+        <v>6</v>
+      </c>
+      <c r="E224" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F224" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G224" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H224" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="36">
+        <v>224</v>
+      </c>
+      <c r="B225" s="36">
+        <v>33</v>
+      </c>
+      <c r="C225" s="36">
+        <v>7</v>
+      </c>
+      <c r="D225" s="36">
+        <v>10</v>
+      </c>
+      <c r="E225" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F225" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G225" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="H225" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="36">
+        <v>225</v>
+      </c>
+      <c r="B226" s="36">
+        <v>33</v>
+      </c>
+      <c r="C226" s="36">
+        <v>11</v>
+      </c>
+      <c r="D226" s="36">
+        <v>15</v>
+      </c>
+      <c r="E226" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F226" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G226" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="H226" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="36">
+        <v>226</v>
+      </c>
+      <c r="B227" s="36">
+        <v>33</v>
+      </c>
+      <c r="C227" s="36">
+        <v>16</v>
+      </c>
+      <c r="D227" s="36">
+        <v>20</v>
+      </c>
+      <c r="E227" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F227" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G227" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H227" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="36">
+        <v>227</v>
+      </c>
+      <c r="B228" s="36">
+        <v>34</v>
+      </c>
+      <c r="C228" s="36">
+        <v>1</v>
+      </c>
+      <c r="D228" s="36">
+        <v>1</v>
+      </c>
+      <c r="E228" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F228" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G228" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="H228" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="36">
+        <v>228</v>
+      </c>
+      <c r="B229" s="36">
+        <v>34</v>
+      </c>
+      <c r="C229" s="36">
+        <v>2</v>
+      </c>
+      <c r="D229" s="36">
+        <v>2</v>
+      </c>
+      <c r="E229" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F229" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G229" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H229" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="36">
+        <v>229</v>
+      </c>
+      <c r="B230" s="36">
+        <v>34</v>
+      </c>
+      <c r="C230" s="36">
+        <v>3</v>
+      </c>
+      <c r="D230" s="36">
+        <v>3</v>
+      </c>
+      <c r="E230" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F230" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G230" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="36">
+        <v>230</v>
+      </c>
+      <c r="B231" s="36">
+        <v>34</v>
+      </c>
+      <c r="C231" s="36">
+        <v>4</v>
+      </c>
+      <c r="D231" s="36">
+        <v>6</v>
+      </c>
+      <c r="E231" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F231" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G231" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="H231" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="36">
+        <v>231</v>
+      </c>
+      <c r="B232" s="36">
+        <v>34</v>
+      </c>
+      <c r="C232" s="36">
+        <v>7</v>
+      </c>
+      <c r="D232" s="36">
+        <v>10</v>
+      </c>
+      <c r="E232" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F232" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G232" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="H232" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="36">
+        <v>232</v>
+      </c>
+      <c r="B233" s="36">
+        <v>34</v>
+      </c>
+      <c r="C233" s="36">
+        <v>11</v>
+      </c>
+      <c r="D233" s="36">
+        <v>15</v>
+      </c>
+      <c r="E233" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F233" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G233" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="H233" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="36">
+        <v>233</v>
+      </c>
+      <c r="B234" s="36">
+        <v>34</v>
+      </c>
+      <c r="C234" s="36">
+        <v>16</v>
+      </c>
+      <c r="D234" s="36">
+        <v>20</v>
+      </c>
+      <c r="E234" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F234" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G234" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H234" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12005,11 +12923,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16051,19 +16969,19 @@
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="36">
+      <c r="B203" s="5">
         <v>198</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="C203" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E203" s="36">
+      <c r="E203" s="5">
         <v>100000</v>
       </c>
-      <c r="F203" s="36">
+      <c r="F203" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16071,19 +16989,19 @@
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="36">
+      <c r="B204" s="5">
         <v>199</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E204" s="36">
+      <c r="E204" s="5">
         <v>30000</v>
       </c>
-      <c r="F204" s="36">
+      <c r="F204" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16091,19 +17009,19 @@
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="36">
+      <c r="B205" s="5">
         <v>200</v>
       </c>
-      <c r="C205" s="34" t="s">
+      <c r="C205" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="34" t="s">
+      <c r="D205" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E205" s="36">
+      <c r="E205" s="5">
         <v>10000</v>
       </c>
-      <c r="F205" s="36">
+      <c r="F205" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16111,19 +17029,19 @@
       <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="36">
+      <c r="B206" s="5">
         <v>201</v>
       </c>
-      <c r="C206" s="34" t="s">
+      <c r="C206" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E206" s="36">
+      <c r="E206" s="5">
         <v>3000</v>
       </c>
-      <c r="F206" s="36">
+      <c r="F206" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16131,19 +17049,19 @@
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="36">
+      <c r="B207" s="5">
         <v>202</v>
       </c>
-      <c r="C207" s="34" t="s">
+      <c r="C207" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E207" s="36">
+      <c r="E207" s="5">
         <v>2000</v>
       </c>
-      <c r="F207" s="36">
+      <c r="F207" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16151,19 +17069,19 @@
       <c r="A208" s="5">
         <v>207</v>
       </c>
-      <c r="B208" s="36">
+      <c r="B208" s="5">
         <v>203</v>
       </c>
-      <c r="C208" s="34" t="s">
+      <c r="C208" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E208" s="36">
+      <c r="E208" s="5">
         <v>1000</v>
       </c>
-      <c r="F208" s="36">
+      <c r="F208" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16171,19 +17089,579 @@
       <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="36">
+      <c r="B209" s="5">
         <v>204</v>
       </c>
-      <c r="C209" s="34" t="s">
+      <c r="C209" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E209" s="36">
+      <c r="E209" s="5">
         <v>500</v>
       </c>
-      <c r="F209" s="36">
+      <c r="F209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="36">
+        <v>209</v>
+      </c>
+      <c r="B210" s="36">
+        <v>205</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D210" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E210" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F210" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="36">
+        <v>210</v>
+      </c>
+      <c r="B211" s="36">
+        <v>206</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D211" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F211" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="36">
+        <v>211</v>
+      </c>
+      <c r="B212" s="36">
+        <v>207</v>
+      </c>
+      <c r="C212" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D212" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E212" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F212" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="36">
+        <v>212</v>
+      </c>
+      <c r="B213" s="36">
+        <v>208</v>
+      </c>
+      <c r="C213" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E213" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F213" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="36">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36">
+        <v>209</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F214" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="36">
+        <v>214</v>
+      </c>
+      <c r="B215" s="36">
+        <v>210</v>
+      </c>
+      <c r="C215" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E215" s="36">
+        <v>500</v>
+      </c>
+      <c r="F215" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="36">
+        <v>215</v>
+      </c>
+      <c r="B216" s="36">
+        <v>211</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216" s="36">
+        <v>240</v>
+      </c>
+      <c r="F216" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="36">
+        <v>216</v>
+      </c>
+      <c r="B217" s="36">
+        <v>212</v>
+      </c>
+      <c r="C217" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E217" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F217" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="36">
+        <v>217</v>
+      </c>
+      <c r="B218" s="36">
+        <v>213</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D218" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E218" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F218" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="36">
+        <v>218</v>
+      </c>
+      <c r="B219" s="36">
+        <v>214</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E219" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F219" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="36">
+        <v>219</v>
+      </c>
+      <c r="B220" s="36">
+        <v>215</v>
+      </c>
+      <c r="C220" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D220" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E220" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F220" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="36">
+        <v>220</v>
+      </c>
+      <c r="B221" s="36">
+        <v>216</v>
+      </c>
+      <c r="C221" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E221" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F221" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="36">
+        <v>221</v>
+      </c>
+      <c r="B222" s="36">
+        <v>217</v>
+      </c>
+      <c r="C222" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D222" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E222" s="36">
+        <v>500</v>
+      </c>
+      <c r="F222" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="36">
+        <v>222</v>
+      </c>
+      <c r="B223" s="36">
+        <v>218</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D223" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E223" s="36">
+        <v>240</v>
+      </c>
+      <c r="F223" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="36">
+        <v>223</v>
+      </c>
+      <c r="B224" s="36">
+        <v>219</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E224" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F224" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="36">
+        <v>224</v>
+      </c>
+      <c r="B225" s="36">
+        <v>220</v>
+      </c>
+      <c r="C225" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D225" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E225" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F225" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="36">
+        <v>225</v>
+      </c>
+      <c r="B226" s="36">
+        <v>221</v>
+      </c>
+      <c r="C226" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E226" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F226" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="36">
+        <v>226</v>
+      </c>
+      <c r="B227" s="36">
+        <v>222</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E227" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F227" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="36">
+        <v>227</v>
+      </c>
+      <c r="B228" s="36">
+        <v>223</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E228" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F228" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="36">
+        <v>228</v>
+      </c>
+      <c r="B229" s="36">
+        <v>224</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D229" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E229" s="36">
+        <v>500</v>
+      </c>
+      <c r="F229" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="36">
+        <v>229</v>
+      </c>
+      <c r="B230" s="36">
+        <v>225</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D230" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E230" s="36">
+        <v>240</v>
+      </c>
+      <c r="F230" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="36">
+        <v>230</v>
+      </c>
+      <c r="B231" s="36">
+        <v>226</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D231" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E231" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F231" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="36">
+        <v>231</v>
+      </c>
+      <c r="B232" s="36">
+        <v>227</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D232" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E232" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F232" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="36">
+        <v>232</v>
+      </c>
+      <c r="B233" s="36">
+        <v>228</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E233" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F233" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="36">
+        <v>233</v>
+      </c>
+      <c r="B234" s="36">
+        <v>229</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D234" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E234" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F234" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="36">
+        <v>234</v>
+      </c>
+      <c r="B235" s="36">
+        <v>230</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E235" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F235" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="36">
+        <v>235</v>
+      </c>
+      <c r="B236" s="36">
+        <v>231</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E236" s="36">
+        <v>500</v>
+      </c>
+      <c r="F236" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="36">
+        <v>236</v>
+      </c>
+      <c r="B237" s="36">
+        <v>232</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E237" s="36">
+        <v>240</v>
+      </c>
+      <c r="F237" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="332">
   <si>
     <t>id|</t>
   </si>
@@ -1353,6 +1353,10 @@
   </si>
   <si>
     <t>礼盒排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_005_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1583,7 +1587,71 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xxlzb_005_rank</t>
+    <t>xxlzb_006_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>233,247</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>234,248</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>235,249</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>236,250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>237,251</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>238,252</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>239,253</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,254</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,255</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>242,256</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>243,257</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>244,258</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>245,259</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>246,260</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnhk_009_thphb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1726,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1834,6 +1902,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2112,11 +2189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" activeCellId="1" sqref="A32:XFD32 A37:XFD37"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3256,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>263</v>
@@ -3214,7 +3291,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>262</v>
@@ -3249,7 +3326,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>273</v>
@@ -3284,7 +3361,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>274</v>
@@ -3319,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>277</v>
@@ -3354,7 +3431,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>283</v>
@@ -3384,74 +3461,144 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+    <row r="36" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="26">
         <v>1615248000</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="26">
         <v>1615823999</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="26">
         <v>35</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="26">
         <v>35</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="26">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
+    <row r="37" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D37" s="33" t="s">
+      <c r="B37" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="26">
         <v>1615248000</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="26">
         <v>1615823999</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="26">
         <v>36</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="26">
         <v>36</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="26">
         <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>37</v>
+      </c>
+      <c r="B38" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="33">
+        <v>1615852800</v>
+      </c>
+      <c r="F38" s="33">
+        <v>1616428799</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="33">
+        <v>37</v>
+      </c>
+      <c r="K38" s="33">
+        <v>37</v>
+      </c>
+      <c r="L38" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
+        <v>38</v>
+      </c>
+      <c r="B39" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="33">
+        <v>1615852800</v>
+      </c>
+      <c r="F39" s="33">
+        <v>1616428799</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="33">
+        <v>38</v>
+      </c>
+      <c r="K39" s="33">
+        <v>38</v>
+      </c>
+      <c r="L39" s="33">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3463,11 +3610,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4461,87 +4608,171 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="5">
         <v>35</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="36">
+      <c r="D71" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="5">
         <v>35</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="36">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="5">
         <v>36</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="36">
+      <c r="D73" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="5">
         <v>36</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="36">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="5">
         <v>36</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="36">
+      <c r="C75" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="36">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="5">
         <v>36</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="5">
         <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="36">
+        <v>37</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="36">
+        <v>37</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="36">
+        <v>38</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="36">
+        <v>38</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="36">
+        <v>38</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="36">
+        <v>38</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="36">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4553,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5555,70 +5786,138 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="36">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="5">
         <v>39</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="5">
         <v>9</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="5">
         <v>39</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="36">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="5">
         <v>40</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="5">
         <v>240000</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="36">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="5">
         <v>40</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="36">
-        <v>500</v>
-      </c>
-      <c r="E62" s="36">
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="36">
+        <v>41</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="36">
+        <v>9</v>
+      </c>
+      <c r="E63" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="36">
+        <v>41</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="36">
+        <v>42</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E65" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="36">
+        <v>42</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="36">
+        <v>5</v>
+      </c>
+      <c r="E66" s="36">
         <v>3</v>
       </c>
     </row>
@@ -5634,7 +5933,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5729,11 +6028,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6554,48 +6853,94 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="36">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
         <v>20</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="5">
         <v>100</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="5">
         <v>20</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="5">
         <v>180</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
-        <v>1</v>
-      </c>
-      <c r="C37" s="36">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="5">
         <v>100</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="5">
         <v>20</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="5">
         <v>180</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36">
+        <v>1</v>
+      </c>
+      <c r="C38" s="36">
+        <v>20</v>
+      </c>
+      <c r="D38" s="36">
+        <v>100</v>
+      </c>
+      <c r="E38" s="36">
+        <v>20</v>
+      </c>
+      <c r="F38" s="36">
+        <v>180</v>
+      </c>
+      <c r="G38" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36">
+        <v>20</v>
+      </c>
+      <c r="D39" s="36">
+        <v>100</v>
+      </c>
+      <c r="E39" s="36">
+        <v>20</v>
+      </c>
+      <c r="F39" s="36">
+        <v>180</v>
+      </c>
+      <c r="G39" s="36">
         <v>10</v>
       </c>
     </row>
@@ -6607,11 +6952,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7083,31 +7428,59 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="5">
         <v>37</v>
       </c>
-      <c r="C34" s="36">
-        <v>1</v>
-      </c>
-      <c r="D34" s="36">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="36">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="5">
         <v>38</v>
       </c>
-      <c r="C35" s="36">
-        <v>1</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>39</v>
+      </c>
+      <c r="C36" s="36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>40</v>
+      </c>
+      <c r="C37" s="36">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7119,11 +7492,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7568,25 +7941,47 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="26">
         <v>1615823999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="26">
         <v>1615823999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="33">
+        <v>1616428799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="33">
+        <v>1616428799</v>
       </c>
     </row>
   </sheetData>
@@ -7597,11 +7992,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12551,366 +12946,730 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="36">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
-      <c r="B221" s="36">
+      <c r="B221" s="5">
         <v>33</v>
       </c>
-      <c r="C221" s="36">
-        <v>1</v>
-      </c>
-      <c r="D221" s="36">
-        <v>1</v>
-      </c>
-      <c r="E221" s="36">
+      <c r="C221" s="5">
+        <v>1</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5">
         <v>3000000</v>
       </c>
-      <c r="F221" s="36">
+      <c r="F221" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G221" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H221" s="37" t="s">
+      <c r="G221" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="H221" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="36">
+      <c r="A222" s="5">
         <v>221</v>
       </c>
-      <c r="B222" s="36">
+      <c r="B222" s="5">
         <v>33</v>
       </c>
-      <c r="C222" s="36">
+      <c r="C222" s="5">
         <v>2</v>
       </c>
-      <c r="D222" s="36">
+      <c r="D222" s="5">
         <v>2</v>
       </c>
-      <c r="E222" s="36">
+      <c r="E222" s="5">
         <v>1800000</v>
       </c>
-      <c r="F222" s="36">
+      <c r="F222" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G222" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="H222" s="37" t="s">
+      <c r="G222" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="H222" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="36">
+      <c r="A223" s="5">
         <v>222</v>
       </c>
-      <c r="B223" s="36">
+      <c r="B223" s="5">
         <v>33</v>
       </c>
-      <c r="C223" s="36">
+      <c r="C223" s="5">
         <v>3</v>
       </c>
-      <c r="D223" s="36">
+      <c r="D223" s="5">
         <v>3</v>
       </c>
-      <c r="E223" s="36">
+      <c r="E223" s="5">
         <v>900000</v>
       </c>
-      <c r="F223" s="36">
+      <c r="F223" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G223" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="H223" s="37" t="s">
+      <c r="G223" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H223" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="36">
+      <c r="A224" s="5">
         <v>223</v>
       </c>
-      <c r="B224" s="36">
+      <c r="B224" s="5">
         <v>33</v>
       </c>
-      <c r="C224" s="36">
+      <c r="C224" s="5">
         <v>4</v>
       </c>
-      <c r="D224" s="36">
+      <c r="D224" s="5">
         <v>6</v>
       </c>
-      <c r="E224" s="36">
+      <c r="E224" s="5">
         <v>450000</v>
       </c>
-      <c r="F224" s="36">
+      <c r="F224" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G224" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="H224" s="37" t="s">
+      <c r="G224" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H224" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="36">
+      <c r="A225" s="5">
         <v>224</v>
       </c>
-      <c r="B225" s="36">
+      <c r="B225" s="5">
         <v>33</v>
       </c>
-      <c r="C225" s="36">
+      <c r="C225" s="5">
         <v>7</v>
       </c>
-      <c r="D225" s="36">
+      <c r="D225" s="5">
         <v>10</v>
       </c>
-      <c r="E225" s="36">
+      <c r="E225" s="5">
         <v>300000</v>
       </c>
-      <c r="F225" s="36">
+      <c r="F225" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G225" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="H225" s="37" t="s">
+      <c r="G225" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="H225" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="36">
+      <c r="A226" s="5">
         <v>225</v>
       </c>
-      <c r="B226" s="36">
+      <c r="B226" s="5">
         <v>33</v>
       </c>
-      <c r="C226" s="36">
+      <c r="C226" s="5">
         <v>11</v>
       </c>
-      <c r="D226" s="36">
+      <c r="D226" s="5">
         <v>15</v>
       </c>
-      <c r="E226" s="36">
+      <c r="E226" s="5">
         <v>180000</v>
       </c>
-      <c r="F226" s="36">
+      <c r="F226" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G226" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H226" s="37" t="s">
+      <c r="G226" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="H226" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="36">
+      <c r="A227" s="5">
         <v>226</v>
       </c>
-      <c r="B227" s="36">
+      <c r="B227" s="5">
         <v>33</v>
       </c>
-      <c r="C227" s="36">
+      <c r="C227" s="5">
         <v>16</v>
       </c>
-      <c r="D227" s="36">
+      <c r="D227" s="5">
         <v>20</v>
       </c>
-      <c r="E227" s="36">
+      <c r="E227" s="5">
         <v>90000</v>
       </c>
-      <c r="F227" s="36">
+      <c r="F227" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G227" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="H227" s="37" t="s">
+      <c r="G227" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="H227" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="36">
+      <c r="A228" s="5">
         <v>227</v>
       </c>
-      <c r="B228" s="36">
+      <c r="B228" s="5">
         <v>34</v>
       </c>
-      <c r="C228" s="36">
-        <v>1</v>
-      </c>
-      <c r="D228" s="36">
-        <v>1</v>
-      </c>
-      <c r="E228" s="36">
+      <c r="C228" s="5">
+        <v>1</v>
+      </c>
+      <c r="D228" s="5">
+        <v>1</v>
+      </c>
+      <c r="E228" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F228" s="36">
+      <c r="F228" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G228" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="H228" s="37" t="s">
+      <c r="G228" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H228" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="36">
+      <c r="A229" s="5">
         <v>228</v>
       </c>
-      <c r="B229" s="36">
+      <c r="B229" s="5">
         <v>34</v>
       </c>
-      <c r="C229" s="36">
+      <c r="C229" s="5">
         <v>2</v>
       </c>
-      <c r="D229" s="36">
+      <c r="D229" s="5">
         <v>2</v>
       </c>
-      <c r="E229" s="36">
+      <c r="E229" s="5">
         <v>900000000</v>
       </c>
-      <c r="F229" s="36">
+      <c r="F229" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G229" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="H229" s="37" t="s">
+      <c r="G229" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H229" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="36">
+      <c r="A230" s="5">
         <v>229</v>
       </c>
-      <c r="B230" s="36">
+      <c r="B230" s="5">
         <v>34</v>
       </c>
-      <c r="C230" s="36">
+      <c r="C230" s="5">
         <v>3</v>
       </c>
-      <c r="D230" s="36">
+      <c r="D230" s="5">
         <v>3</v>
       </c>
-      <c r="E230" s="36">
+      <c r="E230" s="5">
         <v>450000000</v>
       </c>
-      <c r="F230" s="36">
+      <c r="F230" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G230" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H230" s="37" t="s">
+      <c r="G230" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="H230" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="36">
+      <c r="A231" s="5">
         <v>230</v>
       </c>
-      <c r="B231" s="36">
+      <c r="B231" s="5">
         <v>34</v>
       </c>
-      <c r="C231" s="36">
+      <c r="C231" s="5">
         <v>4</v>
       </c>
-      <c r="D231" s="36">
+      <c r="D231" s="5">
         <v>6</v>
       </c>
-      <c r="E231" s="36">
+      <c r="E231" s="5">
         <v>220000000</v>
       </c>
-      <c r="F231" s="36">
+      <c r="F231" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G231" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="H231" s="37" t="s">
+      <c r="G231" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H231" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="36">
+      <c r="A232" s="5">
         <v>231</v>
       </c>
-      <c r="B232" s="36">
+      <c r="B232" s="5">
         <v>34</v>
       </c>
-      <c r="C232" s="36">
+      <c r="C232" s="5">
         <v>7</v>
       </c>
-      <c r="D232" s="36">
+      <c r="D232" s="5">
         <v>10</v>
       </c>
-      <c r="E232" s="36">
+      <c r="E232" s="5">
         <v>146000000</v>
       </c>
-      <c r="F232" s="36">
+      <c r="F232" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G232" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="H232" s="37" t="s">
+      <c r="G232" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="36">
+      <c r="A233" s="5">
         <v>232</v>
       </c>
-      <c r="B233" s="36">
+      <c r="B233" s="5">
         <v>34</v>
       </c>
-      <c r="C233" s="36">
+      <c r="C233" s="5">
         <v>11</v>
       </c>
-      <c r="D233" s="36">
+      <c r="D233" s="5">
         <v>15</v>
       </c>
-      <c r="E233" s="36">
+      <c r="E233" s="5">
         <v>88000000</v>
       </c>
-      <c r="F233" s="36">
+      <c r="F233" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G233" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="H233" s="37" t="s">
+      <c r="G233" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="H233" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="36">
+      <c r="A234" s="5">
         <v>233</v>
       </c>
-      <c r="B234" s="36">
+      <c r="B234" s="5">
         <v>34</v>
       </c>
-      <c r="C234" s="36">
+      <c r="C234" s="5">
         <v>16</v>
       </c>
-      <c r="D234" s="36">
+      <c r="D234" s="5">
         <v>20</v>
       </c>
-      <c r="E234" s="36">
+      <c r="E234" s="5">
         <v>45000000</v>
       </c>
-      <c r="F234" s="36">
+      <c r="F234" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G234" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="H234" s="37" t="s">
+      <c r="G234" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>234</v>
+      </c>
+      <c r="B235" s="36">
+        <v>35</v>
+      </c>
+      <c r="C235" s="36">
+        <v>1</v>
+      </c>
+      <c r="D235" s="36">
+        <v>1</v>
+      </c>
+      <c r="E235" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F235" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G235" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="H235" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>235</v>
+      </c>
+      <c r="B236" s="36">
+        <v>35</v>
+      </c>
+      <c r="C236" s="36">
+        <v>2</v>
+      </c>
+      <c r="D236" s="36">
+        <v>2</v>
+      </c>
+      <c r="E236" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F236" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G236" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="H236" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>236</v>
+      </c>
+      <c r="B237" s="36">
+        <v>35</v>
+      </c>
+      <c r="C237" s="36">
+        <v>3</v>
+      </c>
+      <c r="D237" s="36">
+        <v>3</v>
+      </c>
+      <c r="E237" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F237" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G237" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H237" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+      <c r="B238" s="36">
+        <v>35</v>
+      </c>
+      <c r="C238" s="36">
+        <v>4</v>
+      </c>
+      <c r="D238" s="36">
+        <v>6</v>
+      </c>
+      <c r="E238" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F238" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G238" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="H238" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+      <c r="B239" s="36">
+        <v>35</v>
+      </c>
+      <c r="C239" s="36">
+        <v>7</v>
+      </c>
+      <c r="D239" s="36">
+        <v>10</v>
+      </c>
+      <c r="E239" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F239" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G239" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="H239" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+      <c r="B240" s="36">
+        <v>35</v>
+      </c>
+      <c r="C240" s="36">
+        <v>11</v>
+      </c>
+      <c r="D240" s="36">
+        <v>15</v>
+      </c>
+      <c r="E240" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F240" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G240" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="H240" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+      <c r="B241" s="36">
+        <v>35</v>
+      </c>
+      <c r="C241" s="36">
+        <v>16</v>
+      </c>
+      <c r="D241" s="36">
+        <v>20</v>
+      </c>
+      <c r="E241" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F241" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G241" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="H241" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+      <c r="B242" s="36">
+        <v>36</v>
+      </c>
+      <c r="C242" s="36">
+        <v>1</v>
+      </c>
+      <c r="D242" s="36">
+        <v>1</v>
+      </c>
+      <c r="E242" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F242" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G242" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="H242" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+      <c r="B243" s="36">
+        <v>36</v>
+      </c>
+      <c r="C243" s="36">
+        <v>2</v>
+      </c>
+      <c r="D243" s="36">
+        <v>2</v>
+      </c>
+      <c r="E243" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F243" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G243" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H243" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="36">
+        <v>36</v>
+      </c>
+      <c r="C244" s="36">
+        <v>3</v>
+      </c>
+      <c r="D244" s="36">
+        <v>3</v>
+      </c>
+      <c r="E244" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F244" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G244" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="H244" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+      <c r="B245" s="36">
+        <v>36</v>
+      </c>
+      <c r="C245" s="36">
+        <v>4</v>
+      </c>
+      <c r="D245" s="36">
+        <v>6</v>
+      </c>
+      <c r="E245" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F245" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G245" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="H245" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+      <c r="B246" s="36">
+        <v>36</v>
+      </c>
+      <c r="C246" s="36">
+        <v>7</v>
+      </c>
+      <c r="D246" s="36">
+        <v>10</v>
+      </c>
+      <c r="E246" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F246" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G246" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="H246" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+      <c r="B247" s="36">
+        <v>36</v>
+      </c>
+      <c r="C247" s="36">
+        <v>11</v>
+      </c>
+      <c r="D247" s="36">
+        <v>15</v>
+      </c>
+      <c r="E247" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F247" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G247" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="H247" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+      <c r="B248" s="36">
+        <v>36</v>
+      </c>
+      <c r="C248" s="36">
+        <v>16</v>
+      </c>
+      <c r="D248" s="36">
+        <v>20</v>
+      </c>
+      <c r="E248" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F248" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G248" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="H248" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12923,11 +13682,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:A237"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17106,562 +17865,1122 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="36">
+      <c r="A210" s="5">
         <v>209</v>
       </c>
-      <c r="B210" s="36">
+      <c r="B210" s="5">
         <v>205</v>
       </c>
-      <c r="C210" s="34" t="s">
+      <c r="C210" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E210" s="36">
+      <c r="E210" s="5">
         <v>50000</v>
       </c>
-      <c r="F210" s="36">
+      <c r="F210" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="36">
+      <c r="A211" s="5">
         <v>210</v>
       </c>
-      <c r="B211" s="36">
+      <c r="B211" s="5">
         <v>206</v>
       </c>
-      <c r="C211" s="34" t="s">
+      <c r="C211" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E211" s="36">
+      <c r="E211" s="5">
         <v>15000</v>
       </c>
-      <c r="F211" s="36">
+      <c r="F211" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="36">
+      <c r="A212" s="5">
         <v>211</v>
       </c>
-      <c r="B212" s="36">
+      <c r="B212" s="5">
         <v>207</v>
       </c>
-      <c r="C212" s="34" t="s">
+      <c r="C212" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E212" s="36">
+      <c r="E212" s="5">
         <v>5000</v>
       </c>
-      <c r="F212" s="36">
+      <c r="F212" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="36">
+      <c r="A213" s="5">
         <v>212</v>
       </c>
-      <c r="B213" s="36">
+      <c r="B213" s="5">
         <v>208</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E213" s="36">
+      <c r="E213" s="5">
         <v>1500</v>
       </c>
-      <c r="F213" s="36">
+      <c r="F213" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="36">
+      <c r="A214" s="5">
         <v>213</v>
       </c>
-      <c r="B214" s="36">
+      <c r="B214" s="5">
         <v>209</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="C214" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E214" s="36">
+      <c r="E214" s="5">
         <v>1000</v>
       </c>
-      <c r="F214" s="36">
+      <c r="F214" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="36">
+      <c r="A215" s="5">
         <v>214</v>
       </c>
-      <c r="B215" s="36">
+      <c r="B215" s="5">
         <v>210</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D215" s="34" t="s">
+      <c r="D215" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E215" s="36">
+      <c r="E215" s="5">
         <v>500</v>
       </c>
-      <c r="F215" s="36">
+      <c r="F215" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="36">
+      <c r="A216" s="5">
         <v>215</v>
       </c>
-      <c r="B216" s="36">
+      <c r="B216" s="5">
         <v>211</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E216" s="36">
+      <c r="E216" s="5">
         <v>240</v>
       </c>
-      <c r="F216" s="36">
+      <c r="F216" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="36">
+      <c r="A217" s="5">
         <v>216</v>
       </c>
-      <c r="B217" s="36">
+      <c r="B217" s="5">
         <v>212</v>
       </c>
-      <c r="C217" s="34" t="s">
+      <c r="C217" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E217" s="36">
+      <c r="E217" s="5">
         <v>50000</v>
       </c>
-      <c r="F217" s="36">
+      <c r="F217" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="36">
+      <c r="A218" s="5">
         <v>217</v>
       </c>
-      <c r="B218" s="36">
+      <c r="B218" s="5">
         <v>213</v>
       </c>
-      <c r="C218" s="34" t="s">
+      <c r="C218" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E218" s="36">
+      <c r="E218" s="5">
         <v>15000</v>
       </c>
-      <c r="F218" s="36">
+      <c r="F218" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="36">
+      <c r="A219" s="5">
         <v>218</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="5">
         <v>214</v>
       </c>
-      <c r="C219" s="34" t="s">
+      <c r="C219" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D219" s="34" t="s">
+      <c r="D219" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E219" s="36">
+      <c r="E219" s="5">
         <v>5000</v>
       </c>
-      <c r="F219" s="36">
+      <c r="F219" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="36">
+      <c r="A220" s="5">
         <v>219</v>
       </c>
-      <c r="B220" s="36">
+      <c r="B220" s="5">
         <v>215</v>
       </c>
-      <c r="C220" s="34" t="s">
+      <c r="C220" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D220" s="34" t="s">
+      <c r="D220" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E220" s="36">
+      <c r="E220" s="5">
         <v>1500</v>
       </c>
-      <c r="F220" s="36">
+      <c r="F220" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="36">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
-      <c r="B221" s="36">
+      <c r="B221" s="5">
         <v>216</v>
       </c>
-      <c r="C221" s="34" t="s">
+      <c r="C221" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D221" s="34" t="s">
+      <c r="D221" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E221" s="36">
+      <c r="E221" s="5">
         <v>1000</v>
       </c>
-      <c r="F221" s="36">
+      <c r="F221" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="36">
+      <c r="A222" s="5">
         <v>221</v>
       </c>
-      <c r="B222" s="36">
+      <c r="B222" s="5">
         <v>217</v>
       </c>
-      <c r="C222" s="34" t="s">
+      <c r="C222" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D222" s="34" t="s">
+      <c r="D222" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E222" s="36">
+      <c r="E222" s="5">
         <v>500</v>
       </c>
-      <c r="F222" s="36">
+      <c r="F222" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="36">
+      <c r="A223" s="5">
         <v>222</v>
       </c>
-      <c r="B223" s="36">
+      <c r="B223" s="5">
         <v>218</v>
       </c>
-      <c r="C223" s="34" t="s">
+      <c r="C223" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D223" s="34" t="s">
+      <c r="D223" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E223" s="36">
+      <c r="E223" s="5">
         <v>240</v>
       </c>
-      <c r="F223" s="36">
+      <c r="F223" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="36">
+      <c r="A224" s="5">
         <v>223</v>
       </c>
-      <c r="B224" s="36">
+      <c r="B224" s="5">
         <v>219</v>
       </c>
-      <c r="C224" s="34" t="s">
+      <c r="C224" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E224" s="36">
+      <c r="E224" s="5">
         <v>50000</v>
       </c>
-      <c r="F224" s="36">
+      <c r="F224" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="36">
+      <c r="A225" s="5">
         <v>224</v>
       </c>
-      <c r="B225" s="36">
+      <c r="B225" s="5">
         <v>220</v>
       </c>
-      <c r="C225" s="34" t="s">
+      <c r="C225" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="34" t="s">
+      <c r="D225" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E225" s="36">
+      <c r="E225" s="5">
         <v>15000</v>
       </c>
-      <c r="F225" s="36">
+      <c r="F225" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="36">
+      <c r="A226" s="5">
         <v>225</v>
       </c>
-      <c r="B226" s="36">
+      <c r="B226" s="5">
         <v>221</v>
       </c>
-      <c r="C226" s="34" t="s">
+      <c r="C226" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D226" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E226" s="36">
+      <c r="E226" s="5">
         <v>5000</v>
       </c>
-      <c r="F226" s="36">
+      <c r="F226" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="36">
+      <c r="A227" s="5">
         <v>226</v>
       </c>
-      <c r="B227" s="36">
+      <c r="B227" s="5">
         <v>222</v>
       </c>
-      <c r="C227" s="34" t="s">
+      <c r="C227" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D227" s="34" t="s">
+      <c r="D227" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E227" s="36">
+      <c r="E227" s="5">
         <v>1500</v>
       </c>
-      <c r="F227" s="36">
+      <c r="F227" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="36">
+      <c r="A228" s="5">
         <v>227</v>
       </c>
-      <c r="B228" s="36">
+      <c r="B228" s="5">
         <v>223</v>
       </c>
-      <c r="C228" s="34" t="s">
+      <c r="C228" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E228" s="36">
+      <c r="E228" s="5">
         <v>1000</v>
       </c>
-      <c r="F228" s="36">
+      <c r="F228" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="36">
+      <c r="A229" s="5">
         <v>228</v>
       </c>
-      <c r="B229" s="36">
+      <c r="B229" s="5">
         <v>224</v>
       </c>
-      <c r="C229" s="34" t="s">
+      <c r="C229" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D229" s="34" t="s">
+      <c r="D229" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E229" s="36">
+      <c r="E229" s="5">
         <v>500</v>
       </c>
-      <c r="F229" s="36">
+      <c r="F229" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="36">
+      <c r="A230" s="5">
         <v>229</v>
       </c>
-      <c r="B230" s="36">
+      <c r="B230" s="5">
         <v>225</v>
       </c>
-      <c r="C230" s="34" t="s">
+      <c r="C230" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D230" s="34" t="s">
+      <c r="D230" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E230" s="36">
+      <c r="E230" s="5">
         <v>240</v>
       </c>
-      <c r="F230" s="36">
+      <c r="F230" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="36">
+      <c r="A231" s="5">
         <v>230</v>
       </c>
-      <c r="B231" s="36">
+      <c r="B231" s="5">
         <v>226</v>
       </c>
-      <c r="C231" s="34" t="s">
+      <c r="C231" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D231" s="34" t="s">
+      <c r="D231" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E231" s="36">
+      <c r="E231" s="5">
         <v>50000</v>
       </c>
-      <c r="F231" s="36">
+      <c r="F231" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="36">
+      <c r="A232" s="5">
         <v>231</v>
       </c>
-      <c r="B232" s="36">
+      <c r="B232" s="5">
         <v>227</v>
       </c>
-      <c r="C232" s="34" t="s">
+      <c r="C232" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D232" s="34" t="s">
+      <c r="D232" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E232" s="36">
+      <c r="E232" s="5">
         <v>15000</v>
       </c>
-      <c r="F232" s="36">
+      <c r="F232" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="36">
+      <c r="A233" s="5">
         <v>232</v>
       </c>
-      <c r="B233" s="36">
+      <c r="B233" s="5">
         <v>228</v>
       </c>
-      <c r="C233" s="34" t="s">
+      <c r="C233" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D233" s="34" t="s">
+      <c r="D233" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E233" s="36">
+      <c r="E233" s="5">
         <v>5000</v>
       </c>
-      <c r="F233" s="36">
+      <c r="F233" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="36">
+      <c r="A234" s="5">
         <v>233</v>
       </c>
-      <c r="B234" s="36">
+      <c r="B234" s="5">
         <v>229</v>
       </c>
-      <c r="C234" s="34" t="s">
+      <c r="C234" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D234" s="34" t="s">
+      <c r="D234" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E234" s="36">
+      <c r="E234" s="5">
         <v>1500</v>
       </c>
-      <c r="F234" s="36">
+      <c r="F234" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="36">
+      <c r="A235" s="5">
         <v>234</v>
       </c>
-      <c r="B235" s="36">
+      <c r="B235" s="5">
         <v>230</v>
       </c>
-      <c r="C235" s="34" t="s">
+      <c r="C235" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D235" s="34" t="s">
+      <c r="D235" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E235" s="36">
+      <c r="E235" s="5">
         <v>1000</v>
       </c>
-      <c r="F235" s="36">
+      <c r="F235" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="36">
+      <c r="A236" s="5">
         <v>235</v>
       </c>
-      <c r="B236" s="36">
+      <c r="B236" s="5">
         <v>231</v>
       </c>
-      <c r="C236" s="34" t="s">
+      <c r="C236" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D236" s="34" t="s">
+      <c r="D236" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E236" s="36">
+      <c r="E236" s="5">
         <v>500</v>
       </c>
-      <c r="F236" s="36">
+      <c r="F236" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="36">
+      <c r="A237" s="5">
         <v>236</v>
       </c>
-      <c r="B237" s="36">
+      <c r="B237" s="5">
         <v>232</v>
       </c>
-      <c r="C237" s="34" t="s">
+      <c r="C237" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D237" s="34" t="s">
+      <c r="D237" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E237" s="36">
+      <c r="E237" s="5">
         <v>240</v>
       </c>
-      <c r="F237" s="36">
+      <c r="F237" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+      <c r="B238" s="36">
+        <v>233</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E238" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F238" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+      <c r="B239" s="36">
+        <v>234</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F239" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+      <c r="B240" s="36">
+        <v>235</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E240" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F240" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+      <c r="B241" s="36">
+        <v>236</v>
+      </c>
+      <c r="C241" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D241" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E241" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F241" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+      <c r="B242" s="36">
+        <v>237</v>
+      </c>
+      <c r="C242" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E242" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F242" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+      <c r="B243" s="36">
+        <v>238</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D243" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E243" s="36">
+        <v>500</v>
+      </c>
+      <c r="F243" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="36">
+        <v>239</v>
+      </c>
+      <c r="C244" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D244" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E244" s="36">
+        <v>240</v>
+      </c>
+      <c r="F244" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+      <c r="B245" s="36">
+        <v>240</v>
+      </c>
+      <c r="C245" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D245" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E245" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F245" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+      <c r="B246" s="36">
+        <v>241</v>
+      </c>
+      <c r="C246" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D246" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E246" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F246" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+      <c r="B247" s="36">
+        <v>242</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D247" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E247" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F247" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+      <c r="B248" s="36">
+        <v>243</v>
+      </c>
+      <c r="C248" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D248" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E248" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F248" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="36">
+        <v>244</v>
+      </c>
+      <c r="C249" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D249" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E249" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F249" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="36">
+        <v>245</v>
+      </c>
+      <c r="C250" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D250" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E250" s="36">
+        <v>500</v>
+      </c>
+      <c r="F250" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="36">
+        <v>246</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D251" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E251" s="36">
+        <v>240</v>
+      </c>
+      <c r="F251" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="36">
+        <v>247</v>
+      </c>
+      <c r="C252" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D252" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E252" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F252" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="36">
+        <v>248</v>
+      </c>
+      <c r="C253" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D253" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E253" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F253" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="36">
+        <v>249</v>
+      </c>
+      <c r="C254" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D254" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E254" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F254" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="36">
+        <v>250</v>
+      </c>
+      <c r="C255" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D255" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E255" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F255" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="36">
+        <v>251</v>
+      </c>
+      <c r="C256" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D256" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E256" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F256" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="36">
+        <v>252</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D257" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E257" s="36">
+        <v>500</v>
+      </c>
+      <c r="F257" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="36">
+        <v>253</v>
+      </c>
+      <c r="C258" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D258" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E258" s="36">
+        <v>240</v>
+      </c>
+      <c r="F258" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="36">
+        <v>254</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D259" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E259" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F259" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="36">
+        <v>255</v>
+      </c>
+      <c r="C260" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D260" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E260" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F260" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="36">
+        <v>256</v>
+      </c>
+      <c r="C261" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D261" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E261" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F261" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="36">
+        <v>257</v>
+      </c>
+      <c r="C262" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E262" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F262" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="36">
+        <v>258</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D263" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E263" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F263" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="36">
+        <v>259</v>
+      </c>
+      <c r="C264" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D264" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E264" s="36">
+        <v>500</v>
+      </c>
+      <c r="F264" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="36">
+        <v>260</v>
+      </c>
+      <c r="C265" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D265" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E265" s="36">
+        <v>240</v>
+      </c>
+      <c r="F265" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="298">
   <si>
     <t>id|</t>
   </si>
@@ -1345,6 +1345,10 @@
   </si>
   <si>
     <t>2千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3142,7 +3146,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -4147,8 +4151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5144,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E58" s="36">
         <v>2</v>
@@ -12003,9 +12007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1353,10 +1353,6 @@
   </si>
   <si>
     <t>礼盒排行榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_005_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1584,6 +1580,10 @@
   </si>
   <si>
     <t>225,232</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_005_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2116,7 +2116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="A37" activeCellId="1" sqref="A32:XFD32 A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>264</v>
@@ -3467,7 +3467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4524,7 +4524,7 @@
         <v>36</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D75" s="36">
         <v>40</v>
@@ -4555,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5616,7 +5616,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="36">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E62" s="36">
         <v>3</v>
@@ -7599,7 +7599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
@@ -12570,7 +12570,7 @@
         <v>99999999999</v>
       </c>
       <c r="G221" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H221" s="37" t="s">
         <v>122</v>
@@ -12596,7 +12596,7 @@
         <v>99999999999</v>
       </c>
       <c r="G222" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H222" s="37" t="s">
         <v>122</v>
@@ -12622,7 +12622,7 @@
         <v>99999999999</v>
       </c>
       <c r="G223" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H223" s="37" t="s">
         <v>122</v>
@@ -12648,7 +12648,7 @@
         <v>99999999999</v>
       </c>
       <c r="G224" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H224" s="37" t="s">
         <v>122</v>
@@ -12674,7 +12674,7 @@
         <v>99999999999</v>
       </c>
       <c r="G225" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H225" s="37" t="s">
         <v>122</v>
@@ -12700,7 +12700,7 @@
         <v>99999999999</v>
       </c>
       <c r="G226" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H226" s="37" t="s">
         <v>122</v>
@@ -12726,7 +12726,7 @@
         <v>99999999999</v>
       </c>
       <c r="G227" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H227" s="37" t="s">
         <v>122</v>
@@ -12752,7 +12752,7 @@
         <v>99999999999</v>
       </c>
       <c r="G228" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H228" s="37" t="s">
         <v>122</v>
@@ -12778,7 +12778,7 @@
         <v>99999999999</v>
       </c>
       <c r="G229" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H229" s="37" t="s">
         <v>122</v>
@@ -12804,7 +12804,7 @@
         <v>99999999999</v>
       </c>
       <c r="G230" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H230" s="37" t="s">
         <v>122</v>
@@ -12830,7 +12830,7 @@
         <v>99999999999</v>
       </c>
       <c r="G231" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H231" s="37" t="s">
         <v>122</v>
@@ -12856,7 +12856,7 @@
         <v>99999999999</v>
       </c>
       <c r="G232" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H232" s="37" t="s">
         <v>122</v>
@@ -12882,7 +12882,7 @@
         <v>99999999999</v>
       </c>
       <c r="G233" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H233" s="37" t="s">
         <v>122</v>
@@ -12908,7 +12908,7 @@
         <v>99999999999</v>
       </c>
       <c r="G234" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H234" s="37" t="s">
         <v>122</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2191,9 +2191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3612,9 +3612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4786,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5847,7 +5847,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="5">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
@@ -5915,7 +5915,7 @@
         <v>79</v>
       </c>
       <c r="D66" s="36">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E66" s="36">
         <v>3</v>
@@ -5932,7 +5932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="536">
   <si>
     <t>id|</t>
   </si>
@@ -1653,6 +1653,618 @@
   <si>
     <t>cnhk_009_thphb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>37,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>46,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>53,</t>
+  </si>
+  <si>
+    <t>54,</t>
+  </si>
+  <si>
+    <t>55,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>63,</t>
+  </si>
+  <si>
+    <t>64,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>67,</t>
+  </si>
+  <si>
+    <t>68,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>71,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>73,</t>
+  </si>
+  <si>
+    <t>74,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>78,</t>
+  </si>
+  <si>
+    <t>79,</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>82,</t>
+  </si>
+  <si>
+    <t>83,</t>
+  </si>
+  <si>
+    <t>84,</t>
+  </si>
+  <si>
+    <t>85,</t>
+  </si>
+  <si>
+    <t>86,</t>
+  </si>
+  <si>
+    <t>87,</t>
+  </si>
+  <si>
+    <t>88,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>91,</t>
+  </si>
+  <si>
+    <t>92,</t>
+  </si>
+  <si>
+    <t>93,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>95,</t>
+  </si>
+  <si>
+    <t>96,</t>
+  </si>
+  <si>
+    <t>97,</t>
+  </si>
+  <si>
+    <t>98,</t>
+  </si>
+  <si>
+    <t>99,</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>102,</t>
+  </si>
+  <si>
+    <t>103,</t>
+  </si>
+  <si>
+    <t>104,</t>
+  </si>
+  <si>
+    <t>105,</t>
+  </si>
+  <si>
+    <t>106,</t>
+  </si>
+  <si>
+    <t>107,</t>
+  </si>
+  <si>
+    <t>108,</t>
+  </si>
+  <si>
+    <t>109,</t>
+  </si>
+  <si>
+    <t>110,</t>
+  </si>
+  <si>
+    <t>111,</t>
+  </si>
+  <si>
+    <t>112,</t>
+  </si>
+  <si>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>114,</t>
+  </si>
+  <si>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>116,</t>
+  </si>
+  <si>
+    <t>117,</t>
+  </si>
+  <si>
+    <t>118,</t>
+  </si>
+  <si>
+    <t>119,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>121,</t>
+  </si>
+  <si>
+    <t>122,</t>
+  </si>
+  <si>
+    <t>123,</t>
+  </si>
+  <si>
+    <t>124,</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>126,</t>
+  </si>
+  <si>
+    <t>127,</t>
+  </si>
+  <si>
+    <t>128,</t>
+  </si>
+  <si>
+    <t>129,</t>
+  </si>
+  <si>
+    <t>130,</t>
+  </si>
+  <si>
+    <t>131,</t>
+  </si>
+  <si>
+    <t>132,</t>
+  </si>
+  <si>
+    <t>133,</t>
+  </si>
+  <si>
+    <t>134,</t>
+  </si>
+  <si>
+    <t>135,</t>
+  </si>
+  <si>
+    <t>136,</t>
+  </si>
+  <si>
+    <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
+  </si>
+  <si>
+    <t>139,</t>
+  </si>
+  <si>
+    <t>140,</t>
+  </si>
+  <si>
+    <t>141,</t>
+  </si>
+  <si>
+    <t>142,</t>
+  </si>
+  <si>
+    <t>143,</t>
+  </si>
+  <si>
+    <t>144,</t>
+  </si>
+  <si>
+    <t>145,</t>
+  </si>
+  <si>
+    <t>146,</t>
+  </si>
+  <si>
+    <t>147,</t>
+  </si>
+  <si>
+    <t>148,</t>
+  </si>
+  <si>
+    <t>149,</t>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>151,</t>
+  </si>
+  <si>
+    <t>152,</t>
+  </si>
+  <si>
+    <t>153,</t>
+  </si>
+  <si>
+    <t>154,</t>
+  </si>
+  <si>
+    <t>155,</t>
+  </si>
+  <si>
+    <t>156,</t>
+  </si>
+  <si>
+    <t>157,</t>
+  </si>
+  <si>
+    <t>158,</t>
+  </si>
+  <si>
+    <t>159,</t>
+  </si>
+  <si>
+    <t>160,</t>
+  </si>
+  <si>
+    <t>161,</t>
+  </si>
+  <si>
+    <t>162,</t>
+  </si>
+  <si>
+    <t>163,</t>
+  </si>
+  <si>
+    <t>164,</t>
+  </si>
+  <si>
+    <t>165,</t>
+  </si>
+  <si>
+    <t>166,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172,</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>178,</t>
+  </si>
+  <si>
+    <t>179,</t>
+  </si>
+  <si>
+    <t>180,</t>
+  </si>
+  <si>
+    <t>181,</t>
+  </si>
+  <si>
+    <t>182,</t>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
+  </si>
+  <si>
+    <t>199,</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>201,</t>
+  </si>
+  <si>
+    <t>202,</t>
+  </si>
+  <si>
+    <t>203,</t>
+  </si>
+  <si>
+    <t>204,</t>
   </si>
 </sst>
 </file>
@@ -4786,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -7994,9 +8606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G251" sqref="G251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8052,8 +8664,8 @@
       <c r="F2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -8075,8 +8687,8 @@
       <c r="F3" s="4">
         <v>5000000000</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
+      <c r="G3" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -8098,8 +8710,8 @@
       <c r="F4" s="4">
         <v>1500000000</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
+      <c r="G4" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -8121,8 +8733,8 @@
       <c r="F5" s="4">
         <v>500000000</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
+      <c r="G5" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -8144,8 +8756,8 @@
       <c r="F6" s="4">
         <v>100000000</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
+      <c r="G6" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -8164,8 +8776,8 @@
       <c r="F7" s="4">
         <v>30000000</v>
       </c>
-      <c r="G7" s="4">
-        <v>6</v>
+      <c r="G7" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -8184,8 +8796,8 @@
       <c r="F8" s="4">
         <v>5000000</v>
       </c>
-      <c r="G8" s="4">
-        <v>7</v>
+      <c r="G8" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -8204,8 +8816,8 @@
       <c r="F9" s="4">
         <v>2000000</v>
       </c>
-      <c r="G9" s="4">
-        <v>8</v>
+      <c r="G9" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -8226,8 +8838,8 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>9</v>
+      <c r="G10" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -8247,8 +8859,8 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>10</v>
+      <c r="G11" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -8267,8 +8879,8 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <v>11</v>
+      <c r="G12" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -8287,8 +8899,8 @@
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
-        <v>12</v>
+      <c r="G13" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -8307,8 +8919,8 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>13</v>
+      <c r="G14" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -8329,8 +8941,8 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>14</v>
+      <c r="G15" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -8352,8 +8964,8 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>15</v>
+      <c r="G16" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -8375,8 +8987,8 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>16</v>
+      <c r="G17" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -8398,8 +9010,8 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>17</v>
+      <c r="G18" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -8421,8 +9033,8 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <v>18</v>
+      <c r="G19" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -8444,8 +9056,8 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>19</v>
+      <c r="G20" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -8467,8 +9079,8 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>20</v>
+      <c r="G21" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -8490,8 +9102,8 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>21</v>
+      <c r="G22" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -8513,8 +9125,8 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>22</v>
+      <c r="G23" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -8536,8 +9148,8 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5">
-        <v>23</v>
+      <c r="G24" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -8559,8 +9171,8 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>24</v>
+      <c r="G25" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -8582,8 +9194,8 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>25</v>
+      <c r="G26" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -8605,8 +9217,8 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>26</v>
+      <c r="G27" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -8628,8 +9240,8 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <v>27</v>
+      <c r="G28" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -8650,8 +9262,8 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>28</v>
+      <c r="G29" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -8672,8 +9284,8 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>29</v>
+      <c r="G30" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -8694,8 +9306,8 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>30</v>
+      <c r="G31" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -8716,8 +9328,8 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>31</v>
+      <c r="G32" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -8738,8 +9350,8 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>32</v>
+      <c r="G33" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -8760,8 +9372,8 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <v>33</v>
+      <c r="G34" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -8782,8 +9394,8 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5">
-        <v>34</v>
+      <c r="G35" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -8804,8 +9416,8 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <v>35</v>
+      <c r="G36" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -8826,8 +9438,8 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <v>36</v>
+      <c r="G37" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -8848,8 +9460,8 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <v>37</v>
+      <c r="G38" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -8870,8 +9482,8 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7">
-        <v>38</v>
+      <c r="G39" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -8893,8 +9505,8 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5">
-        <v>39</v>
+      <c r="G40" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -8915,8 +9527,8 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5">
-        <v>40</v>
+      <c r="G41" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -8937,8 +9549,8 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5">
-        <v>41</v>
+      <c r="G42" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -8959,8 +9571,8 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <v>42</v>
+      <c r="G43" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -8981,8 +9593,8 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <v>43</v>
+      <c r="G44" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -9003,8 +9615,8 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5">
-        <v>44</v>
+      <c r="G45" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -9025,8 +9637,8 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5">
-        <v>45</v>
+      <c r="G46" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -9047,8 +9659,8 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5">
-        <v>46</v>
+      <c r="G47" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -9069,8 +9681,8 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5">
-        <v>47</v>
+      <c r="G48" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -9091,8 +9703,8 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5">
-        <v>48</v>
+      <c r="G49" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -9113,8 +9725,8 @@
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>49</v>
+      <c r="G50" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -9136,8 +9748,8 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5">
-        <v>50</v>
+      <c r="G51" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -9158,8 +9770,8 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <v>51</v>
+      <c r="G52" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -9180,8 +9792,8 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5">
-        <v>52</v>
+      <c r="G53" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -9202,8 +9814,8 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5">
-        <v>53</v>
+      <c r="G54" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -9224,8 +9836,8 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5">
-        <v>54</v>
+      <c r="G55" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -9246,8 +9858,8 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <v>55</v>
+      <c r="G56" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -9268,8 +9880,8 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7">
-        <v>56</v>
+      <c r="G57" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -9290,8 +9902,8 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5">
-        <v>57</v>
+      <c r="G58" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -9312,8 +9924,8 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5">
-        <v>58</v>
+      <c r="G59" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -9334,8 +9946,8 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5">
-        <v>59</v>
+      <c r="G60" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -9356,8 +9968,8 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5">
-        <v>60</v>
+      <c r="G61" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -9378,8 +9990,8 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5">
-        <v>61</v>
+      <c r="G62" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -9400,8 +10012,8 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5">
-        <v>62</v>
+      <c r="G63" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -9422,8 +10034,8 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7">
-        <v>63</v>
+      <c r="G64" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -9444,8 +10056,8 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5">
-        <v>64</v>
+      <c r="G65" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -9466,8 +10078,8 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5">
-        <v>65</v>
+      <c r="G66" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -9488,8 +10100,8 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5">
-        <v>66</v>
+      <c r="G67" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -9510,8 +10122,8 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5">
-        <v>67</v>
+      <c r="G68" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -9532,8 +10144,8 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5">
-        <v>68</v>
+      <c r="G69" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -9554,8 +10166,8 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5">
-        <v>69</v>
+      <c r="G70" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -9576,8 +10188,8 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11">
-        <v>70</v>
+      <c r="G71" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -9599,8 +10211,8 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5">
-        <v>71</v>
+      <c r="G72" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -9622,8 +10234,8 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5">
-        <v>72</v>
+      <c r="G73" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -9645,8 +10257,8 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5">
-        <v>73</v>
+      <c r="G74" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -9668,8 +10280,8 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5">
-        <v>74</v>
+      <c r="G75" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -9691,8 +10303,8 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5">
-        <v>75</v>
+      <c r="G76" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -9714,8 +10326,8 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <v>76</v>
+      <c r="G77" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -9737,8 +10349,8 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5">
-        <v>77</v>
+      <c r="G78" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -9760,8 +10372,8 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5">
-        <v>78</v>
+      <c r="G79" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -9783,8 +10395,8 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <v>79</v>
+      <c r="G80" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -9806,8 +10418,8 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5">
-        <v>80</v>
+      <c r="G81" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -9829,8 +10441,8 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5">
-        <v>81</v>
+      <c r="G82" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -9852,8 +10464,8 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <v>82</v>
+      <c r="G83" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -9875,8 +10487,8 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <v>83</v>
+      <c r="G84" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -9898,8 +10510,8 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <v>84</v>
+      <c r="G85" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -9921,8 +10533,8 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="5">
-        <v>85</v>
+      <c r="G86" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -9944,8 +10556,8 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <v>86</v>
+      <c r="G87" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -9967,8 +10579,8 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <v>87</v>
+      <c r="G88" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -9990,8 +10602,8 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5">
-        <v>88</v>
+      <c r="G89" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -10013,8 +10625,8 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <v>89</v>
+      <c r="G90" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -10036,8 +10648,8 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <v>90</v>
+      <c r="G91" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -10059,8 +10671,8 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <v>91</v>
+      <c r="G92" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -10082,8 +10694,8 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5">
-        <v>92</v>
+      <c r="G93" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -10105,8 +10717,8 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5">
-        <v>93</v>
+      <c r="G94" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -10128,8 +10740,8 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5">
-        <v>94</v>
+      <c r="G95" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -10151,8 +10763,8 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5">
-        <v>95</v>
+      <c r="G96" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -10174,8 +10786,8 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="5">
-        <v>96</v>
+      <c r="G97" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -10197,8 +10809,8 @@
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5">
-        <v>97</v>
+      <c r="G98" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -10220,8 +10832,8 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="5">
-        <v>98</v>
+      <c r="G99" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -10243,8 +10855,8 @@
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="5">
-        <v>99</v>
+      <c r="G100" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -10266,8 +10878,8 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <v>100</v>
+      <c r="G101" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -10289,8 +10901,8 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="5">
-        <v>101</v>
+      <c r="G102" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -10312,8 +10924,8 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="5">
-        <v>97</v>
+      <c r="G103" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -10335,8 +10947,8 @@
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <v>98</v>
+      <c r="G104" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -10358,8 +10970,8 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="5">
-        <v>99</v>
+      <c r="G105" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -10381,8 +10993,8 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="5">
-        <v>100</v>
+      <c r="G106" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -10404,8 +11016,8 @@
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="5">
-        <v>101</v>
+      <c r="G107" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -10427,8 +11039,8 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="5">
-        <v>97</v>
+      <c r="G108" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -10450,8 +11062,8 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5">
-        <v>98</v>
+      <c r="G109" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -10473,8 +11085,8 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="5">
-        <v>99</v>
+      <c r="G110" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -10496,8 +11108,8 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="5">
-        <v>100</v>
+      <c r="G111" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -10519,8 +11131,8 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="5">
-        <v>101</v>
+      <c r="G112" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -10542,8 +11154,8 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="5">
-        <v>97</v>
+      <c r="G113" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -10565,8 +11177,8 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="5">
-        <v>98</v>
+      <c r="G114" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -10588,8 +11200,8 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="5">
-        <v>99</v>
+      <c r="G115" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -10611,8 +11223,8 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="5">
-        <v>100</v>
+      <c r="G116" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -10634,8 +11246,8 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="5">
-        <v>101</v>
+      <c r="G117" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -10657,8 +11269,8 @@
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="5">
-        <v>102</v>
+      <c r="G118" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -10680,8 +11292,8 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="5">
-        <v>103</v>
+      <c r="G119" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -10703,8 +11315,8 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="5">
-        <v>104</v>
+      <c r="G120" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -10726,8 +11338,8 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="5">
-        <v>105</v>
+      <c r="G121" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -10749,8 +11361,8 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="5">
-        <v>106</v>
+      <c r="G122" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -10772,8 +11384,8 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="5">
-        <v>107</v>
+      <c r="G123" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -10795,8 +11407,8 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="5">
-        <v>108</v>
+      <c r="G124" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -10818,8 +11430,8 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="5">
-        <v>109</v>
+      <c r="G125" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -10841,8 +11453,8 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="5">
-        <v>110</v>
+      <c r="G126" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -10863,8 +11475,8 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="5">
-        <v>111</v>
+      <c r="G127" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -10886,8 +11498,8 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="5">
-        <v>112</v>
+      <c r="G128" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -10908,8 +11520,8 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="5">
-        <v>113</v>
+      <c r="G129" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -10930,8 +11542,8 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="5">
-        <v>114</v>
+      <c r="G130" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -10952,8 +11564,8 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="5">
-        <v>115</v>
+      <c r="G131" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -10974,8 +11586,8 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="5">
-        <v>116</v>
+      <c r="G132" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -10996,8 +11608,8 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="5">
-        <v>117</v>
+      <c r="G133" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -11018,8 +11630,8 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="5">
-        <v>118</v>
+      <c r="G134" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -11040,8 +11652,8 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="5">
-        <v>119</v>
+      <c r="G135" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -11062,8 +11674,8 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="5">
-        <v>120</v>
+      <c r="G136" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -11084,8 +11696,8 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="5">
-        <v>121</v>
+      <c r="G137" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -11106,8 +11718,8 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="5">
-        <v>122</v>
+      <c r="G138" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -11128,8 +11740,8 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="5">
-        <v>123</v>
+      <c r="G139" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -11150,8 +11762,8 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="5">
-        <v>124</v>
+      <c r="G140" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -11172,8 +11784,8 @@
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="5">
-        <v>125</v>
+      <c r="G141" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -11194,8 +11806,8 @@
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="5">
-        <v>126</v>
+      <c r="G142" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -11216,8 +11828,8 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="5">
-        <v>127</v>
+      <c r="G143" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -11238,8 +11850,8 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="5">
-        <v>128</v>
+      <c r="G144" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -11260,8 +11872,8 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="5">
-        <v>129</v>
+      <c r="G145" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -11282,8 +11894,8 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="5">
-        <v>130</v>
+      <c r="G146" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -11304,8 +11916,8 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="5">
-        <v>131</v>
+      <c r="G147" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -11326,8 +11938,8 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="5">
-        <v>132</v>
+      <c r="G148" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -11348,8 +11960,8 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="5">
-        <v>133</v>
+      <c r="G149" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -11370,8 +11982,8 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="5">
-        <v>134</v>
+      <c r="G150" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -11392,8 +12004,8 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="5">
-        <v>135</v>
+      <c r="G151" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -11414,8 +12026,8 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="5">
-        <v>136</v>
+      <c r="G152" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -11436,8 +12048,8 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="5">
-        <v>137</v>
+      <c r="G153" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -11458,8 +12070,8 @@
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="5">
-        <v>138</v>
+      <c r="G154" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -11480,8 +12092,8 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="5">
-        <v>139</v>
+      <c r="G155" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -11502,8 +12114,8 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="5">
-        <v>140</v>
+      <c r="G156" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -11524,8 +12136,8 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="5">
-        <v>141</v>
+      <c r="G157" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -11546,8 +12158,8 @@
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="5">
-        <v>142</v>
+      <c r="G158" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -11568,8 +12180,8 @@
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="5">
-        <v>143</v>
+      <c r="G159" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -11590,8 +12202,8 @@
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="5">
-        <v>144</v>
+      <c r="G160" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -11612,8 +12224,8 @@
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="5">
-        <v>145</v>
+      <c r="G161" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -11634,8 +12246,8 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="5">
-        <v>146</v>
+      <c r="G162" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -11656,8 +12268,8 @@
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="5">
-        <v>147</v>
+      <c r="G163" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -11678,8 +12290,8 @@
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="5">
-        <v>148</v>
+      <c r="G164" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -11700,8 +12312,8 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="5">
-        <v>149</v>
+      <c r="G165" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -11722,8 +12334,8 @@
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="5">
-        <v>150</v>
+      <c r="G166" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -11744,8 +12356,8 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="5">
-        <v>151</v>
+      <c r="G167" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -11766,8 +12378,8 @@
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="5">
-        <v>152</v>
+      <c r="G168" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -11788,8 +12400,8 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="5">
-        <v>153</v>
+      <c r="G169" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -11810,8 +12422,8 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="5">
-        <v>154</v>
+      <c r="G170" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -11832,8 +12444,8 @@
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="5">
-        <v>155</v>
+      <c r="G171" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -11854,8 +12466,8 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="5">
-        <v>156</v>
+      <c r="G172" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -11876,8 +12488,8 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="5">
-        <v>157</v>
+      <c r="G173" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -11898,8 +12510,8 @@
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="5">
-        <v>158</v>
+      <c r="G174" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -11920,8 +12532,8 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="5">
-        <v>159</v>
+      <c r="G175" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -11942,8 +12554,8 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="5">
-        <v>160</v>
+      <c r="G176" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -11964,8 +12576,8 @@
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="5">
-        <v>161</v>
+      <c r="G177" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -11986,8 +12598,8 @@
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="5">
-        <v>162</v>
+      <c r="G178" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -12008,8 +12620,8 @@
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="5">
-        <v>163</v>
+      <c r="G179" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -12030,8 +12642,8 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="5">
-        <v>164</v>
+      <c r="G180" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -12052,8 +12664,8 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="5">
-        <v>165</v>
+      <c r="G181" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -12074,8 +12686,8 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="5">
-        <v>166</v>
+      <c r="G182" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -12096,8 +12708,8 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="5">
-        <v>167</v>
+      <c r="G183" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -12118,8 +12730,8 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="5">
-        <v>168</v>
+      <c r="G184" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -12140,8 +12752,8 @@
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="5">
-        <v>169</v>
+      <c r="G185" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -12162,8 +12774,8 @@
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="5">
-        <v>170</v>
+      <c r="G186" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -12185,8 +12797,8 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="5">
-        <v>171</v>
+      <c r="G187" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -12208,8 +12820,8 @@
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="5">
-        <v>172</v>
+      <c r="G188" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -12231,8 +12843,8 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="5">
-        <v>173</v>
+      <c r="G189" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -12254,8 +12866,8 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="5">
-        <v>174</v>
+      <c r="G190" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -12277,8 +12889,8 @@
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="5">
-        <v>175</v>
+      <c r="G191" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -12300,8 +12912,8 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="5">
-        <v>176</v>
+      <c r="G192" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -12323,8 +12935,8 @@
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="5">
-        <v>177</v>
+      <c r="G193" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -12346,8 +12958,8 @@
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="5">
-        <v>178</v>
+      <c r="G194" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -12369,8 +12981,8 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="5">
-        <v>179</v>
+      <c r="G195" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -12392,8 +13004,8 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="5">
-        <v>180</v>
+      <c r="G196" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -12415,8 +13027,8 @@
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="5">
-        <v>181</v>
+      <c r="G197" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -12438,8 +13050,8 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="5">
-        <v>182</v>
+      <c r="G198" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -12461,8 +13073,8 @@
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="5">
-        <v>183</v>
+      <c r="G199" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -12484,8 +13096,8 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="5">
-        <v>184</v>
+      <c r="G200" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -12507,8 +13119,8 @@
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="5">
-        <v>185</v>
+      <c r="G201" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -12530,8 +13142,8 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="5">
-        <v>186</v>
+      <c r="G202" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -12553,8 +13165,8 @@
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="5">
-        <v>187</v>
+      <c r="G203" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -12576,8 +13188,8 @@
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="5">
-        <v>188</v>
+      <c r="G204" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -12599,8 +13211,8 @@
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="5">
-        <v>189</v>
+      <c r="G205" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -12622,8 +13234,8 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="5">
-        <v>190</v>
+      <c r="G206" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -12645,8 +13257,8 @@
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="5">
-        <v>191</v>
+      <c r="G207" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -12668,8 +13280,8 @@
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="5">
-        <v>192</v>
+      <c r="G208" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -12691,8 +13303,8 @@
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="5">
-        <v>193</v>
+      <c r="G209" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -12714,8 +13326,8 @@
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="5">
-        <v>194</v>
+      <c r="G210" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -12737,8 +13349,8 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="5">
-        <v>195</v>
+      <c r="G211" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -12760,8 +13372,8 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="5">
-        <v>196</v>
+      <c r="G212" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -12783,8 +13395,8 @@
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="5">
-        <v>197</v>
+      <c r="G213" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -12806,8 +13418,8 @@
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="5">
-        <v>198</v>
+      <c r="G214" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -12828,8 +13440,8 @@
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="5">
-        <v>199</v>
+      <c r="G215" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -12850,8 +13462,8 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="5">
-        <v>200</v>
+      <c r="G216" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -12872,8 +13484,8 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="5">
-        <v>201</v>
+      <c r="G217" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -12894,8 +13506,8 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="5">
-        <v>202</v>
+      <c r="G218" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -12916,8 +13528,8 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="5">
-        <v>203</v>
+      <c r="G219" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -12938,8 +13550,8 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="5">
-        <v>204</v>
+      <c r="G220" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="565">
   <si>
     <t>id|</t>
   </si>
@@ -1652,6 +1652,161 @@
   </si>
   <si>
     <t>cnhk_009_thphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymkh_010_wxphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>261,275</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>262,276</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>263,277</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>264,278</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>265,279</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>266,280</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>267,281</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>268,282</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>269,283</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>270,284</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>271,285</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>272,286</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>273,287</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>274,288</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_tower_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐闯关排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>289,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>290,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>293</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2801,11 +2956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4143,74 +4298,176 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
+    <row r="38" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="26">
         <v>1615852800</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="26">
         <v>1616428799</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="26">
         <v>37</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="26">
         <v>37</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+    <row r="39" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="26">
         <v>1615852800</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="26">
         <v>1616428799</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="26">
         <v>38</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="26">
         <v>38</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="26">
         <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="33">
+        <v>1616457600</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1617033599</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="33">
+        <v>39</v>
+      </c>
+      <c r="K40" s="33">
+        <v>39</v>
+      </c>
+      <c r="L40" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="33">
+        <v>1616457600</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1617033599</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I41" s="33">
+        <v>40</v>
+      </c>
+      <c r="K41" s="33">
+        <v>40</v>
+      </c>
+      <c r="L41" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="33">
+        <v>1615046400</v>
+      </c>
+      <c r="F42" s="33">
+        <v>2555555555</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="33">
+        <v>41</v>
+      </c>
+      <c r="L42" s="33">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4222,11 +4479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5307,13 +5564,13 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="5">
         <v>37</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="5">
         <v>41</v>
       </c>
     </row>
@@ -5321,13 +5578,13 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="5">
         <v>37</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="5">
         <v>41</v>
       </c>
     </row>
@@ -5335,13 +5592,13 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="5">
         <v>38</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D79" s="5">
         <v>42</v>
       </c>
     </row>
@@ -5349,13 +5606,13 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="5">
         <v>38</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="36">
+      <c r="D80" s="5">
         <v>42</v>
       </c>
     </row>
@@ -5363,13 +5620,13 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="5">
         <v>38</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="5">
         <v>42</v>
       </c>
     </row>
@@ -5377,13 +5634,97 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="5">
         <v>38</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="36">
+        <v>39</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="36">
+        <v>39</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="36">
+        <v>40</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="36">
+        <v>40</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="36">
+        <v>40</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="36">
+        <v>40</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="36">
         <v>42</v>
       </c>
     </row>
@@ -5398,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6544,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -6640,11 +6981,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7510,49 +7851,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
-        <v>1</v>
-      </c>
-      <c r="C38" s="36">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
         <v>20</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="5">
         <v>100</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="5">
         <v>20</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="5">
         <v>180</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
-        <v>1</v>
-      </c>
-      <c r="C39" s="36">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
         <v>20</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="5">
         <v>100</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="5">
         <v>20</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="5">
         <v>180</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36">
+        <v>1</v>
+      </c>
+      <c r="C40" s="36">
+        <v>20</v>
+      </c>
+      <c r="D40" s="36">
+        <v>100</v>
+      </c>
+      <c r="E40" s="36">
+        <v>20</v>
+      </c>
+      <c r="F40" s="36">
+        <v>180</v>
+      </c>
+      <c r="G40" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36">
+        <v>1</v>
+      </c>
+      <c r="C41" s="36">
+        <v>20</v>
+      </c>
+      <c r="D41" s="36">
+        <v>100</v>
+      </c>
+      <c r="E41" s="36">
+        <v>20</v>
+      </c>
+      <c r="F41" s="36">
+        <v>180</v>
+      </c>
+      <c r="G41" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36">
+        <v>1</v>
+      </c>
+      <c r="C42" s="36">
+        <v>20</v>
+      </c>
+      <c r="D42" s="36">
+        <v>100</v>
+      </c>
+      <c r="E42" s="36">
+        <v>20</v>
+      </c>
+      <c r="F42" s="36">
+        <v>180</v>
+      </c>
+      <c r="G42" s="36">
         <v>10</v>
       </c>
     </row>
@@ -7564,11 +7974,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8068,31 +8478,73 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="5">
         <v>39</v>
       </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="5">
         <v>40</v>
       </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36">
+        <v>41</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36">
+        <v>42</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36">
+        <v>43</v>
+      </c>
+      <c r="C40" s="36">
+        <v>1</v>
+      </c>
+      <c r="D40" s="36">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -8104,11 +8556,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8575,25 +9027,58 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="26">
         <v>1616428799</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="26">
         <v>1616428799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="36">
+        <v>1617033599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="36">
+        <v>1617033599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8604,11 +9089,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8665,7 +9150,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -8688,7 +9173,7 @@
         <v>5000000000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -8711,7 +9196,7 @@
         <v>1500000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -8734,7 +9219,7 @@
         <v>500000000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -8757,7 +9242,7 @@
         <v>100000000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -8777,7 +9262,7 @@
         <v>30000000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -8797,7 +9282,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -8817,7 +9302,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -8839,7 +9324,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -8860,7 +9345,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -8880,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -8900,7 +9385,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -8920,7 +9405,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -8942,7 +9427,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -8965,7 +9450,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -8988,7 +9473,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -9011,7 +9496,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -9034,7 +9519,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -9057,7 +9542,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -9080,7 +9565,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -9103,7 +9588,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -9126,7 +9611,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -9149,7 +9634,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -9172,7 +9657,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -9195,7 +9680,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -9218,7 +9703,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -9241,7 +9726,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -9263,7 +9748,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -9285,7 +9770,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -9307,7 +9792,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -9329,7 +9814,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -9351,7 +9836,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -9373,7 +9858,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -9395,7 +9880,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -9417,7 +9902,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -9439,7 +9924,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -9461,7 +9946,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -9483,7 +9968,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -9506,7 +9991,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -9528,7 +10013,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -9550,7 +10035,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -9572,7 +10057,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -9594,7 +10079,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -9616,7 +10101,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -9638,7 +10123,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -9660,7 +10145,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -9682,7 +10167,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -9704,7 +10189,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -9726,7 +10211,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -9749,7 +10234,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -9771,7 +10256,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -9793,7 +10278,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -9815,7 +10300,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -9837,7 +10322,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -9859,7 +10344,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -9881,7 +10366,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -9903,7 +10388,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -9925,7 +10410,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -9947,7 +10432,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -9969,7 +10454,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -9991,7 +10476,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -10013,7 +10498,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -10035,7 +10520,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -10057,7 +10542,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -10079,7 +10564,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -10101,7 +10586,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -10123,7 +10608,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -10145,7 +10630,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -10167,7 +10652,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -10189,7 +10674,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -10212,7 +10697,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -10235,7 +10720,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -10258,7 +10743,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -10281,7 +10766,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -10304,7 +10789,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -10327,7 +10812,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -10350,7 +10835,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -10373,7 +10858,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -10396,7 +10881,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -10419,7 +10904,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -10442,7 +10927,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -10465,7 +10950,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -10488,7 +10973,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -10511,7 +10996,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -10534,7 +11019,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -10557,7 +11042,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -10580,7 +11065,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -10603,7 +11088,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -10626,7 +11111,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -10649,7 +11134,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -10672,7 +11157,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -10695,7 +11180,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -10718,7 +11203,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -10741,7 +11226,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -10764,7 +11249,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -10787,7 +11272,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -10810,7 +11295,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -10833,7 +11318,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -10856,7 +11341,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -10879,7 +11364,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -10902,7 +11387,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -10925,7 +11410,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -10948,7 +11433,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -10971,7 +11456,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -10994,7 +11479,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -11017,7 +11502,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -11040,7 +11525,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -11063,7 +11548,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -11086,7 +11571,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -11109,7 +11594,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -11132,7 +11617,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -11155,7 +11640,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -11178,7 +11663,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -11201,7 +11686,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -11224,7 +11709,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -11247,7 +11732,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -11270,7 +11755,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -11293,7 +11778,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -11316,7 +11801,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -11339,7 +11824,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -11362,7 +11847,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -11385,7 +11870,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -11408,7 +11893,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -11431,7 +11916,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -11454,7 +11939,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -11476,7 +11961,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -11499,7 +11984,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -11521,7 +12006,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -11543,7 +12028,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -11565,7 +12050,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -11587,7 +12072,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -11609,7 +12094,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -11631,7 +12116,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -11653,7 +12138,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -11675,7 +12160,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -11697,7 +12182,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -11719,7 +12204,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -11741,7 +12226,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -11763,7 +12248,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -11785,7 +12270,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -11807,7 +12292,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -11829,7 +12314,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -11851,7 +12336,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -11873,7 +12358,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -11895,7 +12380,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -11917,7 +12402,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -11939,7 +12424,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -11961,7 +12446,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -11983,7 +12468,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -12005,7 +12490,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -12027,7 +12512,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -12049,7 +12534,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -12071,7 +12556,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -12093,7 +12578,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -12115,7 +12600,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -12137,7 +12622,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -12159,7 +12644,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -12181,7 +12666,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -12203,7 +12688,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -12225,7 +12710,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -12247,7 +12732,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -12269,7 +12754,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -12291,7 +12776,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -12313,7 +12798,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -12335,7 +12820,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -12357,7 +12842,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -12379,7 +12864,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -12401,7 +12886,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -12423,7 +12908,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -12445,7 +12930,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -12467,7 +12952,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -12489,7 +12974,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -12511,7 +12996,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -12533,7 +13018,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -12555,7 +13040,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -12577,7 +13062,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -12599,7 +13084,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -12621,7 +13106,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -12643,7 +13128,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -12665,7 +13150,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -12687,7 +13172,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -12709,7 +13194,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -12731,7 +13216,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -12753,7 +13238,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -12775,7 +13260,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -12798,7 +13283,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -12821,7 +13306,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -12844,7 +13329,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -12867,7 +13352,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -12890,7 +13375,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -12913,7 +13398,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -12936,7 +13421,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -12959,7 +13444,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -12982,7 +13467,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -13005,7 +13490,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -13028,7 +13513,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -13051,7 +13536,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -13074,7 +13559,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -13097,7 +13582,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -13120,7 +13605,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -13143,7 +13628,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -13166,7 +13651,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -13189,7 +13674,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -13212,7 +13697,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -13235,7 +13720,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -13258,7 +13743,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -13281,7 +13766,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -13304,7 +13789,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -13327,7 +13812,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -13350,7 +13835,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -13373,7 +13858,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -13396,7 +13881,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -13419,7 +13904,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -13441,7 +13926,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -13463,7 +13948,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -13485,7 +13970,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -13507,7 +13992,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -13529,7 +14014,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -13551,7 +14036,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>
@@ -13925,25 +14410,25 @@
       <c r="A235" s="5">
         <v>234</v>
       </c>
-      <c r="B235" s="36">
+      <c r="B235" s="5">
         <v>35</v>
       </c>
-      <c r="C235" s="36">
-        <v>1</v>
-      </c>
-      <c r="D235" s="36">
-        <v>1</v>
-      </c>
-      <c r="E235" s="36">
+      <c r="C235" s="5">
+        <v>1</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5">
         <v>3000000</v>
       </c>
-      <c r="F235" s="36">
+      <c r="F235" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G235" s="40" t="s">
+      <c r="G235" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="H235" s="37" t="s">
+      <c r="H235" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13951,25 +14436,25 @@
       <c r="A236" s="5">
         <v>235</v>
       </c>
-      <c r="B236" s="36">
+      <c r="B236" s="5">
         <v>35</v>
       </c>
-      <c r="C236" s="36">
+      <c r="C236" s="5">
         <v>2</v>
       </c>
-      <c r="D236" s="36">
+      <c r="D236" s="5">
         <v>2</v>
       </c>
-      <c r="E236" s="36">
+      <c r="E236" s="5">
         <v>1800000</v>
       </c>
-      <c r="F236" s="36">
+      <c r="F236" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G236" s="40" t="s">
+      <c r="G236" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="H236" s="37" t="s">
+      <c r="H236" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13977,25 +14462,25 @@
       <c r="A237" s="5">
         <v>236</v>
       </c>
-      <c r="B237" s="36">
+      <c r="B237" s="5">
         <v>35</v>
       </c>
-      <c r="C237" s="36">
+      <c r="C237" s="5">
         <v>3</v>
       </c>
-      <c r="D237" s="36">
+      <c r="D237" s="5">
         <v>3</v>
       </c>
-      <c r="E237" s="36">
+      <c r="E237" s="5">
         <v>900000</v>
       </c>
-      <c r="F237" s="36">
+      <c r="F237" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G237" s="40" t="s">
+      <c r="G237" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="H237" s="37" t="s">
+      <c r="H237" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14003,25 +14488,25 @@
       <c r="A238" s="5">
         <v>237</v>
       </c>
-      <c r="B238" s="36">
+      <c r="B238" s="5">
         <v>35</v>
       </c>
-      <c r="C238" s="36">
+      <c r="C238" s="5">
         <v>4</v>
       </c>
-      <c r="D238" s="36">
+      <c r="D238" s="5">
         <v>6</v>
       </c>
-      <c r="E238" s="36">
+      <c r="E238" s="5">
         <v>450000</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G238" s="40" t="s">
+      <c r="G238" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="H238" s="37" t="s">
+      <c r="H238" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14029,25 +14514,25 @@
       <c r="A239" s="5">
         <v>238</v>
       </c>
-      <c r="B239" s="36">
+      <c r="B239" s="5">
         <v>35</v>
       </c>
-      <c r="C239" s="36">
+      <c r="C239" s="5">
         <v>7</v>
       </c>
-      <c r="D239" s="36">
+      <c r="D239" s="5">
         <v>10</v>
       </c>
-      <c r="E239" s="36">
+      <c r="E239" s="5">
         <v>300000</v>
       </c>
-      <c r="F239" s="36">
+      <c r="F239" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G239" s="40" t="s">
+      <c r="G239" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="H239" s="37" t="s">
+      <c r="H239" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14055,25 +14540,25 @@
       <c r="A240" s="5">
         <v>239</v>
       </c>
-      <c r="B240" s="36">
+      <c r="B240" s="5">
         <v>35</v>
       </c>
-      <c r="C240" s="36">
+      <c r="C240" s="5">
         <v>11</v>
       </c>
-      <c r="D240" s="36">
+      <c r="D240" s="5">
         <v>15</v>
       </c>
-      <c r="E240" s="36">
+      <c r="E240" s="5">
         <v>180000</v>
       </c>
-      <c r="F240" s="36">
+      <c r="F240" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G240" s="40" t="s">
+      <c r="G240" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="H240" s="37" t="s">
+      <c r="H240" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14081,25 +14566,25 @@
       <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="36">
+      <c r="B241" s="5">
         <v>35</v>
       </c>
-      <c r="C241" s="36">
+      <c r="C241" s="5">
         <v>16</v>
       </c>
-      <c r="D241" s="36">
+      <c r="D241" s="5">
         <v>20</v>
       </c>
-      <c r="E241" s="36">
+      <c r="E241" s="5">
         <v>90000</v>
       </c>
-      <c r="F241" s="36">
+      <c r="F241" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G241" s="40" t="s">
+      <c r="G241" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="H241" s="37" t="s">
+      <c r="H241" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14107,25 +14592,25 @@
       <c r="A242" s="5">
         <v>241</v>
       </c>
-      <c r="B242" s="36">
+      <c r="B242" s="5">
         <v>36</v>
       </c>
-      <c r="C242" s="36">
-        <v>1</v>
-      </c>
-      <c r="D242" s="36">
-        <v>1</v>
-      </c>
-      <c r="E242" s="36">
+      <c r="C242" s="5">
+        <v>1</v>
+      </c>
+      <c r="D242" s="5">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F242" s="36">
+      <c r="F242" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G242" s="40" t="s">
+      <c r="G242" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="H242" s="37" t="s">
+      <c r="H242" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14133,25 +14618,25 @@
       <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="5">
         <v>36</v>
       </c>
-      <c r="C243" s="36">
+      <c r="C243" s="5">
         <v>2</v>
       </c>
-      <c r="D243" s="36">
+      <c r="D243" s="5">
         <v>2</v>
       </c>
-      <c r="E243" s="36">
+      <c r="E243" s="5">
         <v>900000000</v>
       </c>
-      <c r="F243" s="36">
+      <c r="F243" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G243" s="40" t="s">
+      <c r="G243" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="H243" s="37" t="s">
+      <c r="H243" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14159,25 +14644,25 @@
       <c r="A244" s="5">
         <v>243</v>
       </c>
-      <c r="B244" s="36">
+      <c r="B244" s="5">
         <v>36</v>
       </c>
-      <c r="C244" s="36">
+      <c r="C244" s="5">
         <v>3</v>
       </c>
-      <c r="D244" s="36">
+      <c r="D244" s="5">
         <v>3</v>
       </c>
-      <c r="E244" s="36">
+      <c r="E244" s="5">
         <v>450000000</v>
       </c>
-      <c r="F244" s="36">
+      <c r="F244" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G244" s="40" t="s">
+      <c r="G244" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="H244" s="37" t="s">
+      <c r="H244" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14185,25 +14670,25 @@
       <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="36">
+      <c r="B245" s="5">
         <v>36</v>
       </c>
-      <c r="C245" s="36">
+      <c r="C245" s="5">
         <v>4</v>
       </c>
-      <c r="D245" s="36">
+      <c r="D245" s="5">
         <v>6</v>
       </c>
-      <c r="E245" s="36">
+      <c r="E245" s="5">
         <v>220000000</v>
       </c>
-      <c r="F245" s="36">
+      <c r="F245" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G245" s="40" t="s">
+      <c r="G245" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="H245" s="37" t="s">
+      <c r="H245" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14211,25 +14696,25 @@
       <c r="A246" s="5">
         <v>245</v>
       </c>
-      <c r="B246" s="36">
+      <c r="B246" s="5">
         <v>36</v>
       </c>
-      <c r="C246" s="36">
+      <c r="C246" s="5">
         <v>7</v>
       </c>
-      <c r="D246" s="36">
+      <c r="D246" s="5">
         <v>10</v>
       </c>
-      <c r="E246" s="36">
+      <c r="E246" s="5">
         <v>146000000</v>
       </c>
-      <c r="F246" s="36">
+      <c r="F246" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G246" s="40" t="s">
+      <c r="G246" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="H246" s="37" t="s">
+      <c r="H246" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14237,25 +14722,25 @@
       <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="36">
+      <c r="B247" s="5">
         <v>36</v>
       </c>
-      <c r="C247" s="36">
+      <c r="C247" s="5">
         <v>11</v>
       </c>
-      <c r="D247" s="36">
+      <c r="D247" s="5">
         <v>15</v>
       </c>
-      <c r="E247" s="36">
+      <c r="E247" s="5">
         <v>88000000</v>
       </c>
-      <c r="F247" s="36">
+      <c r="F247" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G247" s="40" t="s">
+      <c r="G247" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="H247" s="37" t="s">
+      <c r="H247" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14263,25 +14748,499 @@
       <c r="A248" s="5">
         <v>247</v>
       </c>
-      <c r="B248" s="36">
+      <c r="B248" s="5">
         <v>36</v>
       </c>
-      <c r="C248" s="36">
+      <c r="C248" s="5">
         <v>16</v>
       </c>
-      <c r="D248" s="36">
+      <c r="D248" s="5">
         <v>20</v>
       </c>
-      <c r="E248" s="36">
+      <c r="E248" s="5">
         <v>45000000</v>
       </c>
-      <c r="F248" s="36">
+      <c r="F248" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G248" s="40" t="s">
+      <c r="G248" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="H248" s="37" t="s">
+      <c r="H248" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="36">
+        <v>37</v>
+      </c>
+      <c r="C249" s="36">
+        <v>1</v>
+      </c>
+      <c r="D249" s="36">
+        <v>1</v>
+      </c>
+      <c r="E249" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F249" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G249" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H249" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="36">
+        <v>37</v>
+      </c>
+      <c r="C250" s="36">
+        <v>2</v>
+      </c>
+      <c r="D250" s="36">
+        <v>2</v>
+      </c>
+      <c r="E250" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F250" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G250" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="H250" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="36">
+        <v>37</v>
+      </c>
+      <c r="C251" s="36">
+        <v>3</v>
+      </c>
+      <c r="D251" s="36">
+        <v>3</v>
+      </c>
+      <c r="E251" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F251" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G251" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H251" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="36">
+        <v>37</v>
+      </c>
+      <c r="C252" s="36">
+        <v>4</v>
+      </c>
+      <c r="D252" s="36">
+        <v>6</v>
+      </c>
+      <c r="E252" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F252" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G252" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="H252" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="36">
+        <v>37</v>
+      </c>
+      <c r="C253" s="36">
+        <v>7</v>
+      </c>
+      <c r="D253" s="36">
+        <v>10</v>
+      </c>
+      <c r="E253" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F253" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G253" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="H253" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="36">
+        <v>37</v>
+      </c>
+      <c r="C254" s="36">
+        <v>11</v>
+      </c>
+      <c r="D254" s="36">
+        <v>15</v>
+      </c>
+      <c r="E254" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F254" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G254" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H254" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="36">
+        <v>37</v>
+      </c>
+      <c r="C255" s="36">
+        <v>16</v>
+      </c>
+      <c r="D255" s="36">
+        <v>20</v>
+      </c>
+      <c r="E255" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F255" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G255" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H255" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="36">
+        <v>38</v>
+      </c>
+      <c r="C256" s="36">
+        <v>1</v>
+      </c>
+      <c r="D256" s="36">
+        <v>1</v>
+      </c>
+      <c r="E256" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F256" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G256" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="H256" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="36">
+        <v>38</v>
+      </c>
+      <c r="C257" s="36">
+        <v>2</v>
+      </c>
+      <c r="D257" s="36">
+        <v>2</v>
+      </c>
+      <c r="E257" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F257" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G257" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="H257" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="36">
+        <v>38</v>
+      </c>
+      <c r="C258" s="36">
+        <v>3</v>
+      </c>
+      <c r="D258" s="36">
+        <v>3</v>
+      </c>
+      <c r="E258" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F258" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G258" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H258" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="36">
+        <v>38</v>
+      </c>
+      <c r="C259" s="36">
+        <v>4</v>
+      </c>
+      <c r="D259" s="36">
+        <v>6</v>
+      </c>
+      <c r="E259" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F259" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G259" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="H259" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="36">
+        <v>38</v>
+      </c>
+      <c r="C260" s="36">
+        <v>7</v>
+      </c>
+      <c r="D260" s="36">
+        <v>10</v>
+      </c>
+      <c r="E260" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F260" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G260" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="H260" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="36">
+        <v>38</v>
+      </c>
+      <c r="C261" s="36">
+        <v>11</v>
+      </c>
+      <c r="D261" s="36">
+        <v>15</v>
+      </c>
+      <c r="E261" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F261" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G261" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="H261" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="36">
+        <v>38</v>
+      </c>
+      <c r="C262" s="36">
+        <v>16</v>
+      </c>
+      <c r="D262" s="36">
+        <v>20</v>
+      </c>
+      <c r="E262" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F262" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G262" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H262" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="36">
+        <v>39</v>
+      </c>
+      <c r="C263" s="36">
+        <v>1</v>
+      </c>
+      <c r="D263" s="36">
+        <v>1</v>
+      </c>
+      <c r="E263" s="36"/>
+      <c r="F263" s="36"/>
+      <c r="G263" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="H263" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="36">
+        <v>39</v>
+      </c>
+      <c r="C264" s="36">
+        <v>2</v>
+      </c>
+      <c r="D264" s="36">
+        <v>2</v>
+      </c>
+      <c r="E264" s="36"/>
+      <c r="F264" s="36"/>
+      <c r="G264" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="36">
+        <v>39</v>
+      </c>
+      <c r="C265" s="36">
+        <v>3</v>
+      </c>
+      <c r="D265" s="36">
+        <v>3</v>
+      </c>
+      <c r="E265" s="36"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="36">
+        <v>39</v>
+      </c>
+      <c r="C266" s="36">
+        <v>4</v>
+      </c>
+      <c r="D266" s="36">
+        <v>10</v>
+      </c>
+      <c r="E266" s="36"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="H266" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="36">
+        <v>39</v>
+      </c>
+      <c r="C267" s="36">
+        <v>11</v>
+      </c>
+      <c r="D267" s="36">
+        <v>20</v>
+      </c>
+      <c r="E267" s="36"/>
+      <c r="F267" s="36"/>
+      <c r="G267" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="H267" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14294,11 +15253,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="B294:F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19040,19 +19999,19 @@
       <c r="A238" s="5">
         <v>237</v>
       </c>
-      <c r="B238" s="36">
+      <c r="B238" s="5">
         <v>233</v>
       </c>
-      <c r="C238" s="34" t="s">
+      <c r="C238" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D238" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E238" s="36">
+      <c r="D238" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E238" s="5">
         <v>50000</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19060,19 +20019,19 @@
       <c r="A239" s="5">
         <v>238</v>
       </c>
-      <c r="B239" s="36">
+      <c r="B239" s="5">
         <v>234</v>
       </c>
-      <c r="C239" s="34" t="s">
+      <c r="C239" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D239" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E239" s="36">
+      <c r="D239" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" s="5">
         <v>15000</v>
       </c>
-      <c r="F239" s="36">
+      <c r="F239" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19080,19 +20039,19 @@
       <c r="A240" s="5">
         <v>239</v>
       </c>
-      <c r="B240" s="36">
+      <c r="B240" s="5">
         <v>235</v>
       </c>
-      <c r="C240" s="34" t="s">
+      <c r="C240" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D240" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E240" s="36">
+      <c r="D240" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E240" s="5">
         <v>5000</v>
       </c>
-      <c r="F240" s="36">
+      <c r="F240" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19100,19 +20059,19 @@
       <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="36">
+      <c r="B241" s="5">
         <v>236</v>
       </c>
-      <c r="C241" s="34" t="s">
+      <c r="C241" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D241" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E241" s="36">
+      <c r="D241" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E241" s="5">
         <v>1500</v>
       </c>
-      <c r="F241" s="36">
+      <c r="F241" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19120,19 +20079,19 @@
       <c r="A242" s="5">
         <v>241</v>
       </c>
-      <c r="B242" s="36">
+      <c r="B242" s="5">
         <v>237</v>
       </c>
-      <c r="C242" s="34" t="s">
+      <c r="C242" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D242" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E242" s="36">
+      <c r="D242" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E242" s="5">
         <v>1000</v>
       </c>
-      <c r="F242" s="36">
+      <c r="F242" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19140,19 +20099,19 @@
       <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="5">
         <v>238</v>
       </c>
-      <c r="C243" s="34" t="s">
+      <c r="C243" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D243" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E243" s="36">
+      <c r="D243" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E243" s="5">
         <v>500</v>
       </c>
-      <c r="F243" s="36">
+      <c r="F243" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19160,19 +20119,19 @@
       <c r="A244" s="5">
         <v>243</v>
       </c>
-      <c r="B244" s="36">
+      <c r="B244" s="5">
         <v>239</v>
       </c>
-      <c r="C244" s="34" t="s">
+      <c r="C244" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D244" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E244" s="36">
+      <c r="D244" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E244" s="5">
         <v>240</v>
       </c>
-      <c r="F244" s="36">
+      <c r="F244" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19180,19 +20139,19 @@
       <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="36">
+      <c r="B245" s="5">
         <v>240</v>
       </c>
-      <c r="C245" s="34" t="s">
+      <c r="C245" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D245" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E245" s="36">
+      <c r="D245" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E245" s="5">
         <v>50000</v>
       </c>
-      <c r="F245" s="36">
+      <c r="F245" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19200,19 +20159,19 @@
       <c r="A246" s="5">
         <v>245</v>
       </c>
-      <c r="B246" s="36">
+      <c r="B246" s="5">
         <v>241</v>
       </c>
-      <c r="C246" s="34" t="s">
+      <c r="C246" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D246" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E246" s="36">
+      <c r="D246" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E246" s="5">
         <v>15000</v>
       </c>
-      <c r="F246" s="36">
+      <c r="F246" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19220,19 +20179,19 @@
       <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="36">
+      <c r="B247" s="5">
         <v>242</v>
       </c>
-      <c r="C247" s="34" t="s">
+      <c r="C247" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D247" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247" s="36">
+      <c r="D247" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E247" s="5">
         <v>5000</v>
       </c>
-      <c r="F247" s="36">
+      <c r="F247" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19240,19 +20199,19 @@
       <c r="A248" s="5">
         <v>247</v>
       </c>
-      <c r="B248" s="36">
+      <c r="B248" s="5">
         <v>243</v>
       </c>
-      <c r="C248" s="34" t="s">
+      <c r="C248" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D248" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E248" s="36">
+      <c r="D248" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E248" s="5">
         <v>1500</v>
       </c>
-      <c r="F248" s="36">
+      <c r="F248" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19260,19 +20219,19 @@
       <c r="A249" s="5">
         <v>248</v>
       </c>
-      <c r="B249" s="36">
+      <c r="B249" s="5">
         <v>244</v>
       </c>
-      <c r="C249" s="34" t="s">
+      <c r="C249" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D249" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E249" s="36">
+      <c r="D249" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E249" s="5">
         <v>1000</v>
       </c>
-      <c r="F249" s="36">
+      <c r="F249" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19280,19 +20239,19 @@
       <c r="A250" s="5">
         <v>249</v>
       </c>
-      <c r="B250" s="36">
+      <c r="B250" s="5">
         <v>245</v>
       </c>
-      <c r="C250" s="34" t="s">
+      <c r="C250" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D250" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E250" s="36">
+      <c r="D250" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E250" s="5">
         <v>500</v>
       </c>
-      <c r="F250" s="36">
+      <c r="F250" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19300,19 +20259,19 @@
       <c r="A251" s="5">
         <v>250</v>
       </c>
-      <c r="B251" s="36">
+      <c r="B251" s="5">
         <v>246</v>
       </c>
-      <c r="C251" s="34" t="s">
+      <c r="C251" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D251" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E251" s="36">
+      <c r="D251" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E251" s="5">
         <v>240</v>
       </c>
-      <c r="F251" s="36">
+      <c r="F251" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19320,19 +20279,19 @@
       <c r="A252" s="5">
         <v>251</v>
       </c>
-      <c r="B252" s="36">
+      <c r="B252" s="5">
         <v>247</v>
       </c>
-      <c r="C252" s="34" t="s">
+      <c r="C252" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D252" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E252" s="36">
+      <c r="D252" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E252" s="5">
         <v>50000</v>
       </c>
-      <c r="F252" s="36">
+      <c r="F252" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19340,19 +20299,19 @@
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="36">
+      <c r="B253" s="5">
         <v>248</v>
       </c>
-      <c r="C253" s="34" t="s">
+      <c r="C253" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D253" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E253" s="36">
+      <c r="D253" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E253" s="5">
         <v>15000</v>
       </c>
-      <c r="F253" s="36">
+      <c r="F253" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19360,19 +20319,19 @@
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="36">
+      <c r="B254" s="5">
         <v>249</v>
       </c>
-      <c r="C254" s="34" t="s">
+      <c r="C254" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D254" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E254" s="36">
+      <c r="D254" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E254" s="5">
         <v>5000</v>
       </c>
-      <c r="F254" s="36">
+      <c r="F254" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19380,19 +20339,19 @@
       <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="36">
+      <c r="B255" s="5">
         <v>250</v>
       </c>
-      <c r="C255" s="34" t="s">
+      <c r="C255" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D255" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255" s="36">
+      <c r="D255" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E255" s="5">
         <v>1500</v>
       </c>
-      <c r="F255" s="36">
+      <c r="F255" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19400,19 +20359,19 @@
       <c r="A256" s="5">
         <v>255</v>
       </c>
-      <c r="B256" s="36">
+      <c r="B256" s="5">
         <v>251</v>
       </c>
-      <c r="C256" s="34" t="s">
+      <c r="C256" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D256" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E256" s="36">
+      <c r="D256" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E256" s="5">
         <v>1000</v>
       </c>
-      <c r="F256" s="36">
+      <c r="F256" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19420,19 +20379,19 @@
       <c r="A257" s="5">
         <v>256</v>
       </c>
-      <c r="B257" s="36">
+      <c r="B257" s="5">
         <v>252</v>
       </c>
-      <c r="C257" s="34" t="s">
+      <c r="C257" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D257" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E257" s="36">
+      <c r="D257" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E257" s="5">
         <v>500</v>
       </c>
-      <c r="F257" s="36">
+      <c r="F257" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19440,19 +20399,19 @@
       <c r="A258" s="5">
         <v>257</v>
       </c>
-      <c r="B258" s="36">
+      <c r="B258" s="5">
         <v>253</v>
       </c>
-      <c r="C258" s="34" t="s">
+      <c r="C258" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D258" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E258" s="36">
+      <c r="D258" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E258" s="5">
         <v>240</v>
       </c>
-      <c r="F258" s="36">
+      <c r="F258" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19460,19 +20419,19 @@
       <c r="A259" s="5">
         <v>258</v>
       </c>
-      <c r="B259" s="36">
+      <c r="B259" s="5">
         <v>254</v>
       </c>
-      <c r="C259" s="34" t="s">
+      <c r="C259" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D259" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E259" s="36">
+      <c r="D259" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E259" s="5">
         <v>50000</v>
       </c>
-      <c r="F259" s="36">
+      <c r="F259" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19480,19 +20439,19 @@
       <c r="A260" s="5">
         <v>259</v>
       </c>
-      <c r="B260" s="36">
+      <c r="B260" s="5">
         <v>255</v>
       </c>
-      <c r="C260" s="34" t="s">
+      <c r="C260" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D260" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E260" s="36">
+      <c r="D260" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E260" s="5">
         <v>15000</v>
       </c>
-      <c r="F260" s="36">
+      <c r="F260" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19500,19 +20459,19 @@
       <c r="A261" s="5">
         <v>260</v>
       </c>
-      <c r="B261" s="36">
+      <c r="B261" s="5">
         <v>256</v>
       </c>
-      <c r="C261" s="34" t="s">
+      <c r="C261" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D261" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261" s="36">
+      <c r="D261" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E261" s="5">
         <v>5000</v>
       </c>
-      <c r="F261" s="36">
+      <c r="F261" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19520,19 +20479,19 @@
       <c r="A262" s="5">
         <v>261</v>
       </c>
-      <c r="B262" s="36">
+      <c r="B262" s="5">
         <v>257</v>
       </c>
-      <c r="C262" s="34" t="s">
+      <c r="C262" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D262" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E262" s="36">
+      <c r="D262" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E262" s="5">
         <v>1500</v>
       </c>
-      <c r="F262" s="36">
+      <c r="F262" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19540,19 +20499,19 @@
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="36">
+      <c r="B263" s="5">
         <v>258</v>
       </c>
-      <c r="C263" s="34" t="s">
+      <c r="C263" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D263" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E263" s="36">
+      <c r="D263" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E263" s="5">
         <v>1000</v>
       </c>
-      <c r="F263" s="36">
+      <c r="F263" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19560,19 +20519,19 @@
       <c r="A264" s="5">
         <v>263</v>
       </c>
-      <c r="B264" s="36">
+      <c r="B264" s="5">
         <v>259</v>
       </c>
-      <c r="C264" s="34" t="s">
+      <c r="C264" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D264" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E264" s="36">
+      <c r="D264" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E264" s="5">
         <v>500</v>
       </c>
-      <c r="F264" s="36">
+      <c r="F264" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19580,19 +20539,679 @@
       <c r="A265" s="5">
         <v>264</v>
       </c>
-      <c r="B265" s="36">
+      <c r="B265" s="5">
         <v>260</v>
       </c>
-      <c r="C265" s="34" t="s">
+      <c r="C265" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D265" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E265" s="36">
+      <c r="D265" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E265" s="5">
         <v>240</v>
       </c>
-      <c r="F265" s="36">
+      <c r="F265" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="36">
+        <v>261</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E266" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F266" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="36">
+        <v>262</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D267" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E267" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F267" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+      <c r="B268" s="36">
+        <v>263</v>
+      </c>
+      <c r="C268" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E268" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F268" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="36">
+        <v>264</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E269" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F269" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="36">
+        <v>265</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D270" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E270" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F270" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="36">
+        <v>266</v>
+      </c>
+      <c r="C271" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D271" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E271" s="36">
+        <v>500</v>
+      </c>
+      <c r="F271" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="36">
+        <v>267</v>
+      </c>
+      <c r="C272" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D272" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E272" s="36">
+        <v>240</v>
+      </c>
+      <c r="F272" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="36">
+        <v>268</v>
+      </c>
+      <c r="C273" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D273" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E273" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F273" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="36">
+        <v>269</v>
+      </c>
+      <c r="C274" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D274" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E274" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F274" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="36">
+        <v>270</v>
+      </c>
+      <c r="C275" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D275" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E275" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F275" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36">
+        <v>271</v>
+      </c>
+      <c r="C276" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D276" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E276" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F276" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="36">
+        <v>272</v>
+      </c>
+      <c r="C277" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D277" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E277" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F277" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="36">
+        <v>273</v>
+      </c>
+      <c r="C278" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D278" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E278" s="36">
+        <v>500</v>
+      </c>
+      <c r="F278" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="36">
+        <v>274</v>
+      </c>
+      <c r="C279" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D279" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E279" s="36">
+        <v>240</v>
+      </c>
+      <c r="F279" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="36">
+        <v>275</v>
+      </c>
+      <c r="C280" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D280" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E280" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F280" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="36">
+        <v>276</v>
+      </c>
+      <c r="C281" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D281" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E281" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F281" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="36">
+        <v>277</v>
+      </c>
+      <c r="C282" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D282" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E282" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F282" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="36">
+        <v>278</v>
+      </c>
+      <c r="C283" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E283" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F283" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="36">
+        <v>279</v>
+      </c>
+      <c r="C284" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D284" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E284" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F284" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="36">
+        <v>280</v>
+      </c>
+      <c r="C285" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D285" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E285" s="36">
+        <v>500</v>
+      </c>
+      <c r="F285" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="36">
+        <v>281</v>
+      </c>
+      <c r="C286" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D286" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E286" s="36">
+        <v>240</v>
+      </c>
+      <c r="F286" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+      <c r="B287" s="36">
+        <v>282</v>
+      </c>
+      <c r="C287" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D287" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E287" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F287" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36">
+        <v>283</v>
+      </c>
+      <c r="C288" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D288" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E288" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F288" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+      <c r="B289" s="36">
+        <v>284</v>
+      </c>
+      <c r="C289" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D289" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E289" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F289" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+      <c r="B290" s="36">
+        <v>285</v>
+      </c>
+      <c r="C290" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D290" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E290" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F290" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>286</v>
+      </c>
+      <c r="C291" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D291" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E291" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F291" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+      <c r="B292" s="36">
+        <v>287</v>
+      </c>
+      <c r="C292" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E292" s="36">
+        <v>500</v>
+      </c>
+      <c r="F292" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36">
+        <v>288</v>
+      </c>
+      <c r="C293" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D293" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E293" s="36">
+        <v>240</v>
+      </c>
+      <c r="F293" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36">
+        <v>289</v>
+      </c>
+      <c r="C294" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D294" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E294" s="36">
+        <v>25000</v>
+      </c>
+      <c r="F294" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>294</v>
+      </c>
+      <c r="B295" s="36">
+        <v>290</v>
+      </c>
+      <c r="C295" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D295" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E295" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F295" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
+      <c r="B296" s="36">
+        <v>291</v>
+      </c>
+      <c r="C296" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D296" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E296" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F296" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>296</v>
+      </c>
+      <c r="B297" s="36">
+        <v>292</v>
+      </c>
+      <c r="C297" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D297" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E297" s="36">
+        <v>2500</v>
+      </c>
+      <c r="F297" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+      <c r="B298" s="36">
+        <v>293</v>
+      </c>
+      <c r="C298" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D298" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E298" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F298" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2958,9 +2958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4443,7 +4443,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>349</v>
@@ -9091,7 +9091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
   <si>
     <t>id|</t>
   </si>
@@ -1659,10 +1659,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xxlzb_007_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>五星排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2420,6 +2416,114 @@
   </si>
   <si>
     <t>204,</t>
+  </si>
+  <si>
+    <t>qmyl_011_hdphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>294,301,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>295,302,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>296,303,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>297,304,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>298,305,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>299,306,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,307,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_008_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>308,315,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>309,316,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>310,317,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>311,318,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>312,319,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>313,320,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>314,321,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2528,7 +2632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,7 +2665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2647,30 +2751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2679,6 +2759,21 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2956,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4235,7 +4330,7 @@
       <c r="B36" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="33" t="s">
         <v>297</v>
       </c>
       <c r="D36" s="27" t="s">
@@ -4305,7 +4400,7 @@
       <c r="B38" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="33" t="s">
         <v>331</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -4368,106 +4463,176 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="E40" s="33">
+      <c r="D40" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" s="26">
         <v>1616457600</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="26">
         <v>1617033599</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="26">
         <v>39</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="26">
         <v>39</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="26">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="33" t="s">
+      <c r="B41" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="26">
         <v>1616457600</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="26">
         <v>1617033599</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="26">
         <v>40</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="26">
         <v>40</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="E42" s="33">
+      <c r="E42" s="26">
         <v>1615046400</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="G42" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="H42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="26">
         <v>41</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="26">
         <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38">
+        <v>42</v>
+      </c>
+      <c r="B43" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1617062400</v>
+      </c>
+      <c r="F43" s="38">
+        <v>1617638399</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="38">
+        <v>41</v>
+      </c>
+      <c r="K43" s="38">
+        <v>42</v>
+      </c>
+      <c r="L43" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38">
+        <v>43</v>
+      </c>
+      <c r="B44" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="38">
+        <v>1617062400</v>
+      </c>
+      <c r="F44" s="38">
+        <v>1617638399</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I44" s="38">
+        <v>42</v>
+      </c>
+      <c r="K44" s="38">
+        <v>43</v>
+      </c>
+      <c r="L44" s="38">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4479,11 +4644,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77:D82"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5511,7 +5676,7 @@
       <c r="B73" s="5">
         <v>36</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D73" s="5">
@@ -5525,7 +5690,7 @@
       <c r="B74" s="5">
         <v>36</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D74" s="5">
@@ -5539,7 +5704,7 @@
       <c r="B75" s="5">
         <v>36</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="34" t="s">
         <v>300</v>
       </c>
       <c r="D75" s="5">
@@ -5553,7 +5718,7 @@
       <c r="B76" s="5">
         <v>36</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D76" s="5">
@@ -5595,7 +5760,7 @@
       <c r="B79" s="5">
         <v>38</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D79" s="5">
@@ -5609,123 +5774,219 @@
       <c r="B80" s="5">
         <v>38</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="5">
         <v>38</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="34" t="s">
         <v>300</v>
       </c>
       <c r="D81" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="5">
         <v>38</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="5">
         <v>39</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="36">
+      <c r="D83" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="5">
         <v>39</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="5">
         <v>40</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="36">
+      <c r="D85" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="36">
+      <c r="B86" s="5">
         <v>40</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="36">
+      <c r="D86" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="5">
         <v>40</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D87" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="36">
+      <c r="B88" s="5">
         <v>40</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D88" s="5">
         <v>42</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="36">
+        <v>88</v>
+      </c>
+      <c r="B89" s="36">
+        <v>41</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="36">
+        <v>89</v>
+      </c>
+      <c r="B90" s="36">
+        <v>41</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="36">
+        <v>90</v>
+      </c>
+      <c r="B91" s="36">
+        <v>42</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="36">
+        <v>91</v>
+      </c>
+      <c r="B92" s="36">
+        <v>42</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="36">
+        <v>92</v>
+      </c>
+      <c r="B93" s="36">
+        <v>42</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="36">
+        <v>93</v>
+      </c>
+      <c r="B94" s="36">
+        <v>42</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="36">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5737,10 +5998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6806,71 +7067,139 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="5">
         <v>41</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="5">
         <v>9</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="5">
         <v>41</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="5">
         <v>42</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="5">
         <v>240000</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="5">
         <v>42</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="36">
+      <c r="D66" s="5">
         <v>500</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="36">
+        <v>66</v>
+      </c>
+      <c r="B67" s="36">
+        <v>43</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="36">
+        <v>9</v>
+      </c>
+      <c r="E67" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="36">
+        <v>67</v>
+      </c>
+      <c r="B68" s="36">
+        <v>43</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="36">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36">
+        <v>44</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E69" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="36">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36">
+        <v>44</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="36">
+        <v>500</v>
+      </c>
+      <c r="E70" s="36">
         <v>3</v>
       </c>
     </row>
@@ -6981,11 +7310,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7897,72 +8226,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="36">
-        <v>1</v>
-      </c>
-      <c r="C40" s="36">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
         <v>20</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="5">
         <v>100</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="5">
         <v>20</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="5">
         <v>180</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="36">
-        <v>1</v>
-      </c>
-      <c r="C41" s="36">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
         <v>20</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="5">
         <v>100</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="5">
         <v>20</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="5">
         <v>180</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="36">
-        <v>1</v>
-      </c>
-      <c r="C42" s="36">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5">
         <v>20</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="5">
         <v>100</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="5">
         <v>20</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="5">
         <v>180</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36">
+        <v>1</v>
+      </c>
+      <c r="C43" s="36">
+        <v>20</v>
+      </c>
+      <c r="D43" s="36">
+        <v>100</v>
+      </c>
+      <c r="E43" s="36">
+        <v>20</v>
+      </c>
+      <c r="F43" s="36">
+        <v>180</v>
+      </c>
+      <c r="G43" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>180</v>
+      </c>
+      <c r="G44" s="2">
         <v>10</v>
       </c>
     </row>
@@ -7974,11 +8349,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8505,46 +8880,74 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="5">
         <v>41</v>
       </c>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="36">
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="5">
         <v>42</v>
       </c>
-      <c r="C39" s="36">
-        <v>1</v>
-      </c>
-      <c r="D39" s="36">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="5">
         <v>43</v>
       </c>
-      <c r="C40" s="36">
-        <v>1</v>
-      </c>
-      <c r="D40" s="36">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36">
+        <v>44</v>
+      </c>
+      <c r="C41" s="36">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -8556,11 +8959,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9049,36 +9452,58 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="36">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="5">
         <v>1617033599</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="5">
         <v>1617033599</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="36">
-        <v>1</v>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="C45" s="36">
+        <v>1617638399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="36">
+        <v>1617638399</v>
       </c>
     </row>
   </sheetData>
@@ -9089,11 +9514,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I277" sqref="I277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9150,7 +9575,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -9173,7 +9598,7 @@
         <v>5000000000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -9196,7 +9621,7 @@
         <v>1500000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -9219,7 +9644,7 @@
         <v>500000000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -9242,7 +9667,7 @@
         <v>100000000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -9262,7 +9687,7 @@
         <v>30000000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -9282,7 +9707,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -9302,7 +9727,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -9324,7 +9749,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -9345,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -9365,7 +9790,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -9385,7 +9810,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -9405,7 +9830,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -9427,7 +9852,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -9450,7 +9875,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -9473,7 +9898,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -9496,7 +9921,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -9519,7 +9944,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -9542,7 +9967,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -9565,7 +9990,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -9588,7 +10013,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -9611,7 +10036,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -9634,7 +10059,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -9657,7 +10082,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -9680,7 +10105,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -9703,7 +10128,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -9726,7 +10151,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -9748,7 +10173,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -9770,7 +10195,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -9792,7 +10217,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -9814,7 +10239,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -9836,7 +10261,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -9858,7 +10283,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -9880,7 +10305,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -9902,7 +10327,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -9924,7 +10349,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -9946,7 +10371,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -9968,7 +10393,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -9991,7 +10416,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -10013,7 +10438,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -10035,7 +10460,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -10057,7 +10482,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -10079,7 +10504,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -10101,7 +10526,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -10123,7 +10548,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -10145,7 +10570,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -10167,7 +10592,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -10189,7 +10614,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -10211,7 +10636,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -10234,7 +10659,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -10256,7 +10681,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -10278,7 +10703,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -10300,7 +10725,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -10322,7 +10747,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -10344,7 +10769,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -10366,7 +10791,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -10388,7 +10813,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -10410,7 +10835,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -10432,7 +10857,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -10454,7 +10879,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -10476,7 +10901,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -10498,7 +10923,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -10520,7 +10945,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -10542,7 +10967,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -10564,7 +10989,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -10586,7 +11011,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -10608,7 +11033,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -10630,7 +11055,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -10652,7 +11077,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -10674,7 +11099,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -10697,7 +11122,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -10720,7 +11145,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -10743,7 +11168,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -10766,7 +11191,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -10789,7 +11214,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -10812,7 +11237,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -10835,7 +11260,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -10858,7 +11283,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -10881,7 +11306,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -10904,7 +11329,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -10927,7 +11352,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -10950,7 +11375,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -10973,7 +11398,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -10996,7 +11421,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -11019,7 +11444,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -11042,7 +11467,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -11065,7 +11490,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -11088,7 +11513,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -11111,7 +11536,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -11134,7 +11559,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -11157,7 +11582,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -11180,7 +11605,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -11203,7 +11628,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -11226,7 +11651,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -11249,7 +11674,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -11272,7 +11697,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -11295,7 +11720,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -11318,7 +11743,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -11341,7 +11766,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -11364,7 +11789,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -11387,7 +11812,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -11410,7 +11835,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -11433,7 +11858,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -11456,7 +11881,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -11479,7 +11904,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -11502,7 +11927,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -11525,7 +11950,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -11548,7 +11973,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -11571,7 +11996,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -11594,7 +12019,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -11617,7 +12042,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -11640,7 +12065,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -11663,7 +12088,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -11686,7 +12111,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -11709,7 +12134,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -11732,7 +12157,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -11755,7 +12180,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -11778,7 +12203,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -11801,7 +12226,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -11824,7 +12249,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -11847,7 +12272,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -11870,7 +12295,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -11893,7 +12318,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -11916,7 +12341,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -11939,7 +12364,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -11961,7 +12386,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -11984,7 +12409,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -12006,7 +12431,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -12028,7 +12453,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -12050,7 +12475,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -12072,7 +12497,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -12094,7 +12519,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -12116,7 +12541,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -12138,7 +12563,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -12160,7 +12585,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -12182,7 +12607,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -12204,7 +12629,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -12226,7 +12651,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -12248,7 +12673,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -12270,7 +12695,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -12292,7 +12717,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -12314,7 +12739,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -12336,7 +12761,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -12358,7 +12783,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -12380,7 +12805,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -12402,7 +12827,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -12424,7 +12849,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -12446,7 +12871,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -12468,7 +12893,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -12490,7 +12915,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -12512,7 +12937,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -12534,7 +12959,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -12556,7 +12981,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -12578,7 +13003,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -12600,7 +13025,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -12622,7 +13047,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -12644,7 +13069,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -12666,7 +13091,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -12688,7 +13113,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -12710,7 +13135,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -12732,7 +13157,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -12754,7 +13179,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -12776,7 +13201,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -12798,7 +13223,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -12820,7 +13245,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -12842,7 +13267,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -12864,7 +13289,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -12886,7 +13311,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -12908,7 +13333,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -12930,7 +13355,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -12952,7 +13377,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -12974,7 +13399,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -12996,7 +13421,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -13018,7 +13443,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -13040,7 +13465,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -13062,7 +13487,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -13084,7 +13509,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -13106,7 +13531,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -13128,7 +13553,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -13150,7 +13575,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -13172,7 +13597,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -13194,7 +13619,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -13216,7 +13641,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -13238,7 +13663,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -13260,7 +13685,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -13283,7 +13708,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -13306,7 +13731,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -13329,7 +13754,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -13352,7 +13777,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -13375,7 +13800,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -13398,7 +13823,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -13421,7 +13846,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -13444,7 +13869,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -13467,7 +13892,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -13490,7 +13915,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -13513,7 +13938,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -13536,7 +13961,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -13559,7 +13984,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -13582,7 +14007,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -13605,7 +14030,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -13628,7 +14053,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -13651,7 +14076,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -13674,7 +14099,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -13697,7 +14122,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -13720,7 +14145,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -13743,7 +14168,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -13766,7 +14191,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -13789,7 +14214,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -13812,7 +14237,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -13835,7 +14260,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -13858,7 +14283,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -13881,7 +14306,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -13904,7 +14329,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -13926,7 +14351,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -13948,7 +14373,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -13970,7 +14395,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -13992,7 +14417,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -14014,7 +14439,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -14036,7 +14461,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>
@@ -14061,7 +14486,7 @@
       <c r="F221" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G221" s="43" t="s">
+      <c r="G221" s="35" t="s">
         <v>301</v>
       </c>
       <c r="H221" s="6" t="s">
@@ -14087,7 +14512,7 @@
       <c r="F222" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G222" s="43" t="s">
+      <c r="G222" s="35" t="s">
         <v>302</v>
       </c>
       <c r="H222" s="6" t="s">
@@ -14113,7 +14538,7 @@
       <c r="F223" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G223" s="43" t="s">
+      <c r="G223" s="35" t="s">
         <v>303</v>
       </c>
       <c r="H223" s="6" t="s">
@@ -14139,7 +14564,7 @@
       <c r="F224" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G224" s="43" t="s">
+      <c r="G224" s="35" t="s">
         <v>304</v>
       </c>
       <c r="H224" s="6" t="s">
@@ -14165,7 +14590,7 @@
       <c r="F225" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G225" s="43" t="s">
+      <c r="G225" s="35" t="s">
         <v>305</v>
       </c>
       <c r="H225" s="6" t="s">
@@ -14191,7 +14616,7 @@
       <c r="F226" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G226" s="43" t="s">
+      <c r="G226" s="35" t="s">
         <v>306</v>
       </c>
       <c r="H226" s="6" t="s">
@@ -14217,7 +14642,7 @@
       <c r="F227" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G227" s="43" t="s">
+      <c r="G227" s="35" t="s">
         <v>307</v>
       </c>
       <c r="H227" s="6" t="s">
@@ -14243,7 +14668,7 @@
       <c r="F228" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G228" s="43" t="s">
+      <c r="G228" s="35" t="s">
         <v>308</v>
       </c>
       <c r="H228" s="6" t="s">
@@ -14269,7 +14694,7 @@
       <c r="F229" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G229" s="43" t="s">
+      <c r="G229" s="35" t="s">
         <v>309</v>
       </c>
       <c r="H229" s="6" t="s">
@@ -14295,7 +14720,7 @@
       <c r="F230" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G230" s="43" t="s">
+      <c r="G230" s="35" t="s">
         <v>310</v>
       </c>
       <c r="H230" s="6" t="s">
@@ -14321,7 +14746,7 @@
       <c r="F231" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G231" s="43" t="s">
+      <c r="G231" s="35" t="s">
         <v>311</v>
       </c>
       <c r="H231" s="6" t="s">
@@ -14347,7 +14772,7 @@
       <c r="F232" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G232" s="43" t="s">
+      <c r="G232" s="35" t="s">
         <v>312</v>
       </c>
       <c r="H232" s="6" t="s">
@@ -14373,7 +14798,7 @@
       <c r="F233" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G233" s="43" t="s">
+      <c r="G233" s="35" t="s">
         <v>313</v>
       </c>
       <c r="H233" s="6" t="s">
@@ -14399,7 +14824,7 @@
       <c r="F234" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G234" s="43" t="s">
+      <c r="G234" s="35" t="s">
         <v>314</v>
       </c>
       <c r="H234" s="6" t="s">
@@ -14425,7 +14850,7 @@
       <c r="F235" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G235" s="43" t="s">
+      <c r="G235" s="35" t="s">
         <v>317</v>
       </c>
       <c r="H235" s="6" t="s">
@@ -14451,7 +14876,7 @@
       <c r="F236" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G236" s="43" t="s">
+      <c r="G236" s="35" t="s">
         <v>318</v>
       </c>
       <c r="H236" s="6" t="s">
@@ -14477,7 +14902,7 @@
       <c r="F237" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G237" s="43" t="s">
+      <c r="G237" s="35" t="s">
         <v>319</v>
       </c>
       <c r="H237" s="6" t="s">
@@ -14503,7 +14928,7 @@
       <c r="F238" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G238" s="43" t="s">
+      <c r="G238" s="35" t="s">
         <v>320</v>
       </c>
       <c r="H238" s="6" t="s">
@@ -14529,7 +14954,7 @@
       <c r="F239" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G239" s="43" t="s">
+      <c r="G239" s="35" t="s">
         <v>321</v>
       </c>
       <c r="H239" s="6" t="s">
@@ -14555,7 +14980,7 @@
       <c r="F240" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G240" s="43" t="s">
+      <c r="G240" s="35" t="s">
         <v>322</v>
       </c>
       <c r="H240" s="6" t="s">
@@ -14581,7 +15006,7 @@
       <c r="F241" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G241" s="43" t="s">
+      <c r="G241" s="35" t="s">
         <v>323</v>
       </c>
       <c r="H241" s="6" t="s">
@@ -14607,7 +15032,7 @@
       <c r="F242" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G242" s="43" t="s">
+      <c r="G242" s="35" t="s">
         <v>324</v>
       </c>
       <c r="H242" s="6" t="s">
@@ -14633,7 +15058,7 @@
       <c r="F243" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G243" s="43" t="s">
+      <c r="G243" s="35" t="s">
         <v>325</v>
       </c>
       <c r="H243" s="6" t="s">
@@ -14659,7 +15084,7 @@
       <c r="F244" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G244" s="43" t="s">
+      <c r="G244" s="35" t="s">
         <v>326</v>
       </c>
       <c r="H244" s="6" t="s">
@@ -14685,7 +15110,7 @@
       <c r="F245" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G245" s="43" t="s">
+      <c r="G245" s="35" t="s">
         <v>327</v>
       </c>
       <c r="H245" s="6" t="s">
@@ -14711,7 +15136,7 @@
       <c r="F246" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G246" s="43" t="s">
+      <c r="G246" s="35" t="s">
         <v>328</v>
       </c>
       <c r="H246" s="6" t="s">
@@ -14737,7 +15162,7 @@
       <c r="F247" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G247" s="43" t="s">
+      <c r="G247" s="35" t="s">
         <v>329</v>
       </c>
       <c r="H247" s="6" t="s">
@@ -14763,7 +15188,7 @@
       <c r="F248" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G248" s="43" t="s">
+      <c r="G248" s="35" t="s">
         <v>330</v>
       </c>
       <c r="H248" s="6" t="s">
@@ -14774,25 +15199,25 @@
       <c r="A249" s="5">
         <v>248</v>
       </c>
-      <c r="B249" s="36">
+      <c r="B249" s="5">
         <v>37</v>
       </c>
-      <c r="C249" s="36">
-        <v>1</v>
-      </c>
-      <c r="D249" s="36">
-        <v>1</v>
-      </c>
-      <c r="E249" s="36">
+      <c r="C249" s="5">
+        <v>1</v>
+      </c>
+      <c r="D249" s="5">
+        <v>1</v>
+      </c>
+      <c r="E249" s="5">
         <v>3000000</v>
       </c>
-      <c r="F249" s="36">
+      <c r="F249" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G249" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="H249" s="37" t="s">
+      <c r="G249" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="H249" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14800,25 +15225,25 @@
       <c r="A250" s="5">
         <v>249</v>
       </c>
-      <c r="B250" s="36">
+      <c r="B250" s="5">
         <v>37</v>
       </c>
-      <c r="C250" s="36">
+      <c r="C250" s="5">
         <v>2</v>
       </c>
-      <c r="D250" s="36">
+      <c r="D250" s="5">
         <v>2</v>
       </c>
-      <c r="E250" s="36">
+      <c r="E250" s="5">
         <v>1800000</v>
       </c>
-      <c r="F250" s="36">
+      <c r="F250" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G250" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="H250" s="37" t="s">
+      <c r="G250" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H250" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14826,25 +15251,25 @@
       <c r="A251" s="5">
         <v>250</v>
       </c>
-      <c r="B251" s="36">
+      <c r="B251" s="5">
         <v>37</v>
       </c>
-      <c r="C251" s="36">
+      <c r="C251" s="5">
         <v>3</v>
       </c>
-      <c r="D251" s="36">
+      <c r="D251" s="5">
         <v>3</v>
       </c>
-      <c r="E251" s="36">
+      <c r="E251" s="5">
         <v>900000</v>
       </c>
-      <c r="F251" s="36">
+      <c r="F251" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G251" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="H251" s="37" t="s">
+      <c r="G251" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H251" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14852,25 +15277,25 @@
       <c r="A252" s="5">
         <v>251</v>
       </c>
-      <c r="B252" s="36">
+      <c r="B252" s="5">
         <v>37</v>
       </c>
-      <c r="C252" s="36">
+      <c r="C252" s="5">
         <v>4</v>
       </c>
-      <c r="D252" s="36">
+      <c r="D252" s="5">
         <v>6</v>
       </c>
-      <c r="E252" s="36">
+      <c r="E252" s="5">
         <v>450000</v>
       </c>
-      <c r="F252" s="36">
+      <c r="F252" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G252" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="H252" s="37" t="s">
+      <c r="G252" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="H252" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14878,25 +15303,25 @@
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="36">
+      <c r="B253" s="5">
         <v>37</v>
       </c>
-      <c r="C253" s="36">
+      <c r="C253" s="5">
         <v>7</v>
       </c>
-      <c r="D253" s="36">
+      <c r="D253" s="5">
         <v>10</v>
       </c>
-      <c r="E253" s="36">
+      <c r="E253" s="5">
         <v>300000</v>
       </c>
-      <c r="F253" s="36">
+      <c r="F253" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G253" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="H253" s="37" t="s">
+      <c r="G253" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H253" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14904,25 +15329,25 @@
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="36">
+      <c r="B254" s="5">
         <v>37</v>
       </c>
-      <c r="C254" s="36">
+      <c r="C254" s="5">
         <v>11</v>
       </c>
-      <c r="D254" s="36">
+      <c r="D254" s="5">
         <v>15</v>
       </c>
-      <c r="E254" s="36">
+      <c r="E254" s="5">
         <v>180000</v>
       </c>
-      <c r="F254" s="36">
+      <c r="F254" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G254" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="H254" s="37" t="s">
+      <c r="G254" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="H254" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14930,25 +15355,25 @@
       <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="36">
+      <c r="B255" s="5">
         <v>37</v>
       </c>
-      <c r="C255" s="36">
+      <c r="C255" s="5">
         <v>16</v>
       </c>
-      <c r="D255" s="36">
+      <c r="D255" s="5">
         <v>20</v>
       </c>
-      <c r="E255" s="36">
+      <c r="E255" s="5">
         <v>90000</v>
       </c>
-      <c r="F255" s="36">
+      <c r="F255" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G255" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="H255" s="37" t="s">
+      <c r="G255" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="H255" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14956,25 +15381,25 @@
       <c r="A256" s="5">
         <v>255</v>
       </c>
-      <c r="B256" s="36">
+      <c r="B256" s="5">
         <v>38</v>
       </c>
-      <c r="C256" s="36">
-        <v>1</v>
-      </c>
-      <c r="D256" s="36">
-        <v>1</v>
-      </c>
-      <c r="E256" s="36">
+      <c r="C256" s="5">
+        <v>1</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1</v>
+      </c>
+      <c r="E256" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F256" s="36">
+      <c r="F256" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G256" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="H256" s="37" t="s">
+      <c r="G256" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="H256" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14982,25 +15407,25 @@
       <c r="A257" s="5">
         <v>256</v>
       </c>
-      <c r="B257" s="36">
+      <c r="B257" s="5">
         <v>38</v>
       </c>
-      <c r="C257" s="36">
+      <c r="C257" s="5">
         <v>2</v>
       </c>
-      <c r="D257" s="36">
+      <c r="D257" s="5">
         <v>2</v>
       </c>
-      <c r="E257" s="36">
+      <c r="E257" s="5">
         <v>900000000</v>
       </c>
-      <c r="F257" s="36">
+      <c r="F257" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G257" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="H257" s="37" t="s">
+      <c r="G257" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H257" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15008,25 +15433,25 @@
       <c r="A258" s="5">
         <v>257</v>
       </c>
-      <c r="B258" s="36">
+      <c r="B258" s="5">
         <v>38</v>
       </c>
-      <c r="C258" s="36">
+      <c r="C258" s="5">
         <v>3</v>
       </c>
-      <c r="D258" s="36">
+      <c r="D258" s="5">
         <v>3</v>
       </c>
-      <c r="E258" s="36">
+      <c r="E258" s="5">
         <v>450000000</v>
       </c>
-      <c r="F258" s="36">
+      <c r="F258" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G258" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H258" s="37" t="s">
+      <c r="G258" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="H258" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15034,25 +15459,25 @@
       <c r="A259" s="5">
         <v>258</v>
       </c>
-      <c r="B259" s="36">
+      <c r="B259" s="5">
         <v>38</v>
       </c>
-      <c r="C259" s="36">
+      <c r="C259" s="5">
         <v>4</v>
       </c>
-      <c r="D259" s="36">
+      <c r="D259" s="5">
         <v>6</v>
       </c>
-      <c r="E259" s="36">
+      <c r="E259" s="5">
         <v>220000000</v>
       </c>
-      <c r="F259" s="36">
+      <c r="F259" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G259" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="H259" s="37" t="s">
+      <c r="G259" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H259" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15060,25 +15485,25 @@
       <c r="A260" s="5">
         <v>259</v>
       </c>
-      <c r="B260" s="36">
+      <c r="B260" s="5">
         <v>38</v>
       </c>
-      <c r="C260" s="36">
+      <c r="C260" s="5">
         <v>7</v>
       </c>
-      <c r="D260" s="36">
+      <c r="D260" s="5">
         <v>10</v>
       </c>
-      <c r="E260" s="36">
+      <c r="E260" s="5">
         <v>146000000</v>
       </c>
-      <c r="F260" s="36">
+      <c r="F260" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G260" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="H260" s="37" t="s">
+      <c r="G260" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="H260" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15086,25 +15511,25 @@
       <c r="A261" s="5">
         <v>260</v>
       </c>
-      <c r="B261" s="36">
+      <c r="B261" s="5">
         <v>38</v>
       </c>
-      <c r="C261" s="36">
+      <c r="C261" s="5">
         <v>11</v>
       </c>
-      <c r="D261" s="36">
+      <c r="D261" s="5">
         <v>15</v>
       </c>
-      <c r="E261" s="36">
+      <c r="E261" s="5">
         <v>88000000</v>
       </c>
-      <c r="F261" s="36">
+      <c r="F261" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G261" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="H261" s="37" t="s">
+      <c r="G261" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="H261" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15112,25 +15537,25 @@
       <c r="A262" s="5">
         <v>261</v>
       </c>
-      <c r="B262" s="36">
+      <c r="B262" s="5">
         <v>38</v>
       </c>
-      <c r="C262" s="36">
+      <c r="C262" s="5">
         <v>16</v>
       </c>
-      <c r="D262" s="36">
+      <c r="D262" s="5">
         <v>20</v>
       </c>
-      <c r="E262" s="36">
+      <c r="E262" s="5">
         <v>45000000</v>
       </c>
-      <c r="F262" s="36">
+      <c r="F262" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G262" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="H262" s="37" t="s">
+      <c r="G262" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="H262" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15138,21 +15563,21 @@
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="36">
+      <c r="B263" s="5">
         <v>39</v>
       </c>
-      <c r="C263" s="36">
-        <v>1</v>
-      </c>
-      <c r="D263" s="36">
-        <v>1</v>
-      </c>
-      <c r="E263" s="36"/>
-      <c r="F263" s="36"/>
-      <c r="G263" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="H263" s="37" t="s">
+      <c r="C263" s="5">
+        <v>1</v>
+      </c>
+      <c r="D263" s="5">
+        <v>1</v>
+      </c>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H263" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15160,21 +15585,21 @@
       <c r="A264" s="5">
         <v>263</v>
       </c>
-      <c r="B264" s="36">
+      <c r="B264" s="5">
         <v>39</v>
       </c>
-      <c r="C264" s="36">
+      <c r="C264" s="5">
         <v>2</v>
       </c>
-      <c r="D264" s="36">
+      <c r="D264" s="5">
         <v>2</v>
       </c>
-      <c r="E264" s="36"/>
-      <c r="F264" s="36"/>
-      <c r="G264" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="H264" s="37" t="s">
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H264" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15182,21 +15607,21 @@
       <c r="A265" s="5">
         <v>264</v>
       </c>
-      <c r="B265" s="36">
+      <c r="B265" s="5">
         <v>39</v>
       </c>
-      <c r="C265" s="36">
+      <c r="C265" s="5">
         <v>3</v>
       </c>
-      <c r="D265" s="36">
+      <c r="D265" s="5">
         <v>3</v>
       </c>
-      <c r="E265" s="36"/>
-      <c r="F265" s="36"/>
-      <c r="G265" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="H265" s="37" t="s">
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H265" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15204,21 +15629,21 @@
       <c r="A266" s="5">
         <v>265</v>
       </c>
-      <c r="B266" s="36">
+      <c r="B266" s="5">
         <v>39</v>
       </c>
-      <c r="C266" s="36">
+      <c r="C266" s="5">
         <v>4</v>
       </c>
-      <c r="D266" s="36">
+      <c r="D266" s="5">
         <v>10</v>
       </c>
-      <c r="E266" s="36"/>
-      <c r="F266" s="36"/>
-      <c r="G266" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="H266" s="37" t="s">
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="H266" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15226,22 +15651,386 @@
       <c r="A267" s="5">
         <v>266</v>
       </c>
-      <c r="B267" s="36">
+      <c r="B267" s="5">
         <v>39</v>
       </c>
-      <c r="C267" s="36">
+      <c r="C267" s="5">
         <v>11</v>
       </c>
-      <c r="D267" s="36">
+      <c r="D267" s="5">
         <v>20</v>
       </c>
-      <c r="E267" s="36"/>
-      <c r="F267" s="36"/>
-      <c r="G267" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="H267" s="37" t="s">
-        <v>122</v>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="36">
+        <v>267</v>
+      </c>
+      <c r="B268" s="36">
+        <v>40</v>
+      </c>
+      <c r="C268" s="36">
+        <v>1</v>
+      </c>
+      <c r="D268" s="36">
+        <v>1</v>
+      </c>
+      <c r="E268" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F268" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G268" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="H268" s="37" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="36">
+        <v>268</v>
+      </c>
+      <c r="B269" s="36">
+        <v>40</v>
+      </c>
+      <c r="C269" s="36">
+        <v>2</v>
+      </c>
+      <c r="D269" s="36">
+        <v>2</v>
+      </c>
+      <c r="E269" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F269" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G269" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="H269" s="37" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="36">
+        <v>269</v>
+      </c>
+      <c r="B270" s="36">
+        <v>40</v>
+      </c>
+      <c r="C270" s="36">
+        <v>3</v>
+      </c>
+      <c r="D270" s="36">
+        <v>3</v>
+      </c>
+      <c r="E270" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F270" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G270" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="H270" s="37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="36">
+        <v>270</v>
+      </c>
+      <c r="B271" s="36">
+        <v>40</v>
+      </c>
+      <c r="C271" s="36">
+        <v>4</v>
+      </c>
+      <c r="D271" s="36">
+        <v>6</v>
+      </c>
+      <c r="E271" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F271" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G271" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="H271" s="37" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="36">
+        <v>271</v>
+      </c>
+      <c r="B272" s="36">
+        <v>40</v>
+      </c>
+      <c r="C272" s="36">
+        <v>7</v>
+      </c>
+      <c r="D272" s="36">
+        <v>10</v>
+      </c>
+      <c r="E272" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F272" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G272" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="H272" s="37" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="36">
+        <v>272</v>
+      </c>
+      <c r="B273" s="36">
+        <v>40</v>
+      </c>
+      <c r="C273" s="36">
+        <v>11</v>
+      </c>
+      <c r="D273" s="36">
+        <v>15</v>
+      </c>
+      <c r="E273" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F273" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G273" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="H273" s="37" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="36">
+        <v>273</v>
+      </c>
+      <c r="B274" s="36">
+        <v>40</v>
+      </c>
+      <c r="C274" s="36">
+        <v>16</v>
+      </c>
+      <c r="D274" s="36">
+        <v>20</v>
+      </c>
+      <c r="E274" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F274" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G274" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="H274" s="37" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="36">
+        <v>274</v>
+      </c>
+      <c r="B275" s="36">
+        <v>41</v>
+      </c>
+      <c r="C275" s="36">
+        <v>1</v>
+      </c>
+      <c r="D275" s="36">
+        <v>1</v>
+      </c>
+      <c r="E275" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F275" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G275" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="H275" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="36">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36">
+        <v>41</v>
+      </c>
+      <c r="C276" s="36">
+        <v>2</v>
+      </c>
+      <c r="D276" s="36">
+        <v>2</v>
+      </c>
+      <c r="E276" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F276" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G276" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="H276" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="36">
+        <v>276</v>
+      </c>
+      <c r="B277" s="36">
+        <v>41</v>
+      </c>
+      <c r="C277" s="36">
+        <v>3</v>
+      </c>
+      <c r="D277" s="36">
+        <v>3</v>
+      </c>
+      <c r="E277" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F277" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G277" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="H277" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="36">
+        <v>277</v>
+      </c>
+      <c r="B278" s="36">
+        <v>41</v>
+      </c>
+      <c r="C278" s="36">
+        <v>4</v>
+      </c>
+      <c r="D278" s="36">
+        <v>6</v>
+      </c>
+      <c r="E278" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F278" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G278" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="H278" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="36">
+        <v>278</v>
+      </c>
+      <c r="B279" s="36">
+        <v>41</v>
+      </c>
+      <c r="C279" s="36">
+        <v>7</v>
+      </c>
+      <c r="D279" s="36">
+        <v>10</v>
+      </c>
+      <c r="E279" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F279" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G279" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="H279" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="36">
+        <v>279</v>
+      </c>
+      <c r="B280" s="36">
+        <v>41</v>
+      </c>
+      <c r="C280" s="36">
+        <v>11</v>
+      </c>
+      <c r="D280" s="36">
+        <v>15</v>
+      </c>
+      <c r="E280" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F280" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G280" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="H280" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="36">
+        <v>280</v>
+      </c>
+      <c r="B281" s="36">
+        <v>41</v>
+      </c>
+      <c r="C281" s="36">
+        <v>16</v>
+      </c>
+      <c r="D281" s="36">
+        <v>20</v>
+      </c>
+      <c r="E281" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F281" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G281" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="H281" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -15253,11 +16042,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B294" sqref="B294:F298"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20535,7 +21324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -20555,663 +21344,1223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>265</v>
       </c>
-      <c r="B266" s="36">
+      <c r="B266" s="5">
         <v>261</v>
       </c>
-      <c r="C266" s="34" t="s">
+      <c r="C266" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D266" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E266" s="36">
+      <c r="D266" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E266" s="5">
         <v>50000</v>
       </c>
-      <c r="F266" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F266" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>266</v>
       </c>
-      <c r="B267" s="36">
+      <c r="B267" s="5">
         <v>262</v>
       </c>
-      <c r="C267" s="34" t="s">
+      <c r="C267" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D267" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E267" s="36">
+      <c r="D267" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E267" s="5">
         <v>15000</v>
       </c>
-      <c r="F267" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F267" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>267</v>
       </c>
-      <c r="B268" s="36">
+      <c r="B268" s="5">
         <v>263</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D268" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E268" s="36">
+      <c r="D268" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E268" s="5">
         <v>5000</v>
       </c>
-      <c r="F268" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F268" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>268</v>
       </c>
-      <c r="B269" s="36">
+      <c r="B269" s="5">
         <v>264</v>
       </c>
-      <c r="C269" s="34" t="s">
+      <c r="C269" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D269" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E269" s="36">
+      <c r="D269" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E269" s="5">
         <v>1500</v>
       </c>
-      <c r="F269" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F269" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>269</v>
       </c>
-      <c r="B270" s="36">
+      <c r="B270" s="5">
         <v>265</v>
       </c>
-      <c r="C270" s="34" t="s">
+      <c r="C270" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D270" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E270" s="36">
+      <c r="D270" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E270" s="5">
         <v>1000</v>
       </c>
-      <c r="F270" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F270" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>270</v>
       </c>
-      <c r="B271" s="36">
+      <c r="B271" s="5">
         <v>266</v>
       </c>
-      <c r="C271" s="34" t="s">
+      <c r="C271" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D271" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E271" s="36">
+      <c r="D271" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E271" s="5">
         <v>500</v>
       </c>
-      <c r="F271" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>271</v>
       </c>
-      <c r="B272" s="36">
+      <c r="B272" s="5">
         <v>267</v>
       </c>
-      <c r="C272" s="34" t="s">
+      <c r="C272" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D272" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E272" s="36">
+      <c r="D272" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E272" s="5">
         <v>240</v>
       </c>
-      <c r="F272" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F272" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>272</v>
       </c>
-      <c r="B273" s="36">
+      <c r="B273" s="5">
         <v>268</v>
       </c>
-      <c r="C273" s="34" t="s">
+      <c r="C273" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D273" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E273" s="36">
+      <c r="D273" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E273" s="5">
         <v>50000</v>
       </c>
-      <c r="F273" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F273" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>273</v>
       </c>
-      <c r="B274" s="36">
+      <c r="B274" s="5">
         <v>269</v>
       </c>
-      <c r="C274" s="34" t="s">
+      <c r="C274" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D274" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E274" s="36">
+      <c r="D274" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E274" s="5">
         <v>15000</v>
       </c>
-      <c r="F274" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F274" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
-      <c r="B275" s="36">
+      <c r="B275" s="5">
         <v>270</v>
       </c>
-      <c r="C275" s="34" t="s">
+      <c r="C275" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D275" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E275" s="36">
+      <c r="D275" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E275" s="5">
         <v>5000</v>
       </c>
-      <c r="F275" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F275" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
-      <c r="B276" s="36">
+      <c r="B276" s="5">
         <v>271</v>
       </c>
-      <c r="C276" s="34" t="s">
+      <c r="C276" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D276" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E276" s="36">
+      <c r="D276" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E276" s="5">
         <v>1500</v>
       </c>
-      <c r="F276" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F276" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
-      <c r="B277" s="36">
+      <c r="B277" s="5">
         <v>272</v>
       </c>
-      <c r="C277" s="34" t="s">
+      <c r="C277" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D277" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E277" s="36">
+      <c r="D277" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E277" s="5">
         <v>1000</v>
       </c>
-      <c r="F277" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F277" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
-      <c r="B278" s="36">
+      <c r="B278" s="5">
         <v>273</v>
       </c>
-      <c r="C278" s="34" t="s">
+      <c r="C278" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D278" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E278" s="36">
+      <c r="D278" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E278" s="5">
         <v>500</v>
       </c>
-      <c r="F278" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F278" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
-      <c r="B279" s="36">
+      <c r="B279" s="5">
         <v>274</v>
       </c>
-      <c r="C279" s="34" t="s">
+      <c r="C279" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D279" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E279" s="36">
+      <c r="D279" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E279" s="5">
         <v>240</v>
       </c>
-      <c r="F279" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F279" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
-      <c r="B280" s="36">
+      <c r="B280" s="5">
         <v>275</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D280" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E280" s="36">
+      <c r="D280" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E280" s="5">
         <v>50000</v>
       </c>
-      <c r="F280" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F280" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
-      <c r="B281" s="36">
+      <c r="B281" s="5">
         <v>276</v>
       </c>
-      <c r="C281" s="34" t="s">
+      <c r="C281" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D281" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E281" s="36">
+      <c r="D281" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E281" s="5">
         <v>15000</v>
       </c>
-      <c r="F281" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F281" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
-      <c r="B282" s="36">
+      <c r="B282" s="5">
         <v>277</v>
       </c>
-      <c r="C282" s="34" t="s">
+      <c r="C282" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D282" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E282" s="36">
+      <c r="D282" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E282" s="5">
         <v>5000</v>
       </c>
-      <c r="F282" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
-      <c r="B283" s="36">
+      <c r="B283" s="5">
         <v>278</v>
       </c>
-      <c r="C283" s="34" t="s">
+      <c r="C283" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D283" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E283" s="36">
+      <c r="D283" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E283" s="5">
         <v>1500</v>
       </c>
-      <c r="F283" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F283" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
-      <c r="B284" s="36">
+      <c r="B284" s="5">
         <v>279</v>
       </c>
-      <c r="C284" s="34" t="s">
+      <c r="C284" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D284" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E284" s="36">
+      <c r="D284" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E284" s="5">
         <v>1000</v>
       </c>
-      <c r="F284" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F284" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
-      <c r="B285" s="36">
+      <c r="B285" s="5">
         <v>280</v>
       </c>
-      <c r="C285" s="34" t="s">
+      <c r="C285" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D285" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E285" s="36">
+      <c r="D285" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E285" s="5">
         <v>500</v>
       </c>
-      <c r="F285" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F285" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
-      <c r="B286" s="36">
+      <c r="B286" s="5">
         <v>281</v>
       </c>
-      <c r="C286" s="34" t="s">
+      <c r="C286" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D286" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E286" s="36">
+      <c r="D286" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E286" s="5">
         <v>240</v>
       </c>
-      <c r="F286" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F286" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
-      <c r="B287" s="36">
+      <c r="B287" s="5">
         <v>282</v>
       </c>
-      <c r="C287" s="34" t="s">
+      <c r="C287" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D287" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E287" s="36">
+      <c r="D287" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E287" s="5">
         <v>50000</v>
       </c>
-      <c r="F287" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F287" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
-      <c r="B288" s="36">
+      <c r="B288" s="5">
         <v>283</v>
       </c>
-      <c r="C288" s="34" t="s">
+      <c r="C288" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D288" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E288" s="36">
+      <c r="D288" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E288" s="5">
         <v>15000</v>
       </c>
-      <c r="F288" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F288" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>288</v>
       </c>
-      <c r="B289" s="36">
+      <c r="B289" s="5">
         <v>284</v>
       </c>
-      <c r="C289" s="34" t="s">
+      <c r="C289" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D289" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E289" s="36">
+      <c r="D289" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E289" s="5">
         <v>5000</v>
       </c>
-      <c r="F289" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F289" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>289</v>
       </c>
-      <c r="B290" s="36">
+      <c r="B290" s="5">
         <v>285</v>
       </c>
-      <c r="C290" s="34" t="s">
+      <c r="C290" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D290" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E290" s="36">
+      <c r="D290" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E290" s="5">
         <v>1500</v>
       </c>
-      <c r="F290" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F290" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="B291" s="36">
+      <c r="B291" s="5">
         <v>286</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="C291" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D291" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E291" s="36">
+      <c r="D291" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E291" s="5">
         <v>1000</v>
       </c>
-      <c r="F291" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>291</v>
       </c>
-      <c r="B292" s="36">
+      <c r="B292" s="5">
         <v>287</v>
       </c>
-      <c r="C292" s="34" t="s">
+      <c r="C292" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D292" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E292" s="36">
+      <c r="D292" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E292" s="5">
         <v>500</v>
       </c>
-      <c r="F292" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F292" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="36">
+      <c r="B293" s="5">
         <v>288</v>
       </c>
-      <c r="C293" s="34" t="s">
+      <c r="C293" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D293" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E293" s="36">
+      <c r="D293" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E293" s="5">
         <v>240</v>
       </c>
-      <c r="F293" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>293</v>
       </c>
-      <c r="B294" s="36">
+      <c r="B294" s="5">
         <v>289</v>
       </c>
-      <c r="C294" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="D294" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E294" s="36">
+      <c r="C294" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E294" s="5">
         <v>25000</v>
       </c>
-      <c r="F294" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F294" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="36">
+      <c r="B295" s="5">
         <v>290</v>
       </c>
-      <c r="C295" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D295" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E295" s="36">
+      <c r="C295" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E295" s="5">
         <v>15000</v>
       </c>
-      <c r="F295" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F295" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>295</v>
       </c>
-      <c r="B296" s="36">
+      <c r="B296" s="5">
         <v>291</v>
       </c>
-      <c r="C296" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="D296" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E296" s="36">
+      <c r="C296" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E296" s="5">
         <v>5000</v>
       </c>
-      <c r="F296" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F296" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>296</v>
       </c>
-      <c r="B297" s="36">
+      <c r="B297" s="5">
         <v>292</v>
       </c>
-      <c r="C297" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="D297" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E297" s="36">
+      <c r="C297" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D297" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E297" s="5">
         <v>2500</v>
       </c>
-      <c r="F297" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>297</v>
       </c>
-      <c r="B298" s="36">
+      <c r="B298" s="5">
         <v>293</v>
       </c>
-      <c r="C298" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D298" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E298" s="36">
+      <c r="C298" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E298" s="5">
         <v>1500</v>
       </c>
-      <c r="F298" s="36">
+      <c r="F298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="36">
+        <v>298</v>
+      </c>
+      <c r="B299" s="36">
+        <v>294</v>
+      </c>
+      <c r="C299" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D299" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E299" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F299" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="36">
+        <v>299</v>
+      </c>
+      <c r="B300" s="36">
+        <v>295</v>
+      </c>
+      <c r="C300" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D300" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E300" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F300" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="36">
+        <v>300</v>
+      </c>
+      <c r="B301" s="36">
+        <v>296</v>
+      </c>
+      <c r="C301" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D301" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E301" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F301" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="36">
+        <v>301</v>
+      </c>
+      <c r="B302" s="36">
+        <v>297</v>
+      </c>
+      <c r="C302" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D302" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E302" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F302" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="36">
+        <v>302</v>
+      </c>
+      <c r="B303" s="36">
+        <v>298</v>
+      </c>
+      <c r="C303" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D303" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E303" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F303" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="36">
+        <v>303</v>
+      </c>
+      <c r="B304" s="36">
+        <v>299</v>
+      </c>
+      <c r="C304" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D304" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E304" s="36">
+        <v>500</v>
+      </c>
+      <c r="F304" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="36">
+        <v>304</v>
+      </c>
+      <c r="B305" s="36">
+        <v>300</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D305" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E305" s="36">
+        <v>240</v>
+      </c>
+      <c r="F305" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="36">
+        <v>305</v>
+      </c>
+      <c r="B306" s="36">
+        <v>301</v>
+      </c>
+      <c r="C306" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D306" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E306" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F306" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="36">
+        <v>306</v>
+      </c>
+      <c r="B307" s="36">
+        <v>302</v>
+      </c>
+      <c r="C307" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D307" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E307" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F307" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="36">
+        <v>307</v>
+      </c>
+      <c r="B308" s="36">
+        <v>303</v>
+      </c>
+      <c r="C308" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D308" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E308" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F308" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="36">
+        <v>308</v>
+      </c>
+      <c r="B309" s="36">
+        <v>304</v>
+      </c>
+      <c r="C309" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D309" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E309" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F309" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="36">
+        <v>309</v>
+      </c>
+      <c r="B310" s="36">
+        <v>305</v>
+      </c>
+      <c r="C310" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D310" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E310" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F310" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="36">
+        <v>310</v>
+      </c>
+      <c r="B311" s="36">
+        <v>306</v>
+      </c>
+      <c r="C311" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D311" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E311" s="36">
+        <v>500</v>
+      </c>
+      <c r="F311" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="36">
+        <v>311</v>
+      </c>
+      <c r="B312" s="36">
+        <v>307</v>
+      </c>
+      <c r="C312" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D312" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E312" s="36">
+        <v>240</v>
+      </c>
+      <c r="F312" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="36">
+        <v>312</v>
+      </c>
+      <c r="B313" s="36">
+        <v>308</v>
+      </c>
+      <c r="C313" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D313" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E313" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="36">
+        <v>313</v>
+      </c>
+      <c r="B314" s="36">
+        <v>309</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D314" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E314" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="36">
+        <v>314</v>
+      </c>
+      <c r="B315" s="36">
+        <v>310</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D315" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="36">
+        <v>315</v>
+      </c>
+      <c r="B316" s="36">
+        <v>311</v>
+      </c>
+      <c r="C316" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D316" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E316" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="36">
+        <v>316</v>
+      </c>
+      <c r="B317" s="36">
+        <v>312</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D317" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E317" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="36">
+        <v>317</v>
+      </c>
+      <c r="B318" s="36">
+        <v>313</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D318" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E318" s="36">
+        <v>500</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="36">
+        <v>318</v>
+      </c>
+      <c r="B319" s="36">
+        <v>314</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D319" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E319" s="36">
+        <v>240</v>
+      </c>
+      <c r="F319" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="36">
+        <v>319</v>
+      </c>
+      <c r="B320" s="36">
+        <v>315</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D320" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E320" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F320" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="36">
+        <v>320</v>
+      </c>
+      <c r="B321" s="36">
+        <v>316</v>
+      </c>
+      <c r="C321" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D321" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E321" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F321" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="36">
+        <v>321</v>
+      </c>
+      <c r="B322" s="36">
+        <v>317</v>
+      </c>
+      <c r="C322" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D322" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E322" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F322" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="36">
+        <v>322</v>
+      </c>
+      <c r="B323" s="36">
+        <v>318</v>
+      </c>
+      <c r="C323" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D323" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F323" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="36">
+        <v>323</v>
+      </c>
+      <c r="B324" s="36">
+        <v>319</v>
+      </c>
+      <c r="C324" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D324" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E324" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F324" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="36">
+        <v>324</v>
+      </c>
+      <c r="B325" s="36">
+        <v>320</v>
+      </c>
+      <c r="C325" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D325" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E325" s="36">
+        <v>500</v>
+      </c>
+      <c r="F325" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="36">
+        <v>325</v>
+      </c>
+      <c r="B326" s="36">
+        <v>321</v>
+      </c>
+      <c r="C326" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D326" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E326" s="36">
+        <v>240</v>
+      </c>
+      <c r="F326" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3055,7 +3055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46:I47"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4538,7 +4538,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>348</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -3054,8 +3054,8 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3631,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>208</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="632">
   <si>
     <t>id|</t>
   </si>
@@ -2430,11 +2430,119 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>fix_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>294,301,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>295,302,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>296,303,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>297,304,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>298,305,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>299,306,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,307,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_008_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>308,315,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>309,316,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>310,317,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>311,318,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>312,319,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>313,320,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>314,321,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气达人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>nor_add</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>fix_time</t>
+    <t>nor_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2454,75 +2562,155 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>40000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>800福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>400福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>322,329,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>323,330,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>324,331,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>325,332,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>326,332,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>327,333,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>328,334,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xxlzb_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rank</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>294,301,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>295,302,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>296,303,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>297,304,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>298,305,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>299,306,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,307,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_007_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_008_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>308,315,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>309,316,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>310,317,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>311,318,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>312,319,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>313,320,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>314,321,</t>
+    <t>335,342,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>336,343,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>337,344,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>338,345,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>339,345,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>340,346,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>341,347,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijixiaohao_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3051,11 +3239,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4506,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>264</v>
@@ -4538,7 +4726,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>348</v>
@@ -4565,74 +4753,176 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
+    <row r="43" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="26">
         <v>1617062400</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="26">
         <v>1617638399</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="38">
+      <c r="G43" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="I43" s="26">
         <v>41</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="26">
         <v>42</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="26">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
+    <row r="44" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="E44" s="38">
+      <c r="E44" s="26">
         <v>1617062400</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="26">
         <v>1617638399</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="26">
         <v>42</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="26">
         <v>43</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="26">
         <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38">
+        <v>44</v>
+      </c>
+      <c r="B45" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1617667200</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1618243199</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="K45" s="38">
+        <v>44</v>
+      </c>
+      <c r="L45" s="38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38">
+        <v>45</v>
+      </c>
+      <c r="B46" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1617667200</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1618243199</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I46" s="38">
+        <v>43</v>
+      </c>
+      <c r="K46" s="38">
+        <v>45</v>
+      </c>
+      <c r="L46" s="38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="E47" s="26">
+        <v>1604246400</v>
+      </c>
+      <c r="F47" s="26">
+        <v>2555555555</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="26">
+        <v>44</v>
+      </c>
+      <c r="K47" s="26">
+        <v>46</v>
+      </c>
+      <c r="L47" s="26">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4644,11 +4934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5905,88 +6195,167 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="36">
+    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="5">
         <v>41</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D89" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="36">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="36">
+      <c r="B90" s="5">
         <v>41</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D90" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="5">
         <v>42</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="36">
+      <c r="D91" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="36">
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="5">
         <v>42</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="36">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="5">
         <v>42</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D93" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="36">
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="5">
         <v>42</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="5">
         <v>44</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="36">
+        <v>94</v>
+      </c>
+      <c r="B95" s="36">
+        <v>43</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="36">
+        <v>95</v>
+      </c>
+      <c r="B96" s="36">
+        <v>43</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="36">
+        <v>96</v>
+      </c>
+      <c r="B97" s="36">
+        <v>43</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="36">
+        <v>97</v>
+      </c>
+      <c r="B98" s="36">
+        <v>43</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5998,10 +6367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B70"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7135,71 +7504,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="5">
         <v>43</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="5">
         <v>9</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="36">
+    <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="5">
         <v>43</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="36">
+    <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="5">
         <v>44</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="5">
         <v>240000</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="36">
+    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="5">
         <v>44</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="5">
         <v>500</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36">
+        <v>45</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E71" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36">
+        <v>45</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="36">
+        <v>500</v>
+      </c>
+      <c r="E72" s="36">
         <v>3</v>
       </c>
     </row>
@@ -7310,11 +7713,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8295,26 +8698,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="36">
-        <v>1</v>
-      </c>
-      <c r="C43" s="36">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
         <v>20</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="5">
         <v>100</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="5">
         <v>20</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="5">
         <v>180</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="5">
         <v>10</v>
       </c>
     </row>
@@ -8338,6 +8741,75 @@
         <v>180</v>
       </c>
       <c r="G44" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36">
+        <v>1</v>
+      </c>
+      <c r="C45" s="36">
+        <v>20</v>
+      </c>
+      <c r="D45" s="36">
+        <v>100</v>
+      </c>
+      <c r="E45" s="36">
+        <v>20</v>
+      </c>
+      <c r="F45" s="36">
+        <v>180</v>
+      </c>
+      <c r="G45" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36">
+        <v>1</v>
+      </c>
+      <c r="C46" s="36">
+        <v>20</v>
+      </c>
+      <c r="D46" s="36">
+        <v>100</v>
+      </c>
+      <c r="E46" s="36">
+        <v>20</v>
+      </c>
+      <c r="F46" s="36">
+        <v>180</v>
+      </c>
+      <c r="G46" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>180</v>
+      </c>
+      <c r="G47" s="2">
         <v>10</v>
       </c>
     </row>
@@ -8349,11 +8821,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8922,17 +9394,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="5">
         <v>44</v>
       </c>
-      <c r="C41" s="36">
-        <v>1</v>
-      </c>
-      <c r="D41" s="36">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>40</v>
       </c>
     </row>
@@ -8948,6 +9420,48 @@
       </c>
       <c r="D42" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36">
+        <v>46</v>
+      </c>
+      <c r="C43" s="36">
+        <v>1</v>
+      </c>
+      <c r="D43" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36">
+        <v>47</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8959,11 +9473,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9484,26 +9998,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="C45" s="36">
+      <c r="B45" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="5">
         <v>1617638399</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="5">
         <v>1617638399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="36">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="36">
+        <v>1618243199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="36">
+        <v>1618243199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9514,11 +10061,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I277" sqref="I277"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282:H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15403,7 +15950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -15429,7 +15976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -15455,7 +16002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -15481,7 +16028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -15507,7 +16054,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -15533,7 +16080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -15559,7 +16106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -15581,7 +16128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -15603,7 +16150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -15625,7 +16172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -15647,7 +16194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -15669,368 +16216,746 @@
         <v>122</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="36">
+    <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
         <v>267</v>
       </c>
-      <c r="B268" s="36">
+      <c r="B268" s="5">
         <v>40</v>
       </c>
-      <c r="C268" s="36">
-        <v>1</v>
-      </c>
-      <c r="D268" s="36">
-        <v>1</v>
-      </c>
-      <c r="E268" s="36">
+      <c r="C268" s="5">
+        <v>1</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1</v>
+      </c>
+      <c r="E268" s="5">
         <v>3000000</v>
       </c>
-      <c r="F268" s="36">
+      <c r="F268" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G268" s="37" t="s">
+      <c r="G268" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H268" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I268" s="5"/>
+    </row>
+    <row r="269" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5">
+        <v>40</v>
+      </c>
+      <c r="C269" s="5">
+        <v>2</v>
+      </c>
+      <c r="D269" s="5">
+        <v>2</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="F269" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G269" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="H268" s="37" t="s">
+      <c r="H269" s="20" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="36">
-        <v>268</v>
-      </c>
-      <c r="B269" s="36">
+      <c r="I269" s="5"/>
+    </row>
+    <row r="270" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5">
         <v>40</v>
       </c>
-      <c r="C269" s="36">
+      <c r="C270" s="5">
+        <v>3</v>
+      </c>
+      <c r="D270" s="5">
+        <v>3</v>
+      </c>
+      <c r="E270" s="5">
+        <v>900000</v>
+      </c>
+      <c r="F270" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G270" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="H270" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5">
+        <v>40</v>
+      </c>
+      <c r="C271" s="5">
+        <v>4</v>
+      </c>
+      <c r="D271" s="5">
+        <v>6</v>
+      </c>
+      <c r="E271" s="5">
+        <v>450000</v>
+      </c>
+      <c r="F271" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5">
+        <v>40</v>
+      </c>
+      <c r="C272" s="5">
+        <v>7</v>
+      </c>
+      <c r="D272" s="5">
+        <v>10</v>
+      </c>
+      <c r="E272" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F272" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G272" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="H272" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I272" s="5"/>
+    </row>
+    <row r="273" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5">
+        <v>40</v>
+      </c>
+      <c r="C273" s="5">
+        <v>11</v>
+      </c>
+      <c r="D273" s="5">
+        <v>15</v>
+      </c>
+      <c r="E273" s="5">
+        <v>180000</v>
+      </c>
+      <c r="F273" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G273" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="H273" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="I273" s="5"/>
+    </row>
+    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5">
+        <v>40</v>
+      </c>
+      <c r="C274" s="5">
+        <v>16</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20</v>
+      </c>
+      <c r="E274" s="5">
+        <v>90000</v>
+      </c>
+      <c r="F274" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G274" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="H274" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I274" s="5"/>
+    </row>
+    <row r="275" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5">
+        <v>41</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1</v>
+      </c>
+      <c r="E275" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="F275" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I275" s="5"/>
+    </row>
+    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5">
+        <v>41</v>
+      </c>
+      <c r="C276" s="5">
         <v>2</v>
       </c>
-      <c r="D269" s="36">
+      <c r="D276" s="5">
         <v>2</v>
       </c>
-      <c r="E269" s="36">
-        <v>1800000</v>
-      </c>
-      <c r="F269" s="36">
+      <c r="E276" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="F276" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G269" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="36">
-        <v>269</v>
-      </c>
-      <c r="B270" s="36">
-        <v>40</v>
-      </c>
-      <c r="C270" s="36">
+      <c r="G276" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="H276" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I276" s="5"/>
+    </row>
+    <row r="277" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5">
+        <v>41</v>
+      </c>
+      <c r="C277" s="5">
         <v>3</v>
       </c>
-      <c r="D270" s="36">
+      <c r="D277" s="5">
         <v>3</v>
       </c>
-      <c r="E270" s="36">
-        <v>900000</v>
-      </c>
-      <c r="F270" s="36">
+      <c r="E277" s="5">
+        <v>450000000</v>
+      </c>
+      <c r="F277" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G270" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="H270" s="37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="36">
-        <v>270</v>
-      </c>
-      <c r="B271" s="36">
-        <v>40</v>
-      </c>
-      <c r="C271" s="36">
+      <c r="G277" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="H277" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I277" s="5"/>
+    </row>
+    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5">
+        <v>41</v>
+      </c>
+      <c r="C278" s="5">
         <v>4</v>
       </c>
-      <c r="D271" s="36">
+      <c r="D278" s="5">
         <v>6</v>
       </c>
-      <c r="E271" s="36">
-        <v>450000</v>
-      </c>
-      <c r="F271" s="36">
+      <c r="E278" s="5">
+        <v>220000000</v>
+      </c>
+      <c r="F278" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G271" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="H271" s="37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="36">
-        <v>271</v>
-      </c>
-      <c r="B272" s="36">
-        <v>40</v>
-      </c>
-      <c r="C272" s="36">
+      <c r="G278" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="H278" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I278" s="5"/>
+    </row>
+    <row r="279" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5">
+        <v>41</v>
+      </c>
+      <c r="C279" s="5">
         <v>7</v>
       </c>
-      <c r="D272" s="36">
+      <c r="D279" s="5">
         <v>10</v>
       </c>
-      <c r="E272" s="36">
-        <v>300000</v>
-      </c>
-      <c r="F272" s="36">
+      <c r="E279" s="5">
+        <v>146000000</v>
+      </c>
+      <c r="F279" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G272" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="36">
-        <v>272</v>
-      </c>
-      <c r="B273" s="36">
-        <v>40</v>
-      </c>
-      <c r="C273" s="36">
+      <c r="G279" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I279" s="5"/>
+    </row>
+    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5">
+        <v>41</v>
+      </c>
+      <c r="C280" s="5">
         <v>11</v>
       </c>
-      <c r="D273" s="36">
+      <c r="D280" s="5">
         <v>15</v>
       </c>
-      <c r="E273" s="36">
-        <v>180000</v>
-      </c>
-      <c r="F273" s="36">
+      <c r="E280" s="5">
+        <v>88000000</v>
+      </c>
+      <c r="F280" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G273" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="H273" s="37" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="36">
-        <v>273</v>
-      </c>
-      <c r="B274" s="36">
-        <v>40</v>
-      </c>
-      <c r="C274" s="36">
+      <c r="G280" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="H280" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I280" s="5"/>
+    </row>
+    <row r="281" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5">
+        <v>41</v>
+      </c>
+      <c r="C281" s="5">
         <v>16</v>
       </c>
-      <c r="D274" s="36">
+      <c r="D281" s="5">
         <v>20</v>
       </c>
-      <c r="E274" s="36">
-        <v>90000</v>
-      </c>
-      <c r="F274" s="36">
+      <c r="E281" s="5">
+        <v>45000000</v>
+      </c>
+      <c r="F281" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G274" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="H274" s="37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="36">
-        <v>274</v>
-      </c>
-      <c r="B275" s="36">
-        <v>41</v>
-      </c>
-      <c r="C275" s="36">
-        <v>1</v>
-      </c>
-      <c r="D275" s="36">
-        <v>1</v>
-      </c>
-      <c r="E275" s="36">
+      <c r="G281" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="H281" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I281" s="5"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" s="36">
+        <v>281</v>
+      </c>
+      <c r="B282" s="36">
+        <v>42</v>
+      </c>
+      <c r="C282" s="36">
+        <v>1</v>
+      </c>
+      <c r="D282" s="36">
+        <v>1</v>
+      </c>
+      <c r="E282" s="36">
+        <v>100000</v>
+      </c>
+      <c r="F282" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G282" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="H282" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" s="36">
+        <v>282</v>
+      </c>
+      <c r="B283" s="36">
+        <v>42</v>
+      </c>
+      <c r="C283" s="36">
+        <v>2</v>
+      </c>
+      <c r="D283" s="36">
+        <v>2</v>
+      </c>
+      <c r="E283" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F283" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G283" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="H283" s="37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" s="36">
+        <v>283</v>
+      </c>
+      <c r="B284" s="36">
+        <v>42</v>
+      </c>
+      <c r="C284" s="36">
+        <v>3</v>
+      </c>
+      <c r="D284" s="36">
+        <v>3</v>
+      </c>
+      <c r="E284" s="36">
+        <v>30000</v>
+      </c>
+      <c r="F284" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G284" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="H284" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="36">
+        <v>284</v>
+      </c>
+      <c r="B285" s="36">
+        <v>42</v>
+      </c>
+      <c r="C285" s="36">
+        <v>4</v>
+      </c>
+      <c r="D285" s="36">
+        <v>6</v>
+      </c>
+      <c r="E285" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F285" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G285" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="H285" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="36">
+        <v>285</v>
+      </c>
+      <c r="B286" s="36">
+        <v>42</v>
+      </c>
+      <c r="C286" s="36">
+        <v>7</v>
+      </c>
+      <c r="D286" s="36">
+        <v>10</v>
+      </c>
+      <c r="E286" s="36">
+        <v>10000</v>
+      </c>
+      <c r="F286" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G286" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="H286" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="36">
+        <v>286</v>
+      </c>
+      <c r="B287" s="36">
+        <v>42</v>
+      </c>
+      <c r="C287" s="36">
+        <v>11</v>
+      </c>
+      <c r="D287" s="36">
+        <v>15</v>
+      </c>
+      <c r="E287" s="36">
+        <v>6000</v>
+      </c>
+      <c r="F287" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G287" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="H287" s="37" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" s="36">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36">
+        <v>42</v>
+      </c>
+      <c r="C288" s="36">
+        <v>16</v>
+      </c>
+      <c r="D288" s="36">
+        <v>20</v>
+      </c>
+      <c r="E288" s="36">
+        <v>3000</v>
+      </c>
+      <c r="F288" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G288" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="H288" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="36">
+        <v>288</v>
+      </c>
+      <c r="B289" s="36">
+        <v>43</v>
+      </c>
+      <c r="C289" s="36">
+        <v>1</v>
+      </c>
+      <c r="D289" s="36">
+        <v>1</v>
+      </c>
+      <c r="E289" s="36">
         <v>1500000000</v>
       </c>
-      <c r="F275" s="36">
+      <c r="F289" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G275" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="36">
-        <v>275</v>
-      </c>
-      <c r="B276" s="36">
-        <v>41</v>
-      </c>
-      <c r="C276" s="36">
+      <c r="G289" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="H289" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="36">
+        <v>289</v>
+      </c>
+      <c r="B290" s="36">
+        <v>43</v>
+      </c>
+      <c r="C290" s="36">
         <v>2</v>
       </c>
-      <c r="D276" s="36">
+      <c r="D290" s="36">
         <v>2</v>
       </c>
-      <c r="E276" s="36">
+      <c r="E290" s="36">
         <v>900000000</v>
       </c>
-      <c r="F276" s="36">
+      <c r="F290" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G276" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="H276" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="36">
-        <v>276</v>
-      </c>
-      <c r="B277" s="36">
-        <v>41</v>
-      </c>
-      <c r="C277" s="36">
+      <c r="G290" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="H290" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="36">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>43</v>
+      </c>
+      <c r="C291" s="36">
         <v>3</v>
       </c>
-      <c r="D277" s="36">
+      <c r="D291" s="36">
         <v>3</v>
       </c>
-      <c r="E277" s="36">
+      <c r="E291" s="36">
         <v>450000000</v>
       </c>
-      <c r="F277" s="36">
+      <c r="F291" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G277" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="H277" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="36">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36">
-        <v>41</v>
-      </c>
-      <c r="C278" s="36">
+      <c r="G291" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="H291" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="36">
+        <v>291</v>
+      </c>
+      <c r="B292" s="36">
+        <v>43</v>
+      </c>
+      <c r="C292" s="36">
         <v>4</v>
       </c>
-      <c r="D278" s="36">
+      <c r="D292" s="36">
         <v>6</v>
       </c>
-      <c r="E278" s="36">
+      <c r="E292" s="36">
         <v>220000000</v>
       </c>
-      <c r="F278" s="36">
+      <c r="F292" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G278" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="H278" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="36">
-        <v>278</v>
-      </c>
-      <c r="B279" s="36">
-        <v>41</v>
-      </c>
-      <c r="C279" s="36">
+      <c r="G292" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="H292" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="36">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36">
+        <v>43</v>
+      </c>
+      <c r="C293" s="36">
         <v>7</v>
       </c>
-      <c r="D279" s="36">
+      <c r="D293" s="36">
         <v>10</v>
       </c>
-      <c r="E279" s="36">
+      <c r="E293" s="36">
         <v>146000000</v>
       </c>
-      <c r="F279" s="36">
+      <c r="F293" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G279" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="H279" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="36">
-        <v>279</v>
-      </c>
-      <c r="B280" s="36">
-        <v>41</v>
-      </c>
-      <c r="C280" s="36">
+      <c r="G293" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="H293" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="36">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36">
+        <v>43</v>
+      </c>
+      <c r="C294" s="36">
         <v>11</v>
       </c>
-      <c r="D280" s="36">
+      <c r="D294" s="36">
         <v>15</v>
       </c>
-      <c r="E280" s="36">
+      <c r="E294" s="36">
         <v>88000000</v>
       </c>
-      <c r="F280" s="36">
+      <c r="F294" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G280" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="H280" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="36">
-        <v>280</v>
-      </c>
-      <c r="B281" s="36">
-        <v>41</v>
-      </c>
-      <c r="C281" s="36">
+      <c r="G294" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="H294" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="36">
+        <v>294</v>
+      </c>
+      <c r="B295" s="36">
+        <v>43</v>
+      </c>
+      <c r="C295" s="36">
         <v>16</v>
       </c>
-      <c r="D281" s="36">
+      <c r="D295" s="36">
         <v>20</v>
       </c>
-      <c r="E281" s="36">
+      <c r="E295" s="36">
         <v>45000000</v>
       </c>
-      <c r="F281" s="36">
+      <c r="F295" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G281" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="H281" s="37" t="s">
-        <v>136</v>
+      <c r="G295" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="H295" s="37" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -16042,11 +16967,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A327" sqref="A327:F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22004,563 +22929,1083 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="36">
+    <row r="299" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
         <v>298</v>
       </c>
-      <c r="B299" s="36">
+      <c r="B299" s="5">
         <v>294</v>
       </c>
-      <c r="C299" s="37" t="s">
+      <c r="C299" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D299" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E299" s="36">
+      <c r="D299" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E299" s="5">
         <v>50000</v>
       </c>
-      <c r="F299" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="36">
+      <c r="F299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
         <v>299</v>
       </c>
-      <c r="B300" s="36">
+      <c r="B300" s="5">
         <v>295</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="C300" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D300" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E300" s="36">
+      <c r="D300" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E300" s="5">
         <v>15000</v>
       </c>
-      <c r="F300" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="36">
+      <c r="F300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
         <v>300</v>
       </c>
-      <c r="B301" s="36">
+      <c r="B301" s="5">
         <v>296</v>
       </c>
-      <c r="C301" s="37" t="s">
+      <c r="C301" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D301" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E301" s="36">
+      <c r="D301" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E301" s="5">
         <v>5000</v>
       </c>
-      <c r="F301" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="36">
+      <c r="F301" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
         <v>301</v>
       </c>
-      <c r="B302" s="36">
+      <c r="B302" s="5">
         <v>297</v>
       </c>
-      <c r="C302" s="37" t="s">
+      <c r="C302" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D302" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E302" s="36">
+      <c r="D302" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E302" s="5">
         <v>1500</v>
       </c>
-      <c r="F302" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="36">
+      <c r="F302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
         <v>302</v>
       </c>
-      <c r="B303" s="36">
+      <c r="B303" s="5">
         <v>298</v>
       </c>
-      <c r="C303" s="37" t="s">
+      <c r="C303" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D303" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E303" s="36">
+      <c r="D303" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E303" s="5">
         <v>1000</v>
       </c>
-      <c r="F303" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="36">
+      <c r="F303" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
         <v>303</v>
       </c>
-      <c r="B304" s="36">
+      <c r="B304" s="5">
         <v>299</v>
       </c>
-      <c r="C304" s="37" t="s">
+      <c r="C304" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D304" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E304" s="36">
+      <c r="D304" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E304" s="5">
         <v>500</v>
       </c>
-      <c r="F304" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="36">
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
         <v>304</v>
       </c>
-      <c r="B305" s="36">
+      <c r="B305" s="5">
         <v>300</v>
       </c>
-      <c r="C305" s="37" t="s">
+      <c r="C305" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D305" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E305" s="36">
+      <c r="D305" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E305" s="5">
         <v>240</v>
       </c>
-      <c r="F305" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="36">
+      <c r="F305" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
         <v>305</v>
       </c>
-      <c r="B306" s="36">
+      <c r="B306" s="5">
         <v>301</v>
       </c>
-      <c r="C306" s="37" t="s">
+      <c r="C306" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D306" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E306" s="36">
+      <c r="D306" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E306" s="5">
         <v>50000</v>
       </c>
-      <c r="F306" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="36">
+      <c r="F306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
         <v>306</v>
       </c>
-      <c r="B307" s="36">
+      <c r="B307" s="5">
         <v>302</v>
       </c>
-      <c r="C307" s="37" t="s">
+      <c r="C307" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D307" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E307" s="36">
+      <c r="D307" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E307" s="5">
         <v>15000</v>
       </c>
-      <c r="F307" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="36">
+      <c r="F307" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
         <v>307</v>
       </c>
-      <c r="B308" s="36">
+      <c r="B308" s="5">
         <v>303</v>
       </c>
-      <c r="C308" s="37" t="s">
+      <c r="C308" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D308" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E308" s="36">
+      <c r="D308" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E308" s="5">
         <v>5000</v>
       </c>
-      <c r="F308" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="36">
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="36">
+      <c r="B309" s="5">
         <v>304</v>
       </c>
-      <c r="C309" s="37" t="s">
+      <c r="C309" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D309" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E309" s="36">
+      <c r="D309" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E309" s="5">
         <v>1500</v>
       </c>
-      <c r="F309" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="36">
+      <c r="F309" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
         <v>309</v>
       </c>
-      <c r="B310" s="36">
+      <c r="B310" s="5">
         <v>305</v>
       </c>
-      <c r="C310" s="37" t="s">
+      <c r="C310" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D310" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E310" s="36">
+      <c r="D310" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E310" s="5">
         <v>1000</v>
       </c>
-      <c r="F310" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="36">
+      <c r="F310" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="36">
+      <c r="B311" s="5">
         <v>306</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="C311" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D311" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E311" s="36">
+      <c r="D311" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E311" s="5">
         <v>500</v>
       </c>
-      <c r="F311" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="36">
+      <c r="F311" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="36">
+      <c r="B312" s="5">
         <v>307</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D312" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E312" s="36">
+      <c r="D312" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E312" s="5">
         <v>240</v>
       </c>
-      <c r="F312" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="36">
+      <c r="F312" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="36">
+      <c r="B313" s="5">
         <v>308</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D313" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E313" s="36">
+      <c r="D313" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E313" s="5">
         <v>50000</v>
       </c>
-      <c r="F313" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="36">
+      <c r="F313" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="36">
+      <c r="B314" s="5">
         <v>309</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E314" s="36">
+      <c r="D314" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E314" s="5">
         <v>15000</v>
       </c>
-      <c r="F314" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="36">
+      <c r="F314" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="36">
+      <c r="B315" s="5">
         <v>310</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D315" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E315" s="36">
+      <c r="D315" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" s="5">
         <v>5000</v>
       </c>
-      <c r="F315" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="36">
+      <c r="F315" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
         <v>315</v>
       </c>
-      <c r="B316" s="36">
+      <c r="B316" s="5">
         <v>311</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D316" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E316" s="36">
+      <c r="D316" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E316" s="5">
         <v>1500</v>
       </c>
-      <c r="F316" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="36">
+      <c r="F316" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
         <v>316</v>
       </c>
-      <c r="B317" s="36">
+      <c r="B317" s="5">
         <v>312</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D317" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E317" s="36">
+      <c r="D317" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E317" s="5">
         <v>1000</v>
       </c>
-      <c r="F317" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="36">
+      <c r="F317" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
         <v>317</v>
       </c>
-      <c r="B318" s="36">
+      <c r="B318" s="5">
         <v>313</v>
       </c>
-      <c r="C318" s="37" t="s">
+      <c r="C318" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D318" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E318" s="36">
+      <c r="D318" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E318" s="5">
         <v>500</v>
       </c>
-      <c r="F318" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="36">
+      <c r="F318" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
         <v>318</v>
       </c>
-      <c r="B319" s="36">
+      <c r="B319" s="5">
         <v>314</v>
       </c>
-      <c r="C319" s="37" t="s">
+      <c r="C319" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D319" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E319" s="36">
+      <c r="D319" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E319" s="5">
         <v>240</v>
       </c>
-      <c r="F319" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="36">
+      <c r="F319" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
         <v>319</v>
       </c>
-      <c r="B320" s="36">
+      <c r="B320" s="5">
         <v>315</v>
       </c>
-      <c r="C320" s="37" t="s">
+      <c r="C320" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D320" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E320" s="36">
+      <c r="D320" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E320" s="5">
         <v>50000</v>
       </c>
-      <c r="F320" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="36">
+      <c r="F320" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
         <v>320</v>
       </c>
-      <c r="B321" s="36">
+      <c r="B321" s="5">
         <v>316</v>
       </c>
-      <c r="C321" s="37" t="s">
+      <c r="C321" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D321" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E321" s="36">
+      <c r="D321" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E321" s="5">
         <v>15000</v>
       </c>
-      <c r="F321" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="36">
+      <c r="F321" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
         <v>321</v>
       </c>
-      <c r="B322" s="36">
+      <c r="B322" s="5">
         <v>317</v>
       </c>
-      <c r="C322" s="37" t="s">
+      <c r="C322" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D322" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E322" s="36">
+      <c r="D322" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E322" s="5">
         <v>5000</v>
       </c>
-      <c r="F322" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="36">
+      <c r="F322" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
-      <c r="B323" s="36">
+      <c r="B323" s="5">
         <v>318</v>
       </c>
-      <c r="C323" s="37" t="s">
+      <c r="C323" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D323" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E323" s="36">
+      <c r="D323" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="5">
         <v>1500</v>
       </c>
-      <c r="F323" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="36">
+      <c r="F323" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
-      <c r="B324" s="36">
+      <c r="B324" s="5">
         <v>319</v>
       </c>
-      <c r="C324" s="37" t="s">
+      <c r="C324" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D324" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E324" s="36">
+      <c r="D324" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E324" s="5">
         <v>1000</v>
       </c>
-      <c r="F324" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="36">
+      <c r="F324" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
-      <c r="B325" s="36">
+      <c r="B325" s="5">
         <v>320</v>
       </c>
-      <c r="C325" s="37" t="s">
+      <c r="C325" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D325" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E325" s="36">
+      <c r="D325" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E325" s="5">
         <v>500</v>
       </c>
-      <c r="F325" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="36">
+      <c r="F325" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
-      <c r="B326" s="36">
+      <c r="B326" s="5">
         <v>321</v>
       </c>
-      <c r="C326" s="37" t="s">
+      <c r="C326" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D326" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E326" s="36">
+      <c r="D326" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E326" s="5">
         <v>240</v>
       </c>
-      <c r="F326" s="36">
+      <c r="F326" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="36">
+        <v>326</v>
+      </c>
+      <c r="B327" s="36">
+        <v>322</v>
+      </c>
+      <c r="C327" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D327" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E327" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F327" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="36">
+        <v>327</v>
+      </c>
+      <c r="B328" s="36">
+        <v>323</v>
+      </c>
+      <c r="C328" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D328" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E328" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F328" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="36">
+        <v>328</v>
+      </c>
+      <c r="B329" s="36">
+        <v>324</v>
+      </c>
+      <c r="C329" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D329" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E329" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F329" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="36">
+        <v>329</v>
+      </c>
+      <c r="B330" s="36">
+        <v>325</v>
+      </c>
+      <c r="C330" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D330" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E330" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F330" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="36">
+        <v>330</v>
+      </c>
+      <c r="B331" s="36">
+        <v>326</v>
+      </c>
+      <c r="C331" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D331" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E331" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F331" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="36">
+        <v>331</v>
+      </c>
+      <c r="B332" s="36">
+        <v>327</v>
+      </c>
+      <c r="C332" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D332" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E332" s="36">
+        <v>600</v>
+      </c>
+      <c r="F332" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="36">
+        <v>332</v>
+      </c>
+      <c r="B333" s="36">
+        <v>328</v>
+      </c>
+      <c r="C333" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D333" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E333" s="36">
+        <v>300</v>
+      </c>
+      <c r="F333" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="36">
+        <v>333</v>
+      </c>
+      <c r="B334" s="36">
+        <v>329</v>
+      </c>
+      <c r="C334" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D334" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E334" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F334" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="36">
+        <v>334</v>
+      </c>
+      <c r="B335" s="36">
+        <v>330</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D335" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E335" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F335" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="36">
+        <v>335</v>
+      </c>
+      <c r="B336" s="36">
+        <v>331</v>
+      </c>
+      <c r="C336" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D336" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E336" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F336" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="36">
+        <v>336</v>
+      </c>
+      <c r="B337" s="36">
+        <v>332</v>
+      </c>
+      <c r="C337" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D337" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E337" s="36">
+        <v>800</v>
+      </c>
+      <c r="F337" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="36">
+        <v>337</v>
+      </c>
+      <c r="B338" s="36">
+        <v>333</v>
+      </c>
+      <c r="C338" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D338" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" s="36">
+        <v>400</v>
+      </c>
+      <c r="F338" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="36">
+        <v>338</v>
+      </c>
+      <c r="B339" s="36">
+        <v>334</v>
+      </c>
+      <c r="C339" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D339" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E339" s="36">
+        <v>200</v>
+      </c>
+      <c r="F339" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="36">
+        <v>339</v>
+      </c>
+      <c r="B340" s="36">
+        <v>335</v>
+      </c>
+      <c r="C340" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D340" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E340" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F340" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="36">
+        <v>340</v>
+      </c>
+      <c r="B341" s="36">
+        <v>336</v>
+      </c>
+      <c r="C341" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D341" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E341" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F341" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="36">
+        <v>341</v>
+      </c>
+      <c r="B342" s="36">
+        <v>337</v>
+      </c>
+      <c r="C342" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D342" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E342" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F342" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="36">
+        <v>342</v>
+      </c>
+      <c r="B343" s="36">
+        <v>338</v>
+      </c>
+      <c r="C343" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D343" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E343" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F343" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="36">
+        <v>343</v>
+      </c>
+      <c r="B344" s="36">
+        <v>339</v>
+      </c>
+      <c r="C344" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D344" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E344" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F344" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="36">
+        <v>344</v>
+      </c>
+      <c r="B345" s="36">
+        <v>340</v>
+      </c>
+      <c r="C345" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D345" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E345" s="36">
+        <v>600</v>
+      </c>
+      <c r="F345" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="36">
+        <v>345</v>
+      </c>
+      <c r="B346" s="36">
+        <v>341</v>
+      </c>
+      <c r="C346" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D346" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E346" s="36">
+        <v>300</v>
+      </c>
+      <c r="F346" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="36">
+        <v>346</v>
+      </c>
+      <c r="B347" s="36">
+        <v>342</v>
+      </c>
+      <c r="C347" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D347" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E347" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F347" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="36">
+        <v>347</v>
+      </c>
+      <c r="B348" s="36">
+        <v>343</v>
+      </c>
+      <c r="C348" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D348" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E348" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F348" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="36">
+        <v>348</v>
+      </c>
+      <c r="B349" s="36">
+        <v>344</v>
+      </c>
+      <c r="C349" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D349" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E349" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F349" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="36">
+        <v>349</v>
+      </c>
+      <c r="B350" s="36">
+        <v>345</v>
+      </c>
+      <c r="C350" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D350" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E350" s="36">
+        <v>800</v>
+      </c>
+      <c r="F350" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="36">
+        <v>350</v>
+      </c>
+      <c r="B351" s="36">
+        <v>346</v>
+      </c>
+      <c r="C351" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D351" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E351" s="36">
+        <v>400</v>
+      </c>
+      <c r="F351" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="36">
+        <v>351</v>
+      </c>
+      <c r="B352" s="36">
+        <v>347</v>
+      </c>
+      <c r="C352" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D352" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E352" s="36">
+        <v>200</v>
+      </c>
+      <c r="F352" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="643">
   <si>
     <t>id|</t>
   </si>
@@ -2711,6 +2711,50 @@
   </si>
   <si>
     <t>达人榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2853,7 +2897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2962,6 +3006,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4934,11 +4984,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6319,7 +6369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -6333,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -6347,15 +6397,196 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="5">
         <v>44</v>
       </c>
-      <c r="D99" s="2">
-        <v>46</v>
+      <c r="C99" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5">
+        <v>44</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5">
+        <v>44</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
+        <v>44</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>44</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>44</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>44</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>44</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>44</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="668">
   <si>
     <t>id|</t>
   </si>
@@ -2714,6 +2748,52 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>fix_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>348,355,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>349,356,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>350,357,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>351,358,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>352,358,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>353,359,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>354,360,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+  </si>
+  <si>
+    <t>award_rate|翻倍倍数</t>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>xiaoxiaole_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2738,23 +2818,75 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>tantanle_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>buyu_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>lwzb_game_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_spend</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tantanle_spend</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>zajindan_caishen_model_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_xxlzb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>361,368,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>362,369,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>363,370,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>364,371,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>365,371,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>366,372,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>367,373,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜上有礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2762,7 +2894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2824,6 +2956,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2864,7 +3009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2897,7 +3042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3003,9 +3148,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3289,11 +3431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4873,70 +5015,70 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+    <row r="45" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="26">
         <v>1617667200</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="26">
         <v>1618243199</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="26">
         <v>44</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="26">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
+    <row r="46" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="26">
         <v>1617667200</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="26">
         <v>1618243199</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="26">
         <v>43</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="26">
         <v>45</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="26">
         <v>43</v>
       </c>
     </row>
@@ -4973,6 +5115,76 @@
       </c>
       <c r="L47" s="26">
         <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1618272000</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1618847999</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="38">
+        <v>45</v>
+      </c>
+      <c r="K48" s="38">
+        <v>47</v>
+      </c>
+      <c r="L48" s="38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="26">
+        <v>1618243200</v>
+      </c>
+      <c r="F49" s="26">
+        <v>2555555555</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" s="26">
+        <v>46</v>
+      </c>
+      <c r="K49" s="26">
+        <v>48</v>
+      </c>
+      <c r="L49" s="26">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4983,12 +5195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4996,12 +5208,12 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="4" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -5018,12 +5230,18 @@
         <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5033,11 +5251,11 @@
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5047,11 +5265,11 @@
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5061,11 +5279,11 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5075,11 +5293,11 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5089,11 +5307,11 @@
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5106,11 +5324,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5120,11 +5338,11 @@
       <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5137,11 +5355,11 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5155,7 +5373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5169,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5180,7 +5398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5191,7 +5409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5202,7 +5420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5216,7 +5434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5230,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5244,7 +5462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5258,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5272,7 +5490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5286,7 +5504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5300,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5314,7 +5532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5325,7 +5543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5339,7 +5557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5353,7 +5571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -5367,8 +5585,10 @@
         <v>17</v>
       </c>
       <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5379,7 +5599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5390,7 +5610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5401,7 +5621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5412,7 +5632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5423,7 +5643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5434,7 +5654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5448,7 +5668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5459,7 +5679,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5470,7 +5690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5481,7 +5701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5495,7 +5715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5509,7 +5729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5523,7 +5743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5537,7 +5757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5552,8 +5772,10 @@
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5568,8 +5790,10 @@
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5583,7 +5807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5597,7 +5821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5611,7 +5835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5625,7 +5849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5639,7 +5863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5653,7 +5877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5667,7 +5891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5681,7 +5905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5695,7 +5919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5709,7 +5933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5723,7 +5947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5737,7 +5961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5751,7 +5975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5765,7 +5989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5779,7 +6003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5793,7 +6017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -5808,8 +6032,10 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -5824,8 +6050,10 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -5840,8 +6068,10 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -5856,8 +6086,10 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5872,8 +6104,10 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5888,8 +6122,10 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5904,8 +6140,10 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5920,8 +6158,10 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5936,8 +6176,10 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5952,8 +6194,10 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5967,7 +6211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5981,7 +6225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -5995,7 +6239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6009,7 +6253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -6023,7 +6267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -6037,7 +6281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -6051,7 +6295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6065,7 +6309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6079,7 +6323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6093,7 +6337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6107,7 +6351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6121,7 +6365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6135,7 +6379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6149,7 +6393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6164,8 +6408,10 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6180,8 +6426,10 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6196,8 +6444,10 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6212,8 +6462,10 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6228,8 +6480,10 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6244,8 +6498,10 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6260,8 +6516,10 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6276,8 +6534,10 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6292,8 +6552,10 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6308,8 +6570,10 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6324,8 +6588,10 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6340,62 +6606,80 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="5">
         <v>43</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="5">
         <v>43</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="36">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="36">
+      <c r="B97" s="5">
         <v>43</v>
       </c>
-      <c r="C97" s="40" t="s">
+      <c r="C97" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D97" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="36">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="5">
         <v>43</v>
       </c>
-      <c r="C98" s="40" t="s">
+      <c r="C98" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="5">
         <v>45</v>
       </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
@@ -6405,7 +6689,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
@@ -6423,7 +6707,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -6441,7 +6725,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
@@ -6459,7 +6743,7 @@
         <v>44</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
@@ -6477,7 +6761,7 @@
         <v>44</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="D103" s="5">
         <v>0</v>
@@ -6495,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D104" s="5">
         <v>0</v>
@@ -6512,8 +6796,8 @@
       <c r="B105" s="5">
         <v>44</v>
       </c>
-      <c r="C105" s="41" t="s">
-        <v>638</v>
+      <c r="C105" s="40" t="s">
+        <v>651</v>
       </c>
       <c r="D105" s="5">
         <v>0</v>
@@ -6530,8 +6814,8 @@
       <c r="B106" s="5">
         <v>44</v>
       </c>
-      <c r="C106" s="42" t="s">
-        <v>639</v>
+      <c r="C106" s="41" t="s">
+        <v>653</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
@@ -6548,8 +6832,8 @@
       <c r="B107" s="5">
         <v>44</v>
       </c>
-      <c r="C107" s="41" t="s">
-        <v>640</v>
+      <c r="C107" s="40" t="s">
+        <v>652</v>
       </c>
       <c r="D107" s="5">
         <v>0</v>
@@ -6567,41 +6851,140 @@
         <v>44</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    </row>
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="5">
         <v>44</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="36">
+        <v>45</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="36">
+        <v>46</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1000518</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D109" s="2">
-        <v>0</v>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="36">
+        <v>45</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" s="36">
+        <v>46</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1000518</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>46</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>46</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>46</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>46</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7804,36 +8187,104 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="5">
         <v>45</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="36">
+      <c r="D71" s="5">
         <v>240000</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="5">
         <v>45</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="5">
         <v>500</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36">
+        <v>46</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="36">
+        <v>9</v>
+      </c>
+      <c r="E73" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36">
+        <v>46</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>47</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="5">
+        <v>240000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>47</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="5">
+        <v>500</v>
+      </c>
+      <c r="E76" s="5">
         <v>3</v>
       </c>
     </row>
@@ -7944,11 +8395,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8975,49 +9426,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="36">
-        <v>1</v>
-      </c>
-      <c r="C45" s="36">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
         <v>20</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="5">
         <v>100</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="5">
         <v>20</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="5">
         <v>180</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="36">
-        <v>1</v>
-      </c>
-      <c r="C46" s="36">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
         <v>20</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="5">
         <v>100</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="5">
         <v>180</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="5">
         <v>10</v>
       </c>
     </row>
@@ -9041,6 +9492,52 @@
         <v>180</v>
       </c>
       <c r="G47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36">
+        <v>1</v>
+      </c>
+      <c r="C48" s="36">
+        <v>20</v>
+      </c>
+      <c r="D48" s="36">
+        <v>100</v>
+      </c>
+      <c r="E48" s="36">
+        <v>20</v>
+      </c>
+      <c r="F48" s="36">
+        <v>180</v>
+      </c>
+      <c r="G48" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <v>180</v>
+      </c>
+      <c r="G49" s="2">
         <v>10</v>
       </c>
     </row>
@@ -9052,11 +9549,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9653,31 +10150,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="5">
         <v>46</v>
       </c>
-      <c r="C43" s="36">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="5">
         <v>47</v>
       </c>
-      <c r="C44" s="36">
-        <v>1</v>
-      </c>
-      <c r="D44" s="36">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>43</v>
       </c>
     </row>
@@ -9693,6 +10190,34 @@
       </c>
       <c r="D45" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36">
+        <v>49</v>
+      </c>
+      <c r="C46" s="36">
+        <v>1</v>
+      </c>
+      <c r="D46" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9704,11 +10229,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10252,24 +10777,24 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="5">
         <v>1618243199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="5">
         <v>1618243199</v>
       </c>
     </row>
@@ -10281,6 +10806,28 @@
         <v>102</v>
       </c>
       <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="36">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="C50" s="36">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C51" s="2">
         <v>1</v>
       </c>
     </row>
@@ -10292,11 +10839,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282:H295"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I308" sqref="I308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16825,369 +17372,750 @@
       </c>
       <c r="I281" s="5"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" s="36">
+    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
         <v>281</v>
       </c>
-      <c r="B282" s="36">
+      <c r="B282" s="5">
         <v>42</v>
       </c>
-      <c r="C282" s="36">
-        <v>1</v>
-      </c>
-      <c r="D282" s="36">
-        <v>1</v>
-      </c>
-      <c r="E282" s="36">
+      <c r="C282" s="5">
+        <v>1</v>
+      </c>
+      <c r="D282" s="5">
+        <v>1</v>
+      </c>
+      <c r="E282" s="5">
         <v>100000</v>
       </c>
-      <c r="F282" s="36">
+      <c r="F282" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G282" s="37" t="s">
+      <c r="G282" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="H282" s="37" t="s">
+      <c r="H282" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" s="36">
+      <c r="I282" s="5"/>
+    </row>
+    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
         <v>282</v>
       </c>
-      <c r="B283" s="36">
+      <c r="B283" s="5">
         <v>42</v>
       </c>
-      <c r="C283" s="36">
+      <c r="C283" s="5">
         <v>2</v>
       </c>
-      <c r="D283" s="36">
+      <c r="D283" s="5">
         <v>2</v>
       </c>
-      <c r="E283" s="36">
+      <c r="E283" s="5">
         <v>60000</v>
       </c>
-      <c r="F283" s="36">
+      <c r="F283" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G283" s="37" t="s">
+      <c r="G283" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="H283" s="37" t="s">
+      <c r="H283" s="20" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="36">
+      <c r="I283" s="5"/>
+    </row>
+    <row r="284" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
         <v>283</v>
       </c>
-      <c r="B284" s="36">
+      <c r="B284" s="5">
         <v>42</v>
       </c>
-      <c r="C284" s="36">
+      <c r="C284" s="5">
         <v>3</v>
       </c>
-      <c r="D284" s="36">
+      <c r="D284" s="5">
         <v>3</v>
       </c>
-      <c r="E284" s="36">
+      <c r="E284" s="5">
         <v>30000</v>
       </c>
-      <c r="F284" s="36">
+      <c r="F284" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G284" s="37" t="s">
+      <c r="G284" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="H284" s="37" t="s">
+      <c r="H284" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A285" s="36">
+      <c r="I284" s="5"/>
+    </row>
+    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
         <v>284</v>
       </c>
-      <c r="B285" s="36">
+      <c r="B285" s="5">
         <v>42</v>
       </c>
-      <c r="C285" s="36">
+      <c r="C285" s="5">
         <v>4</v>
       </c>
-      <c r="D285" s="36">
+      <c r="D285" s="5">
         <v>6</v>
       </c>
-      <c r="E285" s="36">
+      <c r="E285" s="5">
         <v>15000</v>
       </c>
-      <c r="F285" s="36">
+      <c r="F285" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G285" s="37" t="s">
+      <c r="G285" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="H285" s="37" t="s">
+      <c r="H285" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A286" s="36">
+      <c r="I285" s="5"/>
+    </row>
+    <row r="286" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
         <v>285</v>
       </c>
-      <c r="B286" s="36">
+      <c r="B286" s="5">
         <v>42</v>
       </c>
-      <c r="C286" s="36">
+      <c r="C286" s="5">
         <v>7</v>
       </c>
-      <c r="D286" s="36">
+      <c r="D286" s="5">
         <v>10</v>
       </c>
-      <c r="E286" s="36">
+      <c r="E286" s="5">
         <v>10000</v>
       </c>
-      <c r="F286" s="36">
+      <c r="F286" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G286" s="37" t="s">
+      <c r="G286" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="H286" s="37" t="s">
+      <c r="H286" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="36">
+      <c r="I286" s="5"/>
+    </row>
+    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
         <v>286</v>
       </c>
-      <c r="B287" s="36">
+      <c r="B287" s="5">
         <v>42</v>
       </c>
-      <c r="C287" s="36">
+      <c r="C287" s="5">
         <v>11</v>
       </c>
-      <c r="D287" s="36">
+      <c r="D287" s="5">
         <v>15</v>
       </c>
-      <c r="E287" s="36">
+      <c r="E287" s="5">
         <v>6000</v>
       </c>
-      <c r="F287" s="36">
+      <c r="F287" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G287" s="37" t="s">
+      <c r="G287" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="H287" s="37" t="s">
+      <c r="H287" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A288" s="36">
+      <c r="I287" s="5"/>
+    </row>
+    <row r="288" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
         <v>287</v>
       </c>
-      <c r="B288" s="36">
+      <c r="B288" s="5">
         <v>42</v>
       </c>
-      <c r="C288" s="36">
+      <c r="C288" s="5">
         <v>16</v>
       </c>
-      <c r="D288" s="36">
+      <c r="D288" s="5">
         <v>20</v>
       </c>
-      <c r="E288" s="36">
+      <c r="E288" s="5">
         <v>3000</v>
       </c>
-      <c r="F288" s="36">
+      <c r="F288" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G288" s="37" t="s">
+      <c r="G288" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="H288" s="37" t="s">
+      <c r="H288" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="36">
+      <c r="I288" s="5"/>
+    </row>
+    <row r="289" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
         <v>288</v>
       </c>
-      <c r="B289" s="36">
+      <c r="B289" s="5">
         <v>43</v>
       </c>
-      <c r="C289" s="36">
-        <v>1</v>
-      </c>
-      <c r="D289" s="36">
-        <v>1</v>
-      </c>
-      <c r="E289" s="36">
+      <c r="C289" s="5">
+        <v>1</v>
+      </c>
+      <c r="D289" s="5">
+        <v>1</v>
+      </c>
+      <c r="E289" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F289" s="36">
+      <c r="F289" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G289" s="37" t="s">
+      <c r="G289" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="H289" s="37" t="s">
+      <c r="H289" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="36">
+      <c r="I289" s="5"/>
+    </row>
+    <row r="290" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
         <v>289</v>
       </c>
-      <c r="B290" s="36">
+      <c r="B290" s="5">
         <v>43</v>
       </c>
-      <c r="C290" s="36">
+      <c r="C290" s="5">
         <v>2</v>
       </c>
-      <c r="D290" s="36">
+      <c r="D290" s="5">
         <v>2</v>
       </c>
-      <c r="E290" s="36">
+      <c r="E290" s="5">
         <v>900000000</v>
       </c>
-      <c r="F290" s="36">
+      <c r="F290" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G290" s="37" t="s">
+      <c r="G290" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="H290" s="37" t="s">
+      <c r="H290" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="36">
+      <c r="I290" s="5"/>
+    </row>
+    <row r="291" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="B291" s="36">
+      <c r="B291" s="5">
         <v>43</v>
       </c>
-      <c r="C291" s="36">
+      <c r="C291" s="5">
         <v>3</v>
       </c>
-      <c r="D291" s="36">
+      <c r="D291" s="5">
         <v>3</v>
       </c>
-      <c r="E291" s="36">
+      <c r="E291" s="5">
         <v>450000000</v>
       </c>
-      <c r="F291" s="36">
+      <c r="F291" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G291" s="37" t="s">
+      <c r="G291" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="H291" s="37" t="s">
+      <c r="H291" s="20" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="36">
+      <c r="I291" s="5"/>
+    </row>
+    <row r="292" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
         <v>291</v>
       </c>
-      <c r="B292" s="36">
+      <c r="B292" s="5">
         <v>43</v>
       </c>
-      <c r="C292" s="36">
+      <c r="C292" s="5">
         <v>4</v>
       </c>
-      <c r="D292" s="36">
+      <c r="D292" s="5">
         <v>6</v>
       </c>
-      <c r="E292" s="36">
+      <c r="E292" s="5">
         <v>220000000</v>
       </c>
-      <c r="F292" s="36">
+      <c r="F292" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G292" s="37" t="s">
+      <c r="G292" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="H292" s="37" t="s">
+      <c r="H292" s="20" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="36">
+      <c r="I292" s="5"/>
+    </row>
+    <row r="293" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="36">
+      <c r="B293" s="5">
         <v>43</v>
       </c>
-      <c r="C293" s="36">
+      <c r="C293" s="5">
         <v>7</v>
       </c>
-      <c r="D293" s="36">
+      <c r="D293" s="5">
         <v>10</v>
       </c>
-      <c r="E293" s="36">
+      <c r="E293" s="5">
         <v>146000000</v>
       </c>
-      <c r="F293" s="36">
+      <c r="F293" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G293" s="37" t="s">
+      <c r="G293" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="H293" s="37" t="s">
+      <c r="H293" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="36">
+      <c r="I293" s="5"/>
+    </row>
+    <row r="294" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
         <v>293</v>
       </c>
-      <c r="B294" s="36">
+      <c r="B294" s="5">
         <v>43</v>
       </c>
-      <c r="C294" s="36">
+      <c r="C294" s="5">
         <v>11</v>
       </c>
-      <c r="D294" s="36">
+      <c r="D294" s="5">
         <v>15</v>
       </c>
-      <c r="E294" s="36">
+      <c r="E294" s="5">
         <v>88000000</v>
       </c>
-      <c r="F294" s="36">
+      <c r="F294" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G294" s="37" t="s">
+      <c r="G294" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="H294" s="37" t="s">
+      <c r="H294" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="36">
+      <c r="I294" s="5"/>
+    </row>
+    <row r="295" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="36">
+      <c r="B295" s="5">
         <v>43</v>
       </c>
-      <c r="C295" s="36">
+      <c r="C295" s="5">
         <v>16</v>
       </c>
-      <c r="D295" s="36">
+      <c r="D295" s="5">
         <v>20</v>
       </c>
-      <c r="E295" s="36">
+      <c r="E295" s="5">
         <v>45000000</v>
       </c>
-      <c r="F295" s="36">
+      <c r="F295" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G295" s="37" t="s">
+      <c r="G295" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="H295" s="37" t="s">
+      <c r="H295" s="20" t="s">
         <v>598</v>
       </c>
+      <c r="I295" s="5"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="36">
+        <v>295</v>
+      </c>
+      <c r="B296" s="36">
+        <v>44</v>
+      </c>
+      <c r="C296" s="36">
+        <v>1</v>
+      </c>
+      <c r="D296" s="36">
+        <v>1</v>
+      </c>
+      <c r="E296" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F296" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G296" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="H296" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="36">
+        <v>296</v>
+      </c>
+      <c r="B297" s="36">
+        <v>44</v>
+      </c>
+      <c r="C297" s="36">
+        <v>2</v>
+      </c>
+      <c r="D297" s="36">
+        <v>2</v>
+      </c>
+      <c r="E297" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F297" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G297" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="H297" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="36">
+        <v>297</v>
+      </c>
+      <c r="B298" s="36">
+        <v>44</v>
+      </c>
+      <c r="C298" s="36">
+        <v>3</v>
+      </c>
+      <c r="D298" s="36">
+        <v>3</v>
+      </c>
+      <c r="E298" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F298" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G298" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="H298" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="36">
+        <v>298</v>
+      </c>
+      <c r="B299" s="36">
+        <v>44</v>
+      </c>
+      <c r="C299" s="36">
+        <v>4</v>
+      </c>
+      <c r="D299" s="36">
+        <v>6</v>
+      </c>
+      <c r="E299" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F299" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G299" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="H299" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="36">
+        <v>299</v>
+      </c>
+      <c r="B300" s="36">
+        <v>44</v>
+      </c>
+      <c r="C300" s="36">
+        <v>7</v>
+      </c>
+      <c r="D300" s="36">
+        <v>10</v>
+      </c>
+      <c r="E300" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F300" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G300" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="H300" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="36">
+        <v>300</v>
+      </c>
+      <c r="B301" s="36">
+        <v>44</v>
+      </c>
+      <c r="C301" s="36">
+        <v>11</v>
+      </c>
+      <c r="D301" s="36">
+        <v>15</v>
+      </c>
+      <c r="E301" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F301" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G301" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="H301" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="36">
+        <v>301</v>
+      </c>
+      <c r="B302" s="36">
+        <v>44</v>
+      </c>
+      <c r="C302" s="36">
+        <v>16</v>
+      </c>
+      <c r="D302" s="36">
+        <v>20</v>
+      </c>
+      <c r="E302" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F302" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G302" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="H302" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2">
+        <v>45</v>
+      </c>
+      <c r="C303" s="5">
+        <v>1</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1</v>
+      </c>
+      <c r="E303" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="F303" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G303" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="H303" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2">
+        <v>45</v>
+      </c>
+      <c r="C304" s="5">
+        <v>2</v>
+      </c>
+      <c r="D304" s="5">
+        <v>2</v>
+      </c>
+      <c r="E304" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="F304" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G304" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="H304" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2">
+        <v>45</v>
+      </c>
+      <c r="C305" s="5">
+        <v>3</v>
+      </c>
+      <c r="D305" s="5">
+        <v>3</v>
+      </c>
+      <c r="E305" s="5">
+        <v>450000000</v>
+      </c>
+      <c r="F305" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G305" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="H305" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2">
+        <v>45</v>
+      </c>
+      <c r="C306" s="5">
+        <v>4</v>
+      </c>
+      <c r="D306" s="5">
+        <v>6</v>
+      </c>
+      <c r="E306" s="5">
+        <v>220000000</v>
+      </c>
+      <c r="F306" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G306" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="H306" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2">
+        <v>45</v>
+      </c>
+      <c r="C307" s="5">
+        <v>7</v>
+      </c>
+      <c r="D307" s="5">
+        <v>10</v>
+      </c>
+      <c r="E307" s="5">
+        <v>146000000</v>
+      </c>
+      <c r="F307" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G307" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="H307" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2">
+        <v>45</v>
+      </c>
+      <c r="C308" s="5">
+        <v>11</v>
+      </c>
+      <c r="D308" s="5">
+        <v>15</v>
+      </c>
+      <c r="E308" s="5">
+        <v>88000000</v>
+      </c>
+      <c r="F308" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="H308" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45</v>
+      </c>
+      <c r="C309" s="5">
+        <v>16</v>
+      </c>
+      <c r="D309" s="5">
+        <v>20</v>
+      </c>
+      <c r="E309" s="5">
+        <v>45000000</v>
+      </c>
+      <c r="F309" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G309" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="H309" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H310" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -17198,11 +18126,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G378"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="A327:F352"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K359" sqref="K359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23720,523 +24648,1043 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="36">
+    <row r="327" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
         <v>326</v>
       </c>
-      <c r="B327" s="36">
+      <c r="B327" s="5">
         <v>322</v>
       </c>
-      <c r="C327" s="37" t="s">
+      <c r="C327" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="D327" s="37" t="s">
+      <c r="D327" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E327" s="36">
+      <c r="E327" s="5">
         <v>40000</v>
       </c>
-      <c r="F327" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="36">
+      <c r="F327" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
-      <c r="B328" s="36">
+      <c r="B328" s="5">
         <v>323</v>
       </c>
-      <c r="C328" s="37" t="s">
+      <c r="C328" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D328" s="37" t="s">
+      <c r="D328" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E328" s="36">
+      <c r="E328" s="5">
         <v>15000</v>
       </c>
-      <c r="F328" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="36">
+      <c r="F328" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
-      <c r="B329" s="36">
+      <c r="B329" s="5">
         <v>324</v>
       </c>
-      <c r="C329" s="37" t="s">
+      <c r="C329" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D329" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E329" s="36">
+      <c r="D329" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E329" s="5">
         <v>5000</v>
       </c>
-      <c r="F329" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="36">
+      <c r="F329" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
-      <c r="B330" s="36">
+      <c r="B330" s="5">
         <v>325</v>
       </c>
-      <c r="C330" s="37" t="s">
+      <c r="C330" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D330" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E330" s="36">
+      <c r="D330" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E330" s="5">
         <v>2200</v>
       </c>
-      <c r="F330" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="36">
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
-      <c r="B331" s="36">
+      <c r="B331" s="5">
         <v>326</v>
       </c>
-      <c r="C331" s="37" t="s">
+      <c r="C331" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="D331" s="37" t="s">
+      <c r="D331" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E331" s="36">
+      <c r="E331" s="5">
         <v>1200</v>
       </c>
-      <c r="F331" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="36">
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
         <v>331</v>
       </c>
-      <c r="B332" s="36">
+      <c r="B332" s="5">
         <v>327</v>
       </c>
-      <c r="C332" s="37" t="s">
+      <c r="C332" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D332" s="37" t="s">
+      <c r="D332" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E332" s="36">
+      <c r="E332" s="5">
         <v>600</v>
       </c>
-      <c r="F332" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="36">
+      <c r="F332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
-      <c r="B333" s="36">
+      <c r="B333" s="5">
         <v>328</v>
       </c>
-      <c r="C333" s="37" t="s">
+      <c r="C333" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="D333" s="37" t="s">
+      <c r="D333" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E333" s="36">
+      <c r="E333" s="5">
         <v>300</v>
       </c>
-      <c r="F333" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="36">
+      <c r="F333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
-      <c r="B334" s="36">
+      <c r="B334" s="5">
         <v>329</v>
       </c>
-      <c r="C334" s="37" t="s">
+      <c r="C334" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D334" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E334" s="36">
+      <c r="D334" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E334" s="5">
         <v>60000</v>
       </c>
-      <c r="F334" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="36">
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
-      <c r="B335" s="36">
+      <c r="B335" s="5">
         <v>330</v>
       </c>
-      <c r="C335" s="37" t="s">
+      <c r="C335" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D335" s="37" t="s">
+      <c r="D335" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E335" s="36">
+      <c r="E335" s="5">
         <v>15000</v>
       </c>
-      <c r="F335" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="36">
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
-      <c r="B336" s="36">
+      <c r="B336" s="5">
         <v>331</v>
       </c>
-      <c r="C336" s="37" t="s">
+      <c r="C336" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D336" s="37" t="s">
+      <c r="D336" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E336" s="36">
+      <c r="E336" s="5">
         <v>5000</v>
       </c>
-      <c r="F336" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="36">
+      <c r="F336" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="5">
         <v>336</v>
       </c>
-      <c r="B337" s="36">
+      <c r="B337" s="5">
         <v>332</v>
       </c>
-      <c r="C337" s="37" t="s">
+      <c r="C337" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="D337" s="37" t="s">
+      <c r="D337" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E337" s="36">
+      <c r="E337" s="5">
         <v>800</v>
       </c>
-      <c r="F337" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="36">
+      <c r="F337" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
-      <c r="B338" s="36">
+      <c r="B338" s="5">
         <v>333</v>
       </c>
-      <c r="C338" s="37" t="s">
+      <c r="C338" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D338" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E338" s="36">
+      <c r="D338" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" s="5">
         <v>400</v>
       </c>
-      <c r="F338" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="36">
+      <c r="F338" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
-      <c r="B339" s="36">
+      <c r="B339" s="5">
         <v>334</v>
       </c>
-      <c r="C339" s="37" t="s">
+      <c r="C339" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D339" s="37" t="s">
+      <c r="D339" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E339" s="36">
+      <c r="E339" s="5">
         <v>200</v>
       </c>
-      <c r="F339" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="36">
+      <c r="F339" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="36">
+      <c r="B340" s="5">
         <v>335</v>
       </c>
-      <c r="C340" s="37" t="s">
+      <c r="C340" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="D340" s="37" t="s">
+      <c r="D340" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E340" s="36">
+      <c r="E340" s="5">
         <v>40000</v>
       </c>
-      <c r="F340" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="36">
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="36">
+      <c r="B341" s="5">
         <v>336</v>
       </c>
-      <c r="C341" s="37" t="s">
+      <c r="C341" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D341" s="37" t="s">
+      <c r="D341" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E341" s="36">
+      <c r="E341" s="5">
         <v>15000</v>
       </c>
-      <c r="F341" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="36">
+      <c r="F341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="5">
         <v>341</v>
       </c>
-      <c r="B342" s="36">
+      <c r="B342" s="5">
         <v>337</v>
       </c>
-      <c r="C342" s="37" t="s">
+      <c r="C342" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D342" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E342" s="36">
+      <c r="D342" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E342" s="5">
         <v>5000</v>
       </c>
-      <c r="F342" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="36">
+      <c r="F342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
-      <c r="B343" s="36">
+      <c r="B343" s="5">
         <v>338</v>
       </c>
-      <c r="C343" s="37" t="s">
+      <c r="C343" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D343" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E343" s="36">
+      <c r="D343" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E343" s="5">
         <v>2200</v>
       </c>
-      <c r="F343" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="36">
+      <c r="F343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
-      <c r="B344" s="36">
+      <c r="B344" s="5">
         <v>339</v>
       </c>
-      <c r="C344" s="37" t="s">
+      <c r="C344" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="D344" s="37" t="s">
+      <c r="D344" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E344" s="36">
+      <c r="E344" s="5">
         <v>1200</v>
       </c>
-      <c r="F344" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="36">
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
-      <c r="B345" s="36">
+      <c r="B345" s="5">
         <v>340</v>
       </c>
-      <c r="C345" s="37" t="s">
+      <c r="C345" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D345" s="37" t="s">
+      <c r="D345" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E345" s="36">
+      <c r="E345" s="5">
         <v>600</v>
       </c>
-      <c r="F345" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="36">
+      <c r="F345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
-      <c r="B346" s="36">
+      <c r="B346" s="5">
         <v>341</v>
       </c>
-      <c r="C346" s="37" t="s">
+      <c r="C346" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="D346" s="37" t="s">
+      <c r="D346" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E346" s="36">
+      <c r="E346" s="5">
         <v>300</v>
       </c>
-      <c r="F346" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="36">
+      <c r="F346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
-      <c r="B347" s="36">
+      <c r="B347" s="5">
         <v>342</v>
       </c>
-      <c r="C347" s="37" t="s">
+      <c r="C347" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D347" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E347" s="36">
+      <c r="D347" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E347" s="5">
         <v>60000</v>
       </c>
-      <c r="F347" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="36">
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
-      <c r="B348" s="36">
+      <c r="B348" s="5">
         <v>343</v>
       </c>
-      <c r="C348" s="37" t="s">
+      <c r="C348" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D348" s="37" t="s">
+      <c r="D348" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E348" s="36">
+      <c r="E348" s="5">
         <v>15000</v>
       </c>
-      <c r="F348" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="36">
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
-      <c r="B349" s="36">
+      <c r="B349" s="5">
         <v>344</v>
       </c>
-      <c r="C349" s="37" t="s">
+      <c r="C349" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D349" s="37" t="s">
+      <c r="D349" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E349" s="36">
+      <c r="E349" s="5">
         <v>5000</v>
       </c>
-      <c r="F349" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="36">
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
-      <c r="B350" s="36">
+      <c r="B350" s="5">
         <v>345</v>
       </c>
-      <c r="C350" s="37" t="s">
+      <c r="C350" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="D350" s="37" t="s">
+      <c r="D350" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E350" s="36">
+      <c r="E350" s="5">
         <v>800</v>
       </c>
-      <c r="F350" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="36">
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
-      <c r="B351" s="36">
+      <c r="B351" s="5">
         <v>346</v>
       </c>
-      <c r="C351" s="37" t="s">
+      <c r="C351" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D351" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E351" s="36">
+      <c r="D351" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E351" s="5">
         <v>400</v>
       </c>
-      <c r="F351" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="36">
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="5">
         <v>351</v>
       </c>
-      <c r="B352" s="36">
+      <c r="B352" s="5">
         <v>347</v>
       </c>
-      <c r="C352" s="37" t="s">
+      <c r="C352" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D352" s="37" t="s">
+      <c r="D352" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E352" s="36">
+      <c r="E352" s="5">
         <v>200</v>
       </c>
-      <c r="F352" s="36">
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="36">
+        <v>352</v>
+      </c>
+      <c r="B353" s="36">
+        <v>348</v>
+      </c>
+      <c r="C353" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D353" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E353" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F353" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="36">
+        <v>353</v>
+      </c>
+      <c r="B354" s="36">
+        <v>349</v>
+      </c>
+      <c r="C354" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D354" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E354" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F354" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="36">
+        <v>354</v>
+      </c>
+      <c r="B355" s="36">
+        <v>350</v>
+      </c>
+      <c r="C355" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D355" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E355" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F355" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="36">
+        <v>355</v>
+      </c>
+      <c r="B356" s="36">
+        <v>351</v>
+      </c>
+      <c r="C356" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D356" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E356" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F356" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="36">
+        <v>356</v>
+      </c>
+      <c r="B357" s="36">
+        <v>352</v>
+      </c>
+      <c r="C357" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D357" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E357" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F357" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="36">
+        <v>357</v>
+      </c>
+      <c r="B358" s="36">
+        <v>353</v>
+      </c>
+      <c r="C358" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D358" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E358" s="36">
+        <v>600</v>
+      </c>
+      <c r="F358" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="36">
+        <v>358</v>
+      </c>
+      <c r="B359" s="36">
+        <v>354</v>
+      </c>
+      <c r="C359" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D359" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E359" s="36">
+        <v>300</v>
+      </c>
+      <c r="F359" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="36">
+        <v>359</v>
+      </c>
+      <c r="B360" s="36">
+        <v>355</v>
+      </c>
+      <c r="C360" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D360" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E360" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F360" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="36">
+        <v>360</v>
+      </c>
+      <c r="B361" s="36">
+        <v>356</v>
+      </c>
+      <c r="C361" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D361" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E361" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F361" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="36">
+        <v>361</v>
+      </c>
+      <c r="B362" s="36">
+        <v>357</v>
+      </c>
+      <c r="C362" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D362" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E362" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F362" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="36">
+        <v>362</v>
+      </c>
+      <c r="B363" s="36">
+        <v>358</v>
+      </c>
+      <c r="C363" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D363" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E363" s="36">
+        <v>800</v>
+      </c>
+      <c r="F363" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="36">
+        <v>363</v>
+      </c>
+      <c r="B364" s="36">
+        <v>359</v>
+      </c>
+      <c r="C364" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D364" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E364" s="36">
+        <v>400</v>
+      </c>
+      <c r="F364" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="36">
+        <v>364</v>
+      </c>
+      <c r="B365" s="36">
+        <v>360</v>
+      </c>
+      <c r="C365" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D365" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E365" s="36">
+        <v>200</v>
+      </c>
+      <c r="F365" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5">
+        <v>361</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D366" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E366" s="5">
+        <v>40000</v>
+      </c>
+      <c r="F366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5">
+        <v>362</v>
+      </c>
+      <c r="C367" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D367" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E367" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F367" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5">
+        <v>363</v>
+      </c>
+      <c r="C368" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D368" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E368" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F368" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5">
+        <v>364</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D369" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E369" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F369" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5">
+        <v>365</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D370" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E370" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F370" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5">
+        <v>366</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="D371" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E371" s="5">
+        <v>600</v>
+      </c>
+      <c r="F371" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5">
+        <v>367</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D372" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E372" s="5">
+        <v>300</v>
+      </c>
+      <c r="F372" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5">
+        <v>368</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D373" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E373" s="5">
+        <v>60000</v>
+      </c>
+      <c r="F373" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5">
+        <v>369</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D374" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E374" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5">
+        <v>370</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D375" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E375" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5">
+        <v>371</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="D376" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E376" s="5">
+        <v>800</v>
+      </c>
+      <c r="F376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>372</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D377" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E377" s="5">
+        <v>400</v>
+      </c>
+      <c r="F377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>373</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D378" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E378" s="5">
+        <v>200</v>
+      </c>
+      <c r="F378" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3435,7 +3435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4927,7 +4927,7 @@
         <v>349</v>
       </c>
       <c r="E42" s="26">
-        <v>1615046400</v>
+        <v>1615132800</v>
       </c>
       <c r="F42" s="26">
         <v>2555555555</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -2505,10 +2505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2550,12 +2550,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2568,16 +2563,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2590,85 +2591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2684,7 +2609,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,6 +2661,41 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2754,7 +2754,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,157 +2826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2929,6 +2839,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2957,11 +2957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,8 +2975,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2994,33 +3000,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3040,17 +3044,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3060,10 +3060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3072,136 +3072,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11453,9 +11453,9 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I321" sqref="I321"/>
+      <selection pane="bottomLeft" activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18922,7 +18922,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="4">
-        <v>3000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="F317" s="7">
         <v>99999999999</v>
@@ -18948,7 +18948,7 @@
         <v>2</v>
       </c>
       <c r="E318" s="4">
-        <v>2000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F318" s="7">
         <v>99999999999</v>
@@ -18974,7 +18974,7 @@
         <v>3</v>
       </c>
       <c r="E319" s="4">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="F319" s="7">
         <v>99999999999</v>
@@ -19000,7 +19000,7 @@
         <v>6</v>
       </c>
       <c r="E320" s="4">
-        <v>500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="F320" s="7">
         <v>99999999999</v>
@@ -19026,7 +19026,7 @@
         <v>10</v>
       </c>
       <c r="E321" s="4">
-        <v>300000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F321" s="7">
         <v>99999999999</v>
@@ -19052,7 +19052,7 @@
         <v>15</v>
       </c>
       <c r="E322" s="4">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F322" s="7">
         <v>99999999999</v>
@@ -19078,7 +19078,7 @@
         <v>20</v>
       </c>
       <c r="E323" s="4">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F323" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2505,10 +2505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2549,6 +2549,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2572,17 +2630,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,14 +2683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -2611,91 +2690,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2754,6 +2754,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2766,7 +2802,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2778,157 +2922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2953,6 +2953,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2998,11 +3007,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3024,33 +3046,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3060,10 +3060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3072,136 +3072,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3656,7 +3656,7 @@
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5490,7 +5490,7 @@
   <sheetPr/>
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
@@ -8816,10 +8816,10 @@
   <sheetPr/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9989,7 +9989,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="C51" s="4">
         <v>20</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="608">
   <si>
     <t>id|</t>
   </si>
@@ -2505,9 +2505,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -2549,20 +2549,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2587,13 +2573,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2609,8 +2596,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2624,15 +2626,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2645,8 +2648,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2654,13 +2673,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2674,28 +2686,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2754,18 +2754,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2778,7 +2766,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,31 +2802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,7 +2820,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,79 +2892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,7 +2928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,10 +2981,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3007,10 +3024,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3021,21 +3036,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3060,10 +3060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3072,16 +3072,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3090,118 +3090,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5491,9 +5491,9 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7299,8 +7299,8 @@
       <c r="B118" s="4">
         <v>48</v>
       </c>
-      <c r="C118" s="34" t="s">
-        <v>146</v>
+      <c r="C118" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="D118" s="4">
         <v>0</v>
@@ -7313,138 +7313,39 @@
       <c r="B119" s="4">
         <v>48</v>
       </c>
-      <c r="C119" s="34" t="s">
-        <v>147</v>
+      <c r="C119" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="D119" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="4">
-        <v>119</v>
-      </c>
-      <c r="B120" s="4">
-        <v>48</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="4">
-        <v>120</v>
-      </c>
-      <c r="B121" s="4">
-        <v>48</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4">
-        <v>121</v>
-      </c>
-      <c r="B122" s="4">
-        <v>48</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4">
-        <v>122</v>
-      </c>
-      <c r="B123" s="4">
-        <v>48</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="4">
-        <v>123</v>
-      </c>
-      <c r="B124" s="4">
-        <v>48</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" ht="16.5" spans="1:4">
-      <c r="A125" s="4">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4">
-        <v>48</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="4">
-        <v>48</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="4">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4">
-        <v>48</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="4">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4">
-        <v>48</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D128" s="4">
-        <v>0</v>
-      </c>
+    <row r="120" spans="3:3">
+      <c r="C120" s="34"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="34"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="34"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="34"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="35"/>
+    </row>
+    <row r="125" ht="16.5" spans="3:3">
+      <c r="C125" s="36"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="35"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="35"/>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="37"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2580,10 +2580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2631,26 +2631,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2676,30 +2672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2712,41 +2687,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2760,21 +2709,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2842,13 +2842,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2860,13 +2896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,7 +2914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,19 +2938,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,25 +2968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,7 +2992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,7 +3004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,49 +3016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,26 +3045,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3098,8 +3083,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3115,15 +3124,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3148,10 +3148,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3160,136 +3160,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11786,7 +11786,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J348" sqref="J348"/>
+      <selection pane="bottomLeft" activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19617,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="E331" s="13">
-        <v>3000000</v>
+        <v>300000000</v>
       </c>
       <c r="F331" s="7">
         <v>99999999999</v>
@@ -19643,7 +19643,7 @@
         <v>2</v>
       </c>
       <c r="E332" s="13">
-        <v>1800000</v>
+        <v>180000000</v>
       </c>
       <c r="F332" s="7">
         <v>99999999999</v>
@@ -19669,7 +19669,7 @@
         <v>3</v>
       </c>
       <c r="E333" s="13">
-        <v>900000</v>
+        <v>90000000</v>
       </c>
       <c r="F333" s="7">
         <v>99999999999</v>
@@ -19695,7 +19695,7 @@
         <v>6</v>
       </c>
       <c r="E334" s="13">
-        <v>450000</v>
+        <v>45000000</v>
       </c>
       <c r="F334" s="7">
         <v>99999999999</v>
@@ -19721,7 +19721,7 @@
         <v>10</v>
       </c>
       <c r="E335" s="13">
-        <v>300000</v>
+        <v>30000000</v>
       </c>
       <c r="F335" s="7">
         <v>99999999999</v>
@@ -19747,7 +19747,7 @@
         <v>15</v>
       </c>
       <c r="E336" s="13">
-        <v>180000</v>
+        <v>18000000</v>
       </c>
       <c r="F336" s="7">
         <v>99999999999</v>
@@ -19773,7 +19773,7 @@
         <v>20</v>
       </c>
       <c r="E337" s="13">
-        <v>90000</v>
+        <v>9000000</v>
       </c>
       <c r="F337" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2736,9 +2736,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2787,44 +2787,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2833,68 +2795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2915,11 +2816,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2932,8 +2930,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3004,85 +3004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3094,19 +3016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3124,7 +3034,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3136,13 +3076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3154,7 +3094,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,19 +3166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3207,20 +3207,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3240,6 +3237,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3251,15 +3257,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3279,17 +3276,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3304,16 +3295,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3322,136 +3322,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6050,7 +6050,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9781,7 +9781,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11167,7 +11167,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -11986,10 +11986,10 @@
   <sheetPr/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -12708,10 +12708,10 @@
   <sheetPr/>
   <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I379" sqref="I379"/>
+      <selection pane="bottomLeft" activeCell="I359" sqref="I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21088,7 +21088,7 @@
         <v>1</v>
       </c>
       <c r="E352" s="4">
-        <v>3000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="F352" s="7">
         <v>99999999999</v>
@@ -21114,7 +21114,7 @@
         <v>2</v>
       </c>
       <c r="E353" s="4">
-        <v>2000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F353" s="7">
         <v>99999999999</v>
@@ -21140,7 +21140,7 @@
         <v>3</v>
       </c>
       <c r="E354" s="4">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="F354" s="7">
         <v>99999999999</v>
@@ -21166,7 +21166,7 @@
         <v>6</v>
       </c>
       <c r="E355" s="4">
-        <v>500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="F355" s="7">
         <v>99999999999</v>
@@ -21192,7 +21192,7 @@
         <v>10</v>
       </c>
       <c r="E356" s="4">
-        <v>300000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F356" s="7">
         <v>99999999999</v>
@@ -21218,7 +21218,7 @@
         <v>15</v>
       </c>
       <c r="E357" s="4">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F357" s="7">
         <v>99999999999</v>
@@ -21244,7 +21244,7 @@
         <v>20</v>
       </c>
       <c r="E358" s="4">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F358" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3406,9 +3406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10716,7 +10716,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12279,9 +12279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B352" sqref="B352:H358"/>
+      <selection pane="bottomLeft" activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20658,7 +20658,7 @@
         <v>1</v>
       </c>
       <c r="E352" s="4">
-        <v>3000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="F352" s="7">
         <v>99999999999</v>
@@ -20684,7 +20684,7 @@
         <v>2</v>
       </c>
       <c r="E353" s="4">
-        <v>2000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F353" s="7">
         <v>99999999999</v>
@@ -20710,7 +20710,7 @@
         <v>3</v>
       </c>
       <c r="E354" s="4">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="F354" s="7">
         <v>99999999999</v>
@@ -20736,7 +20736,7 @@
         <v>6</v>
       </c>
       <c r="E355" s="4">
-        <v>500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="F355" s="7">
         <v>99999999999</v>
@@ -20762,7 +20762,7 @@
         <v>10</v>
       </c>
       <c r="E356" s="4">
-        <v>300000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F356" s="7">
         <v>99999999999</v>
@@ -20788,7 +20788,7 @@
         <v>15</v>
       </c>
       <c r="E357" s="4">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F357" s="7">
         <v>99999999999</v>
@@ -20814,7 +20814,7 @@
         <v>20</v>
       </c>
       <c r="E358" s="4">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F358" s="7">
         <v>99999999999</v>
@@ -21557,7 +21557,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3407,8 +3407,8 @@
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5399,7 +5399,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>688</v>
@@ -5539,7 +5539,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>120</v>
@@ -5551,10 +5551,10 @@
         <v>122</v>
       </c>
       <c r="F60" s="40">
-        <v>1626739200</v>
+        <v>1628553600</v>
       </c>
       <c r="G60" s="40">
-        <v>1627315199</v>
+        <v>1629129599</v>
       </c>
       <c r="H60" s="40" t="s">
         <v>14</v>
@@ -10716,7 +10716,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11550,7 +11550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12266,7 +12266,7 @@
         <v>229</v>
       </c>
       <c r="C62" s="4">
-        <v>1627315199</v>
+        <v>1629129599</v>
       </c>
     </row>
   </sheetData>
@@ -12280,8 +12280,8 @@
   <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J354" sqref="J354"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M387" sqref="M387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20658,7 +20658,7 @@
         <v>1</v>
       </c>
       <c r="E352" s="4">
-        <v>30000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F352" s="7">
         <v>99999999999</v>
@@ -20684,7 +20684,7 @@
         <v>2</v>
       </c>
       <c r="E353" s="4">
-        <v>20000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F353" s="7">
         <v>99999999999</v>
@@ -20710,7 +20710,7 @@
         <v>3</v>
       </c>
       <c r="E354" s="4">
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F354" s="7">
         <v>99999999999</v>
@@ -20736,7 +20736,7 @@
         <v>6</v>
       </c>
       <c r="E355" s="4">
-        <v>5000000000</v>
+        <v>500000000</v>
       </c>
       <c r="F355" s="7">
         <v>99999999999</v>
@@ -20762,7 +20762,7 @@
         <v>10</v>
       </c>
       <c r="E356" s="4">
-        <v>3000000000</v>
+        <v>300000000</v>
       </c>
       <c r="F356" s="7">
         <v>99999999999</v>
@@ -20788,7 +20788,7 @@
         <v>15</v>
       </c>
       <c r="E357" s="4">
-        <v>2000000000</v>
+        <v>200000000</v>
       </c>
       <c r="F357" s="7">
         <v>99999999999</v>
@@ -20814,7 +20814,7 @@
         <v>20</v>
       </c>
       <c r="E358" s="4">
-        <v>1000000000</v>
+        <v>100000000</v>
       </c>
       <c r="F358" s="7">
         <v>99999999999</v>
@@ -21557,7 +21557,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12281,7 +12281,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M387" sqref="M387"/>
+      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="E380" s="13">
-        <v>300000000</v>
+        <v>3000000</v>
       </c>
       <c r="F380" s="7">
         <v>99999999999</v>
@@ -21412,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="E381" s="13">
-        <v>180000000</v>
+        <v>1800000</v>
       </c>
       <c r="F381" s="7">
         <v>99999999999</v>
@@ -21438,7 +21438,7 @@
         <v>3</v>
       </c>
       <c r="E382" s="13">
-        <v>90000000</v>
+        <v>900000</v>
       </c>
       <c r="F382" s="7">
         <v>99999999999</v>
@@ -21464,7 +21464,7 @@
         <v>6</v>
       </c>
       <c r="E383" s="13">
-        <v>45000000</v>
+        <v>450000</v>
       </c>
       <c r="F383" s="7">
         <v>99999999999</v>
@@ -21490,7 +21490,7 @@
         <v>10</v>
       </c>
       <c r="E384" s="13">
-        <v>30000000</v>
+        <v>300000</v>
       </c>
       <c r="F384" s="7">
         <v>99999999999</v>
@@ -21516,7 +21516,7 @@
         <v>15</v>
       </c>
       <c r="E385" s="13">
-        <v>18000000</v>
+        <v>180000</v>
       </c>
       <c r="F385" s="7">
         <v>99999999999</v>
@@ -21542,7 +21542,7 @@
         <v>20</v>
       </c>
       <c r="E386" s="13">
-        <v>9000000</v>
+        <v>90000</v>
       </c>
       <c r="F386" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -3406,9 +3406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12281,7 +12281,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
+      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="E380" s="13">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
       <c r="F380" s="7">
         <v>99999999999</v>
@@ -21412,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="E381" s="13">
-        <v>1800000</v>
+        <v>180000</v>
       </c>
       <c r="F381" s="7">
         <v>99999999999</v>
@@ -21438,7 +21438,7 @@
         <v>3</v>
       </c>
       <c r="E382" s="13">
-        <v>900000</v>
+        <v>90000</v>
       </c>
       <c r="F382" s="7">
         <v>99999999999</v>
@@ -21464,7 +21464,7 @@
         <v>6</v>
       </c>
       <c r="E383" s="13">
-        <v>450000</v>
+        <v>45000</v>
       </c>
       <c r="F383" s="7">
         <v>99999999999</v>
@@ -21490,7 +21490,7 @@
         <v>10</v>
       </c>
       <c r="E384" s="13">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="F384" s="7">
         <v>99999999999</v>
@@ -21516,7 +21516,7 @@
         <v>15</v>
       </c>
       <c r="E385" s="13">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="F385" s="7">
         <v>99999999999</v>
@@ -21542,7 +21542,7 @@
         <v>20</v>
       </c>
       <c r="E386" s="13">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="F386" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="690">
   <si>
     <t>id|</t>
   </si>
@@ -2813,6 +2813,10 @@
   </si>
   <si>
     <t>xrkh_023_ygbd_rank</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3406,9 +3410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5294,10 +5298,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>109</v>
+        <v>689</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>110</v>
@@ -5306,10 +5310,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="47">
-        <v>1627344000</v>
+        <v>1629158400</v>
       </c>
       <c r="G53" s="47">
-        <v>1627919999</v>
+        <v>1629734399</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>14</v>
@@ -5539,7 +5543,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>120</v>
@@ -5582,7 +5586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118:D128"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7724,7 +7728,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="B79" sqref="B79:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12279,9 +12283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
+      <selection pane="bottomLeft" activeCell="M387" sqref="M387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21386,7 +21390,7 @@
         <v>1</v>
       </c>
       <c r="E380" s="13">
-        <v>300000</v>
+        <v>300000000</v>
       </c>
       <c r="F380" s="7">
         <v>99999999999</v>
@@ -21412,7 +21416,7 @@
         <v>2</v>
       </c>
       <c r="E381" s="13">
-        <v>180000</v>
+        <v>180000000</v>
       </c>
       <c r="F381" s="7">
         <v>99999999999</v>
@@ -21438,7 +21442,7 @@
         <v>3</v>
       </c>
       <c r="E382" s="13">
-        <v>90000</v>
+        <v>90000000</v>
       </c>
       <c r="F382" s="7">
         <v>99999999999</v>
@@ -21464,7 +21468,7 @@
         <v>6</v>
       </c>
       <c r="E383" s="13">
-        <v>45000</v>
+        <v>45000000</v>
       </c>
       <c r="F383" s="7">
         <v>99999999999</v>
@@ -21490,7 +21494,7 @@
         <v>10</v>
       </c>
       <c r="E384" s="13">
-        <v>30000</v>
+        <v>30000000</v>
       </c>
       <c r="F384" s="7">
         <v>99999999999</v>
@@ -21516,7 +21520,7 @@
         <v>15</v>
       </c>
       <c r="E385" s="13">
-        <v>18000</v>
+        <v>18000000</v>
       </c>
       <c r="F385" s="7">
         <v>99999999999</v>
@@ -21542,7 +21546,7 @@
         <v>20</v>
       </c>
       <c r="E386" s="13">
-        <v>9000</v>
+        <v>9000000</v>
       </c>
       <c r="F386" s="7">
         <v>99999999999</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2908,7 +2908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2963,6 +2963,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2992,7 +2998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3131,6 +3137,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3410,9 +3419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10720,7 +10729,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11552,9 +11561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12186,14 +12195,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="51">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="4">
-        <v>1627919999</v>
+      <c r="C55" s="51">
+        <v>1629734399</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12219,13 +12228,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="51">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="51">
         <v>1628524799</v>
       </c>
     </row>
@@ -12263,19 +12272,20 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="51">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="51">
         <v>1629129599</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3419,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
@@ -5319,10 +5319,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="47">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G53" s="47">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>14</v>
@@ -10729,7 +10729,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11563,7 +11563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12202,7 +12202,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="51">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12294,8 +12294,8 @@
   <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M387" sqref="M387"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O335" sqref="O335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3419,9 +3419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5307,7 +5307,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>689</v>
@@ -5412,7 +5412,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>688</v>
@@ -5424,10 +5424,10 @@
         <v>115</v>
       </c>
       <c r="F56" s="40">
-        <v>1627948800</v>
+        <v>1631577600</v>
       </c>
       <c r="G56" s="40">
-        <v>1628524799</v>
+        <v>1632153599</v>
       </c>
       <c r="H56" s="40" t="s">
         <v>14</v>
@@ -11562,8 +11562,8 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12235,7 +12235,7 @@
         <v>229</v>
       </c>
       <c r="C58" s="51">
-        <v>1628524799</v>
+        <v>1632153599</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -11561,7 +11561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
@@ -12293,9 +12293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O335" sqref="O335"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K356" sqref="K356:K357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20672,7 +20672,7 @@
         <v>1</v>
       </c>
       <c r="E352" s="4">
-        <v>3000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="F352" s="7">
         <v>99999999999</v>
@@ -20698,7 +20698,7 @@
         <v>2</v>
       </c>
       <c r="E353" s="4">
-        <v>2000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F353" s="7">
         <v>99999999999</v>
@@ -20724,7 +20724,7 @@
         <v>3</v>
       </c>
       <c r="E354" s="4">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="F354" s="7">
         <v>99999999999</v>
@@ -20750,7 +20750,7 @@
         <v>6</v>
       </c>
       <c r="E355" s="4">
-        <v>500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="F355" s="7">
         <v>99999999999</v>
@@ -20776,7 +20776,7 @@
         <v>10</v>
       </c>
       <c r="E356" s="4">
-        <v>300000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F356" s="7">
         <v>99999999999</v>
@@ -20802,7 +20802,7 @@
         <v>15</v>
       </c>
       <c r="E357" s="4">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F357" s="7">
         <v>99999999999</v>
@@ -20828,7 +20828,7 @@
         <v>20</v>
       </c>
       <c r="E358" s="4">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F358" s="7">
         <v>99999999999</v>
@@ -21571,7 +21571,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3424,9 +3424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E63:E64"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5312,7 +5312,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>688</v>
@@ -5324,10 +5324,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="47">
-        <v>1632182400</v>
+        <v>1634601600</v>
       </c>
       <c r="G53" s="47">
-        <v>1632758399</v>
+        <v>1635177599</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>14</v>
@@ -5557,7 +5557,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>690</v>
@@ -11582,7 +11582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12221,7 +12221,7 @@
         <v>228</v>
       </c>
       <c r="C55" s="51">
-        <v>1632758399</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12312,9 +12312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L387" sqref="L387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K334" sqref="K334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5598,9 +5598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7566,6 +7566,9 @@
       <c r="D129" s="4">
         <v>49</v>
       </c>
+      <c r="E129" s="4">
+        <v>100</v>
+      </c>
       <c r="F129" s="38">
         <v>1000649</v>
       </c>
@@ -7586,6 +7589,9 @@
       <c r="D130" s="4">
         <v>49</v>
       </c>
+      <c r="E130" s="4">
+        <v>100</v>
+      </c>
       <c r="F130" s="38">
         <v>1000649</v>
       </c>
@@ -7746,8 +7752,8 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12312,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K334" sqref="K334"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5324,10 +5324,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="47">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="G53" s="47">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>14</v>
@@ -5600,7 +5600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomLeft" activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12227,7 +12227,7 @@
         <v>228</v>
       </c>
       <c r="C55" s="51">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12319,8 +12319,8 @@
   <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K334" sqref="K334"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K334" sqref="K334:L334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3424,9 +3424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5598,9 +5598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L127" sqref="L127"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7761,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:E80"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9060,7 +9060,7 @@
         <v>188</v>
       </c>
       <c r="D76" s="7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E76" s="7">
         <v>3</v>
@@ -9239,7 +9239,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3517,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
@@ -9470,9 +9470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65:E66"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10872,7 +10872,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="4">
         <v>20</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9470,7 +9470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
@@ -12491,9 +12491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G387" sqref="G387:G402"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E387" sqref="E387:H402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21774,13 +21774,13 @@
         <v>57</v>
       </c>
       <c r="E387" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F387" s="4">
-        <v>199</v>
+        <v>99999999999</v>
       </c>
       <c r="G387" s="4">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="H387" s="6" t="s">
         <v>258</v>
@@ -21794,13 +21794,13 @@
         <v>57</v>
       </c>
       <c r="E388" s="4">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="F388" s="4">
-        <v>399</v>
+        <v>9999</v>
       </c>
       <c r="G388" s="4">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H388" s="6" t="s">
         <v>258</v>
@@ -21814,13 +21814,13 @@
         <v>57</v>
       </c>
       <c r="E389" s="4">
-        <v>400</v>
+        <v>6500</v>
       </c>
       <c r="F389" s="4">
-        <v>699</v>
+        <v>7999</v>
       </c>
       <c r="G389" s="4">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H389" s="6" t="s">
         <v>258</v>
@@ -21834,13 +21834,13 @@
         <v>57</v>
       </c>
       <c r="E390" s="4">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="F390" s="4">
-        <v>999</v>
+        <v>6499</v>
       </c>
       <c r="G390" s="4">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H390" s="6" t="s">
         <v>258</v>
@@ -21854,13 +21854,13 @@
         <v>57</v>
       </c>
       <c r="E391" s="4">
-        <v>1000</v>
+        <v>4200</v>
       </c>
       <c r="F391" s="4">
-        <v>1299</v>
+        <v>4999</v>
       </c>
       <c r="G391" s="4">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H391" s="6" t="s">
         <v>258</v>
@@ -21874,13 +21874,13 @@
         <v>57</v>
       </c>
       <c r="E392" s="4">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="F392" s="4">
-        <v>1699</v>
+        <v>4199</v>
       </c>
       <c r="G392" s="4">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H392" s="6" t="s">
         <v>258</v>
@@ -21894,13 +21894,13 @@
         <v>57</v>
       </c>
       <c r="E393" s="4">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="F393" s="4">
-        <v>2099</v>
+        <v>3599</v>
       </c>
       <c r="G393" s="4">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H393" s="6" t="s">
         <v>258</v>
@@ -21914,13 +21914,13 @@
         <v>57</v>
       </c>
       <c r="E394" s="4">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="F394" s="4">
-        <v>2499</v>
+        <v>2999</v>
       </c>
       <c r="G394" s="4">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H394" s="6" t="s">
         <v>258</v>
@@ -21934,13 +21934,13 @@
         <v>57</v>
       </c>
       <c r="E395" s="4">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F395" s="4">
-        <v>2999</v>
+        <v>2499</v>
       </c>
       <c r="G395" s="4">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H395" s="6" t="s">
         <v>258</v>
@@ -21954,13 +21954,13 @@
         <v>57</v>
       </c>
       <c r="E396" s="4">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="F396" s="4">
-        <v>3599</v>
+        <v>2099</v>
       </c>
       <c r="G396" s="4">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H396" s="6" t="s">
         <v>258</v>
@@ -21974,13 +21974,13 @@
         <v>57</v>
       </c>
       <c r="E397" s="4">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="F397" s="4">
-        <v>4199</v>
+        <v>1699</v>
       </c>
       <c r="G397" s="4">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H397" s="6" t="s">
         <v>258</v>
@@ -21994,13 +21994,13 @@
         <v>57</v>
       </c>
       <c r="E398" s="4">
-        <v>4200</v>
+        <v>1000</v>
       </c>
       <c r="F398" s="4">
-        <v>4999</v>
+        <v>1299</v>
       </c>
       <c r="G398" s="4">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H398" s="6" t="s">
         <v>258</v>
@@ -22014,13 +22014,13 @@
         <v>57</v>
       </c>
       <c r="E399" s="4">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F399" s="4">
-        <v>6499</v>
+        <v>999</v>
       </c>
       <c r="G399" s="4">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H399" s="6" t="s">
         <v>258</v>
@@ -22034,13 +22034,13 @@
         <v>57</v>
       </c>
       <c r="E400" s="4">
-        <v>6500</v>
+        <v>400</v>
       </c>
       <c r="F400" s="4">
-        <v>7999</v>
+        <v>699</v>
       </c>
       <c r="G400" s="4">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H400" s="6" t="s">
         <v>258</v>
@@ -22054,13 +22054,13 @@
         <v>57</v>
       </c>
       <c r="E401" s="4">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="F401" s="4">
-        <v>9999</v>
+        <v>399</v>
       </c>
       <c r="G401" s="4">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H401" s="6" t="s">
         <v>258</v>
@@ -22074,13 +22074,13 @@
         <v>57</v>
       </c>
       <c r="E402" s="4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F402" s="4">
-        <v>99999999999</v>
+        <v>199</v>
       </c>
       <c r="G402" s="4">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H402" s="6" t="s">
         <v>258</v>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3517,9 +3517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5694,10 +5694,10 @@
         <v>692</v>
       </c>
       <c r="F61" s="31">
-        <v>1636416000</v>
+        <v>1639440000</v>
       </c>
       <c r="G61" s="31">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="H61" s="52" t="s">
         <v>705</v>
@@ -11748,9 +11748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12477,7 +12477,7 @@
         <v>696</v>
       </c>
       <c r="C63" s="4">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/rank_server.xlsx
+++ b/config_debug/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3518,9 +3518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5695,10 +5695,10 @@
         <v>692</v>
       </c>
       <c r="F61" s="31">
-        <v>1639440000</v>
+        <v>1643068800</v>
       </c>
       <c r="G61" s="31">
-        <v>1640620799</v>
+        <v>1644249599</v>
       </c>
       <c r="H61" s="51" t="s">
         <v>705</v>
@@ -11749,9 +11749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12478,7 +12478,7 @@
         <v>696</v>
       </c>
       <c r="C63" s="4">
-        <v>1640620799</v>
+        <v>1644249599</v>
       </c>
     </row>
   </sheetData>
